--- a/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
+++ b/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="6" r:id="rId1"/>
@@ -15,8 +15,8 @@
     <sheet name="Glossário" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planejamento!$A$6:$N$16</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Planejamento!$A$1:$S$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planejamento!$A$6:$N$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">Planejamento!$A$1:$S$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Resumo!$A$1:$J$139</definedName>
     <definedName name="RecursosBacen">Parâmetros!$B$17:$B$36</definedName>
     <definedName name="RecursosCast">Parâmetros!$B$37:$B$50</definedName>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="246">
   <si>
     <t>Classificação Padrão de Produtos e Serviços</t>
   </si>
@@ -1410,6 +1410,21 @@
   </si>
   <si>
     <t>US Executadas</t>
+  </si>
+  <si>
+    <t>Elaboração - Iteração 1</t>
+  </si>
+  <si>
+    <t>Elaboração - Iteração 2</t>
+  </si>
+  <si>
+    <t>Construção</t>
+  </si>
+  <si>
+    <t>Transição</t>
+  </si>
+  <si>
+    <t>Plano do projeto</t>
   </si>
 </sst>
 </file>
@@ -1915,7 +1930,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="221">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2020,9 +2035,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2276,9 +2288,6 @@
     <xf numFmtId="166" fontId="9" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2288,7 +2297,6 @@
     <xf numFmtId="4" fontId="9" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2301,26 +2309,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2357,6 +2349,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2613,11 +2620,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="58198272"/>
-        <c:axId val="58208256"/>
+        <c:axId val="58456320"/>
+        <c:axId val="58728448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58198272"/>
+        <c:axId val="58456320"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2649,7 +2656,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58208256"/>
+        <c:crossAx val="58728448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2657,7 +2664,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58208256"/>
+        <c:axId val="58728448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="39940"/>
@@ -2701,7 +2708,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58198272"/>
+        <c:crossAx val="58456320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -2747,7 +2754,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000265" footer="0.49212598500000265"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000276" footer="0.49212598500000276"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2785,7 +2792,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31531602468610342"/>
-          <c:y val="3.2418952618454108E-2"/>
+          <c:y val="3.2418952618454122E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2802,9 +2809,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11261286030066738"/>
-          <c:y val="0.14962593516209599"/>
-          <c:w val="0.65090233253786178"/>
-          <c:h val="0.73815461346633804"/>
+          <c:y val="0.14962593516209602"/>
+          <c:w val="0.65090233253786189"/>
+          <c:h val="0.73815461346633815"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2925,11 +2932,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58254080"/>
-        <c:axId val="58256000"/>
+        <c:axId val="58774272"/>
+        <c:axId val="58776192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58254080"/>
+        <c:axId val="58774272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2961,7 +2968,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58256000"/>
+        <c:crossAx val="58776192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2970,7 +2977,7 @@
         <c:tickMarkSkip val="7"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58256000"/>
+        <c:axId val="58776192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3013,7 +3020,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58254080"/>
+        <c:crossAx val="58774272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -3038,9 +3045,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7972972972972977"/>
-          <c:y val="0.46882793017456587"/>
+          <c:y val="0.46882793017456592"/>
           <c:w val="0.17792792792792791"/>
-          <c:h val="0.10972568578553725"/>
+          <c:h val="0.10972568578553729"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3105,7 +3112,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000265" footer="0.49212598500000265"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000276" footer="0.49212598500000276"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3596,8 +3603,8 @@
   </sheetPr>
   <dimension ref="A1:L141"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3606,80 +3613,80 @@
     <col min="2" max="2" width="8.42578125" style="36" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" style="36" customWidth="1"/>
     <col min="4" max="6" width="9.140625" style="36"/>
-    <col min="7" max="9" width="9" style="94" customWidth="1"/>
+    <col min="7" max="9" width="9" style="93" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" style="36" customWidth="1"/>
     <col min="11" max="11" width="11" style="36" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
-      <c r="E1" s="170"/>
-      <c r="F1" s="170"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="101" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="167"/>
+      <c r="F1" s="167"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
+      <c r="I1" s="168"/>
+      <c r="J1" s="100" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="12.75" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="131">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="130">
         <f>Parâmetros!B6</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="6" customHeight="1" thickTop="1"/>
     <row r="4" spans="1:11" ht="14.25">
-      <c r="A4" s="174" t="s">
+      <c r="A4" s="171" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
-    <row r="6" spans="1:11" s="144" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="186"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="143"/>
-    </row>
-    <row r="7" spans="1:11" s="144" customFormat="1" ht="6" customHeight="1">
-      <c r="A7" s="145"/>
-      <c r="B7" s="143"/>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="143"/>
-      <c r="F7" s="143"/>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="143"/>
-      <c r="K7" s="143"/>
+    <row r="6" spans="1:11" s="143" customFormat="1" ht="27" customHeight="1">
+      <c r="A6" s="177"/>
+      <c r="B6" s="178"/>
+      <c r="C6" s="178"/>
+      <c r="D6" s="178"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="178"/>
+      <c r="I6" s="178"/>
+      <c r="J6" s="178"/>
+      <c r="K6" s="142"/>
+    </row>
+    <row r="7" spans="1:11" s="143" customFormat="1" ht="6" customHeight="1">
+      <c r="A7" s="144"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="142"/>
+      <c r="I7" s="142"/>
+      <c r="J7" s="142"/>
+      <c r="K7" s="142"/>
     </row>
     <row r="8" spans="1:11" ht="14.25">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="171" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3687,313 +3694,313 @@
       <c r="A9" s="28"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="128"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="107" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="123" t="e">
+      <c r="B11" s="77"/>
+      <c r="C11" s="122" t="e">
         <f>IF(Planejamento!G8&lt;&gt;0,VLOOKUP(Parâmetros!B6,A54:I222,4)/Planejamento!G8,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="105"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="103"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="104"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1">
-      <c r="A12" s="108" t="s">
+      <c r="A12" s="107" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="92">
+      <c r="B12" s="77"/>
+      <c r="C12" s="91">
         <f>SUM(B43:B47)</f>
         <v>0</v>
       </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="104"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
-      <c r="A13" s="108" t="s">
+      <c r="A13" s="107" t="s">
         <v>198</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="96" t="e">
+      <c r="B13" s="77"/>
+      <c r="C13" s="95" t="e">
         <f t="array" ref="C13">SUM(IF(Planejamento!#REF!&lt;&gt;"",IF(Planejamento!F9:F12&gt;0,1,0),0))</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="105"/>
+      <c r="F13" s="102"/>
+      <c r="G13" s="103"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="104"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1">
-      <c r="A14" s="112" t="s">
+      <c r="A14" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="116"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="105"/>
+      <c r="B14" s="114"/>
+      <c r="C14" s="115"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="104"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="98" t="str">
+      <c r="B15" s="79"/>
+      <c r="C15" s="97" t="str">
         <f>Planejamento!C8</f>
         <v/>
       </c>
-      <c r="F15" s="106"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="104"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="107" t="s">
         <v>182</v>
       </c>
-      <c r="B16" s="109"/>
-      <c r="C16" s="98" t="str">
+      <c r="B16" s="108"/>
+      <c r="C16" s="97" t="str">
         <f>Planejamento!E8</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
-      <c r="A17" s="108" t="s">
+      <c r="A17" s="107" t="s">
         <v>183</v>
       </c>
-      <c r="B17" s="109"/>
-      <c r="C17" s="98" t="str">
+      <c r="B17" s="108"/>
+      <c r="C17" s="97" t="str">
         <f>Planejamento!D8</f>
         <v/>
       </c>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1">
-      <c r="A18" s="108" t="s">
+      <c r="A18" s="107" t="s">
         <v>184</v>
       </c>
-      <c r="B18" s="109"/>
-      <c r="C18" s="98" t="e">
+      <c r="B18" s="108"/>
+      <c r="C18" s="97" t="e">
         <f ca="1">WORKDAY(TODAY(),(C23-C22)/(Parâmetros!B5*7),Parâmetros!$B$8:$B$10)</f>
         <v>#N/A</v>
       </c>
-      <c r="K18" s="64"/>
+      <c r="K18" s="63"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1">
-      <c r="A19" s="112" t="s">
+      <c r="A19" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="B19" s="113"/>
-      <c r="C19" s="114"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="113"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1">
-      <c r="A20" s="108" t="s">
+      <c r="A20" s="107" t="s">
         <v>202</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="96" t="e">
+      <c r="B20" s="108"/>
+      <c r="C20" s="95" t="e">
         <f>Planejamento!G8</f>
         <v>#REF!</v>
       </c>
-      <c r="K20" s="64"/>
+      <c r="K20" s="63"/>
     </row>
     <row r="21" spans="1:12" ht="15" customHeight="1">
-      <c r="A21" s="108" t="s">
+      <c r="A21" s="107" t="s">
         <v>187</v>
       </c>
-      <c r="B21" s="109"/>
-      <c r="C21" s="96" t="e">
+      <c r="B21" s="108"/>
+      <c r="C21" s="95" t="e">
         <f>Planejamento!H8</f>
         <v>#REF!</v>
       </c>
-      <c r="K21" s="64"/>
+      <c r="K21" s="63"/>
     </row>
     <row r="22" spans="1:12" ht="15" customHeight="1">
-      <c r="A22" s="108" t="s">
+      <c r="A22" s="107" t="s">
         <v>188</v>
       </c>
-      <c r="B22" s="109"/>
-      <c r="C22" s="96" t="e">
+      <c r="B22" s="108"/>
+      <c r="C22" s="95" t="e">
         <f>Planejamento!I8</f>
         <v>#REF!</v>
       </c>
-      <c r="K22" s="102"/>
+      <c r="K22" s="101"/>
     </row>
     <row r="23" spans="1:12" ht="15" customHeight="1">
-      <c r="A23" s="108" t="s">
+      <c r="A23" s="107" t="s">
         <v>190</v>
       </c>
-      <c r="B23" s="109"/>
-      <c r="C23" s="96" t="e">
+      <c r="B23" s="108"/>
+      <c r="C23" s="95" t="e">
         <f>VLOOKUP(Parâmetros!B6,A54:I219,9)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:12">
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="93"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="94"/>
-      <c r="K24" s="94"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="96"/>
+      <c r="H24" s="96"/>
+      <c r="I24" s="96"/>
+      <c r="J24" s="93"/>
+      <c r="K24" s="93"/>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1">
-      <c r="A25" s="112" t="s">
+      <c r="A25" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="175" t="s">
+      <c r="B25" s="111"/>
+      <c r="C25" s="111"/>
+      <c r="D25" s="172" t="s">
         <v>232</v>
       </c>
-      <c r="E25" s="176">
+      <c r="E25" s="173">
         <v>50</v>
       </c>
-      <c r="F25" s="93"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="97"/>
-      <c r="I25" s="97"/>
-      <c r="J25" s="94"/>
-      <c r="K25" s="94"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="96"/>
+      <c r="J25" s="93"/>
+      <c r="K25" s="93"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="196" t="s">
+      <c r="A26" s="187" t="s">
         <v>213</v>
       </c>
-      <c r="B26" s="195" t="s">
+      <c r="B26" s="186" t="s">
         <v>209</v>
       </c>
-      <c r="C26" s="190"/>
-      <c r="D26" s="195" t="s">
+      <c r="C26" s="181"/>
+      <c r="D26" s="186" t="s">
         <v>214</v>
       </c>
-      <c r="E26" s="190"/>
-      <c r="F26" s="93"/>
-      <c r="G26" s="97"/>
-      <c r="H26" s="97"/>
-      <c r="I26" s="97"/>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
+      <c r="E26" s="181"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="96"/>
+      <c r="H26" s="96"/>
+      <c r="I26" s="96"/>
+      <c r="J26" s="93"/>
+      <c r="K26" s="93"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="197"/>
-      <c r="B27" s="173" t="s">
+      <c r="A27" s="188"/>
+      <c r="B27" s="170" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="173" t="s">
+      <c r="C27" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="D27" s="173" t="s">
+      <c r="D27" s="170" t="s">
         <v>233</v>
       </c>
-      <c r="E27" s="173" t="s">
+      <c r="E27" s="170" t="s">
         <v>217</v>
       </c>
-      <c r="F27" s="93"/>
-      <c r="G27" s="97"/>
-      <c r="H27" s="97"/>
-      <c r="I27" s="97"/>
-      <c r="J27" s="94"/>
-      <c r="K27" s="94"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="96"/>
+      <c r="H27" s="96"/>
+      <c r="I27" s="96"/>
+      <c r="J27" s="93"/>
+      <c r="K27" s="93"/>
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="B28" s="164"/>
-      <c r="C28" s="164">
+      <c r="B28" s="162"/>
+      <c r="C28" s="162">
         <f>+B28*50</f>
         <v>0</v>
       </c>
-      <c r="D28" s="164"/>
-      <c r="E28" s="164">
+      <c r="D28" s="162"/>
+      <c r="E28" s="162">
         <f>+D28*50</f>
         <v>0</v>
       </c>
-      <c r="F28" s="93"/>
-      <c r="G28" s="97"/>
-      <c r="H28" s="97"/>
-      <c r="I28" s="97"/>
-      <c r="J28" s="94"/>
-      <c r="K28" s="94"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="96"/>
+      <c r="J28" s="93"/>
+      <c r="K28" s="93"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B29" s="164"/>
-      <c r="C29" s="164">
+      <c r="B29" s="162"/>
+      <c r="C29" s="162">
         <f t="shared" ref="C29:C30" si="0">+B29*50</f>
         <v>0</v>
       </c>
-      <c r="D29" s="164"/>
-      <c r="E29" s="164">
+      <c r="D29" s="162"/>
+      <c r="E29" s="162">
         <f t="shared" ref="E29:E30" si="1">+D29*50</f>
         <v>0</v>
       </c>
-      <c r="F29" s="93"/>
-      <c r="G29" s="97"/>
-      <c r="H29" s="97"/>
-      <c r="I29" s="97"/>
-      <c r="J29" s="94"/>
-      <c r="K29" s="94"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="96"/>
+      <c r="H29" s="96"/>
+      <c r="I29" s="96"/>
+      <c r="J29" s="93"/>
+      <c r="K29" s="93"/>
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="37" t="s">
         <v>216</v>
       </c>
-      <c r="B30" s="164"/>
-      <c r="C30" s="164">
+      <c r="B30" s="162"/>
+      <c r="C30" s="162">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D30" s="164"/>
-      <c r="E30" s="164">
+      <c r="D30" s="162"/>
+      <c r="E30" s="162">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="93"/>
-      <c r="G30" s="97"/>
-      <c r="H30" s="97"/>
-      <c r="I30" s="97"/>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
+      <c r="F30" s="92"/>
+      <c r="G30" s="96"/>
+      <c r="H30" s="96"/>
+      <c r="I30" s="96"/>
+      <c r="J30" s="93"/>
+      <c r="K30" s="93"/>
     </row>
     <row r="31" spans="1:12">
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="97"/>
-      <c r="H31" s="97"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="96"/>
+      <c r="H31" s="96"/>
+      <c r="I31" s="96"/>
+      <c r="J31" s="93"/>
+      <c r="K31" s="93"/>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="130"/>
+      <c r="A32" s="129"/>
     </row>
     <row r="33" spans="1:11" ht="14.25">
-      <c r="A33" s="174" t="s">
+      <c r="A33" s="171" t="s">
         <v>218</v>
       </c>
     </row>
@@ -4019,50 +4026,50 @@
       <c r="A40" s="28"/>
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A41" s="74"/>
-      <c r="B41" s="179" t="s">
+      <c r="A41" s="73"/>
+      <c r="B41" s="196" t="s">
         <v>226</v>
       </c>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="179" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="191" t="s">
+      <c r="D41" s="180"/>
+      <c r="E41" s="180"/>
+      <c r="F41" s="181"/>
+      <c r="G41" s="182" t="s">
         <v>161</v>
       </c>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="182"/>
+      <c r="H41" s="183"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="176"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1">
-      <c r="A42" s="89" t="s">
+      <c r="A42" s="88" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="180"/>
-      <c r="C42" s="90" t="s">
+      <c r="B42" s="197"/>
+      <c r="C42" s="89" t="s">
         <v>189</v>
       </c>
-      <c r="D42" s="91" t="s">
+      <c r="D42" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="E42" s="91" t="s">
+      <c r="E42" s="90" t="s">
         <v>173</v>
       </c>
-      <c r="F42" s="91" t="s">
+      <c r="F42" s="90" t="s">
         <v>174</v>
       </c>
-      <c r="G42" s="95" t="s">
+      <c r="G42" s="94" t="s">
         <v>169</v>
       </c>
-      <c r="H42" s="95" t="s">
+      <c r="H42" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="I42" s="95" t="s">
+      <c r="I42" s="94" t="s">
         <v>155</v>
       </c>
-      <c r="J42" s="95" t="s">
+      <c r="J42" s="94" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4071,43 +4078,43 @@
         <f>+Planejamento!A9</f>
         <v>Concepção</v>
       </c>
-      <c r="B43" s="92">
+      <c r="B43" s="91">
         <f>COUNT(Planejamento!#REF!)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="98" t="str">
+      <c r="C43" s="97" t="str">
         <f>Planejamento!C9</f>
         <v/>
       </c>
-      <c r="D43" s="98" t="str">
+      <c r="D43" s="97" t="str">
         <f>Planejamento!D9</f>
         <v/>
       </c>
-      <c r="E43" s="98" t="str">
+      <c r="E43" s="97" t="str">
         <f>Planejamento!E9</f>
         <v/>
       </c>
-      <c r="F43" s="98" t="str">
+      <c r="F43" s="97" t="str">
         <f>Planejamento!F9</f>
         <v/>
       </c>
-      <c r="G43" s="96" t="e">
+      <c r="G43" s="95" t="e">
         <f>Planejamento!G9</f>
         <v>#REF!</v>
       </c>
-      <c r="H43" s="96" t="e">
+      <c r="H43" s="95" t="e">
         <f>Planejamento!H9</f>
         <v>#REF!</v>
       </c>
-      <c r="I43" s="96" t="e">
+      <c r="I43" s="95" t="e">
         <f>Planejamento!I9</f>
         <v>#REF!</v>
       </c>
-      <c r="J43" s="96" t="e">
+      <c r="J43" s="95" t="e">
         <f>Planejamento!J9</f>
         <v>#REF!</v>
       </c>
-      <c r="K43" s="111" t="e">
+      <c r="K43" s="110" t="e">
         <f>+D43-C43</f>
         <v>#VALUE!</v>
       </c>
@@ -4117,43 +4124,43 @@
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B44" s="92">
+      <c r="B44" s="91">
         <f>COUNT(Planejamento!#REF!)</f>
         <v>0</v>
       </c>
-      <c r="C44" s="98" t="e">
+      <c r="C44" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D44" s="98" t="e">
+      <c r="D44" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E44" s="98" t="e">
+      <c r="E44" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F44" s="98" t="e">
+      <c r="F44" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G44" s="96" t="e">
+      <c r="G44" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H44" s="96" t="e">
+      <c r="H44" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I44" s="96" t="e">
+      <c r="I44" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J44" s="96" t="e">
+      <c r="J44" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K44" s="111" t="e">
+      <c r="K44" s="110" t="e">
         <f>+D44-C44</f>
         <v>#REF!</v>
       </c>
@@ -4163,43 +4170,43 @@
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B45" s="92">
+      <c r="B45" s="91">
         <f>COUNT(Planejamento!#REF!)</f>
         <v>0</v>
       </c>
-      <c r="C45" s="98" t="e">
+      <c r="C45" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D45" s="98" t="e">
+      <c r="D45" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E45" s="98" t="e">
+      <c r="E45" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F45" s="98" t="e">
+      <c r="F45" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G45" s="96" t="e">
+      <c r="G45" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H45" s="96" t="e">
+      <c r="H45" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I45" s="96" t="e">
+      <c r="I45" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J45" s="96" t="e">
+      <c r="J45" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K45" s="111" t="e">
+      <c r="K45" s="110" t="e">
         <f>+D45-C45</f>
         <v>#REF!</v>
       </c>
@@ -4209,43 +4216,43 @@
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B46" s="92">
+      <c r="B46" s="91">
         <f>COUNT(Planejamento!#REF!)</f>
         <v>0</v>
       </c>
-      <c r="C46" s="98" t="e">
+      <c r="C46" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D46" s="98" t="e">
+      <c r="D46" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E46" s="98" t="e">
+      <c r="E46" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F46" s="98" t="e">
+      <c r="F46" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G46" s="96" t="e">
+      <c r="G46" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H46" s="96" t="e">
+      <c r="H46" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I46" s="96" t="e">
+      <c r="I46" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J46" s="96" t="e">
+      <c r="J46" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K46" s="111" t="e">
+      <c r="K46" s="110" t="e">
         <f>+D46-C46</f>
         <v>#REF!</v>
       </c>
@@ -4255,1218 +4262,1254 @@
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B47" s="92">
+      <c r="B47" s="91">
         <f>COUNT(Planejamento!#REF!)</f>
         <v>0</v>
       </c>
-      <c r="C47" s="98" t="e">
+      <c r="C47" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D47" s="98" t="e">
+      <c r="D47" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E47" s="98" t="e">
+      <c r="E47" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F47" s="98" t="e">
+      <c r="F47" s="97" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="G47" s="96" t="e">
+      <c r="G47" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H47" s="96" t="e">
+      <c r="H47" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I47" s="96" t="e">
+      <c r="I47" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J47" s="96" t="e">
+      <c r="J47" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K47" s="111" t="e">
+      <c r="K47" s="110" t="e">
         <f>+D47-C47</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="42"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="132"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="133"/>
-      <c r="H48" s="133"/>
-      <c r="I48" s="133"/>
-      <c r="J48" s="133"/>
-      <c r="K48" s="111"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="131"/>
+      <c r="D48" s="131"/>
+      <c r="E48" s="131"/>
+      <c r="F48" s="131"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="110"/>
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="134"/>
-      <c r="C49" s="135"/>
-      <c r="D49" s="135"/>
-      <c r="E49" s="135"/>
-      <c r="F49" s="135"/>
-      <c r="G49" s="96" t="e">
+      <c r="B49" s="133"/>
+      <c r="C49" s="134"/>
+      <c r="D49" s="134"/>
+      <c r="E49" s="134"/>
+      <c r="F49" s="134"/>
+      <c r="G49" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="H49" s="96" t="e">
+      <c r="H49" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="I49" s="96" t="e">
+      <c r="I49" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="J49" s="96" t="e">
+      <c r="J49" s="95" t="e">
         <f>Planejamento!#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="K49" s="94"/>
-      <c r="L49" s="94"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
     </row>
     <row r="50" spans="1:12">
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
-      <c r="G50" s="97"/>
-      <c r="H50" s="97"/>
-      <c r="I50" s="97"/>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="92"/>
+      <c r="D50" s="92"/>
+      <c r="E50" s="92"/>
+      <c r="F50" s="92"/>
+      <c r="G50" s="96"/>
+      <c r="H50" s="96"/>
+      <c r="I50" s="96"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
     </row>
     <row r="51" spans="1:12" ht="14.25">
-      <c r="A51" s="174" t="s">
+      <c r="A51" s="171" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="12.75">
-      <c r="A52" s="87"/>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="193" t="s">
+      <c r="A52" s="86"/>
+      <c r="B52" s="86"/>
+      <c r="C52" s="86"/>
+      <c r="D52" s="184" t="s">
         <v>191</v>
       </c>
-      <c r="E52" s="183" t="s">
+      <c r="E52" s="193" t="s">
         <v>160</v>
       </c>
-      <c r="F52" s="184"/>
-      <c r="G52" s="184"/>
-      <c r="H52" s="185"/>
-      <c r="I52" s="198" t="s">
+      <c r="F52" s="194"/>
+      <c r="G52" s="194"/>
+      <c r="H52" s="195"/>
+      <c r="I52" s="189" t="s">
         <v>186</v>
       </c>
-      <c r="J52" s="199"/>
+      <c r="J52" s="190"/>
     </row>
     <row r="53" spans="1:12" ht="24.75" customHeight="1">
-      <c r="A53" s="88" t="s">
+      <c r="A53" s="87" t="s">
         <v>175</v>
       </c>
-      <c r="B53" s="107" t="s">
+      <c r="B53" s="106" t="s">
         <v>153</v>
       </c>
-      <c r="C53" s="107" t="s">
+      <c r="C53" s="106" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="194"/>
-      <c r="E53" s="71" t="s">
+      <c r="D53" s="185"/>
+      <c r="E53" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="F53" s="71" t="s">
+      <c r="F53" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="G53" s="65" t="s">
+      <c r="G53" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="H53" s="65" t="s">
+      <c r="H53" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="I53" s="200"/>
-      <c r="J53" s="201"/>
+      <c r="I53" s="191"/>
+      <c r="J53" s="192"/>
     </row>
     <row r="54" spans="1:12" ht="12.75">
-      <c r="A54" s="110"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="117">
+      <c r="A54" s="109"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="116">
         <f>+D54-B54</f>
         <v>0</v>
       </c>
-      <c r="F54" s="117">
+      <c r="F54" s="116">
         <f t="shared" ref="F54" si="2">+D54-C54</f>
         <v>0</v>
       </c>
-      <c r="G54" s="67">
+      <c r="G54" s="66">
         <f>+IF(B54&lt;&gt;0,D54/B54,0)</f>
         <v>0</v>
       </c>
-      <c r="H54" s="67">
+      <c r="H54" s="66">
         <f t="shared" ref="H54" si="3">+IF(C54&lt;&gt;0,D54/C54,0)</f>
         <v>0</v>
       </c>
-      <c r="I54" s="181" t="str">
+      <c r="I54" s="175" t="str">
         <f>IF(H54&lt;&gt;0,C54+(VLOOKUP(A54,'Histórico de Versões'!A5:E63,5)-D54)/H54,"")</f>
         <v/>
       </c>
-      <c r="J54" s="182"/>
+      <c r="J54" s="176"/>
     </row>
     <row r="55" spans="1:12" ht="12.75">
-      <c r="A55" s="110"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="182"/>
+      <c r="A55" s="109"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="116"/>
+      <c r="G55" s="66"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="175"/>
+      <c r="J55" s="176"/>
     </row>
     <row r="56" spans="1:12" ht="12.75">
-      <c r="A56" s="110"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="117"/>
-      <c r="F56" s="117"/>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="181"/>
-      <c r="J56" s="182"/>
+      <c r="A56" s="109"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="175"/>
+      <c r="J56" s="176"/>
     </row>
     <row r="57" spans="1:12" ht="12.75">
-      <c r="A57" s="110"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="117"/>
-      <c r="F57" s="117"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="181"/>
-      <c r="J57" s="182"/>
+      <c r="A57" s="109"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="66"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="175"/>
+      <c r="J57" s="176"/>
     </row>
     <row r="58" spans="1:12" ht="12.75">
-      <c r="A58" s="110"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="117"/>
-      <c r="F58" s="117"/>
-      <c r="G58" s="67"/>
-      <c r="H58" s="67"/>
-      <c r="I58" s="181"/>
-      <c r="J58" s="182"/>
+      <c r="A58" s="109"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="116"/>
+      <c r="G58" s="66"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="175"/>
+      <c r="J58" s="176"/>
     </row>
     <row r="59" spans="1:12" ht="12.75">
-      <c r="A59" s="110"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="117"/>
-      <c r="F59" s="117"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="181"/>
-      <c r="J59" s="182"/>
+      <c r="A59" s="109"/>
+      <c r="B59" s="135"/>
+      <c r="C59" s="135"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="116"/>
+      <c r="F59" s="116"/>
+      <c r="G59" s="66"/>
+      <c r="H59" s="66"/>
+      <c r="I59" s="175"/>
+      <c r="J59" s="176"/>
     </row>
     <row r="60" spans="1:12" ht="12.75">
-      <c r="A60" s="110"/>
-      <c r="B60" s="136"/>
-      <c r="C60" s="136"/>
-      <c r="D60" s="136"/>
-      <c r="E60" s="117"/>
-      <c r="F60" s="117"/>
-      <c r="G60" s="67"/>
-      <c r="H60" s="67"/>
-      <c r="I60" s="181"/>
-      <c r="J60" s="182"/>
+      <c r="A60" s="109"/>
+      <c r="B60" s="135"/>
+      <c r="C60" s="135"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="116"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="66"/>
+      <c r="I60" s="175"/>
+      <c r="J60" s="176"/>
     </row>
     <row r="61" spans="1:12" ht="12.75">
-      <c r="A61" s="110"/>
-      <c r="B61" s="136"/>
-      <c r="C61" s="136"/>
-      <c r="D61" s="136"/>
-      <c r="E61" s="117"/>
-      <c r="F61" s="117"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="181"/>
-      <c r="J61" s="182"/>
+      <c r="A61" s="109"/>
+      <c r="B61" s="135"/>
+      <c r="C61" s="135"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="116"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
+      <c r="I61" s="175"/>
+      <c r="J61" s="176"/>
     </row>
     <row r="62" spans="1:12" ht="12.75">
-      <c r="A62" s="110"/>
-      <c r="B62" s="136"/>
-      <c r="C62" s="136"/>
-      <c r="D62" s="136"/>
-      <c r="E62" s="117"/>
-      <c r="F62" s="117"/>
-      <c r="G62" s="67"/>
-      <c r="H62" s="67"/>
-      <c r="I62" s="181"/>
-      <c r="J62" s="182"/>
+      <c r="A62" s="109"/>
+      <c r="B62" s="135"/>
+      <c r="C62" s="135"/>
+      <c r="D62" s="135"/>
+      <c r="E62" s="116"/>
+      <c r="F62" s="116"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="175"/>
+      <c r="J62" s="176"/>
     </row>
     <row r="63" spans="1:12" ht="12.75">
-      <c r="A63" s="110"/>
-      <c r="B63" s="136"/>
-      <c r="C63" s="136"/>
-      <c r="D63" s="136"/>
-      <c r="E63" s="117"/>
-      <c r="F63" s="117"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="181"/>
-      <c r="J63" s="182"/>
+      <c r="A63" s="109"/>
+      <c r="B63" s="135"/>
+      <c r="C63" s="135"/>
+      <c r="D63" s="135"/>
+      <c r="E63" s="116"/>
+      <c r="F63" s="116"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="175"/>
+      <c r="J63" s="176"/>
     </row>
     <row r="64" spans="1:12" ht="12.75">
-      <c r="A64" s="110"/>
-      <c r="B64" s="136"/>
-      <c r="C64" s="136"/>
-      <c r="D64" s="136"/>
-      <c r="E64" s="117"/>
-      <c r="F64" s="117"/>
-      <c r="G64" s="67"/>
-      <c r="H64" s="67"/>
-      <c r="I64" s="181"/>
-      <c r="J64" s="182"/>
+      <c r="A64" s="109"/>
+      <c r="B64" s="135"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="116"/>
+      <c r="F64" s="116"/>
+      <c r="G64" s="66"/>
+      <c r="H64" s="66"/>
+      <c r="I64" s="175"/>
+      <c r="J64" s="176"/>
     </row>
     <row r="65" spans="1:10" ht="12.75">
-      <c r="A65" s="110"/>
-      <c r="B65" s="136"/>
-      <c r="C65" s="136"/>
-      <c r="D65" s="136"/>
-      <c r="E65" s="117"/>
-      <c r="F65" s="117"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="181"/>
-      <c r="J65" s="182"/>
+      <c r="A65" s="109"/>
+      <c r="B65" s="135"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="116"/>
+      <c r="F65" s="116"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+      <c r="I65" s="175"/>
+      <c r="J65" s="176"/>
     </row>
     <row r="66" spans="1:10" ht="12.75">
-      <c r="A66" s="110"/>
-      <c r="B66" s="136"/>
-      <c r="C66" s="136"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="117"/>
-      <c r="F66" s="117"/>
-      <c r="G66" s="67"/>
-      <c r="H66" s="67"/>
-      <c r="I66" s="181"/>
-      <c r="J66" s="182"/>
+      <c r="A66" s="109"/>
+      <c r="B66" s="135"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="116"/>
+      <c r="F66" s="116"/>
+      <c r="G66" s="66"/>
+      <c r="H66" s="66"/>
+      <c r="I66" s="175"/>
+      <c r="J66" s="176"/>
     </row>
     <row r="67" spans="1:10" ht="12.75">
-      <c r="A67" s="110"/>
-      <c r="B67" s="136"/>
-      <c r="C67" s="136"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="117"/>
-      <c r="F67" s="117"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="181"/>
-      <c r="J67" s="182"/>
+      <c r="A67" s="109"/>
+      <c r="B67" s="135"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="116"/>
+      <c r="F67" s="116"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+      <c r="I67" s="175"/>
+      <c r="J67" s="176"/>
     </row>
     <row r="68" spans="1:10" ht="12.75">
-      <c r="A68" s="110"/>
-      <c r="B68" s="136"/>
-      <c r="C68" s="136"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="117"/>
-      <c r="F68" s="117"/>
-      <c r="G68" s="67"/>
-      <c r="H68" s="67"/>
-      <c r="I68" s="181"/>
-      <c r="J68" s="182"/>
+      <c r="A68" s="109"/>
+      <c r="B68" s="135"/>
+      <c r="C68" s="135"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="116"/>
+      <c r="F68" s="116"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="175"/>
+      <c r="J68" s="176"/>
     </row>
     <row r="69" spans="1:10" ht="12.75">
-      <c r="A69" s="110"/>
-      <c r="B69" s="136"/>
-      <c r="C69" s="136"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="117"/>
-      <c r="F69" s="117"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="181"/>
-      <c r="J69" s="182"/>
+      <c r="A69" s="109"/>
+      <c r="B69" s="135"/>
+      <c r="C69" s="135"/>
+      <c r="D69" s="135"/>
+      <c r="E69" s="116"/>
+      <c r="F69" s="116"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="175"/>
+      <c r="J69" s="176"/>
     </row>
     <row r="70" spans="1:10" ht="12.75">
-      <c r="A70" s="110"/>
-      <c r="B70" s="136"/>
-      <c r="C70" s="136"/>
-      <c r="D70" s="136"/>
-      <c r="E70" s="117"/>
-      <c r="F70" s="117"/>
-      <c r="G70" s="67"/>
-      <c r="H70" s="67"/>
-      <c r="I70" s="181"/>
-      <c r="J70" s="182"/>
+      <c r="A70" s="109"/>
+      <c r="B70" s="135"/>
+      <c r="C70" s="135"/>
+      <c r="D70" s="135"/>
+      <c r="E70" s="116"/>
+      <c r="F70" s="116"/>
+      <c r="G70" s="66"/>
+      <c r="H70" s="66"/>
+      <c r="I70" s="175"/>
+      <c r="J70" s="176"/>
     </row>
     <row r="71" spans="1:10" ht="12.75">
-      <c r="A71" s="110"/>
-      <c r="B71" s="136"/>
-      <c r="C71" s="136"/>
-      <c r="D71" s="136"/>
-      <c r="E71" s="117"/>
-      <c r="F71" s="117"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="181"/>
-      <c r="J71" s="182"/>
+      <c r="A71" s="109"/>
+      <c r="B71" s="135"/>
+      <c r="C71" s="135"/>
+      <c r="D71" s="135"/>
+      <c r="E71" s="116"/>
+      <c r="F71" s="116"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+      <c r="I71" s="175"/>
+      <c r="J71" s="176"/>
     </row>
     <row r="72" spans="1:10" ht="12.75">
-      <c r="A72" s="110"/>
-      <c r="B72" s="136"/>
-      <c r="C72" s="136"/>
-      <c r="D72" s="136"/>
-      <c r="E72" s="117"/>
-      <c r="F72" s="117"/>
-      <c r="G72" s="67"/>
-      <c r="H72" s="67"/>
-      <c r="I72" s="181"/>
-      <c r="J72" s="182"/>
+      <c r="A72" s="109"/>
+      <c r="B72" s="135"/>
+      <c r="C72" s="135"/>
+      <c r="D72" s="135"/>
+      <c r="E72" s="116"/>
+      <c r="F72" s="116"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="175"/>
+      <c r="J72" s="176"/>
     </row>
     <row r="73" spans="1:10" ht="12.75">
-      <c r="A73" s="110"/>
-      <c r="B73" s="136"/>
-      <c r="C73" s="136"/>
-      <c r="D73" s="136"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="181"/>
-      <c r="J73" s="182"/>
+      <c r="A73" s="109"/>
+      <c r="B73" s="135"/>
+      <c r="C73" s="135"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="116"/>
+      <c r="F73" s="116"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="175"/>
+      <c r="J73" s="176"/>
     </row>
     <row r="74" spans="1:10" ht="12.75">
-      <c r="A74" s="110"/>
-      <c r="B74" s="136"/>
-      <c r="C74" s="136"/>
-      <c r="D74" s="136"/>
-      <c r="E74" s="117"/>
-      <c r="F74" s="117"/>
-      <c r="G74" s="67"/>
-      <c r="H74" s="67"/>
-      <c r="I74" s="181"/>
-      <c r="J74" s="182"/>
+      <c r="A74" s="109"/>
+      <c r="B74" s="135"/>
+      <c r="C74" s="135"/>
+      <c r="D74" s="135"/>
+      <c r="E74" s="116"/>
+      <c r="F74" s="116"/>
+      <c r="G74" s="66"/>
+      <c r="H74" s="66"/>
+      <c r="I74" s="175"/>
+      <c r="J74" s="176"/>
     </row>
     <row r="75" spans="1:10" ht="12.75">
-      <c r="A75" s="110"/>
-      <c r="B75" s="136"/>
-      <c r="C75" s="136"/>
-      <c r="D75" s="136"/>
-      <c r="E75" s="117"/>
-      <c r="F75" s="117"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="181"/>
-      <c r="J75" s="182"/>
+      <c r="A75" s="109"/>
+      <c r="B75" s="135"/>
+      <c r="C75" s="135"/>
+      <c r="D75" s="135"/>
+      <c r="E75" s="116"/>
+      <c r="F75" s="116"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+      <c r="I75" s="175"/>
+      <c r="J75" s="176"/>
     </row>
     <row r="76" spans="1:10" ht="12.75">
-      <c r="A76" s="110"/>
-      <c r="B76" s="136"/>
-      <c r="C76" s="136"/>
-      <c r="D76" s="136"/>
-      <c r="E76" s="117"/>
-      <c r="F76" s="117"/>
-      <c r="G76" s="67"/>
-      <c r="H76" s="67"/>
-      <c r="I76" s="181"/>
-      <c r="J76" s="182"/>
+      <c r="A76" s="109"/>
+      <c r="B76" s="135"/>
+      <c r="C76" s="135"/>
+      <c r="D76" s="135"/>
+      <c r="E76" s="116"/>
+      <c r="F76" s="116"/>
+      <c r="G76" s="66"/>
+      <c r="H76" s="66"/>
+      <c r="I76" s="175"/>
+      <c r="J76" s="176"/>
     </row>
     <row r="77" spans="1:10" ht="12.75">
-      <c r="A77" s="110"/>
-      <c r="B77" s="136"/>
-      <c r="C77" s="136"/>
-      <c r="D77" s="136"/>
-      <c r="E77" s="117"/>
-      <c r="F77" s="117"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="181"/>
-      <c r="J77" s="182"/>
+      <c r="A77" s="109"/>
+      <c r="B77" s="135"/>
+      <c r="C77" s="135"/>
+      <c r="D77" s="135"/>
+      <c r="E77" s="116"/>
+      <c r="F77" s="116"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+      <c r="I77" s="175"/>
+      <c r="J77" s="176"/>
     </row>
     <row r="78" spans="1:10" ht="12.75">
-      <c r="A78" s="110"/>
-      <c r="B78" s="136"/>
-      <c r="C78" s="136"/>
-      <c r="D78" s="136"/>
-      <c r="E78" s="117"/>
-      <c r="F78" s="117"/>
-      <c r="G78" s="67"/>
-      <c r="H78" s="67"/>
-      <c r="I78" s="181"/>
-      <c r="J78" s="182"/>
+      <c r="A78" s="109"/>
+      <c r="B78" s="135"/>
+      <c r="C78" s="135"/>
+      <c r="D78" s="135"/>
+      <c r="E78" s="116"/>
+      <c r="F78" s="116"/>
+      <c r="G78" s="66"/>
+      <c r="H78" s="66"/>
+      <c r="I78" s="175"/>
+      <c r="J78" s="176"/>
     </row>
     <row r="79" spans="1:10" ht="12.75">
-      <c r="A79" s="110"/>
-      <c r="B79" s="136"/>
-      <c r="C79" s="136"/>
-      <c r="D79" s="136"/>
-      <c r="E79" s="117"/>
-      <c r="F79" s="117"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="181"/>
-      <c r="J79" s="182"/>
+      <c r="A79" s="109"/>
+      <c r="B79" s="135"/>
+      <c r="C79" s="135"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="116"/>
+      <c r="F79" s="116"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="175"/>
+      <c r="J79" s="176"/>
     </row>
     <row r="80" spans="1:10" ht="12.75">
-      <c r="A80" s="110"/>
-      <c r="B80" s="136"/>
-      <c r="C80" s="136"/>
-      <c r="D80" s="136"/>
-      <c r="E80" s="117"/>
-      <c r="F80" s="117"/>
-      <c r="G80" s="67"/>
-      <c r="H80" s="67"/>
-      <c r="I80" s="181"/>
-      <c r="J80" s="182"/>
+      <c r="A80" s="109"/>
+      <c r="B80" s="135"/>
+      <c r="C80" s="135"/>
+      <c r="D80" s="135"/>
+      <c r="E80" s="116"/>
+      <c r="F80" s="116"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="175"/>
+      <c r="J80" s="176"/>
     </row>
     <row r="81" spans="1:10" ht="12.75">
-      <c r="A81" s="110"/>
-      <c r="B81" s="136"/>
-      <c r="C81" s="136"/>
-      <c r="D81" s="136"/>
-      <c r="E81" s="117"/>
-      <c r="F81" s="117"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="181"/>
-      <c r="J81" s="182"/>
+      <c r="A81" s="109"/>
+      <c r="B81" s="135"/>
+      <c r="C81" s="135"/>
+      <c r="D81" s="135"/>
+      <c r="E81" s="116"/>
+      <c r="F81" s="116"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="175"/>
+      <c r="J81" s="176"/>
     </row>
     <row r="82" spans="1:10" ht="12.75">
-      <c r="A82" s="110"/>
-      <c r="B82" s="136"/>
-      <c r="C82" s="136"/>
-      <c r="D82" s="136"/>
-      <c r="E82" s="117"/>
-      <c r="F82" s="117"/>
-      <c r="G82" s="67"/>
-      <c r="H82" s="67"/>
-      <c r="I82" s="181"/>
-      <c r="J82" s="182"/>
+      <c r="A82" s="109"/>
+      <c r="B82" s="135"/>
+      <c r="C82" s="135"/>
+      <c r="D82" s="135"/>
+      <c r="E82" s="116"/>
+      <c r="F82" s="116"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="175"/>
+      <c r="J82" s="176"/>
     </row>
     <row r="83" spans="1:10" ht="12.75">
-      <c r="A83" s="110"/>
-      <c r="B83" s="136"/>
-      <c r="C83" s="136"/>
-      <c r="D83" s="136"/>
-      <c r="E83" s="117"/>
-      <c r="F83" s="117"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="181"/>
-      <c r="J83" s="182"/>
+      <c r="A83" s="109"/>
+      <c r="B83" s="135"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="116"/>
+      <c r="F83" s="116"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
+      <c r="I83" s="175"/>
+      <c r="J83" s="176"/>
     </row>
     <row r="84" spans="1:10" ht="12.75">
-      <c r="A84" s="110"/>
-      <c r="B84" s="136"/>
-      <c r="C84" s="136"/>
-      <c r="D84" s="136"/>
-      <c r="E84" s="117"/>
-      <c r="F84" s="117"/>
-      <c r="G84" s="67"/>
-      <c r="H84" s="67"/>
-      <c r="I84" s="181"/>
-      <c r="J84" s="182"/>
+      <c r="A84" s="109"/>
+      <c r="B84" s="135"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="66"/>
+      <c r="H84" s="66"/>
+      <c r="I84" s="175"/>
+      <c r="J84" s="176"/>
     </row>
     <row r="85" spans="1:10" ht="12.75">
-      <c r="A85" s="110"/>
-      <c r="B85" s="136"/>
-      <c r="C85" s="136"/>
-      <c r="D85" s="136"/>
-      <c r="E85" s="117"/>
-      <c r="F85" s="117"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="181"/>
-      <c r="J85" s="182"/>
+      <c r="A85" s="109"/>
+      <c r="B85" s="135"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="135"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
+      <c r="I85" s="175"/>
+      <c r="J85" s="176"/>
     </row>
     <row r="86" spans="1:10" ht="12.75">
-      <c r="A86" s="110"/>
-      <c r="B86" s="136"/>
-      <c r="C86" s="136"/>
-      <c r="D86" s="136"/>
-      <c r="E86" s="117"/>
-      <c r="F86" s="117"/>
-      <c r="G86" s="67"/>
-      <c r="H86" s="67"/>
-      <c r="I86" s="181"/>
-      <c r="J86" s="182"/>
+      <c r="A86" s="109"/>
+      <c r="B86" s="135"/>
+      <c r="C86" s="135"/>
+      <c r="D86" s="135"/>
+      <c r="E86" s="116"/>
+      <c r="F86" s="116"/>
+      <c r="G86" s="66"/>
+      <c r="H86" s="66"/>
+      <c r="I86" s="175"/>
+      <c r="J86" s="176"/>
     </row>
     <row r="87" spans="1:10" ht="12.75">
-      <c r="A87" s="110"/>
-      <c r="B87" s="136"/>
-      <c r="C87" s="136"/>
-      <c r="D87" s="136"/>
-      <c r="E87" s="117"/>
-      <c r="F87" s="117"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="181"/>
-      <c r="J87" s="182"/>
+      <c r="A87" s="109"/>
+      <c r="B87" s="135"/>
+      <c r="C87" s="135"/>
+      <c r="D87" s="135"/>
+      <c r="E87" s="116"/>
+      <c r="F87" s="116"/>
+      <c r="G87" s="66"/>
+      <c r="H87" s="66"/>
+      <c r="I87" s="175"/>
+      <c r="J87" s="176"/>
     </row>
     <row r="88" spans="1:10" ht="12.75">
-      <c r="A88" s="110"/>
-      <c r="B88" s="136"/>
-      <c r="C88" s="136"/>
-      <c r="D88" s="136"/>
-      <c r="E88" s="117"/>
-      <c r="F88" s="117"/>
-      <c r="G88" s="67"/>
-      <c r="H88" s="67"/>
-      <c r="I88" s="181"/>
-      <c r="J88" s="182"/>
+      <c r="A88" s="109"/>
+      <c r="B88" s="135"/>
+      <c r="C88" s="135"/>
+      <c r="D88" s="135"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="116"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="66"/>
+      <c r="I88" s="175"/>
+      <c r="J88" s="176"/>
     </row>
     <row r="89" spans="1:10" ht="12.75">
-      <c r="A89" s="110"/>
-      <c r="B89" s="136"/>
-      <c r="C89" s="136"/>
-      <c r="D89" s="136"/>
-      <c r="E89" s="117"/>
-      <c r="F89" s="117"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="181"/>
-      <c r="J89" s="182"/>
+      <c r="A89" s="109"/>
+      <c r="B89" s="135"/>
+      <c r="C89" s="135"/>
+      <c r="D89" s="135"/>
+      <c r="E89" s="116"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="66"/>
+      <c r="I89" s="175"/>
+      <c r="J89" s="176"/>
     </row>
     <row r="90" spans="1:10" ht="12.75">
-      <c r="A90" s="110"/>
-      <c r="B90" s="136"/>
-      <c r="C90" s="136"/>
-      <c r="D90" s="136"/>
-      <c r="E90" s="117"/>
-      <c r="F90" s="117"/>
-      <c r="G90" s="67"/>
-      <c r="H90" s="67"/>
-      <c r="I90" s="181"/>
-      <c r="J90" s="182"/>
+      <c r="A90" s="109"/>
+      <c r="B90" s="135"/>
+      <c r="C90" s="135"/>
+      <c r="D90" s="135"/>
+      <c r="E90" s="116"/>
+      <c r="F90" s="116"/>
+      <c r="G90" s="66"/>
+      <c r="H90" s="66"/>
+      <c r="I90" s="175"/>
+      <c r="J90" s="176"/>
     </row>
     <row r="91" spans="1:10" ht="12.75">
-      <c r="A91" s="110"/>
-      <c r="B91" s="136"/>
-      <c r="C91" s="136"/>
-      <c r="D91" s="136"/>
-      <c r="E91" s="117"/>
-      <c r="F91" s="117"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="181"/>
-      <c r="J91" s="182"/>
+      <c r="A91" s="109"/>
+      <c r="B91" s="135"/>
+      <c r="C91" s="135"/>
+      <c r="D91" s="135"/>
+      <c r="E91" s="116"/>
+      <c r="F91" s="116"/>
+      <c r="G91" s="66"/>
+      <c r="H91" s="66"/>
+      <c r="I91" s="175"/>
+      <c r="J91" s="176"/>
     </row>
     <row r="92" spans="1:10" ht="12.75">
-      <c r="A92" s="110"/>
-      <c r="B92" s="136"/>
-      <c r="C92" s="136"/>
-      <c r="D92" s="136"/>
-      <c r="E92" s="117"/>
-      <c r="F92" s="117"/>
-      <c r="G92" s="67"/>
-      <c r="H92" s="67"/>
-      <c r="I92" s="181"/>
-      <c r="J92" s="182"/>
+      <c r="A92" s="109"/>
+      <c r="B92" s="135"/>
+      <c r="C92" s="135"/>
+      <c r="D92" s="135"/>
+      <c r="E92" s="116"/>
+      <c r="F92" s="116"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="66"/>
+      <c r="I92" s="175"/>
+      <c r="J92" s="176"/>
     </row>
     <row r="93" spans="1:10" ht="12.75">
-      <c r="A93" s="110"/>
-      <c r="B93" s="136"/>
-      <c r="C93" s="136"/>
-      <c r="D93" s="136"/>
-      <c r="E93" s="117"/>
-      <c r="F93" s="117"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="181"/>
-      <c r="J93" s="182"/>
+      <c r="A93" s="109"/>
+      <c r="B93" s="135"/>
+      <c r="C93" s="135"/>
+      <c r="D93" s="135"/>
+      <c r="E93" s="116"/>
+      <c r="F93" s="116"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="66"/>
+      <c r="I93" s="175"/>
+      <c r="J93" s="176"/>
     </row>
     <row r="94" spans="1:10" ht="12.75">
-      <c r="A94" s="110"/>
-      <c r="B94" s="136"/>
-      <c r="C94" s="136"/>
-      <c r="D94" s="136"/>
-      <c r="E94" s="117"/>
-      <c r="F94" s="117"/>
-      <c r="G94" s="67"/>
-      <c r="H94" s="67"/>
-      <c r="I94" s="181"/>
-      <c r="J94" s="182"/>
+      <c r="A94" s="109"/>
+      <c r="B94" s="135"/>
+      <c r="C94" s="135"/>
+      <c r="D94" s="135"/>
+      <c r="E94" s="116"/>
+      <c r="F94" s="116"/>
+      <c r="G94" s="66"/>
+      <c r="H94" s="66"/>
+      <c r="I94" s="175"/>
+      <c r="J94" s="176"/>
     </row>
     <row r="95" spans="1:10" ht="12.75">
-      <c r="A95" s="110"/>
-      <c r="B95" s="136"/>
-      <c r="C95" s="136"/>
-      <c r="D95" s="136"/>
-      <c r="E95" s="117"/>
-      <c r="F95" s="117"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="181"/>
-      <c r="J95" s="182"/>
+      <c r="A95" s="109"/>
+      <c r="B95" s="135"/>
+      <c r="C95" s="135"/>
+      <c r="D95" s="135"/>
+      <c r="E95" s="116"/>
+      <c r="F95" s="116"/>
+      <c r="G95" s="66"/>
+      <c r="H95" s="66"/>
+      <c r="I95" s="175"/>
+      <c r="J95" s="176"/>
     </row>
     <row r="96" spans="1:10" ht="12.75">
-      <c r="A96" s="110"/>
-      <c r="B96" s="136"/>
-      <c r="C96" s="136"/>
-      <c r="D96" s="136"/>
-      <c r="E96" s="117"/>
-      <c r="F96" s="117"/>
-      <c r="G96" s="67"/>
-      <c r="H96" s="67"/>
-      <c r="I96" s="181"/>
-      <c r="J96" s="182"/>
+      <c r="A96" s="109"/>
+      <c r="B96" s="135"/>
+      <c r="C96" s="135"/>
+      <c r="D96" s="135"/>
+      <c r="E96" s="116"/>
+      <c r="F96" s="116"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="66"/>
+      <c r="I96" s="175"/>
+      <c r="J96" s="176"/>
     </row>
     <row r="97" spans="1:10" ht="12.75">
-      <c r="A97" s="110"/>
-      <c r="B97" s="136"/>
-      <c r="C97" s="136"/>
-      <c r="D97" s="136"/>
-      <c r="E97" s="117"/>
-      <c r="F97" s="117"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="181"/>
-      <c r="J97" s="182"/>
+      <c r="A97" s="109"/>
+      <c r="B97" s="135"/>
+      <c r="C97" s="135"/>
+      <c r="D97" s="135"/>
+      <c r="E97" s="116"/>
+      <c r="F97" s="116"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="66"/>
+      <c r="I97" s="175"/>
+      <c r="J97" s="176"/>
     </row>
     <row r="98" spans="1:10" ht="12.75">
-      <c r="A98" s="110"/>
-      <c r="B98" s="136"/>
-      <c r="C98" s="136"/>
-      <c r="D98" s="136"/>
-      <c r="E98" s="117"/>
-      <c r="F98" s="117"/>
-      <c r="G98" s="67"/>
-      <c r="H98" s="67"/>
-      <c r="I98" s="181"/>
-      <c r="J98" s="182"/>
+      <c r="A98" s="109"/>
+      <c r="B98" s="135"/>
+      <c r="C98" s="135"/>
+      <c r="D98" s="135"/>
+      <c r="E98" s="116"/>
+      <c r="F98" s="116"/>
+      <c r="G98" s="66"/>
+      <c r="H98" s="66"/>
+      <c r="I98" s="175"/>
+      <c r="J98" s="176"/>
     </row>
     <row r="99" spans="1:10" ht="12.75">
-      <c r="A99" s="110"/>
-      <c r="B99" s="136"/>
-      <c r="C99" s="136"/>
-      <c r="D99" s="136"/>
-      <c r="E99" s="117"/>
-      <c r="F99" s="117"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="181"/>
-      <c r="J99" s="182"/>
+      <c r="A99" s="109"/>
+      <c r="B99" s="135"/>
+      <c r="C99" s="135"/>
+      <c r="D99" s="135"/>
+      <c r="E99" s="116"/>
+      <c r="F99" s="116"/>
+      <c r="G99" s="66"/>
+      <c r="H99" s="66"/>
+      <c r="I99" s="175"/>
+      <c r="J99" s="176"/>
     </row>
     <row r="100" spans="1:10" ht="12.75">
-      <c r="A100" s="110"/>
-      <c r="B100" s="136"/>
-      <c r="C100" s="136"/>
-      <c r="D100" s="136"/>
-      <c r="E100" s="117"/>
-      <c r="F100" s="117"/>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
-      <c r="I100" s="181"/>
-      <c r="J100" s="182"/>
+      <c r="A100" s="109"/>
+      <c r="B100" s="135"/>
+      <c r="C100" s="135"/>
+      <c r="D100" s="135"/>
+      <c r="E100" s="116"/>
+      <c r="F100" s="116"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="66"/>
+      <c r="I100" s="175"/>
+      <c r="J100" s="176"/>
     </row>
     <row r="101" spans="1:10" ht="12.75">
-      <c r="A101" s="110"/>
-      <c r="B101" s="136"/>
-      <c r="C101" s="136"/>
-      <c r="D101" s="136"/>
-      <c r="E101" s="117"/>
-      <c r="F101" s="117"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="181"/>
-      <c r="J101" s="182"/>
+      <c r="A101" s="109"/>
+      <c r="B101" s="135"/>
+      <c r="C101" s="135"/>
+      <c r="D101" s="135"/>
+      <c r="E101" s="116"/>
+      <c r="F101" s="116"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="66"/>
+      <c r="I101" s="175"/>
+      <c r="J101" s="176"/>
     </row>
     <row r="102" spans="1:10" ht="12.75">
-      <c r="A102" s="110"/>
-      <c r="B102" s="136"/>
-      <c r="C102" s="136"/>
-      <c r="D102" s="136"/>
-      <c r="E102" s="117"/>
-      <c r="F102" s="117"/>
-      <c r="G102" s="67"/>
-      <c r="H102" s="67"/>
-      <c r="I102" s="181"/>
-      <c r="J102" s="182"/>
+      <c r="A102" s="109"/>
+      <c r="B102" s="135"/>
+      <c r="C102" s="135"/>
+      <c r="D102" s="135"/>
+      <c r="E102" s="116"/>
+      <c r="F102" s="116"/>
+      <c r="G102" s="66"/>
+      <c r="H102" s="66"/>
+      <c r="I102" s="175"/>
+      <c r="J102" s="176"/>
     </row>
     <row r="103" spans="1:10" ht="12.75">
-      <c r="A103" s="110"/>
-      <c r="B103" s="136"/>
-      <c r="C103" s="136"/>
-      <c r="D103" s="136"/>
-      <c r="E103" s="117"/>
-      <c r="F103" s="117"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="181"/>
-      <c r="J103" s="182"/>
+      <c r="A103" s="109"/>
+      <c r="B103" s="135"/>
+      <c r="C103" s="135"/>
+      <c r="D103" s="135"/>
+      <c r="E103" s="116"/>
+      <c r="F103" s="116"/>
+      <c r="G103" s="66"/>
+      <c r="H103" s="66"/>
+      <c r="I103" s="175"/>
+      <c r="J103" s="176"/>
     </row>
     <row r="104" spans="1:10" ht="12.75">
-      <c r="A104" s="110"/>
-      <c r="B104" s="136"/>
-      <c r="C104" s="136"/>
-      <c r="D104" s="136"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
-      <c r="G104" s="67"/>
-      <c r="H104" s="67"/>
-      <c r="I104" s="181"/>
-      <c r="J104" s="182"/>
+      <c r="A104" s="109"/>
+      <c r="B104" s="135"/>
+      <c r="C104" s="135"/>
+      <c r="D104" s="135"/>
+      <c r="E104" s="116"/>
+      <c r="F104" s="116"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="66"/>
+      <c r="I104" s="175"/>
+      <c r="J104" s="176"/>
     </row>
     <row r="105" spans="1:10" ht="12.75">
-      <c r="A105" s="110"/>
-      <c r="B105" s="136"/>
-      <c r="C105" s="136"/>
-      <c r="D105" s="136"/>
-      <c r="E105" s="117"/>
-      <c r="F105" s="117"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="181"/>
-      <c r="J105" s="182"/>
+      <c r="A105" s="109"/>
+      <c r="B105" s="135"/>
+      <c r="C105" s="135"/>
+      <c r="D105" s="135"/>
+      <c r="E105" s="116"/>
+      <c r="F105" s="116"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="66"/>
+      <c r="I105" s="175"/>
+      <c r="J105" s="176"/>
     </row>
     <row r="106" spans="1:10" ht="12.75">
-      <c r="A106" s="110"/>
-      <c r="B106" s="136"/>
-      <c r="C106" s="136"/>
-      <c r="D106" s="136"/>
-      <c r="E106" s="117"/>
-      <c r="F106" s="117"/>
-      <c r="G106" s="67"/>
-      <c r="H106" s="67"/>
-      <c r="I106" s="181"/>
-      <c r="J106" s="182"/>
+      <c r="A106" s="109"/>
+      <c r="B106" s="135"/>
+      <c r="C106" s="135"/>
+      <c r="D106" s="135"/>
+      <c r="E106" s="116"/>
+      <c r="F106" s="116"/>
+      <c r="G106" s="66"/>
+      <c r="H106" s="66"/>
+      <c r="I106" s="175"/>
+      <c r="J106" s="176"/>
     </row>
     <row r="107" spans="1:10" ht="12.75">
-      <c r="A107" s="110"/>
-      <c r="B107" s="136"/>
-      <c r="C107" s="136"/>
-      <c r="D107" s="136"/>
-      <c r="E107" s="117"/>
-      <c r="F107" s="117"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="181"/>
-      <c r="J107" s="182"/>
+      <c r="A107" s="109"/>
+      <c r="B107" s="135"/>
+      <c r="C107" s="135"/>
+      <c r="D107" s="135"/>
+      <c r="E107" s="116"/>
+      <c r="F107" s="116"/>
+      <c r="G107" s="66"/>
+      <c r="H107" s="66"/>
+      <c r="I107" s="175"/>
+      <c r="J107" s="176"/>
     </row>
     <row r="108" spans="1:10" ht="12.75">
-      <c r="A108" s="110"/>
-      <c r="B108" s="136"/>
-      <c r="C108" s="136"/>
-      <c r="D108" s="136"/>
-      <c r="E108" s="117"/>
-      <c r="F108" s="117"/>
-      <c r="G108" s="67"/>
-      <c r="H108" s="67"/>
-      <c r="I108" s="181"/>
-      <c r="J108" s="182"/>
+      <c r="A108" s="109"/>
+      <c r="B108" s="135"/>
+      <c r="C108" s="135"/>
+      <c r="D108" s="135"/>
+      <c r="E108" s="116"/>
+      <c r="F108" s="116"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="66"/>
+      <c r="I108" s="175"/>
+      <c r="J108" s="176"/>
     </row>
     <row r="109" spans="1:10" ht="12.75">
-      <c r="A109" s="110"/>
-      <c r="B109" s="136"/>
-      <c r="C109" s="136"/>
-      <c r="D109" s="136"/>
-      <c r="E109" s="117"/>
-      <c r="F109" s="117"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="181"/>
-      <c r="J109" s="182"/>
+      <c r="A109" s="109"/>
+      <c r="B109" s="135"/>
+      <c r="C109" s="135"/>
+      <c r="D109" s="135"/>
+      <c r="E109" s="116"/>
+      <c r="F109" s="116"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="66"/>
+      <c r="I109" s="175"/>
+      <c r="J109" s="176"/>
     </row>
     <row r="110" spans="1:10" ht="12.75">
-      <c r="A110" s="110"/>
-      <c r="B110" s="136"/>
-      <c r="C110" s="136"/>
-      <c r="D110" s="136"/>
-      <c r="E110" s="117"/>
-      <c r="F110" s="117"/>
-      <c r="G110" s="67"/>
-      <c r="H110" s="67"/>
-      <c r="I110" s="181"/>
-      <c r="J110" s="182"/>
+      <c r="A110" s="109"/>
+      <c r="B110" s="135"/>
+      <c r="C110" s="135"/>
+      <c r="D110" s="135"/>
+      <c r="E110" s="116"/>
+      <c r="F110" s="116"/>
+      <c r="G110" s="66"/>
+      <c r="H110" s="66"/>
+      <c r="I110" s="175"/>
+      <c r="J110" s="176"/>
     </row>
     <row r="111" spans="1:10" ht="12.75">
-      <c r="A111" s="110"/>
-      <c r="B111" s="136"/>
-      <c r="C111" s="136"/>
-      <c r="D111" s="136"/>
-      <c r="E111" s="117"/>
-      <c r="F111" s="117"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="181"/>
-      <c r="J111" s="182"/>
+      <c r="A111" s="109"/>
+      <c r="B111" s="135"/>
+      <c r="C111" s="135"/>
+      <c r="D111" s="135"/>
+      <c r="E111" s="116"/>
+      <c r="F111" s="116"/>
+      <c r="G111" s="66"/>
+      <c r="H111" s="66"/>
+      <c r="I111" s="175"/>
+      <c r="J111" s="176"/>
     </row>
     <row r="112" spans="1:10" ht="12.75">
-      <c r="A112" s="110"/>
-      <c r="B112" s="136"/>
-      <c r="C112" s="136"/>
-      <c r="D112" s="136"/>
-      <c r="E112" s="117"/>
-      <c r="F112" s="117"/>
-      <c r="G112" s="67"/>
-      <c r="H112" s="67"/>
-      <c r="I112" s="181"/>
-      <c r="J112" s="182"/>
+      <c r="A112" s="109"/>
+      <c r="B112" s="135"/>
+      <c r="C112" s="135"/>
+      <c r="D112" s="135"/>
+      <c r="E112" s="116"/>
+      <c r="F112" s="116"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="66"/>
+      <c r="I112" s="175"/>
+      <c r="J112" s="176"/>
     </row>
     <row r="113" spans="1:10" ht="12.75">
-      <c r="A113" s="110"/>
-      <c r="B113" s="136"/>
-      <c r="C113" s="136"/>
-      <c r="D113" s="136"/>
-      <c r="E113" s="117"/>
-      <c r="F113" s="117"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="181"/>
-      <c r="J113" s="182"/>
+      <c r="A113" s="109"/>
+      <c r="B113" s="135"/>
+      <c r="C113" s="135"/>
+      <c r="D113" s="135"/>
+      <c r="E113" s="116"/>
+      <c r="F113" s="116"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="66"/>
+      <c r="I113" s="175"/>
+      <c r="J113" s="176"/>
     </row>
     <row r="114" spans="1:10" ht="12.75">
-      <c r="A114" s="110"/>
-      <c r="B114" s="136"/>
-      <c r="C114" s="136"/>
-      <c r="D114" s="136"/>
-      <c r="E114" s="117"/>
-      <c r="F114" s="117"/>
-      <c r="G114" s="67"/>
-      <c r="H114" s="67"/>
-      <c r="I114" s="181"/>
-      <c r="J114" s="182"/>
+      <c r="A114" s="109"/>
+      <c r="B114" s="135"/>
+      <c r="C114" s="135"/>
+      <c r="D114" s="135"/>
+      <c r="E114" s="116"/>
+      <c r="F114" s="116"/>
+      <c r="G114" s="66"/>
+      <c r="H114" s="66"/>
+      <c r="I114" s="175"/>
+      <c r="J114" s="176"/>
     </row>
     <row r="115" spans="1:10" ht="12.75">
-      <c r="A115" s="110"/>
-      <c r="B115" s="136"/>
-      <c r="C115" s="136"/>
-      <c r="D115" s="136"/>
-      <c r="E115" s="117"/>
-      <c r="F115" s="117"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="181"/>
-      <c r="J115" s="182"/>
+      <c r="A115" s="109"/>
+      <c r="B115" s="135"/>
+      <c r="C115" s="135"/>
+      <c r="D115" s="135"/>
+      <c r="E115" s="116"/>
+      <c r="F115" s="116"/>
+      <c r="G115" s="66"/>
+      <c r="H115" s="66"/>
+      <c r="I115" s="175"/>
+      <c r="J115" s="176"/>
     </row>
     <row r="116" spans="1:10" ht="12.75">
-      <c r="A116" s="110"/>
-      <c r="B116" s="136"/>
-      <c r="C116" s="136"/>
-      <c r="D116" s="136"/>
-      <c r="E116" s="117"/>
-      <c r="F116" s="117"/>
-      <c r="G116" s="67"/>
-      <c r="H116" s="67"/>
-      <c r="I116" s="181"/>
-      <c r="J116" s="182"/>
+      <c r="A116" s="109"/>
+      <c r="B116" s="135"/>
+      <c r="C116" s="135"/>
+      <c r="D116" s="135"/>
+      <c r="E116" s="116"/>
+      <c r="F116" s="116"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="66"/>
+      <c r="I116" s="175"/>
+      <c r="J116" s="176"/>
     </row>
     <row r="117" spans="1:10" ht="12.75">
-      <c r="A117" s="110"/>
-      <c r="B117" s="136"/>
-      <c r="C117" s="136"/>
-      <c r="D117" s="136"/>
-      <c r="E117" s="117"/>
-      <c r="F117" s="117"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="181"/>
-      <c r="J117" s="182"/>
+      <c r="A117" s="109"/>
+      <c r="B117" s="135"/>
+      <c r="C117" s="135"/>
+      <c r="D117" s="135"/>
+      <c r="E117" s="116"/>
+      <c r="F117" s="116"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="66"/>
+      <c r="I117" s="175"/>
+      <c r="J117" s="176"/>
     </row>
     <row r="118" spans="1:10" ht="12.75">
-      <c r="A118" s="110"/>
-      <c r="B118" s="136"/>
-      <c r="C118" s="136"/>
-      <c r="D118" s="136"/>
-      <c r="E118" s="117"/>
-      <c r="F118" s="117"/>
-      <c r="G118" s="67"/>
-      <c r="H118" s="67"/>
-      <c r="I118" s="181"/>
-      <c r="J118" s="182"/>
+      <c r="A118" s="109"/>
+      <c r="B118" s="135"/>
+      <c r="C118" s="135"/>
+      <c r="D118" s="135"/>
+      <c r="E118" s="116"/>
+      <c r="F118" s="116"/>
+      <c r="G118" s="66"/>
+      <c r="H118" s="66"/>
+      <c r="I118" s="175"/>
+      <c r="J118" s="176"/>
     </row>
     <row r="119" spans="1:10" ht="12.75">
-      <c r="A119" s="110"/>
-      <c r="B119" s="136"/>
-      <c r="C119" s="136"/>
-      <c r="D119" s="136"/>
-      <c r="E119" s="117"/>
-      <c r="F119" s="117"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="181"/>
-      <c r="J119" s="182"/>
+      <c r="A119" s="109"/>
+      <c r="B119" s="135"/>
+      <c r="C119" s="135"/>
+      <c r="D119" s="135"/>
+      <c r="E119" s="116"/>
+      <c r="F119" s="116"/>
+      <c r="G119" s="66"/>
+      <c r="H119" s="66"/>
+      <c r="I119" s="175"/>
+      <c r="J119" s="176"/>
     </row>
     <row r="120" spans="1:10" ht="12.75">
-      <c r="A120" s="110"/>
-      <c r="B120" s="136"/>
-      <c r="C120" s="136"/>
-      <c r="D120" s="136"/>
-      <c r="E120" s="117"/>
-      <c r="F120" s="117"/>
-      <c r="G120" s="67"/>
-      <c r="H120" s="67"/>
-      <c r="I120" s="181"/>
-      <c r="J120" s="182"/>
+      <c r="A120" s="109"/>
+      <c r="B120" s="135"/>
+      <c r="C120" s="135"/>
+      <c r="D120" s="135"/>
+      <c r="E120" s="116"/>
+      <c r="F120" s="116"/>
+      <c r="G120" s="66"/>
+      <c r="H120" s="66"/>
+      <c r="I120" s="175"/>
+      <c r="J120" s="176"/>
     </row>
     <row r="121" spans="1:10" ht="12.75">
-      <c r="A121" s="110"/>
-      <c r="B121" s="136"/>
-      <c r="C121" s="136"/>
-      <c r="D121" s="136"/>
-      <c r="E121" s="117"/>
-      <c r="F121" s="117"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="181"/>
-      <c r="J121" s="182"/>
+      <c r="A121" s="109"/>
+      <c r="B121" s="135"/>
+      <c r="C121" s="135"/>
+      <c r="D121" s="135"/>
+      <c r="E121" s="116"/>
+      <c r="F121" s="116"/>
+      <c r="G121" s="66"/>
+      <c r="H121" s="66"/>
+      <c r="I121" s="175"/>
+      <c r="J121" s="176"/>
     </row>
     <row r="122" spans="1:10" ht="12.75">
-      <c r="A122" s="110"/>
-      <c r="B122" s="136"/>
-      <c r="C122" s="136"/>
-      <c r="D122" s="136"/>
-      <c r="E122" s="117"/>
-      <c r="F122" s="117"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
-      <c r="I122" s="181"/>
-      <c r="J122" s="182"/>
+      <c r="A122" s="109"/>
+      <c r="B122" s="135"/>
+      <c r="C122" s="135"/>
+      <c r="D122" s="135"/>
+      <c r="E122" s="116"/>
+      <c r="F122" s="116"/>
+      <c r="G122" s="66"/>
+      <c r="H122" s="66"/>
+      <c r="I122" s="175"/>
+      <c r="J122" s="176"/>
     </row>
     <row r="123" spans="1:10" ht="12.75">
-      <c r="A123" s="110"/>
-      <c r="B123" s="136"/>
-      <c r="C123" s="136"/>
-      <c r="D123" s="136"/>
-      <c r="E123" s="117"/>
-      <c r="F123" s="117"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
-      <c r="I123" s="181"/>
-      <c r="J123" s="182"/>
+      <c r="A123" s="109"/>
+      <c r="B123" s="135"/>
+      <c r="C123" s="135"/>
+      <c r="D123" s="135"/>
+      <c r="E123" s="116"/>
+      <c r="F123" s="116"/>
+      <c r="G123" s="66"/>
+      <c r="H123" s="66"/>
+      <c r="I123" s="175"/>
+      <c r="J123" s="176"/>
     </row>
     <row r="124" spans="1:10" ht="12.75">
-      <c r="A124" s="110"/>
-      <c r="B124" s="136"/>
-      <c r="C124" s="136"/>
-      <c r="D124" s="136"/>
-      <c r="E124" s="117"/>
-      <c r="F124" s="117"/>
-      <c r="G124" s="67"/>
-      <c r="H124" s="67"/>
-      <c r="I124" s="181"/>
-      <c r="J124" s="182"/>
+      <c r="A124" s="109"/>
+      <c r="B124" s="135"/>
+      <c r="C124" s="135"/>
+      <c r="D124" s="135"/>
+      <c r="E124" s="116"/>
+      <c r="F124" s="116"/>
+      <c r="G124" s="66"/>
+      <c r="H124" s="66"/>
+      <c r="I124" s="175"/>
+      <c r="J124" s="176"/>
     </row>
     <row r="125" spans="1:10" ht="12.75">
-      <c r="A125" s="110"/>
-      <c r="B125" s="136"/>
-      <c r="C125" s="136"/>
-      <c r="D125" s="136"/>
-      <c r="E125" s="117"/>
-      <c r="F125" s="117"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
-      <c r="I125" s="181"/>
-      <c r="J125" s="182"/>
+      <c r="A125" s="109"/>
+      <c r="B125" s="135"/>
+      <c r="C125" s="135"/>
+      <c r="D125" s="135"/>
+      <c r="E125" s="116"/>
+      <c r="F125" s="116"/>
+      <c r="G125" s="66"/>
+      <c r="H125" s="66"/>
+      <c r="I125" s="175"/>
+      <c r="J125" s="176"/>
     </row>
     <row r="126" spans="1:10" ht="12.75">
-      <c r="A126" s="110"/>
-      <c r="B126" s="136"/>
-      <c r="C126" s="136"/>
-      <c r="D126" s="136"/>
-      <c r="E126" s="117"/>
-      <c r="F126" s="117"/>
-      <c r="G126" s="67"/>
-      <c r="H126" s="67"/>
-      <c r="I126" s="181"/>
-      <c r="J126" s="182"/>
+      <c r="A126" s="109"/>
+      <c r="B126" s="135"/>
+      <c r="C126" s="135"/>
+      <c r="D126" s="135"/>
+      <c r="E126" s="116"/>
+      <c r="F126" s="116"/>
+      <c r="G126" s="66"/>
+      <c r="H126" s="66"/>
+      <c r="I126" s="175"/>
+      <c r="J126" s="176"/>
     </row>
     <row r="127" spans="1:10" ht="12.75">
-      <c r="A127" s="110"/>
-      <c r="B127" s="136"/>
-      <c r="C127" s="136"/>
-      <c r="D127" s="136"/>
-      <c r="E127" s="117"/>
-      <c r="F127" s="117"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="181"/>
-      <c r="J127" s="182"/>
+      <c r="A127" s="109"/>
+      <c r="B127" s="135"/>
+      <c r="C127" s="135"/>
+      <c r="D127" s="135"/>
+      <c r="E127" s="116"/>
+      <c r="F127" s="116"/>
+      <c r="G127" s="66"/>
+      <c r="H127" s="66"/>
+      <c r="I127" s="175"/>
+      <c r="J127" s="176"/>
     </row>
     <row r="128" spans="1:10" ht="12.75">
-      <c r="A128" s="110"/>
-      <c r="B128" s="136"/>
-      <c r="C128" s="136"/>
-      <c r="D128" s="136"/>
-      <c r="E128" s="117"/>
-      <c r="F128" s="117"/>
-      <c r="G128" s="67"/>
-      <c r="H128" s="67"/>
-      <c r="I128" s="181"/>
-      <c r="J128" s="182"/>
+      <c r="A128" s="109"/>
+      <c r="B128" s="135"/>
+      <c r="C128" s="135"/>
+      <c r="D128" s="135"/>
+      <c r="E128" s="116"/>
+      <c r="F128" s="116"/>
+      <c r="G128" s="66"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="175"/>
+      <c r="J128" s="176"/>
     </row>
     <row r="129" spans="1:10" ht="12.75">
-      <c r="A129" s="110"/>
-      <c r="B129" s="136"/>
-      <c r="C129" s="136"/>
-      <c r="D129" s="136"/>
-      <c r="E129" s="117"/>
-      <c r="F129" s="117"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="181"/>
-      <c r="J129" s="182"/>
+      <c r="A129" s="109"/>
+      <c r="B129" s="135"/>
+      <c r="C129" s="135"/>
+      <c r="D129" s="135"/>
+      <c r="E129" s="116"/>
+      <c r="F129" s="116"/>
+      <c r="G129" s="66"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="175"/>
+      <c r="J129" s="176"/>
     </row>
     <row r="130" spans="1:10" ht="12.75">
-      <c r="A130" s="110"/>
-      <c r="B130" s="136"/>
-      <c r="C130" s="136"/>
-      <c r="D130" s="136"/>
-      <c r="E130" s="117"/>
-      <c r="F130" s="117"/>
-      <c r="G130" s="67"/>
-      <c r="H130" s="67"/>
-      <c r="I130" s="181"/>
-      <c r="J130" s="182"/>
+      <c r="A130" s="109"/>
+      <c r="B130" s="135"/>
+      <c r="C130" s="135"/>
+      <c r="D130" s="135"/>
+      <c r="E130" s="116"/>
+      <c r="F130" s="116"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="66"/>
+      <c r="I130" s="175"/>
+      <c r="J130" s="176"/>
     </row>
     <row r="131" spans="1:10" ht="12.75">
-      <c r="A131" s="110"/>
-      <c r="B131" s="136"/>
-      <c r="C131" s="136"/>
-      <c r="D131" s="136"/>
-      <c r="E131" s="117"/>
-      <c r="F131" s="117"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="181"/>
-      <c r="J131" s="182"/>
+      <c r="A131" s="109"/>
+      <c r="B131" s="135"/>
+      <c r="C131" s="135"/>
+      <c r="D131" s="135"/>
+      <c r="E131" s="116"/>
+      <c r="F131" s="116"/>
+      <c r="G131" s="66"/>
+      <c r="H131" s="66"/>
+      <c r="I131" s="175"/>
+      <c r="J131" s="176"/>
     </row>
     <row r="132" spans="1:10" ht="12.75">
-      <c r="A132" s="110"/>
-      <c r="B132" s="136"/>
-      <c r="C132" s="136"/>
-      <c r="D132" s="136"/>
-      <c r="E132" s="117"/>
-      <c r="F132" s="117"/>
-      <c r="G132" s="67"/>
-      <c r="H132" s="67"/>
-      <c r="I132" s="181"/>
-      <c r="J132" s="182"/>
+      <c r="A132" s="109"/>
+      <c r="B132" s="135"/>
+      <c r="C132" s="135"/>
+      <c r="D132" s="135"/>
+      <c r="E132" s="116"/>
+      <c r="F132" s="116"/>
+      <c r="G132" s="66"/>
+      <c r="H132" s="66"/>
+      <c r="I132" s="175"/>
+      <c r="J132" s="176"/>
     </row>
     <row r="133" spans="1:10" ht="12.75">
-      <c r="A133" s="110"/>
-      <c r="B133" s="136"/>
-      <c r="C133" s="136"/>
-      <c r="D133" s="136"/>
-      <c r="E133" s="117"/>
-      <c r="F133" s="117"/>
-      <c r="G133" s="67"/>
-      <c r="H133" s="67"/>
-      <c r="I133" s="181"/>
-      <c r="J133" s="182"/>
+      <c r="A133" s="109"/>
+      <c r="B133" s="135"/>
+      <c r="C133" s="135"/>
+      <c r="D133" s="135"/>
+      <c r="E133" s="116"/>
+      <c r="F133" s="116"/>
+      <c r="G133" s="66"/>
+      <c r="H133" s="66"/>
+      <c r="I133" s="175"/>
+      <c r="J133" s="176"/>
     </row>
     <row r="134" spans="1:10" ht="12.75">
-      <c r="A134" s="110"/>
-      <c r="B134" s="136"/>
-      <c r="C134" s="136"/>
-      <c r="D134" s="136"/>
-      <c r="E134" s="117"/>
-      <c r="F134" s="117"/>
-      <c r="G134" s="67"/>
-      <c r="H134" s="67"/>
-      <c r="I134" s="181"/>
-      <c r="J134" s="182"/>
+      <c r="A134" s="109"/>
+      <c r="B134" s="135"/>
+      <c r="C134" s="135"/>
+      <c r="D134" s="135"/>
+      <c r="E134" s="116"/>
+      <c r="F134" s="116"/>
+      <c r="G134" s="66"/>
+      <c r="H134" s="66"/>
+      <c r="I134" s="175"/>
+      <c r="J134" s="176"/>
     </row>
     <row r="135" spans="1:10" ht="12.75">
-      <c r="A135" s="110"/>
-      <c r="B135" s="136"/>
-      <c r="C135" s="136"/>
-      <c r="D135" s="136"/>
-      <c r="E135" s="117"/>
-      <c r="F135" s="117"/>
-      <c r="G135" s="67"/>
-      <c r="H135" s="67"/>
-      <c r="I135" s="181"/>
-      <c r="J135" s="182"/>
+      <c r="A135" s="109"/>
+      <c r="B135" s="135"/>
+      <c r="C135" s="135"/>
+      <c r="D135" s="135"/>
+      <c r="E135" s="116"/>
+      <c r="F135" s="116"/>
+      <c r="G135" s="66"/>
+      <c r="H135" s="66"/>
+      <c r="I135" s="175"/>
+      <c r="J135" s="176"/>
     </row>
     <row r="136" spans="1:10" ht="12.75">
-      <c r="A136" s="110"/>
-      <c r="B136" s="136"/>
-      <c r="C136" s="136"/>
-      <c r="D136" s="136"/>
-      <c r="E136" s="117"/>
-      <c r="F136" s="117"/>
-      <c r="G136" s="67"/>
-      <c r="H136" s="67"/>
-      <c r="I136" s="181"/>
-      <c r="J136" s="182"/>
+      <c r="A136" s="109"/>
+      <c r="B136" s="135"/>
+      <c r="C136" s="135"/>
+      <c r="D136" s="135"/>
+      <c r="E136" s="116"/>
+      <c r="F136" s="116"/>
+      <c r="G136" s="66"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="175"/>
+      <c r="J136" s="176"/>
     </row>
     <row r="137" spans="1:10" ht="12.75">
-      <c r="A137" s="110"/>
-      <c r="B137" s="136"/>
-      <c r="C137" s="136"/>
-      <c r="D137" s="136"/>
-      <c r="E137" s="117"/>
-      <c r="F137" s="117"/>
-      <c r="G137" s="67"/>
-      <c r="H137" s="67"/>
-      <c r="I137" s="181"/>
-      <c r="J137" s="182"/>
+      <c r="A137" s="109"/>
+      <c r="B137" s="135"/>
+      <c r="C137" s="135"/>
+      <c r="D137" s="135"/>
+      <c r="E137" s="116"/>
+      <c r="F137" s="116"/>
+      <c r="G137" s="66"/>
+      <c r="H137" s="66"/>
+      <c r="I137" s="175"/>
+      <c r="J137" s="176"/>
     </row>
     <row r="138" spans="1:10" ht="12.75">
-      <c r="A138" s="110"/>
-      <c r="B138" s="136"/>
-      <c r="C138" s="136"/>
-      <c r="D138" s="136"/>
-      <c r="E138" s="117"/>
-      <c r="F138" s="117"/>
-      <c r="G138" s="67"/>
-      <c r="H138" s="67"/>
-      <c r="I138" s="181"/>
-      <c r="J138" s="182"/>
+      <c r="A138" s="109"/>
+      <c r="B138" s="135"/>
+      <c r="C138" s="135"/>
+      <c r="D138" s="135"/>
+      <c r="E138" s="116"/>
+      <c r="F138" s="116"/>
+      <c r="G138" s="66"/>
+      <c r="H138" s="66"/>
+      <c r="I138" s="175"/>
+      <c r="J138" s="176"/>
     </row>
     <row r="139" spans="1:10">
-      <c r="B139" s="94"/>
-      <c r="C139" s="94"/>
-      <c r="D139" s="94"/>
+      <c r="B139" s="93"/>
+      <c r="C139" s="93"/>
+      <c r="D139" s="93"/>
     </row>
     <row r="140" spans="1:10">
-      <c r="C140" s="94"/>
+      <c r="C140" s="93"/>
     </row>
     <row r="141" spans="1:10">
-      <c r="C141" s="94"/>
+      <c r="C141" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="I131:J131"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="I119:J119"/>
+    <mergeCell ref="I87:J87"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="I127:J127"/>
+    <mergeCell ref="I124:J124"/>
+    <mergeCell ref="I117:J117"/>
+    <mergeCell ref="I116:J116"/>
+    <mergeCell ref="I97:J97"/>
+    <mergeCell ref="I100:J100"/>
+    <mergeCell ref="I115:J115"/>
+    <mergeCell ref="I104:J104"/>
+    <mergeCell ref="I103:J103"/>
+    <mergeCell ref="I110:J110"/>
+    <mergeCell ref="I109:J109"/>
+    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I101:J101"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I75:J75"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="I138:J138"/>
     <mergeCell ref="I112:J112"/>
@@ -5483,64 +5526,28 @@
     <mergeCell ref="I95:J95"/>
     <mergeCell ref="I128:J128"/>
     <mergeCell ref="I125:J125"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I106:J106"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="E52:H52"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="I119:J119"/>
-    <mergeCell ref="I87:J87"/>
-    <mergeCell ref="I123:J123"/>
-    <mergeCell ref="I127:J127"/>
-    <mergeCell ref="I124:J124"/>
-    <mergeCell ref="I117:J117"/>
-    <mergeCell ref="I116:J116"/>
-    <mergeCell ref="I97:J97"/>
-    <mergeCell ref="I100:J100"/>
-    <mergeCell ref="I115:J115"/>
-    <mergeCell ref="I104:J104"/>
-    <mergeCell ref="I103:J103"/>
-    <mergeCell ref="I110:J110"/>
-    <mergeCell ref="I109:J109"/>
-    <mergeCell ref="I118:J118"/>
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="I131:J131"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5556,12 +5563,12 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A137" sqref="A137"/>
-      <selection pane="topRight" activeCell="S2" sqref="S2"/>
+      <selection pane="topRight" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3"/>
@@ -5573,54 +5580,54 @@
     <col min="7" max="7" width="9.5703125" style="36" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" style="36" customWidth="1"/>
     <col min="9" max="10" width="9.140625" style="36"/>
-    <col min="11" max="12" width="10.28515625" style="70" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" style="64" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="93" customWidth="1"/>
+    <col min="11" max="12" width="10.28515625" style="69" customWidth="1"/>
+    <col min="13" max="14" width="7.85546875" style="63" customWidth="1"/>
+    <col min="15" max="15" width="8.28515625" style="92" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" style="36" customWidth="1"/>
     <col min="17" max="19" width="10.140625" style="36" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="51" customFormat="1" ht="15">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:19" s="50" customFormat="1" ht="15">
+      <c r="A1" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="177"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="62"/>
-      <c r="O1" s="154"/>
-      <c r="S1" s="86" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="174"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="61"/>
+      <c r="O1" s="153"/>
+      <c r="S1" s="85" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="51" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A2" s="85" t="s">
+    <row r="2" spans="1:19" s="50" customFormat="1" ht="13.5" thickBot="1">
+      <c r="A2" s="84" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="60"/>
-      <c r="J2" s="60"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="99" t="str">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="154"/>
+      <c r="P2" s="152"/>
+      <c r="Q2" s="152"/>
+      <c r="R2" s="152"/>
+      <c r="S2" s="98" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
         <v>Data Base: 00/01/1900</v>
       </c>
@@ -5630,429 +5637,1291 @@
     </row>
     <row r="4" spans="1:19" ht="11.25" customHeight="1"/>
     <row r="5" spans="1:19" ht="12.75" customHeight="1">
-      <c r="A5" s="74"/>
-      <c r="B5" s="75"/>
-      <c r="C5" s="188" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="179" t="s">
         <v>152</v>
       </c>
-      <c r="D5" s="202"/>
-      <c r="E5" s="202"/>
-      <c r="F5" s="203"/>
-      <c r="G5" s="204" t="s">
+      <c r="D5" s="198"/>
+      <c r="E5" s="198"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="200" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="205"/>
-      <c r="I5" s="206"/>
-      <c r="J5" s="183" t="s">
+      <c r="H5" s="201"/>
+      <c r="I5" s="202"/>
+      <c r="J5" s="193" t="s">
         <v>160</v>
       </c>
-      <c r="K5" s="207"/>
-      <c r="L5" s="207"/>
-      <c r="M5" s="207"/>
-      <c r="N5" s="208"/>
-      <c r="O5" s="209"/>
-      <c r="P5" s="210"/>
+      <c r="K5" s="203"/>
+      <c r="L5" s="203"/>
+      <c r="M5" s="203"/>
+      <c r="N5" s="204"/>
+      <c r="O5" s="205"/>
+      <c r="P5" s="206"/>
     </row>
     <row r="6" spans="1:19" ht="21.75" customHeight="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="76" t="s">
+      <c r="A6" s="72"/>
+      <c r="B6" s="75" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="60" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="43" t="s">
         <v>172</v>
       </c>
-      <c r="E6" s="44" t="s">
+      <c r="E6" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="F6" s="44" t="s">
+      <c r="F6" s="43" t="s">
         <v>174</v>
       </c>
-      <c r="G6" s="44" t="s">
+      <c r="G6" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="I6" s="44" t="s">
+      <c r="I6" s="43" t="s">
         <v>155</v>
       </c>
-      <c r="J6" s="44" t="s">
+      <c r="J6" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="K6" s="71" t="s">
+      <c r="K6" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="L6" s="71" t="s">
+      <c r="L6" s="70" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="65" t="s">
+      <c r="M6" s="64" t="s">
         <v>158</v>
       </c>
-      <c r="N6" s="65" t="s">
+      <c r="N6" s="64" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="44" t="s">
+      <c r="O6" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="P6" s="44" t="s">
+      <c r="P6" s="43" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="49"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
       <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:19" ht="15.75">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="140" t="s">
         <v>204</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="47" t="str">
-        <f>IF(MIN(C9:C15)&lt;&gt;0,MIN(C9:C15),"")</f>
+      <c r="C8" s="46" t="str">
+        <f>IF(MIN(C9:C14)&lt;&gt;0,MIN(C9:C14),"")</f>
         <v/>
       </c>
-      <c r="D8" s="47" t="str">
-        <f>IF(MAX(D9:D15)&lt;&gt;0,MAX(D9:D15),"")</f>
+      <c r="D8" s="46" t="str">
+        <f>IF(MAX(D9:D14)&lt;&gt;0,MAX(D9:D14),"")</f>
         <v/>
       </c>
-      <c r="E8" s="47" t="str">
-        <f>IF(MIN(E9:E15)&lt;&gt;0,MIN(E9:E15),"")</f>
+      <c r="E8" s="46" t="str">
+        <f>IF(MIN(E9:E14)&lt;&gt;0,MIN(E9:E14),"")</f>
         <v/>
       </c>
-      <c r="F8" s="47" t="str">
-        <f>IF(COUNT(D9:D15)=COUNT(F9:F15),MAX(F9:F15),"")</f>
+      <c r="F8" s="46" t="str">
+        <f>IF(COUNT(D9:D14)=COUNT(F9:F14),MAX(F9:F14),"")</f>
         <v/>
       </c>
-      <c r="G8" s="156" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G9:G15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H8" s="156" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H9:H15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I8" s="156" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I9:I15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" s="156" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J9:J15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" s="157" t="e">
+      <c r="G8" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G9:G14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H8" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H9:H14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I8" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I9:I14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J8" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J9:J14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K8" s="156" t="e">
         <f>+J8-H8</f>
         <v>#REF!</v>
       </c>
-      <c r="L8" s="156" t="e">
+      <c r="L8" s="155" t="e">
         <f>+J8-I8</f>
         <v>#REF!</v>
       </c>
-      <c r="M8" s="165" t="e">
+      <c r="M8" s="163" t="e">
         <f>+IF(H8&lt;&gt;0,J8/H8,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="N8" s="165" t="e">
+      <c r="N8" s="163" t="e">
         <f>+IF(I8&lt;&gt;0,J8/I8,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="O8" s="156" t="e">
-        <f>SUMIF(#REF!,"&gt;0",Q9:Q15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P8" s="156" t="e">
-        <f>SUMIF(#REF!,"&gt;0",S9:S15)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
+      <c r="O8" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",Q9:Q14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P8" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",S9:S14)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q8" s="161"/>
+      <c r="R8" s="161"/>
     </row>
     <row r="9" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="139" t="s">
         <v>238</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47" t="str">
+      <c r="B9" s="45"/>
+      <c r="C9" s="46" t="str">
         <f>IF(MIN(C10:C12)&lt;&gt;0,MIN(C10:C12),"")</f>
         <v/>
       </c>
-      <c r="D9" s="47" t="str">
+      <c r="D9" s="46" t="str">
         <f>IF(MAX(D10:D12)&lt;&gt;0,MAX(D10:D12),"")</f>
         <v/>
       </c>
-      <c r="E9" s="47" t="str">
+      <c r="E9" s="46" t="str">
         <f>IF(MIN(E10:E12)&lt;&gt;0,MIN(E10:E12),"")</f>
         <v/>
       </c>
-      <c r="F9" s="47" t="str">
+      <c r="F9" s="46" t="str">
         <f>IF(COUNT(D10:D12)=COUNT(F10:F12),MAX(F10:F12),"")</f>
         <v/>
       </c>
-      <c r="G9" s="156" t="e">
+      <c r="G9" s="155" t="e">
         <f>SUMIF(#REF!,"&gt;0",G10:G12)</f>
         <v>#REF!</v>
       </c>
-      <c r="H9" s="156" t="e">
+      <c r="H9" s="155" t="e">
         <f>SUMIF(#REF!,"&gt;0",H10:H12)</f>
         <v>#REF!</v>
       </c>
-      <c r="I9" s="156" t="e">
+      <c r="I9" s="155" t="e">
         <f>SUMIF(#REF!,"&gt;0",I10:I12)</f>
         <v>#REF!</v>
       </c>
-      <c r="J9" s="156" t="e">
+      <c r="J9" s="155" t="e">
         <f>SUMIF(#REF!,"&gt;0",J10:J12)</f>
         <v>#REF!</v>
       </c>
-      <c r="K9" s="157" t="e">
+      <c r="K9" s="156" t="e">
         <f>+J9-H9</f>
         <v>#REF!</v>
       </c>
-      <c r="L9" s="156" t="e">
+      <c r="L9" s="155" t="e">
         <f>+J9-I9</f>
         <v>#REF!</v>
       </c>
-      <c r="M9" s="165" t="e">
+      <c r="M9" s="163" t="e">
         <f>+IF(H9&lt;&gt;0,J9/H9,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="N9" s="165" t="e">
+      <c r="N9" s="163" t="e">
         <f>+IF(I9&lt;&gt;0,J9/I9,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="O9" s="156" t="e">
+      <c r="O9" s="155" t="e">
         <f>SUMIF(#REF!,"&gt;0",O10:O12)</f>
         <v>#REF!</v>
       </c>
-      <c r="P9" s="156" t="e">
+      <c r="P9" s="155" t="e">
         <f>SUMIF(#REF!,"&gt;0",P10:P12)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A10" s="137" t="s">
+      <c r="A10" s="136" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="138" t="s">
+      <c r="B10" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="139" t="str">
+      <c r="C10" s="138" t="str">
         <f>IF(MIN(C11:C12)&lt;&gt;0,MIN(C11:C12),"")</f>
         <v/>
       </c>
-      <c r="D10" s="139" t="str">
+      <c r="D10" s="138" t="str">
         <f>IF(MAX(D11:D12)&lt;&gt;0,MAX(D11:D12),"")</f>
         <v/>
       </c>
-      <c r="E10" s="139" t="str">
+      <c r="E10" s="138" t="str">
         <f>IF(MIN(E11:E12)&lt;&gt;0,MIN(E11:E12),"")</f>
         <v/>
       </c>
-      <c r="F10" s="139" t="str">
+      <c r="F10" s="138" t="str">
         <f>IF(COUNT(D11:D12)=COUNT(F11:F12),MAX(F11:F12),"")</f>
         <v/>
       </c>
-      <c r="G10" s="158" t="e">
+      <c r="G10" s="157" t="e">
         <f>SUMIF(#REF!,"&gt;0",G11:G12)</f>
         <v>#REF!</v>
       </c>
-      <c r="H10" s="158" t="e">
+      <c r="H10" s="157" t="e">
         <f>SUMIF(#REF!,"&gt;0",H11:H12)</f>
         <v>#REF!</v>
       </c>
-      <c r="I10" s="158" t="e">
+      <c r="I10" s="157" t="e">
         <f>SUMIF(#REF!,"&gt;0",I11:I12)</f>
         <v>#REF!</v>
       </c>
-      <c r="J10" s="158" t="e">
+      <c r="J10" s="157" t="e">
         <f>SUMIF(#REF!,"&gt;0",J11:J12)</f>
         <v>#REF!</v>
       </c>
-      <c r="K10" s="159" t="e">
+      <c r="K10" s="158" t="e">
         <f>+J10-H10</f>
         <v>#REF!</v>
       </c>
-      <c r="L10" s="158" t="e">
+      <c r="L10" s="157" t="e">
         <f>+J10-I10</f>
         <v>#REF!</v>
       </c>
-      <c r="M10" s="166" t="e">
+      <c r="M10" s="164" t="e">
         <f>+IF(H10&lt;&gt;0,J10/H10,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="N10" s="166" t="e">
+      <c r="N10" s="164" t="e">
         <f>+IF(I10&lt;&gt;0,J10/I10,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="O10" s="158" t="e">
+      <c r="O10" s="157" t="e">
         <f>SUMIF(#REF!,"&gt;0",O11:O12)</f>
         <v>#REF!</v>
       </c>
-      <c r="P10" s="158" t="e">
+      <c r="P10" s="157" t="e">
         <f>SUMIF(#REF!,"&gt;0",P11:P12)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" outlineLevel="2">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="81" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="77" t="str">
+      <c r="B11" s="42"/>
+      <c r="C11" s="76" t="str">
         <f>IF(MIN(C12:C12)&lt;&gt;0,MIN(C12:C12),"")</f>
         <v/>
       </c>
-      <c r="D11" s="77" t="str">
+      <c r="D11" s="76" t="str">
         <f>IF(MAX(D12:D12)&lt;&gt;0,MAX(D12:D12),"")</f>
         <v/>
       </c>
-      <c r="E11" s="77" t="str">
+      <c r="E11" s="76" t="str">
         <f>IF(MIN(E12:E12)&lt;&gt;0,MIN(E12:E12),"")</f>
         <v/>
       </c>
-      <c r="F11" s="77">
-        <f>MAX(F12:F13)</f>
+      <c r="F11" s="76">
+        <f>MAX(F12:F12)</f>
         <v>0</v>
       </c>
-      <c r="G11" s="160" t="e">
+      <c r="G11" s="159" t="e">
         <f>SUMIF(#REF!,"&gt;0",G12:G12)</f>
         <v>#REF!</v>
       </c>
-      <c r="H11" s="160" t="e">
+      <c r="H11" s="159" t="e">
         <f>SUMIF(#REF!,"&gt;0",H12:H12)</f>
         <v>#REF!</v>
       </c>
-      <c r="I11" s="160" t="e">
+      <c r="I11" s="159" t="e">
         <f>SUMIF(#REF!,"&gt;0",I12:I12)</f>
         <v>#REF!</v>
       </c>
-      <c r="J11" s="160" t="e">
+      <c r="J11" s="159" t="e">
         <f>SUMIF(#REF!,"&gt;0",J12:J12)</f>
         <v>#REF!</v>
       </c>
-      <c r="K11" s="160" t="e">
+      <c r="K11" s="159" t="e">
         <f>+J11-H11</f>
         <v>#REF!</v>
       </c>
-      <c r="L11" s="160" t="e">
+      <c r="L11" s="159" t="e">
         <f>+J11-I11</f>
         <v>#REF!</v>
       </c>
-      <c r="M11" s="167" t="e">
+      <c r="M11" s="165" t="e">
         <f>+IF(H11&lt;&gt;0,J11/H11,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="N11" s="167" t="e">
+      <c r="N11" s="165" t="e">
         <f>+IF(I11&lt;&gt;0,J11/I11,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="O11" s="160" t="e">
+      <c r="O11" s="159" t="e">
         <f>SUMIF(#REF!,"&gt;0",O12:O12)</f>
         <v>#REF!</v>
       </c>
-      <c r="P11" s="160" t="e">
+      <c r="P11" s="159" t="e">
         <f>SUMIF(#REF!,"&gt;0",P12:P12)</f>
         <v>#REF!</v>
       </c>
     </row>
     <row r="12" spans="1:19" outlineLevel="3">
-      <c r="A12" s="81"/>
-      <c r="B12" s="142"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="117" t="str">
+      <c r="A12" s="80" t="s">
+        <v>245</v>
+      </c>
+      <c r="B12" s="141"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="116" t="str">
         <f>+IF(AND(C12&lt;&gt;"",D12&lt;&gt;"",G12&lt;&gt;""),IF(C12&lt;Parâmetros!$B$6,IF(D12&gt;Parâmetros!$B$6,G12/2,G12),0),"")</f>
         <v/>
       </c>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117" t="str">
+      <c r="I12" s="116"/>
+      <c r="J12" s="116" t="str">
         <f>+IF(AND(E12&lt;&gt;"",G12&lt;&gt;""),IF(E12&lt;=Parâmetros!$B$6,IF(F12="",G12/2,IF(F12&gt;Parâmetros!$B$6,G12/2,G12)),0),"")</f>
         <v/>
       </c>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117" t="e">
+      <c r="K12" s="116"/>
+      <c r="L12" s="116" t="e">
         <f>IF(AND(#REF!&gt;0,J12&lt;&gt;"",I12&lt;&gt;""),J12-I12,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="M12" s="168" t="e">
+      <c r="M12" s="166" t="e">
         <f>+IF(AND(#REF!&gt;0,H12&lt;&gt;0,H12&lt;&gt;"",J12&lt;&gt;""),J12/H12,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="N12" s="168" t="e">
+      <c r="N12" s="166" t="e">
         <f>+IF(AND(#REF!&gt;0,J12&lt;&gt;"",I12&lt;&gt;0,I12&lt;&gt;""),J12/I12,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="O12" s="117" t="e">
+      <c r="O12" s="116" t="e">
         <f>IF(#REF!="Cast",G12*Parâmetros!$B$56,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="P12" s="117"/>
-    </row>
-    <row r="13" spans="1:19" ht="11.25" customHeight="1" outlineLevel="2">
-      <c r="A13" s="81"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="178"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="117" t="str">
-        <f>+IF(AND(C13&lt;&gt;"",D13&lt;&gt;"",G13&lt;&gt;""),IF(C13&lt;Parâmetros!$B$6,IF(D13&gt;Parâmetros!$B$6,G13/2,G13),0),"")</f>
+      <c r="P12" s="116"/>
+    </row>
+    <row r="13" spans="1:19" hidden="1" outlineLevel="3"/>
+    <row r="14" spans="1:19" hidden="1" outlineLevel="3"/>
+    <row r="15" spans="1:19" ht="20.25" customHeight="1">
+      <c r="A15" s="139" t="s">
+        <v>241</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46" t="str">
+        <f>IF(MIN(C16:C18)&lt;&gt;0,MIN(C16:C18),"")</f>
         <v/>
       </c>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117" t="str">
-        <f>+IF(AND(E13&lt;&gt;"",G13&lt;&gt;""),IF(E13&lt;=Parâmetros!$B$6,IF(F13="",G13/2,IF(F13&gt;Parâmetros!$B$6,G13/2,G13)),0),"")</f>
+      <c r="D15" s="46" t="str">
+        <f>IF(MAX(D16:D18)&lt;&gt;0,MAX(D16:D18),"")</f>
         <v/>
       </c>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117" t="e">
-        <f>IF(AND(#REF!&gt;0,J13&lt;&gt;"",I13&lt;&gt;""),J13-I13,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M13" s="168" t="e">
-        <f>+IF(AND(#REF!&gt;0,H13&lt;&gt;0,H13&lt;&gt;"",J13&lt;&gt;""),J13/H13,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N13" s="169" t="e">
-        <f>+IF(AND(#REF!&gt;0,J13&lt;&gt;"",I13&lt;&gt;0,I13&lt;&gt;""),J13/I13,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O13" s="161"/>
-      <c r="P13" s="117" t="str">
-        <f>IF(O13="Cast",G13*Parâmetros!$B$56,"")</f>
+      <c r="E15" s="46" t="str">
+        <f>IF(MIN(E16:E18)&lt;&gt;0,MIN(E16:E18),"")</f>
         <v/>
       </c>
-    </row>
-    <row r="14" spans="1:19" outlineLevel="3"/>
-    <row r="15" spans="1:19" outlineLevel="3"/>
-    <row r="16" spans="1:19">
-      <c r="A16" s="48" t="s">
+      <c r="F15" s="46" t="str">
+        <f>IF(COUNT(D16:D18)=COUNT(F16:F18),MAX(F16:F18),"")</f>
+        <v/>
+      </c>
+      <c r="G15" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G16:G18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H16:H18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I16:I18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J16:J18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="156" t="e">
+        <f>+J15-H15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="155" t="e">
+        <f>+J15-I15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M15" s="163" t="e">
+        <f>+IF(H15&lt;&gt;0,J15/H15,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" s="163" t="e">
+        <f>+IF(I15&lt;&gt;0,J15/I15,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O16:O18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P16:P18)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A16" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="138" t="str">
+        <f>IF(MIN(C17:C18)&lt;&gt;0,MIN(C17:C18),"")</f>
+        <v/>
+      </c>
+      <c r="D16" s="138" t="str">
+        <f>IF(MAX(D17:D18)&lt;&gt;0,MAX(D17:D18),"")</f>
+        <v/>
+      </c>
+      <c r="E16" s="138" t="str">
+        <f>IF(MIN(E17:E18)&lt;&gt;0,MIN(E17:E18),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="138" t="str">
+        <f>IF(COUNT(D17:D18)=COUNT(F17:F18),MAX(F17:F18),"")</f>
+        <v/>
+      </c>
+      <c r="G16" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G17:G18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H17:H18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I17:I18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J17:J18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K16" s="158" t="e">
+        <f>+J16-H16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L16" s="157" t="e">
+        <f>+J16-I16</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M16" s="164" t="e">
+        <f>+IF(H16&lt;&gt;0,J16/H16,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N16" s="164" t="e">
+        <f>+IF(I16&lt;&gt;0,J16/I16,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O16" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O17:O18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P16" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P17:P18)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A17" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="76" t="str">
+        <f>IF(MIN(C18:C18)&lt;&gt;0,MIN(C18:C18),"")</f>
+        <v/>
+      </c>
+      <c r="D17" s="76" t="str">
+        <f>IF(MAX(D18:D18)&lt;&gt;0,MAX(D18:D18),"")</f>
+        <v/>
+      </c>
+      <c r="E17" s="76" t="str">
+        <f>IF(MIN(E18:E18)&lt;&gt;0,MIN(E18:E18),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="76">
+        <f>MAX(F18:F18)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G18:G18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H17" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H18:H18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I17" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I18:I18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J17" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J18:J18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K17" s="159" t="e">
+        <f>+J17-H17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L17" s="159" t="e">
+        <f>+J17-I17</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="165" t="e">
+        <f>+IF(H17&lt;&gt;0,J17/H17,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="165" t="e">
+        <f>+IF(I17&lt;&gt;0,J17/I17,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O18:O18)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P17" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P18:P18)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" outlineLevel="3">
+      <c r="A18" s="80"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="116" t="str">
+        <f>+IF(AND(C18&lt;&gt;"",D18&lt;&gt;"",G18&lt;&gt;""),IF(C18&lt;Parâmetros!$B$6,IF(D18&gt;Parâmetros!$B$6,G18/2,G18),0),"")</f>
+        <v/>
+      </c>
+      <c r="I18" s="116"/>
+      <c r="J18" s="116" t="str">
+        <f>+IF(AND(E18&lt;&gt;"",G18&lt;&gt;""),IF(E18&lt;=Parâmetros!$B$6,IF(F18="",G18/2,IF(F18&gt;Parâmetros!$B$6,G18/2,G18)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K18" s="116"/>
+      <c r="L18" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J18&lt;&gt;"",I18&lt;&gt;""),J18-I18,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M18" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H18&lt;&gt;0,H18&lt;&gt;"",J18&lt;&gt;""),J18/H18,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N18" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J18&lt;&gt;"",I18&lt;&gt;0,I18&lt;&gt;""),J18/I18,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O18" s="116" t="e">
+        <f>IF(#REF!="Cast",G18*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P18" s="116"/>
+    </row>
+    <row r="19" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A19" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46" t="str">
+        <f>IF(MIN(C20:C22)&lt;&gt;0,MIN(C20:C22),"")</f>
+        <v/>
+      </c>
+      <c r="D19" s="46" t="str">
+        <f>IF(MAX(D20:D22)&lt;&gt;0,MAX(D20:D22),"")</f>
+        <v/>
+      </c>
+      <c r="E19" s="46" t="str">
+        <f>IF(MIN(E20:E22)&lt;&gt;0,MIN(E20:E22),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="46" t="str">
+        <f>IF(COUNT(D20:D22)=COUNT(F20:F22),MAX(F20:F22),"")</f>
+        <v/>
+      </c>
+      <c r="G19" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G20:G22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H19" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H20:H22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I19" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I20:I22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J19" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J20:J22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K19" s="156" t="e">
+        <f>+J19-H19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L19" s="155" t="e">
+        <f>+J19-I19</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M19" s="163" t="e">
+        <f>+IF(H19&lt;&gt;0,J19/H19,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N19" s="163" t="e">
+        <f>+IF(I19&lt;&gt;0,J19/I19,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O19" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O20:O22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P19" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P20:P22)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A20" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="138" t="str">
+        <f>IF(MIN(C21:C22)&lt;&gt;0,MIN(C21:C22),"")</f>
+        <v/>
+      </c>
+      <c r="D20" s="138" t="str">
+        <f>IF(MAX(D21:D22)&lt;&gt;0,MAX(D21:D22),"")</f>
+        <v/>
+      </c>
+      <c r="E20" s="138" t="str">
+        <f>IF(MIN(E21:E22)&lt;&gt;0,MIN(E21:E22),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="138" t="str">
+        <f>IF(COUNT(D21:D22)=COUNT(F21:F22),MAX(F21:F22),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G21:G22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H20" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H21:H22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I20" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I21:I22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J20" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J21:J22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K20" s="158" t="e">
+        <f>+J20-H20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L20" s="157" t="e">
+        <f>+J20-I20</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M20" s="164" t="e">
+        <f>+IF(H20&lt;&gt;0,J20/H20,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N20" s="164" t="e">
+        <f>+IF(I20&lt;&gt;0,J20/I20,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O20" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O21:O22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P20" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P21:P22)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A21" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="76" t="str">
+        <f>IF(MIN(C22:C22)&lt;&gt;0,MIN(C22:C22),"")</f>
+        <v/>
+      </c>
+      <c r="D21" s="76" t="str">
+        <f>IF(MAX(D22:D22)&lt;&gt;0,MAX(D22:D22),"")</f>
+        <v/>
+      </c>
+      <c r="E21" s="76" t="str">
+        <f>IF(MIN(E22:E22)&lt;&gt;0,MIN(E22:E22),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="76">
+        <f>MAX(F22:F22)</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G22:G22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H21" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H22:H22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I21" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I22:I22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J21" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J22:J22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K21" s="159" t="e">
+        <f>+J21-H21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L21" s="159" t="e">
+        <f>+J21-I21</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M21" s="165" t="e">
+        <f>+IF(H21&lt;&gt;0,J21/H21,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N21" s="165" t="e">
+        <f>+IF(I21&lt;&gt;0,J21/I21,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O21" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O22:O22)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P21" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P22:P22)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" outlineLevel="3">
+      <c r="A22" s="80"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="116" t="str">
+        <f>+IF(AND(C22&lt;&gt;"",D22&lt;&gt;"",G22&lt;&gt;""),IF(C22&lt;Parâmetros!$B$6,IF(D22&gt;Parâmetros!$B$6,G22/2,G22),0),"")</f>
+        <v/>
+      </c>
+      <c r="I22" s="116"/>
+      <c r="J22" s="116" t="str">
+        <f>+IF(AND(E22&lt;&gt;"",G22&lt;&gt;""),IF(E22&lt;=Parâmetros!$B$6,IF(F22="",G22/2,IF(F22&gt;Parâmetros!$B$6,G22/2,G22)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K22" s="116"/>
+      <c r="L22" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J22&lt;&gt;"",I22&lt;&gt;""),J22-I22,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H22&lt;&gt;0,H22&lt;&gt;"",J22&lt;&gt;""),J22/H22,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N22" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J22&lt;&gt;"",I22&lt;&gt;0,I22&lt;&gt;""),J22/I22,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O22" s="116" t="e">
+        <f>IF(#REF!="Cast",G22*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P22" s="116"/>
+    </row>
+    <row r="23" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A23" s="139" t="s">
+        <v>243</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="46" t="str">
+        <f>IF(MIN(C24:C26)&lt;&gt;0,MIN(C24:C26),"")</f>
+        <v/>
+      </c>
+      <c r="D23" s="46" t="str">
+        <f>IF(MAX(D24:D26)&lt;&gt;0,MAX(D24:D26),"")</f>
+        <v/>
+      </c>
+      <c r="E23" s="46" t="str">
+        <f>IF(MIN(E24:E26)&lt;&gt;0,MIN(E24:E26),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="46" t="str">
+        <f>IF(COUNT(D24:D26)=COUNT(F24:F26),MAX(F24:F26),"")</f>
+        <v/>
+      </c>
+      <c r="G23" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G24:G26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H23" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H24:H26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I23" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I24:I26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J23" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J24:J26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K23" s="156" t="e">
+        <f>+J23-H23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L23" s="155" t="e">
+        <f>+J23-I23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M23" s="163" t="e">
+        <f>+IF(H23&lt;&gt;0,J23/H23,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N23" s="163" t="e">
+        <f>+IF(I23&lt;&gt;0,J23/I23,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O23" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O24:O26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P23" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P24:P26)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A24" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="138" t="str">
+        <f>IF(MIN(C25:C26)&lt;&gt;0,MIN(C25:C26),"")</f>
+        <v/>
+      </c>
+      <c r="D24" s="138" t="str">
+        <f>IF(MAX(D25:D26)&lt;&gt;0,MAX(D25:D26),"")</f>
+        <v/>
+      </c>
+      <c r="E24" s="138" t="str">
+        <f>IF(MIN(E25:E26)&lt;&gt;0,MIN(E25:E26),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="138" t="str">
+        <f>IF(COUNT(D25:D26)=COUNT(F25:F26),MAX(F25:F26),"")</f>
+        <v/>
+      </c>
+      <c r="G24" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G25:G26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H24" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H25:H26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I24" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I25:I26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J24" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J25:J26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K24" s="158" t="e">
+        <f>+J24-H24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L24" s="157" t="e">
+        <f>+J24-I24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M24" s="164" t="e">
+        <f>+IF(H24&lt;&gt;0,J24/H24,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N24" s="164" t="e">
+        <f>+IF(I24&lt;&gt;0,J24/I24,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O24" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O25:O26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P24" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P25:P26)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A25" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B25" s="42"/>
+      <c r="C25" s="76" t="str">
+        <f>IF(MIN(C26:C26)&lt;&gt;0,MIN(C26:C26),"")</f>
+        <v/>
+      </c>
+      <c r="D25" s="76" t="str">
+        <f>IF(MAX(D26:D26)&lt;&gt;0,MAX(D26:D26),"")</f>
+        <v/>
+      </c>
+      <c r="E25" s="76" t="str">
+        <f>IF(MIN(E26:E26)&lt;&gt;0,MIN(E26:E26),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="76">
+        <f>MAX(F26:F26)</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G26:G26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H25" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H26:H26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I25" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I26:I26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J25" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J26:J26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K25" s="159" t="e">
+        <f>+J25-H25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L25" s="159" t="e">
+        <f>+J25-I25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M25" s="165" t="e">
+        <f>+IF(H25&lt;&gt;0,J25/H25,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N25" s="165" t="e">
+        <f>+IF(I25&lt;&gt;0,J25/I25,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O25" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O26:O26)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P25" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P26:P26)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" outlineLevel="3">
+      <c r="A26" s="80"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="116" t="str">
+        <f>+IF(AND(C26&lt;&gt;"",D26&lt;&gt;"",G26&lt;&gt;""),IF(C26&lt;Parâmetros!$B$6,IF(D26&gt;Parâmetros!$B$6,G26/2,G26),0),"")</f>
+        <v/>
+      </c>
+      <c r="I26" s="116"/>
+      <c r="J26" s="116" t="str">
+        <f>+IF(AND(E26&lt;&gt;"",G26&lt;&gt;""),IF(E26&lt;=Parâmetros!$B$6,IF(F26="",G26/2,IF(F26&gt;Parâmetros!$B$6,G26/2,G26)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K26" s="116"/>
+      <c r="L26" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J26&lt;&gt;"",I26&lt;&gt;""),J26-I26,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M26" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H26&lt;&gt;0,H26&lt;&gt;"",J26&lt;&gt;""),J26/H26,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N26" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J26&lt;&gt;"",I26&lt;&gt;0,I26&lt;&gt;""),J26/I26,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O26" s="116" t="e">
+        <f>IF(#REF!="Cast",G26*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P26" s="116"/>
+    </row>
+    <row r="27" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A27" s="139" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="45"/>
+      <c r="C27" s="46" t="str">
+        <f>IF(MIN(C28:C30)&lt;&gt;0,MIN(C28:C30),"")</f>
+        <v/>
+      </c>
+      <c r="D27" s="46" t="str">
+        <f>IF(MAX(D28:D30)&lt;&gt;0,MAX(D28:D30),"")</f>
+        <v/>
+      </c>
+      <c r="E27" s="46" t="str">
+        <f>IF(MIN(E28:E30)&lt;&gt;0,MIN(E28:E30),"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="46" t="str">
+        <f>IF(COUNT(D28:D30)=COUNT(F28:F30),MAX(F28:F30),"")</f>
+        <v/>
+      </c>
+      <c r="G27" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G28:G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H27" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H28:H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I28:I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J27" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J28:J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K27" s="156" t="e">
+        <f>+J27-H27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L27" s="155" t="e">
+        <f>+J27-I27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M27" s="163" t="e">
+        <f>+IF(H27&lt;&gt;0,J27/H27,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N27" s="163" t="e">
+        <f>+IF(I27&lt;&gt;0,J27/I27,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O27" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O28:O30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P27" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P28:P30)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A28" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C28" s="138" t="str">
+        <f>IF(MIN(C29:C30)&lt;&gt;0,MIN(C29:C30),"")</f>
+        <v/>
+      </c>
+      <c r="D28" s="138" t="str">
+        <f>IF(MAX(D29:D30)&lt;&gt;0,MAX(D29:D30),"")</f>
+        <v/>
+      </c>
+      <c r="E28" s="138" t="str">
+        <f>IF(MIN(E29:E30)&lt;&gt;0,MIN(E29:E30),"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="138" t="str">
+        <f>IF(COUNT(D29:D30)=COUNT(F29:F30),MAX(F29:F30),"")</f>
+        <v/>
+      </c>
+      <c r="G28" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G29:G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H28" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H29:H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I28" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I29:I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J28" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J29:J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K28" s="158" t="e">
+        <f>+J28-H28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L28" s="157" t="e">
+        <f>+J28-I28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M28" s="164" t="e">
+        <f>+IF(H28&lt;&gt;0,J28/H28,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N28" s="164" t="e">
+        <f>+IF(I28&lt;&gt;0,J28/I28,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O28" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O29:O30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P28" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P29:P30)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A29" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="76" t="str">
+        <f>IF(MIN(C30:C30)&lt;&gt;0,MIN(C30:C30),"")</f>
+        <v/>
+      </c>
+      <c r="D29" s="76" t="str">
+        <f>IF(MAX(D30:D30)&lt;&gt;0,MAX(D30:D30),"")</f>
+        <v/>
+      </c>
+      <c r="E29" s="76" t="str">
+        <f>IF(MIN(E30:E30)&lt;&gt;0,MIN(E30:E30),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="76">
+        <f>MAX(F30:F30)</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G30:G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H29" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H30:H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I29" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I30:I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J29" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J30:J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K29" s="159" t="e">
+        <f>+J29-H29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L29" s="159" t="e">
+        <f>+J29-I29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M29" s="165" t="e">
+        <f>+IF(H29&lt;&gt;0,J29/H29,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N29" s="165" t="e">
+        <f>+IF(I29&lt;&gt;0,J29/I29,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O29" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O30:O30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P29" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P30:P30)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" outlineLevel="3">
+      <c r="A30" s="80"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="160"/>
+      <c r="H30" s="116" t="str">
+        <f>+IF(AND(C30&lt;&gt;"",D30&lt;&gt;"",G30&lt;&gt;""),IF(C30&lt;Parâmetros!$B$6,IF(D30&gt;Parâmetros!$B$6,G30/2,G30),0),"")</f>
+        <v/>
+      </c>
+      <c r="I30" s="116"/>
+      <c r="J30" s="116" t="str">
+        <f>+IF(AND(E30&lt;&gt;"",G30&lt;&gt;""),IF(E30&lt;=Parâmetros!$B$6,IF(F30="",G30/2,IF(F30&gt;Parâmetros!$B$6,G30/2,G30)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K30" s="116"/>
+      <c r="L30" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J30&lt;&gt;"",I30&lt;&gt;""),J30-I30,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M30" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H30&lt;&gt;0,H30&lt;&gt;"",J30&lt;&gt;""),J30/H30,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N30" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J30&lt;&gt;"",I30&lt;&gt;0,I30&lt;&gt;""),J30/I30,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O30" s="116" t="e">
+        <f>IF(#REF!="Cast",G30*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P30" s="116"/>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="47" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N16"/>
+  <autoFilter ref="A6:N31"/>
   <mergeCells count="4">
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:I5"/>
@@ -6060,12 +6929,9 @@
     <mergeCell ref="O5:P5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12:B13">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B18 B22 B26 B30">
       <formula1>RecursosFabrica</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O13">
-      <formula1>"BC,Cast"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -6092,67 +6958,67 @@
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="93"/>
-    <col min="3" max="3" width="14.140625" style="93" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="92"/>
+    <col min="3" max="3" width="14.140625" style="92" customWidth="1"/>
     <col min="4" max="4" width="54.7109375" style="36" customWidth="1"/>
     <col min="5" max="5" width="12" style="36" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101" t="s">
+      <c r="D1" s="100"/>
+      <c r="E1" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:9" ht="12.75" thickBot="1">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99" t="str">
+      <c r="B2" s="117"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
         <v>Data Base: 00/01/1900</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="103"/>
     </row>
     <row r="3" spans="1:9" ht="12" thickTop="1">
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
     </row>
     <row r="4" spans="1:9" ht="22.5">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="B4" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="125" t="s">
+      <c r="C4" s="124" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="126" t="s">
+      <c r="D4" s="125" t="s">
         <v>196</v>
       </c>
-      <c r="E4" s="127" t="s">
+      <c r="E4" s="126" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="122"/>
-      <c r="E5" s="124"/>
+      <c r="A5" s="119"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="123"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6168,255 +7034,255 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="29.7109375" style="51" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="51" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="51"/>
-    <col min="4" max="4" width="10.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="51"/>
-    <col min="6" max="6" width="10.140625" style="51" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="1" width="29.7109375" style="50" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="50" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="50"/>
+    <col min="4" max="4" width="10.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="50"/>
+    <col min="6" max="6" width="10.140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="83" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="84" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="1:6" ht="12.75" thickTop="1"/>
     <row r="4" spans="1:6">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="50" t="s">
         <v>177</v>
       </c>
-      <c r="B4" s="150" t="s">
+      <c r="B4" s="149" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="50" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="150"/>
+      <c r="B5" s="149"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="B6" s="149"/>
+      <c r="B6" s="148"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="D8" s="146"/>
-      <c r="F8" s="146"/>
+      <c r="D8" s="145"/>
+      <c r="F8" s="145"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="52" t="s">
+      <c r="A11" s="51" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="151"/>
-      <c r="B12" s="150" t="s">
+      <c r="A12" s="150"/>
+      <c r="B12" s="149" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="148"/>
+      <c r="C12" s="147"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="151"/>
-      <c r="B13" s="150" t="s">
+      <c r="A13" s="150"/>
+      <c r="B13" s="149" t="s">
         <v>234</v>
       </c>
-      <c r="C13" s="148"/>
+      <c r="C13" s="147"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="151"/>
-      <c r="B14" s="150" t="s">
+      <c r="A14" s="150"/>
+      <c r="B14" s="149" t="s">
         <v>235</v>
       </c>
-      <c r="C14" s="148"/>
+      <c r="C14" s="147"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
+      <c r="B15" s="147"/>
+      <c r="C15" s="147"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
+      <c r="B16" s="147"/>
+      <c r="C16" s="147"/>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="151"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="148"/>
+      <c r="A17" s="150"/>
+      <c r="B17" s="151"/>
+      <c r="C17" s="147"/>
     </row>
     <row r="18" spans="1:3">
-      <c r="B18" s="152"/>
-      <c r="C18" s="148"/>
+      <c r="B18" s="151"/>
+      <c r="C18" s="147"/>
     </row>
     <row r="19" spans="1:3">
-      <c r="B19" s="152"/>
-      <c r="C19" s="148"/>
+      <c r="B19" s="151"/>
+      <c r="C19" s="147"/>
     </row>
     <row r="20" spans="1:3">
-      <c r="B20" s="152"/>
-      <c r="C20" s="148"/>
+      <c r="B20" s="151"/>
+      <c r="C20" s="147"/>
     </row>
     <row r="21" spans="1:3">
-      <c r="B21" s="152"/>
-      <c r="C21" s="148"/>
+      <c r="B21" s="151"/>
+      <c r="C21" s="147"/>
     </row>
     <row r="22" spans="1:3">
-      <c r="B22" s="152"/>
-      <c r="C22" s="148"/>
+      <c r="B22" s="151"/>
+      <c r="C22" s="147"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="B23" s="152"/>
-      <c r="C23" s="148"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="147"/>
     </row>
     <row r="24" spans="1:3">
-      <c r="B24" s="152"/>
-      <c r="C24" s="148"/>
+      <c r="B24" s="151"/>
+      <c r="C24" s="147"/>
     </row>
     <row r="25" spans="1:3">
-      <c r="B25" s="152"/>
-      <c r="C25" s="148"/>
+      <c r="B25" s="151"/>
+      <c r="C25" s="147"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="B26" s="148"/>
-      <c r="C26" s="148"/>
+      <c r="B26" s="147"/>
+      <c r="C26" s="147"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="B27" s="148"/>
-      <c r="C27" s="148"/>
+      <c r="B27" s="147"/>
+      <c r="C27" s="147"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="B28" s="148"/>
-      <c r="C28" s="148"/>
+      <c r="B28" s="147"/>
+      <c r="C28" s="147"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="B29" s="152"/>
-      <c r="C29" s="148"/>
+      <c r="B29" s="151"/>
+      <c r="C29" s="147"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="B30" s="148"/>
-      <c r="C30" s="148"/>
+      <c r="B30" s="147"/>
+      <c r="C30" s="147"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="B31" s="148"/>
-      <c r="C31" s="148"/>
+      <c r="B31" s="147"/>
+      <c r="C31" s="147"/>
     </row>
     <row r="32" spans="1:3">
-      <c r="B32" s="148"/>
-      <c r="C32" s="148"/>
+      <c r="B32" s="147"/>
+      <c r="C32" s="147"/>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" s="147"/>
-      <c r="C33" s="148"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="B34" s="148"/>
-      <c r="C34" s="148"/>
+      <c r="B34" s="147"/>
+      <c r="C34" s="147"/>
     </row>
     <row r="35" spans="1:3">
-      <c r="B35" s="148"/>
-      <c r="C35" s="148"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
     </row>
     <row r="36" spans="1:3">
-      <c r="B36" s="148"/>
-      <c r="C36" s="148"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="151"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="148"/>
+      <c r="A37" s="150"/>
+      <c r="B37" s="147"/>
+      <c r="C37" s="147"/>
     </row>
     <row r="38" spans="1:3">
-      <c r="B38" s="148"/>
-      <c r="C38" s="148"/>
+      <c r="B38" s="147"/>
+      <c r="C38" s="147"/>
     </row>
     <row r="39" spans="1:3">
-      <c r="B39" s="148"/>
-      <c r="C39" s="148"/>
+      <c r="B39" s="147"/>
+      <c r="C39" s="147"/>
     </row>
     <row r="40" spans="1:3">
-      <c r="B40" s="148"/>
-      <c r="C40" s="148"/>
+      <c r="B40" s="147"/>
+      <c r="C40" s="147"/>
     </row>
     <row r="41" spans="1:3">
-      <c r="B41" s="148"/>
-      <c r="C41" s="148"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
     </row>
     <row r="42" spans="1:3">
-      <c r="B42" s="148"/>
-      <c r="C42" s="148"/>
+      <c r="B42" s="147"/>
+      <c r="C42" s="147"/>
     </row>
     <row r="43" spans="1:3">
-      <c r="B43" s="148"/>
-      <c r="C43" s="148"/>
+      <c r="B43" s="147"/>
+      <c r="C43" s="147"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
+      <c r="B44" s="147"/>
+      <c r="C44" s="147"/>
     </row>
     <row r="45" spans="1:3">
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
+      <c r="B45" s="147"/>
+      <c r="C45" s="147"/>
     </row>
     <row r="46" spans="1:3">
-      <c r="B46" s="148"/>
-      <c r="C46" s="148"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="147"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="B47" s="148"/>
-      <c r="C47" s="148"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="147"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="B48" s="148"/>
-      <c r="C48" s="148"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="147"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="B49" s="148"/>
-      <c r="C49" s="148"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="147"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="B50" s="148"/>
-      <c r="C50" s="148"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="147"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="52" t="s">
+      <c r="A54" s="51" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="51" t="s">
+      <c r="A55" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="B55" s="150">
+      <c r="B55" s="149">
         <v>0.8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="51" t="s">
+      <c r="A56" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="B56" s="150">
+      <c r="B56" s="149">
         <v>0.7</v>
       </c>
     </row>
@@ -6434,7 +7300,7 @@
   <dimension ref="A1:H79"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6455,31 +7321,31 @@
       <c r="A2" s="28"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="211" t="s">
+      <c r="A4" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="213" t="s">
+      <c r="B4" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="215" t="s">
+      <c r="C4" s="211" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="217"/>
-      <c r="H4" s="211" t="s">
+      <c r="D4" s="212"/>
+      <c r="E4" s="212"/>
+      <c r="F4" s="212"/>
+      <c r="G4" s="213"/>
+      <c r="H4" s="207" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="212"/>
-      <c r="B5" s="214"/>
+      <c r="A5" s="208"/>
+      <c r="B5" s="210"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6495,7 +7361,7 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="212"/>
+      <c r="H5" s="208"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6">
@@ -7873,217 +8739,217 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:K13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="52"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
+      <c r="A2" s="51"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="214" t="s">
         <v>164</v>
       </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="219"/>
-      <c r="H3" s="219"/>
-      <c r="I3" s="219"/>
-      <c r="J3" s="219"/>
-      <c r="K3" s="219"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="53"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="218" t="s">
+      <c r="A5" s="214" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="219"/>
-      <c r="C5" s="219"/>
-      <c r="D5" s="219"/>
-      <c r="E5" s="219"/>
-      <c r="F5" s="219"/>
-      <c r="G5" s="219"/>
-      <c r="H5" s="219"/>
-      <c r="I5" s="220"/>
-      <c r="J5" s="220"/>
-      <c r="K5" s="220"/>
+      <c r="B5" s="215"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="215"/>
+      <c r="F5" s="215"/>
+      <c r="G5" s="215"/>
+      <c r="H5" s="215"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="55"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
+      <c r="A6" s="54"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="214" t="s">
         <v>165</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="220"/>
+      <c r="B7" s="215"/>
+      <c r="C7" s="215"/>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="216"/>
+      <c r="J7" s="216"/>
+      <c r="K7" s="216"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="56"/>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
     </row>
     <row r="9" spans="1:11" ht="69" customHeight="1">
-      <c r="A9" s="218" t="s">
+      <c r="A9" s="214" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="219"/>
-      <c r="G9" s="219"/>
-      <c r="H9" s="219"/>
-      <c r="I9" s="220"/>
-      <c r="J9" s="220"/>
-      <c r="K9" s="220"/>
+      <c r="B9" s="215"/>
+      <c r="C9" s="215"/>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="216"/>
+      <c r="J9" s="216"/>
+      <c r="K9" s="216"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="56"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1">
-      <c r="A11" s="218" t="s">
+      <c r="A11" s="214" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="219"/>
-      <c r="C11" s="219"/>
-      <c r="D11" s="219"/>
-      <c r="E11" s="219"/>
-      <c r="F11" s="219"/>
-      <c r="G11" s="219"/>
-      <c r="H11" s="219"/>
-      <c r="I11" s="220"/>
-      <c r="J11" s="220"/>
-      <c r="K11" s="220"/>
+      <c r="B11" s="215"/>
+      <c r="C11" s="215"/>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="216"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="36"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
     </row>
     <row r="13" spans="1:11" ht="58.5" customHeight="1">
-      <c r="A13" s="218" t="s">
+      <c r="A13" s="214" t="s">
         <v>163</v>
       </c>
-      <c r="B13" s="219"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="219"/>
-      <c r="E13" s="219"/>
-      <c r="F13" s="219"/>
-      <c r="G13" s="219"/>
-      <c r="H13" s="219"/>
-      <c r="I13" s="220"/>
-      <c r="J13" s="220"/>
-      <c r="K13" s="220"/>
+      <c r="B13" s="215"/>
+      <c r="C13" s="215"/>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="216"/>
+      <c r="K13" s="216"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="58"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
+      <c r="A14" s="57"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
     </row>
     <row r="15" spans="1:11" ht="58.5" customHeight="1">
-      <c r="A15" s="218" t="s">
+      <c r="A15" s="214" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="219"/>
-      <c r="C15" s="219"/>
-      <c r="D15" s="219"/>
-      <c r="E15" s="219"/>
-      <c r="F15" s="219"/>
-      <c r="G15" s="219"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="220"/>
-      <c r="J15" s="220"/>
-      <c r="K15" s="220"/>
+      <c r="B15" s="215"/>
+      <c r="C15" s="215"/>
+      <c r="D15" s="215"/>
+      <c r="E15" s="215"/>
+      <c r="F15" s="215"/>
+      <c r="G15" s="215"/>
+      <c r="H15" s="215"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="216"/>
+      <c r="K15" s="216"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="58"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
+      <c r="A16" s="57"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
     </row>
     <row r="17" spans="1:11" ht="72" customHeight="1">
-      <c r="A17" s="218" t="s">
+      <c r="A17" s="214" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="219"/>
-      <c r="C17" s="219"/>
-      <c r="D17" s="219"/>
-      <c r="E17" s="219"/>
-      <c r="F17" s="219"/>
-      <c r="G17" s="219"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="220"/>
-      <c r="J17" s="220"/>
-      <c r="K17" s="220"/>
+      <c r="B17" s="215"/>
+      <c r="C17" s="215"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="215"/>
+      <c r="F17" s="215"/>
+      <c r="G17" s="215"/>
+      <c r="H17" s="215"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
+++ b/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Glossário" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planejamento!$A$6:$N$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planejamento!$A$6:$N$64</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Planejamento!$A$1:$S$12</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Resumo!$A$1:$J$139</definedName>
     <definedName name="RecursosBacen">Parâmetros!$B$17:$B$36</definedName>
@@ -233,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="266">
   <si>
     <t>Classificação Padrão de Produtos e Serviços</t>
   </si>
@@ -1425,6 +1425,66 @@
   </si>
   <si>
     <t>Plano do projeto</t>
+  </si>
+  <si>
+    <t>1.2.04 - Requisitos</t>
+  </si>
+  <si>
+    <t>1.2.04.04 - Especificações de Casos de Uso</t>
+  </si>
+  <si>
+    <t>UC01 - Entrar em um sala de jogo</t>
+  </si>
+  <si>
+    <t>UC02 - Criar Sala de Jogo</t>
+  </si>
+  <si>
+    <t>UC03 - Enviar Mensagem</t>
+  </si>
+  <si>
+    <t>UC05 - Abandonar Jogo</t>
+  </si>
+  <si>
+    <t>UC06 - Interromper Jogo</t>
+  </si>
+  <si>
+    <t>UC10 - Trocar cartas território</t>
+  </si>
+  <si>
+    <t>UC09 - Fazer jogada</t>
+  </si>
+  <si>
+    <t>UC12 - Reposicionar Exército</t>
+  </si>
+  <si>
+    <t>UC11 - Atacar Território</t>
+  </si>
+  <si>
+    <t>UC14 - Povoar Território Conquistado</t>
+  </si>
+  <si>
+    <t>1.2.05 - Análise e Projeto</t>
+  </si>
+  <si>
+    <t>1.2.05.01 - MAP – Modelo de Análise e Projeto</t>
+  </si>
+  <si>
+    <t>1.2.06.01 - Implementação de Casos de Uso (Código e Teste de Unidade)</t>
+  </si>
+  <si>
+    <t>1.2.05 - Implementação</t>
+  </si>
+  <si>
+    <t>Diagrama de classes conceitual</t>
+  </si>
+  <si>
+    <t>Diagrama de classes de projeto</t>
+  </si>
+  <si>
+    <t>Diagrama de colaboração</t>
+  </si>
+  <si>
+    <t>Snapshot</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1762,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1922,6 +1982,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1930,7 +2018,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="232">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2420,6 +2508,34 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2539,7 +2655,7 @@
                 <c:formatCode>d/m/yyyy</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>40290</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -2620,11 +2736,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="58456320"/>
-        <c:axId val="58728448"/>
+        <c:axId val="58390784"/>
+        <c:axId val="58662912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="58456320"/>
+        <c:axId val="58390784"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2656,7 +2772,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58728448"/>
+        <c:crossAx val="58662912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2664,7 +2780,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58728448"/>
+        <c:axId val="58662912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="39940"/>
@@ -2708,7 +2824,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58456320"/>
+        <c:crossAx val="58390784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30"/>
@@ -2754,7 +2870,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000276" footer="0.49212598500000276"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000287" footer="0.49212598500000287"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2792,7 +2908,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31531602468610342"/>
-          <c:y val="3.2418952618454122E-2"/>
+          <c:y val="3.2418952618454129E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2809,9 +2925,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11261286030066738"/>
-          <c:y val="0.14962593516209602"/>
-          <c:w val="0.65090233253786189"/>
-          <c:h val="0.73815461346633815"/>
+          <c:y val="0.14962593516209607"/>
+          <c:w val="0.65090233253786201"/>
+          <c:h val="0.73815461346633826"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2932,11 +3048,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58774272"/>
-        <c:axId val="58776192"/>
+        <c:axId val="58708736"/>
+        <c:axId val="58710656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="58774272"/>
+        <c:axId val="58708736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2968,7 +3084,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58776192"/>
+        <c:crossAx val="58710656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2977,7 +3093,7 @@
         <c:tickMarkSkip val="7"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58776192"/>
+        <c:axId val="58710656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3020,7 +3136,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58774272"/>
+        <c:crossAx val="58708736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="500"/>
@@ -3045,9 +3161,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7972972972972977"/>
-          <c:y val="0.46882793017456592"/>
+          <c:y val="0.46882793017456598"/>
           <c:w val="0.17792792792792791"/>
-          <c:h val="0.10972568578553729"/>
+          <c:h val="0.10972568578553732"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3112,7 +3228,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000276" footer="0.49212598500000276"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000287" footer="0.49212598500000287"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3705,9 +3821,9 @@
         <v>199</v>
       </c>
       <c r="B11" s="77"/>
-      <c r="C11" s="122" t="e">
+      <c r="C11" s="122">
         <f>IF(Planejamento!G8&lt;&gt;0,VLOOKUP(Parâmetros!B6,A54:I222,4)/Planejamento!G8,0)</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="F11" s="102"/>
       <c r="G11" s="103"/>
@@ -3758,9 +3874,9 @@
         <v>192</v>
       </c>
       <c r="B15" s="79"/>
-      <c r="C15" s="97" t="str">
+      <c r="C15" s="97">
         <f>Planejamento!C8</f>
-        <v/>
+        <v>40290</v>
       </c>
       <c r="F15" s="105"/>
       <c r="G15" s="103"/>
@@ -3772,9 +3888,9 @@
         <v>182</v>
       </c>
       <c r="B16" s="108"/>
-      <c r="C16" s="97" t="str">
+      <c r="C16" s="97">
         <f>Planejamento!E8</f>
-        <v/>
+        <v>40290</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
@@ -3782,9 +3898,9 @@
         <v>183</v>
       </c>
       <c r="B17" s="108"/>
-      <c r="C17" s="97" t="str">
+      <c r="C17" s="97">
         <f>Planejamento!D8</f>
-        <v/>
+        <v>40290</v>
       </c>
       <c r="K17" s="63"/>
       <c r="L17" s="63"/>
@@ -3812,9 +3928,9 @@
         <v>202</v>
       </c>
       <c r="B20" s="108"/>
-      <c r="C20" s="95" t="e">
+      <c r="C20" s="95">
         <f>Planejamento!G8</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="K20" s="63"/>
     </row>
@@ -4082,25 +4198,25 @@
         <f>COUNT(Planejamento!#REF!)</f>
         <v>0</v>
       </c>
-      <c r="C43" s="97" t="str">
+      <c r="C43" s="97">
         <f>Planejamento!C9</f>
-        <v/>
-      </c>
-      <c r="D43" s="97" t="str">
+        <v>40290</v>
+      </c>
+      <c r="D43" s="97">
         <f>Planejamento!D9</f>
-        <v/>
-      </c>
-      <c r="E43" s="97" t="str">
+        <v>40290</v>
+      </c>
+      <c r="E43" s="97">
         <f>Planejamento!E9</f>
-        <v/>
+        <v>40290</v>
       </c>
       <c r="F43" s="97" t="str">
         <f>Planejamento!F9</f>
         <v/>
       </c>
-      <c r="G43" s="95" t="e">
+      <c r="G43" s="95">
         <f>Planejamento!G9</f>
-        <v>#REF!</v>
+        <v>0</v>
       </c>
       <c r="H43" s="95" t="e">
         <f>Planejamento!H9</f>
@@ -4114,9 +4230,9 @@
         <f>Planejamento!J9</f>
         <v>#REF!</v>
       </c>
-      <c r="K43" s="110" t="e">
+      <c r="K43" s="110">
         <f>+D43-C43</f>
-        <v>#VALUE!</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -5453,6 +5569,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="I137:J137"/>
+    <mergeCell ref="I135:J135"/>
+    <mergeCell ref="I132:J132"/>
+    <mergeCell ref="I129:J129"/>
+    <mergeCell ref="I130:J130"/>
+    <mergeCell ref="I136:J136"/>
+    <mergeCell ref="I134:J134"/>
+    <mergeCell ref="I133:J133"/>
+    <mergeCell ref="I131:J131"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="I60:J60"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="I55:J55"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="I52:J53"/>
+    <mergeCell ref="E52:H52"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="I138:J138"/>
+    <mergeCell ref="I112:J112"/>
+    <mergeCell ref="I88:J88"/>
+    <mergeCell ref="I90:J90"/>
+    <mergeCell ref="I113:J113"/>
+    <mergeCell ref="I98:J98"/>
+    <mergeCell ref="I93:J93"/>
+    <mergeCell ref="I111:J111"/>
+    <mergeCell ref="I107:J107"/>
+    <mergeCell ref="I126:J126"/>
+    <mergeCell ref="I122:J122"/>
+    <mergeCell ref="I120:J120"/>
+    <mergeCell ref="I95:J95"/>
+    <mergeCell ref="I128:J128"/>
+    <mergeCell ref="I125:J125"/>
+    <mergeCell ref="I121:J121"/>
+    <mergeCell ref="I66:J66"/>
+    <mergeCell ref="I71:J71"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="I68:J68"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="I86:J86"/>
+    <mergeCell ref="I83:J83"/>
+    <mergeCell ref="I67:J67"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="I73:J73"/>
+    <mergeCell ref="I82:J82"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="I62:J62"/>
+    <mergeCell ref="I56:J56"/>
+    <mergeCell ref="I57:J57"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="I64:J64"/>
+    <mergeCell ref="I63:J63"/>
+    <mergeCell ref="I61:J61"/>
+    <mergeCell ref="I59:J59"/>
+    <mergeCell ref="I84:J84"/>
+    <mergeCell ref="I78:J78"/>
+    <mergeCell ref="I81:J81"/>
+    <mergeCell ref="I85:J85"/>
+    <mergeCell ref="I79:J79"/>
+    <mergeCell ref="I80:J80"/>
+    <mergeCell ref="I99:J99"/>
+    <mergeCell ref="I96:J96"/>
+    <mergeCell ref="I94:J94"/>
+    <mergeCell ref="I92:J92"/>
+    <mergeCell ref="I89:J89"/>
+    <mergeCell ref="I91:J91"/>
+    <mergeCell ref="I114:J114"/>
+    <mergeCell ref="I108:J108"/>
+    <mergeCell ref="I105:J105"/>
+    <mergeCell ref="I102:J102"/>
+    <mergeCell ref="I106:J106"/>
     <mergeCell ref="I119:J119"/>
     <mergeCell ref="I87:J87"/>
     <mergeCell ref="I123:J123"/>
@@ -5469,85 +5664,6 @@
     <mergeCell ref="I109:J109"/>
     <mergeCell ref="I118:J118"/>
     <mergeCell ref="I101:J101"/>
-    <mergeCell ref="I114:J114"/>
-    <mergeCell ref="I108:J108"/>
-    <mergeCell ref="I105:J105"/>
-    <mergeCell ref="I102:J102"/>
-    <mergeCell ref="I106:J106"/>
-    <mergeCell ref="I99:J99"/>
-    <mergeCell ref="I96:J96"/>
-    <mergeCell ref="I94:J94"/>
-    <mergeCell ref="I92:J92"/>
-    <mergeCell ref="I89:J89"/>
-    <mergeCell ref="I91:J91"/>
-    <mergeCell ref="I84:J84"/>
-    <mergeCell ref="I78:J78"/>
-    <mergeCell ref="I81:J81"/>
-    <mergeCell ref="I85:J85"/>
-    <mergeCell ref="I79:J79"/>
-    <mergeCell ref="I80:J80"/>
-    <mergeCell ref="I62:J62"/>
-    <mergeCell ref="I56:J56"/>
-    <mergeCell ref="I57:J57"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="I64:J64"/>
-    <mergeCell ref="I63:J63"/>
-    <mergeCell ref="I61:J61"/>
-    <mergeCell ref="I59:J59"/>
-    <mergeCell ref="I121:J121"/>
-    <mergeCell ref="I66:J66"/>
-    <mergeCell ref="I71:J71"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="I68:J68"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="I86:J86"/>
-    <mergeCell ref="I83:J83"/>
-    <mergeCell ref="I67:J67"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="I73:J73"/>
-    <mergeCell ref="I82:J82"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="I138:J138"/>
-    <mergeCell ref="I112:J112"/>
-    <mergeCell ref="I88:J88"/>
-    <mergeCell ref="I90:J90"/>
-    <mergeCell ref="I113:J113"/>
-    <mergeCell ref="I98:J98"/>
-    <mergeCell ref="I93:J93"/>
-    <mergeCell ref="I111:J111"/>
-    <mergeCell ref="I107:J107"/>
-    <mergeCell ref="I126:J126"/>
-    <mergeCell ref="I122:J122"/>
-    <mergeCell ref="I120:J120"/>
-    <mergeCell ref="I95:J95"/>
-    <mergeCell ref="I128:J128"/>
-    <mergeCell ref="I125:J125"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="I60:J60"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="I55:J55"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="I52:J53"/>
-    <mergeCell ref="E52:H52"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="I137:J137"/>
-    <mergeCell ref="I135:J135"/>
-    <mergeCell ref="I132:J132"/>
-    <mergeCell ref="I129:J129"/>
-    <mergeCell ref="I130:J130"/>
-    <mergeCell ref="I136:J136"/>
-    <mergeCell ref="I134:J134"/>
-    <mergeCell ref="I133:J133"/>
-    <mergeCell ref="I131:J131"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -5563,12 +5679,12 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:S64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A137" sqref="A137"/>
-      <selection pane="topRight" activeCell="A17" sqref="A17"/>
+      <selection pane="topRight" activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="3"/>
@@ -5732,25 +5848,25 @@
       <c r="B8" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="46" t="str">
+      <c r="C8" s="46">
         <f>IF(MIN(C9:C14)&lt;&gt;0,MIN(C9:C14),"")</f>
-        <v/>
-      </c>
-      <c r="D8" s="46" t="str">
+        <v>40290</v>
+      </c>
+      <c r="D8" s="46">
         <f>IF(MAX(D9:D14)&lt;&gt;0,MAX(D9:D14),"")</f>
-        <v/>
-      </c>
-      <c r="E8" s="46" t="str">
+        <v>40290</v>
+      </c>
+      <c r="E8" s="46">
         <f>IF(MIN(E9:E14)&lt;&gt;0,MIN(E9:E14),"")</f>
-        <v/>
+        <v>40290</v>
       </c>
       <c r="F8" s="46" t="str">
         <f>IF(COUNT(D9:D14)=COUNT(F9:F14),MAX(F9:F14),"")</f>
         <v/>
       </c>
-      <c r="G8" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G9:G14)</f>
-        <v>#REF!</v>
+      <c r="G8" s="155">
+        <f>SUMIF($B9:$B301,"&gt;0",G9:G301)</f>
+        <v>0</v>
       </c>
       <c r="H8" s="155" t="e">
         <f>SUMIF(#REF!,"&gt;0",H9:H14)</f>
@@ -5796,25 +5912,25 @@
         <v>238</v>
       </c>
       <c r="B9" s="45"/>
-      <c r="C9" s="46" t="str">
+      <c r="C9" s="46">
         <f>IF(MIN(C10:C12)&lt;&gt;0,MIN(C10:C12),"")</f>
-        <v/>
-      </c>
-      <c r="D9" s="46" t="str">
+        <v>40290</v>
+      </c>
+      <c r="D9" s="46">
         <f>IF(MAX(D10:D12)&lt;&gt;0,MAX(D10:D12),"")</f>
-        <v/>
-      </c>
-      <c r="E9" s="46" t="str">
+        <v>40290</v>
+      </c>
+      <c r="E9" s="46">
         <f>IF(MIN(E10:E12)&lt;&gt;0,MIN(E10:E12),"")</f>
-        <v/>
+        <v>40290</v>
       </c>
       <c r="F9" s="46" t="str">
         <f>IF(COUNT(D10:D12)=COUNT(F10:F12),MAX(F10:F12),"")</f>
         <v/>
       </c>
-      <c r="G9" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G10:G12)</f>
-        <v>#REF!</v>
+      <c r="G9" s="155">
+        <f>SUMIF($B10:$B84,"&gt;0",G10:G84)</f>
+        <v>0</v>
       </c>
       <c r="H9" s="155" t="e">
         <f>SUMIF(#REF!,"&gt;0",H10:H12)</f>
@@ -5860,25 +5976,25 @@
       <c r="B10" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="C10" s="138" t="str">
+      <c r="C10" s="138">
         <f>IF(MIN(C11:C12)&lt;&gt;0,MIN(C11:C12),"")</f>
-        <v/>
-      </c>
-      <c r="D10" s="138" t="str">
+        <v>40290</v>
+      </c>
+      <c r="D10" s="138">
         <f>IF(MAX(D11:D12)&lt;&gt;0,MAX(D11:D12),"")</f>
-        <v/>
-      </c>
-      <c r="E10" s="138" t="str">
+        <v>40290</v>
+      </c>
+      <c r="E10" s="138">
         <f>IF(MIN(E11:E12)&lt;&gt;0,MIN(E11:E12),"")</f>
-        <v/>
+        <v>40290</v>
       </c>
       <c r="F10" s="138" t="str">
         <f>IF(COUNT(D11:D12)=COUNT(F11:F12),MAX(F11:F12),"")</f>
         <v/>
       </c>
-      <c r="G10" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G11:G12)</f>
-        <v>#REF!</v>
+      <c r="G10" s="157">
+        <f>SUMIF($B11:$B12,"&gt;0",G11:G12)</f>
+        <v>0</v>
       </c>
       <c r="H10" s="157" t="e">
         <f>SUMIF(#REF!,"&gt;0",H11:H12)</f>
@@ -5922,25 +6038,25 @@
         <v>211</v>
       </c>
       <c r="B11" s="42"/>
-      <c r="C11" s="76" t="str">
+      <c r="C11" s="76">
         <f>IF(MIN(C12:C12)&lt;&gt;0,MIN(C12:C12),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="D11" s="76">
+        <f>IF(MAX(D12:D12)&lt;&gt;0,MAX(D12:D12),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="E11" s="76">
+        <f>IF(MIN(E12:E12)&lt;&gt;0,MIN(E12:E12),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="F11" s="76" t="str">
+        <f>IF(COUNT(D12:D12)=COUNT(F12:F12),MAX(F12:F12),"")</f>
         <v/>
       </c>
-      <c r="D11" s="76" t="str">
-        <f>IF(MAX(D12:D12)&lt;&gt;0,MAX(D12:D12),"")</f>
-        <v/>
-      </c>
-      <c r="E11" s="76" t="str">
-        <f>IF(MIN(E12:E12)&lt;&gt;0,MIN(E12:E12),"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="76">
-        <f>MAX(F12:F12)</f>
+      <c r="G11" s="159">
+        <f>SUMIF($B12:$B12,"&gt;0",G12:G12)</f>
         <v>0</v>
-      </c>
-      <c r="G11" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G12:G12)</f>
-        <v>#REF!</v>
       </c>
       <c r="H11" s="159" t="e">
         <f>SUMIF(#REF!,"&gt;0",H12:H12)</f>
@@ -5983,20 +6099,30 @@
       <c r="A12" s="80" t="s">
         <v>245</v>
       </c>
-      <c r="B12" s="141"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
+      <c r="B12" s="141" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="44">
+        <v>40290</v>
+      </c>
+      <c r="D12" s="44">
+        <v>40290</v>
+      </c>
+      <c r="E12" s="44">
+        <v>40290</v>
+      </c>
       <c r="F12" s="44"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="116" t="str">
+      <c r="G12" s="160">
+        <v>2</v>
+      </c>
+      <c r="H12" s="116">
         <f>+IF(AND(C12&lt;&gt;"",D12&lt;&gt;"",G12&lt;&gt;""),IF(C12&lt;Parâmetros!$B$6,IF(D12&gt;Parâmetros!$B$6,G12/2,G12),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="I12" s="116"/>
-      <c r="J12" s="116" t="str">
+      <c r="J12" s="116">
         <f>+IF(AND(E12&lt;&gt;"",G12&lt;&gt;""),IF(E12&lt;=Parâmetros!$B$6,IF(F12="",G12/2,IF(F12&gt;Parâmetros!$B$6,G12/2,G12)),0),"")</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="K12" s="116"/>
       <c r="L12" s="116" t="e">
@@ -6019,463 +6145,284 @@
     </row>
     <row r="13" spans="1:19" hidden="1" outlineLevel="3"/>
     <row r="14" spans="1:19" hidden="1" outlineLevel="3"/>
-    <row r="15" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A15" s="139" t="s">
-        <v>241</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="46" t="str">
-        <f>IF(MIN(C16:C18)&lt;&gt;0,MIN(C16:C18),"")</f>
+    <row r="15" spans="1:19" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A15" s="136" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="138">
+        <f>IF(MIN(C16:C17)&lt;&gt;0,MIN(C16:C17),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="D15" s="138">
+        <f>IF(MAX(D16:D17)&lt;&gt;0,MAX(D16:D17),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="E15" s="138">
+        <f>IF(MIN(E16:E17)&lt;&gt;0,MIN(E16:E17),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="F15" s="138" t="str">
+        <f>IF(COUNT(D16:D17)=COUNT(F16:F17),MAX(F16:F17),"")</f>
         <v/>
       </c>
-      <c r="D15" s="46" t="str">
-        <f>IF(MAX(D16:D18)&lt;&gt;0,MAX(D16:D18),"")</f>
+      <c r="G15" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G16:G17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H15" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H16:H17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I15" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I16:I17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J15" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J16:J17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K15" s="158" t="e">
+        <f>+J15-H15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L15" s="157" t="e">
+        <f>+J15-I15</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M15" s="164" t="e">
+        <f>+IF(H15&lt;&gt;0,J15/H15,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N15" s="164" t="e">
+        <f>+IF(I15&lt;&gt;0,J15/I15,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O15" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O16:O17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P15" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P16:P17)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A16" s="219" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="76">
+        <f>IF(MIN(C17:C17)&lt;&gt;0,MIN(C17:C17),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="D16" s="76">
+        <f>IF(MAX(D17:D17)&lt;&gt;0,MAX(D17:D17),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="E16" s="76">
+        <f>IF(MIN(E17:E17)&lt;&gt;0,MIN(E17:E17),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="F16" s="76" t="str">
+        <f>IF(COUNT(D17:D17)=COUNT(F17:F17),MAX(F17:F17),"")</f>
         <v/>
       </c>
-      <c r="E15" s="46" t="str">
-        <f>IF(MIN(E16:E18)&lt;&gt;0,MIN(E16:E18),"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="46" t="str">
-        <f>IF(COUNT(D16:D18)=COUNT(F16:F18),MAX(F16:F18),"")</f>
-        <v/>
-      </c>
-      <c r="G15" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G16:G18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H16:H18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I16:I18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J16:J18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="156" t="e">
-        <f>+J15-H15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="155" t="e">
-        <f>+J15-I15</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M15" s="163" t="e">
-        <f>+IF(H15&lt;&gt;0,J15/H15,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N15" s="163" t="e">
-        <f>+IF(I15&lt;&gt;0,J15/I15,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O15" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O16:O18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",P16:P18)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A16" s="136" t="s">
-        <v>148</v>
-      </c>
-      <c r="B16" s="137" t="s">
-        <v>170</v>
-      </c>
-      <c r="C16" s="138" t="str">
-        <f>IF(MIN(C17:C18)&lt;&gt;0,MIN(C17:C18),"")</f>
-        <v/>
-      </c>
-      <c r="D16" s="138" t="str">
-        <f>IF(MAX(D17:D18)&lt;&gt;0,MAX(D17:D18),"")</f>
-        <v/>
-      </c>
-      <c r="E16" s="138" t="str">
-        <f>IF(MIN(E17:E18)&lt;&gt;0,MIN(E17:E18),"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="138" t="str">
-        <f>IF(COUNT(D17:D18)=COUNT(F17:F18),MAX(F17:F18),"")</f>
-        <v/>
-      </c>
-      <c r="G16" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G17:G18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H17:H18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I17:I18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J17:J18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="158" t="e">
+      <c r="G16" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G17:G17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H16" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H17:H17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I16" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I17:I17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J16" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J17:J17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K16" s="159" t="e">
         <f>+J16-H16</f>
         <v>#REF!</v>
       </c>
-      <c r="L16" s="157" t="e">
+      <c r="L16" s="159" t="e">
         <f>+J16-I16</f>
         <v>#REF!</v>
       </c>
-      <c r="M16" s="164" t="e">
+      <c r="M16" s="165" t="e">
         <f>+IF(H16&lt;&gt;0,J16/H16,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="N16" s="164" t="e">
+      <c r="N16" s="165" t="e">
         <f>+IF(I16&lt;&gt;0,J16/I16,0)</f>
         <v>#REF!</v>
       </c>
-      <c r="O16" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O17:O18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",P17:P18)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
-      <c r="A17" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="76" t="str">
-        <f>IF(MIN(C18:C18)&lt;&gt;0,MIN(C18:C18),"")</f>
-        <v/>
-      </c>
-      <c r="D17" s="76" t="str">
-        <f>IF(MAX(D18:D18)&lt;&gt;0,MAX(D18:D18),"")</f>
-        <v/>
-      </c>
-      <c r="E17" s="76" t="str">
-        <f>IF(MIN(E18:E18)&lt;&gt;0,MIN(E18:E18),"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="76">
-        <f>MAX(F18:F18)</f>
+      <c r="O16" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O17:O17)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P16" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P17:P17)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" outlineLevel="3">
+      <c r="A17" s="221" t="s">
+        <v>248</v>
+      </c>
+      <c r="B17" s="218"/>
+      <c r="C17" s="44">
+        <v>40290</v>
+      </c>
+      <c r="D17" s="223">
+        <v>40290</v>
+      </c>
+      <c r="E17" s="223">
+        <v>40290</v>
+      </c>
+      <c r="F17" s="223"/>
+      <c r="G17" s="224">
+        <v>2</v>
+      </c>
+      <c r="H17" s="225">
+        <f>+IF(AND(C17&lt;&gt;"",D17&lt;&gt;"",G17&lt;&gt;""),IF(C17&lt;Parâmetros!$B$6,IF(D17&gt;Parâmetros!$B$6,G17/2,G17),0),"")</f>
         <v>0</v>
       </c>
-      <c r="G17" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G18:G18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H17" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H18:H18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I17" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I18:I18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J17" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J18:J18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K17" s="159" t="e">
-        <f>+J17-H17</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L17" s="159" t="e">
-        <f>+J17-I17</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M17" s="165" t="e">
-        <f>+IF(H17&lt;&gt;0,J17/H17,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N17" s="165" t="e">
-        <f>+IF(I17&lt;&gt;0,J17/I17,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O17" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O18:O18)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P17" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",P18:P18)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="I17" s="225"/>
+      <c r="J17" s="225">
+        <f>+IF(AND(E17&lt;&gt;"",G17&lt;&gt;""),IF(E17&lt;=Parâmetros!$B$6,IF(F17="",G17/2,IF(F17&gt;Parâmetros!$B$6,G17/2,G17)),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="225"/>
+      <c r="L17" s="225" t="e">
+        <f>IF(AND(#REF!&gt;0,J17&lt;&gt;"",I17&lt;&gt;""),J17-I17,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M17" s="226" t="e">
+        <f>+IF(AND(#REF!&gt;0,H17&lt;&gt;0,H17&lt;&gt;"",J17&lt;&gt;""),J17/H17,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N17" s="226" t="e">
+        <f>+IF(AND(#REF!&gt;0,J17&lt;&gt;"",I17&lt;&gt;0,I17&lt;&gt;""),J17/I17,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O17" s="225" t="e">
+        <f>IF(#REF!="Cast",G17*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P17" s="225"/>
     </row>
     <row r="18" spans="1:16" outlineLevel="3">
-      <c r="A18" s="80"/>
+      <c r="A18" s="217" t="s">
+        <v>249</v>
+      </c>
       <c r="B18" s="141"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="116" t="str">
-        <f>+IF(AND(C18&lt;&gt;"",D18&lt;&gt;"",G18&lt;&gt;""),IF(C18&lt;Parâmetros!$B$6,IF(D18&gt;Parâmetros!$B$6,G18/2,G18),0),"")</f>
-        <v/>
-      </c>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116" t="str">
-        <f>+IF(AND(E18&lt;&gt;"",G18&lt;&gt;""),IF(E18&lt;=Parâmetros!$B$6,IF(F18="",G18/2,IF(F18&gt;Parâmetros!$B$6,G18/2,G18)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K18" s="116"/>
-      <c r="L18" s="116" t="e">
-        <f>IF(AND(#REF!&gt;0,J18&lt;&gt;"",I18&lt;&gt;""),J18-I18,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M18" s="166" t="e">
-        <f>+IF(AND(#REF!&gt;0,H18&lt;&gt;0,H18&lt;&gt;"",J18&lt;&gt;""),J18/H18,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N18" s="166" t="e">
-        <f>+IF(AND(#REF!&gt;0,J18&lt;&gt;"",I18&lt;&gt;0,I18&lt;&gt;""),J18/I18,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O18" s="116" t="e">
-        <f>IF(#REF!="Cast",G18*Parâmetros!$B$56,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P18" s="116"/>
-    </row>
-    <row r="19" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A19" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="46" t="str">
-        <f>IF(MIN(C20:C22)&lt;&gt;0,MIN(C20:C22),"")</f>
-        <v/>
-      </c>
-      <c r="D19" s="46" t="str">
-        <f>IF(MAX(D20:D22)&lt;&gt;0,MAX(D20:D22),"")</f>
-        <v/>
-      </c>
-      <c r="E19" s="46" t="str">
-        <f>IF(MIN(E20:E22)&lt;&gt;0,MIN(E20:E22),"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="46" t="str">
-        <f>IF(COUNT(D20:D22)=COUNT(F20:F22),MAX(F20:F22),"")</f>
-        <v/>
-      </c>
-      <c r="G19" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G20:G22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H19" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H20:H22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I19" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I20:I22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J19" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J20:J22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K19" s="156" t="e">
-        <f>+J19-H19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L19" s="155" t="e">
-        <f>+J19-I19</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M19" s="163" t="e">
-        <f>+IF(H19&lt;&gt;0,J19/H19,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N19" s="163" t="e">
-        <f>+IF(I19&lt;&gt;0,J19/I19,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O19" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O20:O22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P19" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",P20:P22)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A20" s="136" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="137" t="s">
-        <v>170</v>
-      </c>
-      <c r="C20" s="138" t="str">
-        <f>IF(MIN(C21:C22)&lt;&gt;0,MIN(C21:C22),"")</f>
-        <v/>
-      </c>
-      <c r="D20" s="138" t="str">
-        <f>IF(MAX(D21:D22)&lt;&gt;0,MAX(D21:D22),"")</f>
-        <v/>
-      </c>
-      <c r="E20" s="138" t="str">
-        <f>IF(MIN(E21:E22)&lt;&gt;0,MIN(E21:E22),"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="138" t="str">
-        <f>IF(COUNT(D21:D22)=COUNT(F21:F22),MAX(F21:F22),"")</f>
-        <v/>
-      </c>
-      <c r="G20" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G21:G22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H20" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H21:H22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I20" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I21:I22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J20" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J21:J22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K20" s="158" t="e">
-        <f>+J20-H20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L20" s="157" t="e">
-        <f>+J20-I20</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M20" s="164" t="e">
-        <f>+IF(H20&lt;&gt;0,J20/H20,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N20" s="164" t="e">
-        <f>+IF(I20&lt;&gt;0,J20/I20,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O20" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O21:O22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P20" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",P21:P22)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
-      <c r="A21" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="76" t="str">
-        <f>IF(MIN(C22:C22)&lt;&gt;0,MIN(C22:C22),"")</f>
-        <v/>
-      </c>
-      <c r="D21" s="76" t="str">
-        <f>IF(MAX(D22:D22)&lt;&gt;0,MAX(D22:D22),"")</f>
-        <v/>
-      </c>
-      <c r="E21" s="76" t="str">
-        <f>IF(MIN(E22:E22)&lt;&gt;0,MIN(E22:E22),"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="76">
-        <f>MAX(F22:F22)</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G22:G22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H21" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H22:H22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I21" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I22:I22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J21" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J22:J22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K21" s="159" t="e">
-        <f>+J21-H21</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L21" s="159" t="e">
-        <f>+J21-I21</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M21" s="165" t="e">
-        <f>+IF(H21&lt;&gt;0,J21/H21,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N21" s="165" t="e">
-        <f>+IF(I21&lt;&gt;0,J21/I21,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O21" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O22:O22)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P21" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",P22:P22)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="C18" s="222"/>
+      <c r="D18" s="227"/>
+      <c r="E18" s="227"/>
+      <c r="F18" s="227"/>
+      <c r="G18" s="228"/>
+      <c r="H18" s="229"/>
+      <c r="I18" s="229"/>
+      <c r="J18" s="229"/>
+      <c r="K18" s="229"/>
+      <c r="L18" s="229"/>
+      <c r="M18" s="230"/>
+      <c r="N18" s="230"/>
+      <c r="O18" s="229"/>
+      <c r="P18" s="229"/>
+    </row>
+    <row r="19" spans="1:16" outlineLevel="3">
+      <c r="A19" s="220" t="s">
+        <v>250</v>
+      </c>
+      <c r="B19" s="141"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="227"/>
+      <c r="E19" s="227"/>
+      <c r="F19" s="227"/>
+      <c r="G19" s="228"/>
+      <c r="H19" s="229"/>
+      <c r="I19" s="229"/>
+      <c r="J19" s="229"/>
+      <c r="K19" s="229"/>
+      <c r="L19" s="229"/>
+      <c r="M19" s="230"/>
+      <c r="N19" s="230"/>
+      <c r="O19" s="229"/>
+      <c r="P19" s="229"/>
+    </row>
+    <row r="20" spans="1:16" outlineLevel="3">
+      <c r="A20" s="217" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="141"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="227"/>
+      <c r="F20" s="227"/>
+      <c r="G20" s="228"/>
+      <c r="H20" s="229"/>
+      <c r="I20" s="229"/>
+      <c r="J20" s="229"/>
+      <c r="K20" s="229"/>
+      <c r="L20" s="229"/>
+      <c r="M20" s="230"/>
+      <c r="N20" s="230"/>
+      <c r="O20" s="229"/>
+      <c r="P20" s="229"/>
+    </row>
+    <row r="21" spans="1:16" outlineLevel="3">
+      <c r="A21" s="220" t="s">
+        <v>252</v>
+      </c>
+      <c r="B21" s="141"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="227"/>
+      <c r="E21" s="227"/>
+      <c r="F21" s="227"/>
+      <c r="G21" s="228"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="229"/>
+      <c r="J21" s="229"/>
+      <c r="K21" s="229"/>
+      <c r="L21" s="229"/>
+      <c r="M21" s="230"/>
+      <c r="N21" s="230"/>
+      <c r="O21" s="229"/>
+      <c r="P21" s="229"/>
     </row>
     <row r="22" spans="1:16" outlineLevel="3">
-      <c r="A22" s="80"/>
+      <c r="A22" s="220" t="s">
+        <v>253</v>
+      </c>
       <c r="B22" s="141"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="116" t="str">
-        <f>+IF(AND(C22&lt;&gt;"",D22&lt;&gt;"",G22&lt;&gt;""),IF(C22&lt;Parâmetros!$B$6,IF(D22&gt;Parâmetros!$B$6,G22/2,G22),0),"")</f>
-        <v/>
-      </c>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116" t="str">
-        <f>+IF(AND(E22&lt;&gt;"",G22&lt;&gt;""),IF(E22&lt;=Parâmetros!$B$6,IF(F22="",G22/2,IF(F22&gt;Parâmetros!$B$6,G22/2,G22)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116" t="e">
-        <f>IF(AND(#REF!&gt;0,J22&lt;&gt;"",I22&lt;&gt;""),J22-I22,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M22" s="166" t="e">
-        <f>+IF(AND(#REF!&gt;0,H22&lt;&gt;0,H22&lt;&gt;"",J22&lt;&gt;""),J22/H22,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N22" s="166" t="e">
-        <f>+IF(AND(#REF!&gt;0,J22&lt;&gt;"",I22&lt;&gt;0,I22&lt;&gt;""),J22/I22,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O22" s="116" t="e">
-        <f>IF(#REF!="Cast",G22*Parâmetros!$B$56,"")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P22" s="116"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="227"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="228"/>
+      <c r="H22" s="229"/>
+      <c r="I22" s="229"/>
+      <c r="J22" s="229"/>
+      <c r="K22" s="229"/>
+      <c r="L22" s="229"/>
+      <c r="M22" s="230"/>
+      <c r="N22" s="230"/>
+      <c r="O22" s="229"/>
+      <c r="P22" s="229"/>
     </row>
     <row r="23" spans="1:16" ht="20.25" customHeight="1">
       <c r="A23" s="139" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B23" s="45"/>
-      <c r="C23" s="46" t="str">
-        <f>IF(MIN(C24:C26)&lt;&gt;0,MIN(C24:C26),"")</f>
-        <v/>
-      </c>
+      <c r="C23" s="45"/>
       <c r="D23" s="46" t="str">
         <f>IF(MAX(D24:D26)&lt;&gt;0,MAX(D24:D26),"")</f>
         <v/>
@@ -6531,7 +6478,7 @@
     </row>
     <row r="24" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
       <c r="A24" s="136" t="s">
-        <v>148</v>
+        <v>246</v>
       </c>
       <c r="B24" s="137" t="s">
         <v>170</v>
@@ -6595,7 +6542,7 @@
     </row>
     <row r="25" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
       <c r="A25" s="81" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="76" t="str">
@@ -6611,7 +6558,7 @@
         <v/>
       </c>
       <c r="F25" s="76">
-        <f>MAX(F26:F26)</f>
+        <f>IF(COUNT(D26:D26)=COUNT(F26:F26),MAX(F26:F26),"")</f>
         <v>0</v>
       </c>
       <c r="G25" s="159" t="e">
@@ -6656,7 +6603,9 @@
       </c>
     </row>
     <row r="26" spans="1:16" outlineLevel="3">
-      <c r="A26" s="80"/>
+      <c r="A26" s="80" t="s">
+        <v>254</v>
+      </c>
       <c r="B26" s="141"/>
       <c r="C26" s="44"/>
       <c r="D26" s="44"/>
@@ -6691,196 +6640,92 @@
       </c>
       <c r="P26" s="116"/>
     </row>
-    <row r="27" spans="1:16" ht="20.25" customHeight="1">
-      <c r="A27" s="139" t="s">
-        <v>244</v>
-      </c>
-      <c r="B27" s="45"/>
-      <c r="C27" s="46" t="str">
-        <f>IF(MIN(C28:C30)&lt;&gt;0,MIN(C28:C30),"")</f>
+    <row r="27" spans="1:16" outlineLevel="3">
+      <c r="A27" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B27" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="116" t="str">
+        <f>+IF(AND(C27&lt;&gt;"",D27&lt;&gt;"",G27&lt;&gt;""),IF(C27&lt;Parâmetros!$B$6,IF(D27&gt;Parâmetros!$B$6,G27/2,G27),0),"")</f>
         <v/>
       </c>
-      <c r="D27" s="46" t="str">
-        <f>IF(MAX(D28:D30)&lt;&gt;0,MAX(D28:D30),"")</f>
+      <c r="I27" s="116"/>
+      <c r="J27" s="116" t="str">
+        <f>+IF(AND(E27&lt;&gt;"",G27&lt;&gt;""),IF(E27&lt;=Parâmetros!$B$6,IF(F27="",G27/2,IF(F27&gt;Parâmetros!$B$6,G27/2,G27)),0),"")</f>
         <v/>
       </c>
-      <c r="E27" s="46" t="str">
-        <f>IF(MIN(E28:E30)&lt;&gt;0,MIN(E28:E30),"")</f>
-        <v/>
-      </c>
-      <c r="F27" s="46" t="str">
-        <f>IF(COUNT(D28:D30)=COUNT(F28:F30),MAX(F28:F30),"")</f>
-        <v/>
-      </c>
-      <c r="G27" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G28:G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H27" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H28:H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I27" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I28:I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J27" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J28:J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K27" s="156" t="e">
-        <f>+J27-H27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L27" s="155" t="e">
-        <f>+J27-I27</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M27" s="163" t="e">
-        <f>+IF(H27&lt;&gt;0,J27/H27,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N27" s="163" t="e">
-        <f>+IF(I27&lt;&gt;0,J27/I27,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O27" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O28:O30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="155" t="e">
-        <f>SUMIF(#REF!,"&gt;0",P28:P30)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A28" s="136" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="137" t="s">
-        <v>170</v>
-      </c>
-      <c r="C28" s="138" t="str">
-        <f>IF(MIN(C29:C30)&lt;&gt;0,MIN(C29:C30),"")</f>
-        <v/>
-      </c>
-      <c r="D28" s="138" t="str">
-        <f>IF(MAX(D29:D30)&lt;&gt;0,MAX(D29:D30),"")</f>
-        <v/>
-      </c>
-      <c r="E28" s="138" t="str">
-        <f>IF(MIN(E29:E30)&lt;&gt;0,MIN(E29:E30),"")</f>
-        <v/>
-      </c>
-      <c r="F28" s="138" t="str">
-        <f>IF(COUNT(D29:D30)=COUNT(F29:F30),MAX(F29:F30),"")</f>
-        <v/>
-      </c>
-      <c r="G28" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G29:G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H28" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H29:H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I28" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I29:I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J28" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J29:J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K28" s="158" t="e">
-        <f>+J28-H28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L28" s="157" t="e">
-        <f>+J28-I28</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M28" s="164" t="e">
-        <f>+IF(H28&lt;&gt;0,J28/H28,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N28" s="164" t="e">
-        <f>+IF(I28&lt;&gt;0,J28/I28,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O28" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O29:O30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P28" s="157" t="e">
-        <f>SUMIF(#REF!,"&gt;0",P29:P30)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
-      <c r="A29" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="76" t="str">
-        <f>IF(MIN(C30:C30)&lt;&gt;0,MIN(C30:C30),"")</f>
-        <v/>
-      </c>
-      <c r="D29" s="76" t="str">
-        <f>IF(MAX(D30:D30)&lt;&gt;0,MAX(D30:D30),"")</f>
-        <v/>
-      </c>
-      <c r="E29" s="76" t="str">
-        <f>IF(MIN(E30:E30)&lt;&gt;0,MIN(E30:E30),"")</f>
-        <v/>
-      </c>
-      <c r="F29" s="76">
-        <f>MAX(F30:F30)</f>
-        <v>0</v>
-      </c>
-      <c r="G29" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",G30:G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H29" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",H30:H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I29" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",I30:I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J29" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",J30:J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K29" s="159" t="e">
-        <f>+J29-H29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L29" s="159" t="e">
-        <f>+J29-I29</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M29" s="165" t="e">
-        <f>+IF(H29&lt;&gt;0,J29/H29,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N29" s="165" t="e">
-        <f>+IF(I29&lt;&gt;0,J29/I29,0)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O29" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O30:O30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P29" s="159" t="e">
-        <f>SUMIF(#REF!,"&gt;0",P30:P30)</f>
-        <v>#REF!</v>
-      </c>
+      <c r="K27" s="116"/>
+      <c r="L27" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J27&lt;&gt;"",I27&lt;&gt;""),J27-I27,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M27" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H27&lt;&gt;0,H27&lt;&gt;"",J27&lt;&gt;""),J27/H27,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N27" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J27&lt;&gt;"",I27&lt;&gt;0,I27&lt;&gt;""),J27/I27,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O27" s="116" t="e">
+        <f>IF(#REF!="Cast",G27*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P27" s="116"/>
+    </row>
+    <row r="28" spans="1:16" outlineLevel="3">
+      <c r="A28" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="116"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="166"/>
+      <c r="O28" s="116"/>
+      <c r="P28" s="116"/>
+    </row>
+    <row r="29" spans="1:16" outlineLevel="3">
+      <c r="A29" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="B29" s="141"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="166"/>
+      <c r="N29" s="166"/>
+      <c r="O29" s="116"/>
+      <c r="P29" s="116"/>
     </row>
     <row r="30" spans="1:16" outlineLevel="3">
-      <c r="A30" s="80"/>
+      <c r="A30" s="80" t="s">
+        <v>257</v>
+      </c>
       <c r="B30" s="141"/>
       <c r="C30" s="44"/>
       <c r="D30" s="44"/>
@@ -6915,13 +6760,1389 @@
       </c>
       <c r="P30" s="116"/>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="47" t="s">
+    <row r="31" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A31" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="B31" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="138" t="str">
+        <f>IF(MIN(C32:C33)&lt;&gt;0,MIN(C32:C33),"")</f>
+        <v/>
+      </c>
+      <c r="D31" s="138" t="str">
+        <f>IF(MAX(D32:D33)&lt;&gt;0,MAX(D32:D33),"")</f>
+        <v/>
+      </c>
+      <c r="E31" s="138" t="str">
+        <f>IF(MIN(E32:E33)&lt;&gt;0,MIN(E32:E33),"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="138" t="str">
+        <f>IF(COUNT(D32:D33)=COUNT(F32:F33),MAX(F32:F33),"")</f>
+        <v/>
+      </c>
+      <c r="G31" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G32:G33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H31" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H32:H33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I31" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I32:I33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J31" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J32:J33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K31" s="158" t="e">
+        <f>+J31-H31</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L31" s="157" t="e">
+        <f>+J31-I31</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M31" s="164" t="e">
+        <f>+IF(H31&lt;&gt;0,J31/H31,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N31" s="164" t="e">
+        <f>+IF(I31&lt;&gt;0,J31/I31,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O31" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O32:O33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P31" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P32:P33)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A32" s="81" t="s">
+        <v>259</v>
+      </c>
+      <c r="B32" s="42"/>
+      <c r="C32" s="76" t="str">
+        <f>IF(MIN(C33:C33)&lt;&gt;0,MIN(C33:C33),"")</f>
+        <v/>
+      </c>
+      <c r="D32" s="76" t="str">
+        <f>IF(MAX(D33:D33)&lt;&gt;0,MAX(D33:D33),"")</f>
+        <v/>
+      </c>
+      <c r="E32" s="76" t="str">
+        <f>IF(MIN(E33:E33)&lt;&gt;0,MIN(E33:E33),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="76">
+        <f>IF(COUNT(D33:D33)=COUNT(F33:F33),MAX(F33:F33),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G33:G33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H32" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H33:H33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I32" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I33:I33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J32" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J33:J33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K32" s="159" t="e">
+        <f>+J32-H32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L32" s="159" t="e">
+        <f>+J32-I32</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M32" s="165" t="e">
+        <f>+IF(H32&lt;&gt;0,J32/H32,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N32" s="165" t="e">
+        <f>+IF(I32&lt;&gt;0,J32/I32,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O32" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O33:O33)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P32" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P33:P33)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" outlineLevel="3">
+      <c r="A33" s="80" t="s">
+        <v>262</v>
+      </c>
+      <c r="B33" s="141"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="116" t="str">
+        <f>+IF(AND(C33&lt;&gt;"",D33&lt;&gt;"",G33&lt;&gt;""),IF(C33&lt;Parâmetros!$B$6,IF(D33&gt;Parâmetros!$B$6,G33/2,G33),0),"")</f>
+        <v/>
+      </c>
+      <c r="I33" s="116"/>
+      <c r="J33" s="116" t="str">
+        <f>+IF(AND(E33&lt;&gt;"",G33&lt;&gt;""),IF(E33&lt;=Parâmetros!$B$6,IF(F33="",G33/2,IF(F33&gt;Parâmetros!$B$6,G33/2,G33)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K33" s="116"/>
+      <c r="L33" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J33&lt;&gt;"",I33&lt;&gt;""),J33-I33,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M33" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H33&lt;&gt;0,H33&lt;&gt;"",J33&lt;&gt;""),J33/H33,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N33" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J33&lt;&gt;"",I33&lt;&gt;0,I33&lt;&gt;""),J33/I33,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O33" s="116" t="e">
+        <f>IF(#REF!="Cast",G33*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P33" s="116"/>
+    </row>
+    <row r="34" spans="1:16" outlineLevel="3">
+      <c r="A34" s="80" t="s">
+        <v>263</v>
+      </c>
+      <c r="B34" s="141"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="116" t="str">
+        <f>+IF(AND(C34&lt;&gt;"",D34&lt;&gt;"",G34&lt;&gt;""),IF(C34&lt;Parâmetros!$B$6,IF(D34&gt;Parâmetros!$B$6,G34/2,G34),0),"")</f>
+        <v/>
+      </c>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116" t="str">
+        <f>+IF(AND(E34&lt;&gt;"",G34&lt;&gt;""),IF(E34&lt;=Parâmetros!$B$6,IF(F34="",G34/2,IF(F34&gt;Parâmetros!$B$6,G34/2,G34)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K34" s="116"/>
+      <c r="L34" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J34&lt;&gt;"",I34&lt;&gt;""),J34-I34,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M34" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H34&lt;&gt;0,H34&lt;&gt;"",J34&lt;&gt;""),J34/H34,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N34" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J34&lt;&gt;"",I34&lt;&gt;0,I34&lt;&gt;""),J34/I34,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O34" s="116" t="e">
+        <f>IF(#REF!="Cast",G34*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P34" s="116"/>
+    </row>
+    <row r="35" spans="1:16" outlineLevel="3">
+      <c r="A35" s="80" t="s">
+        <v>264</v>
+      </c>
+      <c r="B35" s="141"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="116"/>
+      <c r="M35" s="166"/>
+      <c r="N35" s="166"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="116"/>
+    </row>
+    <row r="36" spans="1:16" outlineLevel="3">
+      <c r="A36" s="231" t="s">
+        <v>254</v>
+      </c>
+      <c r="B36" s="141"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="116"/>
+      <c r="I36" s="116"/>
+      <c r="J36" s="116"/>
+      <c r="K36" s="116"/>
+      <c r="L36" s="116"/>
+      <c r="M36" s="166"/>
+      <c r="N36" s="166"/>
+      <c r="O36" s="116"/>
+      <c r="P36" s="116"/>
+    </row>
+    <row r="37" spans="1:16" outlineLevel="3">
+      <c r="A37" s="231" t="s">
+        <v>255</v>
+      </c>
+      <c r="B37" s="141"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="160"/>
+      <c r="H37" s="116"/>
+      <c r="I37" s="116"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="116"/>
+      <c r="M37" s="166"/>
+      <c r="N37" s="166"/>
+      <c r="O37" s="116"/>
+      <c r="P37" s="116"/>
+    </row>
+    <row r="38" spans="1:16" outlineLevel="3">
+      <c r="A38" s="231" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="141"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="160"/>
+      <c r="H38" s="116"/>
+      <c r="I38" s="116"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="116"/>
+      <c r="M38" s="166"/>
+      <c r="N38" s="166"/>
+      <c r="O38" s="116"/>
+      <c r="P38" s="116"/>
+    </row>
+    <row r="39" spans="1:16" outlineLevel="3">
+      <c r="A39" s="231" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" s="141"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="116"/>
+      <c r="I39" s="116"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="116"/>
+      <c r="M39" s="166"/>
+      <c r="N39" s="166"/>
+      <c r="O39" s="116"/>
+      <c r="P39" s="116"/>
+    </row>
+    <row r="40" spans="1:16" outlineLevel="3">
+      <c r="A40" s="80" t="s">
+        <v>265</v>
+      </c>
+      <c r="B40" s="141"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="116"/>
+      <c r="I40" s="116"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="116"/>
+      <c r="M40" s="166"/>
+      <c r="N40" s="166"/>
+      <c r="O40" s="116"/>
+      <c r="P40" s="116"/>
+    </row>
+    <row r="41" spans="1:16" outlineLevel="3">
+      <c r="A41" s="231" t="s">
+        <v>254</v>
+      </c>
+      <c r="B41" s="141"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="166"/>
+      <c r="N41" s="166"/>
+      <c r="O41" s="116"/>
+      <c r="P41" s="116"/>
+    </row>
+    <row r="42" spans="1:16" outlineLevel="3">
+      <c r="A42" s="231" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="141"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="166"/>
+      <c r="N42" s="166"/>
+      <c r="O42" s="116"/>
+      <c r="P42" s="116"/>
+    </row>
+    <row r="43" spans="1:16" outlineLevel="3">
+      <c r="A43" s="231" t="s">
+        <v>253</v>
+      </c>
+      <c r="B43" s="141"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="166"/>
+      <c r="N43" s="166"/>
+      <c r="O43" s="116"/>
+      <c r="P43" s="116"/>
+    </row>
+    <row r="44" spans="1:16" outlineLevel="3">
+      <c r="A44" s="231" t="s">
+        <v>256</v>
+      </c>
+      <c r="B44" s="141"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="116" t="str">
+        <f>+IF(AND(C44&lt;&gt;"",D44&lt;&gt;"",G44&lt;&gt;""),IF(C44&lt;Parâmetros!$B$6,IF(D44&gt;Parâmetros!$B$6,G44/2,G44),0),"")</f>
+        <v/>
+      </c>
+      <c r="I44" s="116"/>
+      <c r="J44" s="116" t="str">
+        <f>+IF(AND(E44&lt;&gt;"",G44&lt;&gt;""),IF(E44&lt;=Parâmetros!$B$6,IF(F44="",G44/2,IF(F44&gt;Parâmetros!$B$6,G44/2,G44)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K44" s="116"/>
+      <c r="L44" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J44&lt;&gt;"",I44&lt;&gt;""),J44-I44,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M44" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H44&lt;&gt;0,H44&lt;&gt;"",J44&lt;&gt;""),J44/H44,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N44" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J44&lt;&gt;"",I44&lt;&gt;0,I44&lt;&gt;""),J44/I44,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O44" s="116" t="e">
+        <f>IF(#REF!="Cast",G44*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P44" s="116"/>
+    </row>
+    <row r="45" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A45" s="136" t="s">
+        <v>261</v>
+      </c>
+      <c r="B45" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="138" t="str">
+        <f>IF(MIN(C46:C47)&lt;&gt;0,MIN(C46:C47),"")</f>
+        <v/>
+      </c>
+      <c r="D45" s="138" t="str">
+        <f>IF(MAX(D46:D47)&lt;&gt;0,MAX(D46:D47),"")</f>
+        <v/>
+      </c>
+      <c r="E45" s="138" t="str">
+        <f>IF(MIN(E46:E47)&lt;&gt;0,MIN(E46:E47),"")</f>
+        <v/>
+      </c>
+      <c r="F45" s="138" t="str">
+        <f>IF(COUNT(D46:D47)=COUNT(F46:F47),MAX(F46:F47),"")</f>
+        <v/>
+      </c>
+      <c r="G45" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G46:G47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H45" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H46:H47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I45" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I46:I47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J45" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J46:J47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K45" s="158" t="e">
+        <f>+J45-H45</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L45" s="157" t="e">
+        <f>+J45-I45</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M45" s="164" t="e">
+        <f>+IF(H45&lt;&gt;0,J45/H45,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N45" s="164" t="e">
+        <f>+IF(I45&lt;&gt;0,J45/I45,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O45" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O46:O47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P45" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P46:P47)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A46" s="81" t="s">
+        <v>260</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="76" t="str">
+        <f>IF(MIN(C47:C47)&lt;&gt;0,MIN(C47:C47),"")</f>
+        <v/>
+      </c>
+      <c r="D46" s="76" t="str">
+        <f>IF(MAX(D47:D47)&lt;&gt;0,MAX(D47:D47),"")</f>
+        <v/>
+      </c>
+      <c r="E46" s="76" t="str">
+        <f>IF(MIN(E47:E47)&lt;&gt;0,MIN(E47:E47),"")</f>
+        <v/>
+      </c>
+      <c r="F46" s="76">
+        <f>IF(COUNT(D47:D47)=COUNT(F47:F47),MAX(F47:F47),"")</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G47:G47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H46" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H47:H47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I46" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I47:I47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J46" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J47:J47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K46" s="159" t="e">
+        <f>+J46-H46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L46" s="159" t="e">
+        <f>+J46-I46</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M46" s="165" t="e">
+        <f>+IF(H46&lt;&gt;0,J46/H46,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N46" s="165" t="e">
+        <f>+IF(I46&lt;&gt;0,J46/I46,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O46" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O47:O47)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P46" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P47:P47)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" outlineLevel="3">
+      <c r="A47" s="80" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="141"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="116" t="str">
+        <f>+IF(AND(C47&lt;&gt;"",D47&lt;&gt;"",G47&lt;&gt;""),IF(C47&lt;Parâmetros!$B$6,IF(D47&gt;Parâmetros!$B$6,G47/2,G47),0),"")</f>
+        <v/>
+      </c>
+      <c r="I47" s="116"/>
+      <c r="J47" s="116" t="str">
+        <f>+IF(AND(E47&lt;&gt;"",G47&lt;&gt;""),IF(E47&lt;=Parâmetros!$B$6,IF(F47="",G47/2,IF(F47&gt;Parâmetros!$B$6,G47/2,G47)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K47" s="116"/>
+      <c r="L47" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J47&lt;&gt;"",I47&lt;&gt;""),J47-I47,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M47" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H47&lt;&gt;0,H47&lt;&gt;"",J47&lt;&gt;""),J47/H47,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N47" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J47&lt;&gt;"",I47&lt;&gt;0,I47&lt;&gt;""),J47/I47,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O47" s="116" t="e">
+        <f>IF(#REF!="Cast",G47*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P47" s="116"/>
+    </row>
+    <row r="48" spans="1:16" outlineLevel="3">
+      <c r="A48" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="116" t="str">
+        <f>+IF(AND(C48&lt;&gt;"",D48&lt;&gt;"",G48&lt;&gt;""),IF(C48&lt;Parâmetros!$B$6,IF(D48&gt;Parâmetros!$B$6,G48/2,G48),0),"")</f>
+        <v/>
+      </c>
+      <c r="I48" s="116"/>
+      <c r="J48" s="116" t="str">
+        <f>+IF(AND(E48&lt;&gt;"",G48&lt;&gt;""),IF(E48&lt;=Parâmetros!$B$6,IF(F48="",G48/2,IF(F48&gt;Parâmetros!$B$6,G48/2,G48)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K48" s="116"/>
+      <c r="L48" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J48&lt;&gt;"",I48&lt;&gt;""),J48-I48,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M48" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H48&lt;&gt;0,H48&lt;&gt;"",J48&lt;&gt;""),J48/H48,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N48" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J48&lt;&gt;"",I48&lt;&gt;0,I48&lt;&gt;""),J48/I48,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O48" s="116" t="e">
+        <f>IF(#REF!="Cast",G48*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P48" s="116"/>
+    </row>
+    <row r="49" spans="1:16" outlineLevel="3">
+      <c r="A49" s="80" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="116"/>
+      <c r="I49" s="116"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="116"/>
+      <c r="M49" s="166"/>
+      <c r="N49" s="166"/>
+      <c r="O49" s="116"/>
+      <c r="P49" s="116"/>
+    </row>
+    <row r="50" spans="1:16" outlineLevel="3">
+      <c r="A50" s="80" t="s">
+        <v>256</v>
+      </c>
+      <c r="B50" s="141"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="116"/>
+      <c r="M50" s="166"/>
+      <c r="N50" s="166"/>
+      <c r="O50" s="116"/>
+      <c r="P50" s="116"/>
+    </row>
+    <row r="51" spans="1:16" outlineLevel="3">
+      <c r="A51" s="80" t="s">
+        <v>257</v>
+      </c>
+      <c r="B51" s="141"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="116" t="str">
+        <f>+IF(AND(C51&lt;&gt;"",D51&lt;&gt;"",G51&lt;&gt;""),IF(C51&lt;Parâmetros!$B$6,IF(D51&gt;Parâmetros!$B$6,G51/2,G51),0),"")</f>
+        <v/>
+      </c>
+      <c r="I51" s="116"/>
+      <c r="J51" s="116" t="str">
+        <f>+IF(AND(E51&lt;&gt;"",G51&lt;&gt;""),IF(E51&lt;=Parâmetros!$B$6,IF(F51="",G51/2,IF(F51&gt;Parâmetros!$B$6,G51/2,G51)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K51" s="116"/>
+      <c r="L51" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J51&lt;&gt;"",I51&lt;&gt;""),J51-I51,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M51" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H51&lt;&gt;0,H51&lt;&gt;"",J51&lt;&gt;""),J51/H51,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N51" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J51&lt;&gt;"",I51&lt;&gt;0,I51&lt;&gt;""),J51/I51,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O51" s="116" t="e">
+        <f>IF(#REF!="Cast",G51*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P51" s="116"/>
+    </row>
+    <row r="52" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A52" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="B52" s="45"/>
+      <c r="C52" s="46" t="str">
+        <f>IF(MIN(C53:C55)&lt;&gt;0,MIN(C53:C55),"")</f>
+        <v/>
+      </c>
+      <c r="D52" s="46" t="str">
+        <f>IF(MAX(D53:D55)&lt;&gt;0,MAX(D53:D55),"")</f>
+        <v/>
+      </c>
+      <c r="E52" s="46" t="str">
+        <f>IF(MIN(E53:E55)&lt;&gt;0,MIN(E53:E55),"")</f>
+        <v/>
+      </c>
+      <c r="F52" s="46" t="str">
+        <f>IF(COUNT(D53:D55)=COUNT(F53:F55),MAX(F53:F55),"")</f>
+        <v/>
+      </c>
+      <c r="G52" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G53:G55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H52" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H53:H55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I52" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I53:I55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J52" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J53:J55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K52" s="156" t="e">
+        <f>+J52-H52</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L52" s="155" t="e">
+        <f>+J52-I52</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M52" s="163" t="e">
+        <f>+IF(H52&lt;&gt;0,J52/H52,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N52" s="163" t="e">
+        <f>+IF(I52&lt;&gt;0,J52/I52,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O52" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O53:O55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P52" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P53:P55)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A53" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B53" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C53" s="138" t="str">
+        <f>IF(MIN(C54:C55)&lt;&gt;0,MIN(C54:C55),"")</f>
+        <v/>
+      </c>
+      <c r="D53" s="138" t="str">
+        <f>IF(MAX(D54:D55)&lt;&gt;0,MAX(D54:D55),"")</f>
+        <v/>
+      </c>
+      <c r="E53" s="138" t="str">
+        <f>IF(MIN(E54:E55)&lt;&gt;0,MIN(E54:E55),"")</f>
+        <v/>
+      </c>
+      <c r="F53" s="138" t="str">
+        <f>IF(COUNT(D54:D55)=COUNT(F54:F55),MAX(F54:F55),"")</f>
+        <v/>
+      </c>
+      <c r="G53" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G54:G55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H53" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H54:H55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I53" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I54:I55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J53" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J54:J55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K53" s="158" t="e">
+        <f>+J53-H53</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L53" s="157" t="e">
+        <f>+J53-I53</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M53" s="164" t="e">
+        <f>+IF(H53&lt;&gt;0,J53/H53,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N53" s="164" t="e">
+        <f>+IF(I53&lt;&gt;0,J53/I53,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O53" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O54:O55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P53" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P54:P55)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A54" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B54" s="42"/>
+      <c r="C54" s="76" t="str">
+        <f>IF(MIN(C55:C55)&lt;&gt;0,MIN(C55:C55),"")</f>
+        <v/>
+      </c>
+      <c r="D54" s="76" t="str">
+        <f>IF(MAX(D55:D55)&lt;&gt;0,MAX(D55:D55),"")</f>
+        <v/>
+      </c>
+      <c r="E54" s="76" t="str">
+        <f>IF(MIN(E55:E55)&lt;&gt;0,MIN(E55:E55),"")</f>
+        <v/>
+      </c>
+      <c r="F54" s="76">
+        <f>MAX(F55:F55)</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G55:G55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H54" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H55:H55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I54" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I55:I55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J54" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J55:J55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K54" s="159" t="e">
+        <f>+J54-H54</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L54" s="159" t="e">
+        <f>+J54-I54</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M54" s="165" t="e">
+        <f>+IF(H54&lt;&gt;0,J54/H54,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N54" s="165" t="e">
+        <f>+IF(I54&lt;&gt;0,J54/I54,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O54" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O55:O55)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P54" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P55:P55)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" outlineLevel="3">
+      <c r="A55" s="80"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="160"/>
+      <c r="H55" s="116" t="str">
+        <f>+IF(AND(C55&lt;&gt;"",D55&lt;&gt;"",G55&lt;&gt;""),IF(C55&lt;Parâmetros!$B$6,IF(D55&gt;Parâmetros!$B$6,G55/2,G55),0),"")</f>
+        <v/>
+      </c>
+      <c r="I55" s="116"/>
+      <c r="J55" s="116" t="str">
+        <f>+IF(AND(E55&lt;&gt;"",G55&lt;&gt;""),IF(E55&lt;=Parâmetros!$B$6,IF(F55="",G55/2,IF(F55&gt;Parâmetros!$B$6,G55/2,G55)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K55" s="116"/>
+      <c r="L55" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J55&lt;&gt;"",I55&lt;&gt;""),J55-I55,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M55" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H55&lt;&gt;0,H55&lt;&gt;"",J55&lt;&gt;""),J55/H55,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N55" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J55&lt;&gt;"",I55&lt;&gt;0,I55&lt;&gt;""),J55/I55,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O55" s="116" t="e">
+        <f>IF(#REF!="Cast",G55*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P55" s="116"/>
+    </row>
+    <row r="56" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A56" s="139" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="45"/>
+      <c r="C56" s="46" t="str">
+        <f>IF(MIN(C57:C59)&lt;&gt;0,MIN(C57:C59),"")</f>
+        <v/>
+      </c>
+      <c r="D56" s="46" t="str">
+        <f>IF(MAX(D57:D59)&lt;&gt;0,MAX(D57:D59),"")</f>
+        <v/>
+      </c>
+      <c r="E56" s="46" t="str">
+        <f>IF(MIN(E57:E59)&lt;&gt;0,MIN(E57:E59),"")</f>
+        <v/>
+      </c>
+      <c r="F56" s="46" t="str">
+        <f>IF(COUNT(D57:D59)=COUNT(F57:F59),MAX(F57:F59),"")</f>
+        <v/>
+      </c>
+      <c r="G56" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G57:G59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H57:H59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I57:I59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J57:J59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="156" t="e">
+        <f>+J56-H56</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="155" t="e">
+        <f>+J56-I56</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="163" t="e">
+        <f>+IF(H56&lt;&gt;0,J56/H56,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N56" s="163" t="e">
+        <f>+IF(I56&lt;&gt;0,J56/I56,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O56" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O57:O59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P56" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P57:P59)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A57" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" s="138" t="str">
+        <f>IF(MIN(C58:C59)&lt;&gt;0,MIN(C58:C59),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="138" t="str">
+        <f>IF(MAX(D58:D59)&lt;&gt;0,MAX(D58:D59),"")</f>
+        <v/>
+      </c>
+      <c r="E57" s="138" t="str">
+        <f>IF(MIN(E58:E59)&lt;&gt;0,MIN(E58:E59),"")</f>
+        <v/>
+      </c>
+      <c r="F57" s="138" t="str">
+        <f>IF(COUNT(D58:D59)=COUNT(F58:F59),MAX(F58:F59),"")</f>
+        <v/>
+      </c>
+      <c r="G57" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G58:G59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H57" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H58:H59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I57" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I58:I59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J57" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J58:J59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K57" s="158" t="e">
+        <f>+J57-H57</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L57" s="157" t="e">
+        <f>+J57-I57</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M57" s="164" t="e">
+        <f>+IF(H57&lt;&gt;0,J57/H57,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N57" s="164" t="e">
+        <f>+IF(I57&lt;&gt;0,J57/I57,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O57" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O58:O59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P57" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P58:P59)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A58" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B58" s="42"/>
+      <c r="C58" s="76" t="str">
+        <f>IF(MIN(C59:C59)&lt;&gt;0,MIN(C59:C59),"")</f>
+        <v/>
+      </c>
+      <c r="D58" s="76" t="str">
+        <f>IF(MAX(D59:D59)&lt;&gt;0,MAX(D59:D59),"")</f>
+        <v/>
+      </c>
+      <c r="E58" s="76" t="str">
+        <f>IF(MIN(E59:E59)&lt;&gt;0,MIN(E59:E59),"")</f>
+        <v/>
+      </c>
+      <c r="F58" s="76">
+        <f>MAX(F59:F59)</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G59:G59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H58" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H59:H59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I58" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I59:I59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J58" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J59:J59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K58" s="159" t="e">
+        <f>+J58-H58</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L58" s="159" t="e">
+        <f>+J58-I58</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M58" s="165" t="e">
+        <f>+IF(H58&lt;&gt;0,J58/H58,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N58" s="165" t="e">
+        <f>+IF(I58&lt;&gt;0,J58/I58,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O58" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O59:O59)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P58" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P59:P59)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" outlineLevel="3">
+      <c r="A59" s="80"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="116" t="str">
+        <f>+IF(AND(C59&lt;&gt;"",D59&lt;&gt;"",G59&lt;&gt;""),IF(C59&lt;Parâmetros!$B$6,IF(D59&gt;Parâmetros!$B$6,G59/2,G59),0),"")</f>
+        <v/>
+      </c>
+      <c r="I59" s="116"/>
+      <c r="J59" s="116" t="str">
+        <f>+IF(AND(E59&lt;&gt;"",G59&lt;&gt;""),IF(E59&lt;=Parâmetros!$B$6,IF(F59="",G59/2,IF(F59&gt;Parâmetros!$B$6,G59/2,G59)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K59" s="116"/>
+      <c r="L59" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J59&lt;&gt;"",I59&lt;&gt;""),J59-I59,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M59" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H59&lt;&gt;0,H59&lt;&gt;"",J59&lt;&gt;""),J59/H59,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N59" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J59&lt;&gt;"",I59&lt;&gt;0,I59&lt;&gt;""),J59/I59,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O59" s="116" t="e">
+        <f>IF(#REF!="Cast",G59*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P59" s="116"/>
+    </row>
+    <row r="60" spans="1:16" ht="20.25" customHeight="1">
+      <c r="A60" s="139" t="s">
+        <v>244</v>
+      </c>
+      <c r="B60" s="45"/>
+      <c r="C60" s="46" t="str">
+        <f>IF(MIN(C61:C63)&lt;&gt;0,MIN(C61:C63),"")</f>
+        <v/>
+      </c>
+      <c r="D60" s="46" t="str">
+        <f>IF(MAX(D61:D63)&lt;&gt;0,MAX(D61:D63),"")</f>
+        <v/>
+      </c>
+      <c r="E60" s="46" t="str">
+        <f>IF(MIN(E61:E63)&lt;&gt;0,MIN(E61:E63),"")</f>
+        <v/>
+      </c>
+      <c r="F60" s="46" t="str">
+        <f>IF(COUNT(D61:D63)=COUNT(F61:F63),MAX(F61:F63),"")</f>
+        <v/>
+      </c>
+      <c r="G60" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G61:G63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H60" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H61:H63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I60" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I61:I63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J60" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J61:J63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K60" s="156" t="e">
+        <f>+J60-H60</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L60" s="155" t="e">
+        <f>+J60-I60</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M60" s="163" t="e">
+        <f>+IF(H60&lt;&gt;0,J60/H60,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N60" s="163" t="e">
+        <f>+IF(I60&lt;&gt;0,J60/I60,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O60" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O61:O63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P60" s="155" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P61:P63)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="15" customHeight="1" outlineLevel="1">
+      <c r="A61" s="136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="137" t="s">
+        <v>170</v>
+      </c>
+      <c r="C61" s="138" t="str">
+        <f>IF(MIN(C62:C63)&lt;&gt;0,MIN(C62:C63),"")</f>
+        <v/>
+      </c>
+      <c r="D61" s="138" t="str">
+        <f>IF(MAX(D62:D63)&lt;&gt;0,MAX(D62:D63),"")</f>
+        <v/>
+      </c>
+      <c r="E61" s="138" t="str">
+        <f>IF(MIN(E62:E63)&lt;&gt;0,MIN(E62:E63),"")</f>
+        <v/>
+      </c>
+      <c r="F61" s="138" t="str">
+        <f>IF(COUNT(D62:D63)=COUNT(F62:F63),MAX(F62:F63),"")</f>
+        <v/>
+      </c>
+      <c r="G61" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G62:G63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H61" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H62:H63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I61" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I62:I63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J61" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J62:J63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K61" s="158" t="e">
+        <f>+J61-H61</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L61" s="157" t="e">
+        <f>+J61-I61</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M61" s="164" t="e">
+        <f>+IF(H61&lt;&gt;0,J61/H61,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N61" s="164" t="e">
+        <f>+IF(I61&lt;&gt;0,J61/I61,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O61" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O62:O63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P61" s="157" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P62:P63)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="12" customHeight="1" outlineLevel="2">
+      <c r="A62" s="81" t="s">
+        <v>211</v>
+      </c>
+      <c r="B62" s="42"/>
+      <c r="C62" s="76" t="str">
+        <f>IF(MIN(C63:C63)&lt;&gt;0,MIN(C63:C63),"")</f>
+        <v/>
+      </c>
+      <c r="D62" s="76" t="str">
+        <f>IF(MAX(D63:D63)&lt;&gt;0,MAX(D63:D63),"")</f>
+        <v/>
+      </c>
+      <c r="E62" s="76" t="str">
+        <f>IF(MIN(E63:E63)&lt;&gt;0,MIN(E63:E63),"")</f>
+        <v/>
+      </c>
+      <c r="F62" s="76">
+        <f>MAX(F63:F63)</f>
+        <v>0</v>
+      </c>
+      <c r="G62" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",G63:G63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H62" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",H63:H63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I62" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",I63:I63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J62" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",J63:J63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K62" s="159" t="e">
+        <f>+J62-H62</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L62" s="159" t="e">
+        <f>+J62-I62</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M62" s="165" t="e">
+        <f>+IF(H62&lt;&gt;0,J62/H62,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N62" s="165" t="e">
+        <f>+IF(I62&lt;&gt;0,J62/I62,0)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O62" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",O63:O63)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P62" s="159" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P63:P63)</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" outlineLevel="3">
+      <c r="A63" s="80"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="160"/>
+      <c r="H63" s="116" t="str">
+        <f>+IF(AND(C63&lt;&gt;"",D63&lt;&gt;"",G63&lt;&gt;""),IF(C63&lt;Parâmetros!$B$6,IF(D63&gt;Parâmetros!$B$6,G63/2,G63),0),"")</f>
+        <v/>
+      </c>
+      <c r="I63" s="116"/>
+      <c r="J63" s="116" t="str">
+        <f>+IF(AND(E63&lt;&gt;"",G63&lt;&gt;""),IF(E63&lt;=Parâmetros!$B$6,IF(F63="",G63/2,IF(F63&gt;Parâmetros!$B$6,G63/2,G63)),0),"")</f>
+        <v/>
+      </c>
+      <c r="K63" s="116"/>
+      <c r="L63" s="116" t="e">
+        <f>IF(AND(#REF!&gt;0,J63&lt;&gt;"",I63&lt;&gt;""),J63-I63,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M63" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,H63&lt;&gt;0,H63&lt;&gt;"",J63&lt;&gt;""),J63/H63,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N63" s="166" t="e">
+        <f>+IF(AND(#REF!&gt;0,J63&lt;&gt;"",I63&lt;&gt;0,I63&lt;&gt;""),J63/I63,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O63" s="116" t="e">
+        <f>IF(#REF!="Cast",G63*Parâmetros!$B$56,"")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="P63" s="116"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="47" t="s">
         <v>151</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N31"/>
+  <autoFilter ref="A6:N64"/>
   <mergeCells count="4">
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="G5:I5"/>
@@ -6929,8 +8150,8 @@
     <mergeCell ref="O5:P5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12 B18 B22 B26 B30">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55 B59 B63 B47:B51 B33:B44 B26:B30 B12 B17:B22">
       <formula1>RecursosFabrica</formula1>
     </dataValidation>
   </dataValidations>
@@ -7299,8 +8520,8 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>

--- a/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
+++ b/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="6" r:id="rId1"/>
@@ -15,14 +15,8 @@
     <sheet name="Glossário" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planejamento!$A$6:$N$40</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Planejamento!$A$1:$S$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Resumo!$A$1:$J$56</definedName>
-    <definedName name="RecursosBacen">Parâmetros!$B$17:$B$36</definedName>
-    <definedName name="RecursosCast">Parâmetros!$B$37:$B$50</definedName>
-    <definedName name="RecursosFabrica">Parâmetros!$B$12:$B$50</definedName>
-    <definedName name="RecursosHumanos">Parâmetros!$B$17:$B$50</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Planejamento!$1:$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planejamento!$A$6:$O$43</definedName>
+    <definedName name="Recursos">Parâmetros!$B$12:$B$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -34,33 +28,7 @@
     <author>deinf.silvioa</author>
   </authors>
   <commentList>
-    <comment ref="A6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Centro de custo / descrição do pacote de trabalho.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B6" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nº da TI@tende que autorizou a execução do pacote de trabalho.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +41,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D6" authorId="0">
+    <comment ref="E6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -86,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E6" authorId="0">
+    <comment ref="F6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +67,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G6" authorId="0">
+    <comment ref="H6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +93,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H6" authorId="0">
+    <comment ref="I6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -138,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="K6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="L6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="M6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="N6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -199,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N6" authorId="0">
+    <comment ref="O6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -220,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="259">
   <si>
     <t>Classificação Padrão de Produtos e Serviços</t>
   </si>
@@ -1420,9 +1388,6 @@
     <t>1.2.06.01 - Implementação de Casos de Uso (Código e Teste de Unidade)</t>
   </si>
   <si>
-    <t>1.2.05 - Implementação</t>
-  </si>
-  <si>
     <t>Diagrama de classes conceitual</t>
   </si>
   <si>
@@ -1438,7 +1403,22 @@
     <t>Equipe</t>
   </si>
   <si>
-    <t>TI@tende</t>
+    <t>1.2.06 - Implementação</t>
+  </si>
+  <si>
+    <t>Início do projeto</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Gerenciamento do projeto</t>
+  </si>
+  <si>
+    <t>1.2.01 - Gerenciamento de projeto</t>
+  </si>
+  <si>
+    <t>1.2.01.03 - Plano do Projeto (Criação e Revisão)</t>
   </si>
 </sst>
 </file>
@@ -1939,7 +1919,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="227">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2306,9 +2286,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
@@ -2328,6 +2305,21 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2350,12 +2342,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2442,6 +2428,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2594,11 +2589,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="66775296"/>
-        <c:axId val="67244032"/>
+        <c:axId val="57661696"/>
+        <c:axId val="58130432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="66775296"/>
+        <c:axId val="57661696"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2630,7 +2625,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67244032"/>
+        <c:crossAx val="58130432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2638,7 +2633,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67244032"/>
+        <c:axId val="58130432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,7 +2675,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66775296"/>
+        <c:crossAx val="57661696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -2726,7 +2721,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000315" footer="0.49212598500000315"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000337" footer="0.49212598500000337"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2764,7 +2759,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31531602468610342"/>
-          <c:y val="3.2418952618454171E-2"/>
+          <c:y val="3.2418952618454192E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2781,9 +2776,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11261286030066738"/>
-          <c:y val="0.14962593516209624"/>
-          <c:w val="0.65090233253786234"/>
-          <c:h val="0.73815461346633882"/>
+          <c:y val="0.14962593516209632"/>
+          <c:w val="0.65090233253786256"/>
+          <c:h val="0.73815461346633904"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2824,7 +2819,7 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>31.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2866,7 +2861,7 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2915,23 +2910,23 @@
                 <c:formatCode>#,##0.0</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
-                  <c:v>0.5</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67289856"/>
-        <c:axId val="67291776"/>
+        <c:axId val="58172160"/>
+        <c:axId val="58174080"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="67289856"/>
+        <c:axId val="58172160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="dd/mm" sourceLinked="0"/>
+        <c:numFmt formatCode="dd/mmm" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:ln w="3175">
@@ -2942,7 +2937,7 @@
           </a:ln>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:bodyPr rot="0" vert="horz"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -2958,7 +2953,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67291776"/>
+        <c:crossAx val="58174080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2966,7 +2961,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67291776"/>
+        <c:axId val="58174080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3009,7 +3004,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67289856"/>
+        <c:crossAx val="58172160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3032,9 +3027,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7972972972972977"/>
-          <c:y val="0.46882793017456625"/>
+          <c:y val="0.46882793017456642"/>
           <c:w val="0.17792792792792791"/>
-          <c:h val="0.10972568578553744"/>
+          <c:h val="0.10972568578553753"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3099,7 +3094,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000315" footer="0.49212598500000315"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000337" footer="0.49212598500000337"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3178,13 +3173,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -3590,8 +3585,8 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3647,16 +3642,16 @@
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
     <row r="6" spans="1:11" s="137" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="179"/>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="180"/>
-      <c r="F6" s="180"/>
-      <c r="G6" s="180"/>
-      <c r="H6" s="180"/>
-      <c r="I6" s="180"/>
-      <c r="J6" s="180"/>
+      <c r="A6" s="183"/>
+      <c r="B6" s="184"/>
+      <c r="C6" s="184"/>
+      <c r="D6" s="184"/>
+      <c r="E6" s="184"/>
+      <c r="F6" s="184"/>
+      <c r="G6" s="184"/>
+      <c r="H6" s="184"/>
+      <c r="I6" s="184"/>
+      <c r="J6" s="184"/>
       <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:11" s="137" customFormat="1" ht="6" customHeight="1">
@@ -3693,8 +3688,8 @@
       </c>
       <c r="B11" s="74"/>
       <c r="C11" s="118">
-        <f>IF(Planejamento!G8&lt;&gt;0,VLOOKUP(Parâmetros!B6,A49:I139,4)/Planejamento!G8,0)</f>
-        <v>0.5</v>
+        <f>IF(Planejamento!H8&lt;&gt;0,VLOOKUP(Parâmetros!B6,A49:I139,4)/Planejamento!H8,0)</f>
+        <v>4.9632352941176468E-2</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="100"/>
@@ -3721,7 +3716,7 @@
       </c>
       <c r="B13" s="74"/>
       <c r="C13" s="92">
-        <f>SUM(IF(Planejamento!B9:B242&gt;0,IF(Planejamento!F9:F242&gt;0,1,0),0))</f>
+        <f>SUM(IF(Planejamento!B9:B245&gt;0,IF(Planejamento!G9:G245&gt;0,1,0),0))</f>
         <v>0</v>
       </c>
       <c r="F13" s="99"/>
@@ -3746,7 +3741,7 @@
       </c>
       <c r="B15" s="76"/>
       <c r="C15" s="94">
-        <f>Planejamento!C8</f>
+        <f>Planejamento!D8</f>
         <v>40290</v>
       </c>
       <c r="F15" s="102"/>
@@ -3760,7 +3755,7 @@
       </c>
       <c r="B16" s="105"/>
       <c r="C16" s="94">
-        <f>Planejamento!E8</f>
+        <f>Planejamento!F8</f>
         <v>40290</v>
       </c>
     </row>
@@ -3770,7 +3765,7 @@
       </c>
       <c r="B17" s="105"/>
       <c r="C17" s="94">
-        <f>Planejamento!D8</f>
+        <f>Planejamento!E8</f>
         <v>40319</v>
       </c>
       <c r="K17" s="62"/>
@@ -3783,7 +3778,7 @@
       <c r="B18" s="105"/>
       <c r="C18" s="94">
         <f ca="1">WORKDAY(TODAY(),(C23-C22)/(Parâmetros!B5*2),Parâmetros!$B$8:$B$10)</f>
-        <v>40291</v>
+        <v>40324</v>
       </c>
       <c r="K18" s="62"/>
     </row>
@@ -3800,8 +3795,8 @@
       </c>
       <c r="B20" s="105"/>
       <c r="C20" s="92">
-        <f>Planejamento!G8</f>
-        <v>1</v>
+        <f>Planejamento!H8</f>
+        <v>272</v>
       </c>
       <c r="K20" s="62"/>
     </row>
@@ -3811,8 +3806,8 @@
       </c>
       <c r="B21" s="105"/>
       <c r="C21" s="92">
-        <f>Planejamento!H8</f>
-        <v>0.5</v>
+        <f>Planejamento!I8</f>
+        <v>31.5</v>
       </c>
       <c r="K21" s="62"/>
     </row>
@@ -3822,8 +3817,8 @@
       </c>
       <c r="B22" s="105"/>
       <c r="C22" s="92">
-        <f>Planejamento!I8</f>
-        <v>1</v>
+        <f>Planejamento!J8</f>
+        <v>9</v>
       </c>
       <c r="K22" s="98"/>
     </row>
@@ -3834,7 +3829,7 @@
       <c r="B23" s="105"/>
       <c r="C23" s="92">
         <f>VLOOKUP(Parâmetros!B6,A49:I136,9)</f>
-        <v>2</v>
+        <v>141.03703703703704</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3869,17 +3864,17 @@
       <c r="K25" s="90"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="192" t="s">
+      <c r="A26" s="194" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="191" t="s">
+      <c r="B26" s="193" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="183"/>
-      <c r="D26" s="191" t="s">
+      <c r="C26" s="187"/>
+      <c r="D26" s="193" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="183"/>
+      <c r="E26" s="187"/>
       <c r="F26" s="89"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
@@ -3888,7 +3883,7 @@
       <c r="K26" s="90"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="193"/>
+      <c r="A27" s="195"/>
       <c r="B27" s="164" t="s">
         <v>230</v>
       </c>
@@ -4014,27 +4009,27 @@
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="A41" s="72"/>
-      <c r="B41" s="201" t="s">
+      <c r="B41" s="203" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="181" t="s">
+      <c r="C41" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="182"/>
-      <c r="E41" s="182"/>
-      <c r="F41" s="183"/>
-      <c r="G41" s="184" t="s">
+      <c r="D41" s="186"/>
+      <c r="E41" s="186"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="188" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="185"/>
-      <c r="I41" s="185"/>
-      <c r="J41" s="186"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="190"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1">
       <c r="A42" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="202"/>
+      <c r="B42" s="204"/>
       <c r="C42" s="86" t="s">
         <v>187</v>
       </c>
@@ -4066,40 +4061,40 @@
         <v>Elaboração - Iteração 1</v>
       </c>
       <c r="B43" s="88">
-        <f>COUNT(Planejamento!B10:B58)</f>
+        <f>COUNT(Planejamento!B10:B61)</f>
         <v>24</v>
       </c>
       <c r="C43" s="94">
-        <f>Planejamento!C9</f>
+        <f>Planejamento!D9</f>
         <v>40290</v>
       </c>
       <c r="D43" s="94">
-        <f>Planejamento!D9</f>
+        <f>Planejamento!E9</f>
         <v>40319</v>
       </c>
       <c r="E43" s="94">
-        <f>Planejamento!E9</f>
+        <f>Planejamento!F9</f>
         <v>40290</v>
       </c>
       <c r="F43" s="94" t="str">
-        <f>Planejamento!F9</f>
-        <v/>
-      </c>
-      <c r="G43" s="174">
         <f>Planejamento!G9</f>
-        <v>1</v>
-      </c>
-      <c r="H43" s="174">
-        <f ca="1">Planejamento!H9</f>
-        <v>0.5</v>
-      </c>
-      <c r="I43" s="174">
-        <f>Planejamento!I9</f>
-        <v>1</v>
-      </c>
-      <c r="J43" s="174">
+        <v/>
+      </c>
+      <c r="G43" s="173">
+        <f>Planejamento!H9</f>
+        <v>272</v>
+      </c>
+      <c r="H43" s="173">
+        <f ca="1">Planejamento!I9</f>
+        <v>31.5</v>
+      </c>
+      <c r="I43" s="173">
         <f>Planejamento!J9</f>
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="J43" s="173">
+        <f>Planejamento!K9</f>
+        <v>13.5</v>
       </c>
       <c r="K43" s="107">
         <f>+D43-C43</f>
@@ -4140,19 +4135,19 @@
       <c r="A47" s="83"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
-      <c r="D47" s="189" t="s">
+      <c r="D47" s="191" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="198" t="s">
+      <c r="E47" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="199"/>
-      <c r="G47" s="199"/>
-      <c r="H47" s="200"/>
-      <c r="I47" s="194" t="s">
+      <c r="F47" s="201"/>
+      <c r="G47" s="201"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="196" t="s">
         <v>184</v>
       </c>
-      <c r="J47" s="195"/>
+      <c r="J47" s="197"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1">
       <c r="A48" s="84" t="s">
@@ -4164,7 +4159,7 @@
       <c r="C48" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="190"/>
+      <c r="D48" s="192"/>
       <c r="E48" s="69" t="s">
         <v>155</v>
       </c>
@@ -4177,43 +4172,43 @@
       <c r="H48" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="196"/>
-      <c r="J48" s="197"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="199"/>
     </row>
     <row r="49" spans="1:10" ht="12">
       <c r="A49" s="142">
         <v>40291</v>
       </c>
       <c r="B49" s="113">
-        <v>0.5</v>
+        <v>31.5</v>
       </c>
       <c r="C49" s="113">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D49" s="113">
-        <v>0.5</v>
+        <v>13.5</v>
       </c>
       <c r="E49" s="113">
         <f t="shared" ref="E49:E55" si="2">+D49-B49</f>
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="F49" s="113">
         <f t="shared" ref="F49" si="3">+D49-C49</f>
-        <v>-0.5</v>
+        <v>6.5</v>
       </c>
       <c r="G49" s="65">
         <f t="shared" ref="G49:G55" si="4">+IF(B49&lt;&gt;0,D49/B49,0)</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H49" s="65">
         <f t="shared" ref="H49" si="5">+IF(C49&lt;&gt;0,D49/C49,0)</f>
-        <v>0.5</v>
-      </c>
-      <c r="I49" s="187">
+        <v>1.9285714285714286</v>
+      </c>
+      <c r="I49" s="181">
         <f>IF(H49&lt;&gt;0,C49+(VLOOKUP(A49,'Histórico de Versões'!A5:E72,5)-D49)/H49,"")</f>
-        <v>2</v>
-      </c>
-      <c r="J49" s="188"/>
+        <v>141.03703703703704</v>
+      </c>
+      <c r="J49" s="182"/>
     </row>
     <row r="50" spans="1:10" ht="12">
       <c r="A50" s="142"/>
@@ -4236,11 +4231,11 @@
         <f t="shared" ref="H50:H55" si="7">+IF(C50&lt;&gt;0,D50/C50,0)</f>
         <v>0</v>
       </c>
-      <c r="I50" s="187" t="str">
+      <c r="I50" s="181" t="str">
         <f>IF(H50&lt;&gt;0,C50+(VLOOKUP(A50,'Histórico de Versões'!A6:E73,5)-D50)/H50,"")</f>
         <v/>
       </c>
-      <c r="J50" s="188"/>
+      <c r="J50" s="182"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="106"/>
@@ -4263,11 +4258,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I51" s="187" t="str">
+      <c r="I51" s="181" t="str">
         <f>IF(H51&lt;&gt;0,C51+(VLOOKUP(A51,'Histórico de Versões'!A7:E74,5)-D51)/H51,"")</f>
         <v/>
       </c>
-      <c r="J51" s="188"/>
+      <c r="J51" s="182"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="106"/>
@@ -4290,11 +4285,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I52" s="187" t="str">
+      <c r="I52" s="181" t="str">
         <f>IF(H52&lt;&gt;0,C52+(VLOOKUP(A52,'Histórico de Versões'!A8:E75,5)-D52)/H52,"")</f>
         <v/>
       </c>
-      <c r="J52" s="188"/>
+      <c r="J52" s="182"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="106"/>
@@ -4317,11 +4312,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I53" s="187" t="str">
+      <c r="I53" s="181" t="str">
         <f>IF(H53&lt;&gt;0,C53+(VLOOKUP(A53,'Histórico de Versões'!A9:E76,5)-D53)/H53,"")</f>
         <v/>
       </c>
-      <c r="J53" s="188"/>
+      <c r="J53" s="182"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="106"/>
@@ -4344,11 +4339,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="187" t="str">
+      <c r="I54" s="181" t="str">
         <f>IF(H54&lt;&gt;0,C54+(VLOOKUP(A54,'Histórico de Versões'!A10:E77,5)-D54)/H54,"")</f>
         <v/>
       </c>
-      <c r="J54" s="188"/>
+      <c r="J54" s="182"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="106"/>
@@ -4371,11 +4366,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I55" s="187" t="str">
+      <c r="I55" s="181" t="str">
         <f>IF(H55&lt;&gt;0,C55+(VLOOKUP(A55,'Histórico de Versões'!A11:E78,5)-D55)/H55,"")</f>
         <v/>
       </c>
-      <c r="J55" s="188"/>
+      <c r="J55" s="182"/>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="90"/>
@@ -4390,10 +4385,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="B26:C26"/>
@@ -4407,10 +4398,14 @@
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="94" fitToHeight="2" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="58" fitToHeight="2" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4422,155 +4417,161 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A137" sqref="A137"/>
-      <selection pane="topRight" activeCell="P6" sqref="P6"/>
+      <selection pane="topRight" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="52.85546875" style="36" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" style="36" customWidth="1"/>
-    <col min="4" max="6" width="10" style="36" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="36" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" style="36" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="36"/>
-    <col min="11" max="12" width="10.28515625" style="68" customWidth="1"/>
-    <col min="13" max="14" width="7.85546875" style="62" customWidth="1"/>
-    <col min="15" max="15" width="8.28515625" style="89" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="36" customWidth="1"/>
-    <col min="17" max="19" width="10.140625" style="36" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="36"/>
+    <col min="2" max="3" width="11.7109375" style="36" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="36" customWidth="1"/>
+    <col min="5" max="7" width="10" style="36" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="36" customWidth="1"/>
+    <col min="10" max="11" width="9.140625" style="36"/>
+    <col min="12" max="13" width="10.28515625" style="68" customWidth="1"/>
+    <col min="14" max="15" width="7.85546875" style="62" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" style="89" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="36" customWidth="1"/>
+    <col min="18" max="20" width="10.140625" style="36" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="49" customFormat="1" ht="15">
+    <row r="1" spans="1:20" s="49" customFormat="1" ht="15">
       <c r="A1" s="80" t="s">
         <v>228</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
       <c r="D1" s="57"/>
-      <c r="E1" s="168"/>
-      <c r="I1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="168"/>
       <c r="J1" s="57"/>
-      <c r="K1" s="66"/>
+      <c r="K1" s="57"/>
       <c r="L1" s="66"/>
-      <c r="M1" s="60"/>
-      <c r="O1" s="147"/>
-      <c r="S1" s="82" t="s">
+      <c r="M1" s="66"/>
+      <c r="N1" s="60"/>
+      <c r="P1" s="147"/>
+      <c r="T1" s="82" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="49" customFormat="1" ht="13.5" thickBot="1">
+    <row r="2" spans="1:20" s="49" customFormat="1" ht="13.5" thickBot="1">
       <c r="A2" s="81" t="s">
         <v>176</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
       <c r="D2" s="58"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="146"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="79"/>
       <c r="G2" s="146"/>
       <c r="H2" s="146"/>
-      <c r="I2" s="58"/>
+      <c r="I2" s="146"/>
       <c r="J2" s="58"/>
-      <c r="K2" s="67"/>
+      <c r="K2" s="58"/>
       <c r="L2" s="67"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="146"/>
-      <c r="O2" s="148"/>
-      <c r="P2" s="146"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="148"/>
       <c r="Q2" s="146"/>
       <c r="R2" s="146"/>
-      <c r="S2" s="95" t="str">
+      <c r="S2" s="146"/>
+      <c r="T2" s="95" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
         <v>Data Base: 23/04/2010</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="20.25" customHeight="1" thickTop="1">
+    <row r="3" spans="1:20" ht="20.25" customHeight="1" thickTop="1">
       <c r="A3" s="35"/>
     </row>
-    <row r="4" spans="1:19" ht="11.25" customHeight="1"/>
-    <row r="5" spans="1:19" ht="12.75" customHeight="1">
+    <row r="4" spans="1:20" ht="11.25" customHeight="1"/>
+    <row r="5" spans="1:20" ht="12.75" customHeight="1">
       <c r="A5" s="72"/>
       <c r="B5" s="170"/>
-      <c r="C5" s="181" t="s">
+      <c r="C5" s="178"/>
+      <c r="D5" s="185" t="s">
         <v>151</v>
       </c>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="204"/>
-      <c r="G5" s="205" t="s">
+      <c r="E5" s="205"/>
+      <c r="F5" s="205"/>
+      <c r="G5" s="206"/>
+      <c r="H5" s="207" t="s">
         <v>160</v>
       </c>
-      <c r="H5" s="206"/>
-      <c r="I5" s="207"/>
-      <c r="J5" s="198" t="s">
+      <c r="I5" s="208"/>
+      <c r="J5" s="209"/>
+      <c r="K5" s="200" t="s">
         <v>159</v>
       </c>
-      <c r="K5" s="208"/>
-      <c r="L5" s="208"/>
-      <c r="M5" s="208"/>
-      <c r="N5" s="209"/>
-      <c r="O5" s="210"/>
-      <c r="P5" s="211"/>
-    </row>
-    <row r="6" spans="1:19" ht="21.75" customHeight="1">
+      <c r="L5" s="210"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="211"/>
+      <c r="P5" s="212"/>
+      <c r="Q5" s="213"/>
+    </row>
+    <row r="6" spans="1:20" ht="21.75" customHeight="1">
       <c r="A6" s="71"/>
-      <c r="B6" s="171" t="s">
-        <v>254</v>
-      </c>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="225" t="s">
+        <v>255</v>
+      </c>
+      <c r="C6" s="226" t="s">
+        <v>193</v>
+      </c>
+      <c r="D6" s="59" t="s">
         <v>149</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="E6" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="F6" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="F6" s="42" t="s">
+      <c r="G6" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="G6" s="42" t="s">
+      <c r="H6" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="I6" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="J6" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="J6" s="42" t="s">
+      <c r="K6" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="K6" s="69" t="s">
+      <c r="L6" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="L6" s="69" t="s">
+      <c r="M6" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="63" t="s">
+      <c r="N6" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="N6" s="63" t="s">
+      <c r="O6" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="O6" s="42" t="s">
+      <c r="P6" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="P6" s="42" t="s">
+      <c r="Q6" s="42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:20">
       <c r="A7" s="47"/>
       <c r="B7" s="39"/>
-      <c r="C7" s="40"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="40"/>
       <c r="E7" s="40"/>
       <c r="F7" s="40"/>
@@ -4578,1843 +4579,2153 @@
       <c r="H7" s="40"/>
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
-      <c r="K7" s="70"/>
+      <c r="K7" s="40"/>
       <c r="L7" s="70"/>
-      <c r="M7" s="64"/>
+      <c r="M7" s="70"/>
       <c r="N7" s="64"/>
-      <c r="O7" s="36"/>
-    </row>
-    <row r="8" spans="1:19" ht="15.75">
+      <c r="O7" s="64"/>
+      <c r="P7" s="36"/>
+    </row>
+    <row r="8" spans="1:20" ht="15.75">
       <c r="A8" s="134" t="s">
         <v>202</v>
       </c>
       <c r="B8" s="44"/>
-      <c r="C8" s="45">
-        <f>IF(MIN(C9:C39)&lt;&gt;0,MIN(C9:C39),"")</f>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45">
+        <f>IF(MIN(D9:D42)&lt;&gt;0,MIN(D9:D42),"")</f>
         <v>40290</v>
       </c>
-      <c r="D8" s="45">
-        <f>IF(MAX(D9:D39)&lt;&gt;0,MAX(D9:D39),"")</f>
+      <c r="E8" s="45">
+        <f>IF(MAX(E9:E42)&lt;&gt;0,MAX(E9:E42),"")</f>
         <v>40319</v>
       </c>
-      <c r="E8" s="45">
-        <f>IF(MIN(E9:E39)&lt;&gt;0,MIN(E9:E39),"")</f>
+      <c r="F8" s="45">
+        <f>IF(MIN(F9:F42)&lt;&gt;0,MIN(F9:F42),"")</f>
         <v>40290</v>
       </c>
-      <c r="F8" s="45" t="str">
-        <f>IF(COUNT(D9:D39)=COUNT(F9:F39),MAX(F9:F39),"")</f>
-        <v/>
-      </c>
-      <c r="G8" s="149">
-        <f>SUMIF($B9:$B39,"&gt;0",G9:G39)</f>
-        <v>1</v>
+      <c r="G8" s="45" t="str">
+        <f>IF(COUNT(E9:E42)=COUNT(G9:G42),MAX(G9:G42),"")</f>
+        <v/>
       </c>
       <c r="H8" s="149">
-        <f>SUMIF($B9:$B39,"&gt;0",H9:H39)</f>
-        <v>0.5</v>
+        <f>SUMIF($B9:$B42,"&gt;0",H9:H42)</f>
+        <v>272</v>
       </c>
       <c r="I8" s="149">
-        <f>SUMIF($B9:$B39,"&gt;0",I9:I39)</f>
-        <v>1</v>
+        <f>SUMIF($B9:$B42,"&gt;0",I9:I42)</f>
+        <v>31.5</v>
       </c>
       <c r="J8" s="149">
-        <f>SUMIF($B9:$B39,"&gt;0",J9:J39)</f>
-        <v>1</v>
-      </c>
-      <c r="K8" s="150">
-        <f>+J8-H8</f>
-        <v>0.5</v>
-      </c>
-      <c r="L8" s="149">
-        <f>+J8-I8</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="157">
-        <f>+IF(H8&lt;&gt;0,J8/H8,0)</f>
-        <v>2</v>
+        <f>SUMIF($B9:$B42,"&gt;0",J9:J42)</f>
+        <v>9</v>
+      </c>
+      <c r="K8" s="149">
+        <f>SUMIF($B9:$B42,"&gt;0",K9:K42)</f>
+        <v>13.5</v>
+      </c>
+      <c r="L8" s="150">
+        <f>+K8-I8</f>
+        <v>-18</v>
+      </c>
+      <c r="M8" s="149">
+        <f>+K8-J8</f>
+        <v>4.5</v>
       </c>
       <c r="N8" s="157">
-        <f>+IF(I8&lt;&gt;0,J8/I8,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O8" s="149">
-        <f>SUMIF($B9:$B39,"&gt;0",O9:O39)</f>
-        <v>1</v>
+        <f>+IF(I8&lt;&gt;0,K8/I8,0)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="O8" s="157">
+        <f>+IF(J8&lt;&gt;0,K8/J8,0)</f>
+        <v>1.5</v>
       </c>
       <c r="P8" s="149">
-        <f>SUMIF($B9:$B39,"&gt;0",P9:P39)</f>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="155"/>
+        <f>SUMIF($B9:$B42,"&gt;0",P9:P42)</f>
+        <v>272</v>
+      </c>
+      <c r="Q8" s="149">
+        <f>SUMIF($B9:$B42,"&gt;0",Q9:Q42)</f>
+        <v>9</v>
+      </c>
       <c r="R8" s="155"/>
-    </row>
-    <row r="9" spans="1:19" ht="20.25" customHeight="1">
+      <c r="S8" s="155"/>
+    </row>
+    <row r="9" spans="1:20" ht="20.25" customHeight="1">
       <c r="A9" s="133" t="s">
         <v>237</v>
       </c>
       <c r="B9" s="44"/>
-      <c r="C9" s="45">
-        <f>IF(MIN(C10:C39)&lt;&gt;0,MIN(C10:C39),"")</f>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45">
+        <f>IF(MIN(D10:D42)&lt;&gt;0,MIN(D10:D42),"")</f>
         <v>40290</v>
       </c>
-      <c r="D9" s="45">
-        <f>IF(MAX(D10:D39)&lt;&gt;0,MAX(D10:D39),"")</f>
+      <c r="E9" s="45">
+        <f>IF(MAX(E10:E42)&lt;&gt;0,MAX(E10:E42),"")</f>
         <v>40319</v>
       </c>
-      <c r="E9" s="45">
-        <f>IF(MIN(E10:E40)&lt;&gt;0,MIN(E10:E40),"")</f>
+      <c r="F9" s="45">
+        <f>IF(MIN(F10:F43)&lt;&gt;0,MIN(F10:F43),"")</f>
         <v>40290</v>
       </c>
-      <c r="F9" s="45" t="str">
-        <f>IF(COUNT(D10:D39)=COUNT(F10:F39),MAX(F10:F39),"")</f>
-        <v/>
-      </c>
-      <c r="G9" s="149">
-        <f>SUMIF($B10:$B39,"&gt;0",G10:G39)</f>
-        <v>1</v>
+      <c r="G9" s="45" t="str">
+        <f>IF(COUNT(E10:E42)=COUNT(G10:G42),MAX(G10:G42),"")</f>
+        <v/>
       </c>
       <c r="H9" s="149">
-        <f ca="1">SUMIF($B10:$B39,"&gt;0",H10:H15)</f>
-        <v>0.5</v>
+        <f>SUMIF($B10:$B42,"&gt;0",H10:H42)</f>
+        <v>272</v>
       </c>
       <c r="I9" s="149">
-        <f>SUMIF($B10:$B39,"&gt;0",I10:I39)</f>
-        <v>1</v>
+        <f ca="1">SUMIF($B10:$B42,"&gt;0",I10:I15)</f>
+        <v>31.5</v>
       </c>
       <c r="J9" s="149">
-        <f>SUMIF($B10:$B39,"&gt;0",J10:J39)</f>
-        <v>1</v>
-      </c>
-      <c r="K9" s="150">
-        <f ca="1">+J9-H9</f>
-        <v>0.5</v>
-      </c>
-      <c r="L9" s="149">
-        <f>+J9-I9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="157">
-        <f ca="1">+IF(H9&lt;&gt;0,J9/H9,0)</f>
-        <v>2</v>
+        <f>SUMIF($B10:$B42,"&gt;0",J10:J42)</f>
+        <v>9</v>
+      </c>
+      <c r="K9" s="149">
+        <f>SUMIF($B10:$B42,"&gt;0",K10:K42)</f>
+        <v>13.5</v>
+      </c>
+      <c r="L9" s="150">
+        <f ca="1">+K9-I9</f>
+        <v>-18</v>
+      </c>
+      <c r="M9" s="149">
+        <f>+K9-J9</f>
+        <v>4.5</v>
       </c>
       <c r="N9" s="157">
-        <f>+IF(I9&lt;&gt;0,J9/I9,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O9" s="149">
-        <f>SUMIF($B10:$B39,"&gt;0",O10:O39)</f>
-        <v>1</v>
+        <f ca="1">+IF(I9&lt;&gt;0,K9/I9,0)</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="O9" s="157">
+        <f>+IF(J9&lt;&gt;0,K9/J9,0)</f>
+        <v>1.5</v>
       </c>
       <c r="P9" s="149">
-        <f>SUMIF($B10:$B39,"&gt;0",P10:P39)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" collapsed="1">
+        <f>SUMIF($B10:$B42,"&gt;0",P10:P42)</f>
+        <v>272</v>
+      </c>
+      <c r="Q9" s="149">
+        <f>SUMIF($B10:$B42,"&gt;0",Q10:Q42)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" ht="15" customHeight="1">
       <c r="A10" s="130" t="s">
         <v>238</v>
       </c>
       <c r="B10" s="131"/>
-      <c r="C10" s="132">
-        <f>IF(MIN(C11:C16)&lt;&gt;0,MIN(C11:C16),"")</f>
+      <c r="C10" s="131"/>
+      <c r="D10" s="132">
+        <f>IF(MIN(D11:D16)&lt;&gt;0,MIN(D11:D16),"")</f>
         <v>40290</v>
       </c>
-      <c r="D10" s="132">
-        <f>IF(MAX(D11:D16)&lt;&gt;0,MAX(D11:D16),"")</f>
+      <c r="E10" s="132">
+        <f>IF(MAX(E11:E16)&lt;&gt;0,MAX(E11:E16),"")</f>
         <v>40296</v>
       </c>
-      <c r="E10" s="132">
-        <f>IF(MIN(E11:E16)&lt;&gt;0,MIN(E11:E16),"")</f>
-        <v>40290</v>
-      </c>
-      <c r="F10" s="132" t="str">
-        <f>IF(COUNT(D11:D16)=COUNT(F11:F16),MAX(F11:F16),"")</f>
-        <v/>
-      </c>
-      <c r="G10" s="151">
-        <f>SUMIF($B11:$B16,"&gt;0",G11:G16)</f>
-        <v>1</v>
+      <c r="F10" s="132">
+        <f>IF(MIN(F11:F16)&lt;&gt;0,MIN(F11:F16),"")</f>
+        <v>40292</v>
+      </c>
+      <c r="G10" s="132" t="str">
+        <f>IF(COUNT(E11:E16)=COUNT(G11:G16),MAX(G11:G16),"")</f>
+        <v/>
       </c>
       <c r="H10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",H11:H16)</f>
-        <v>0.5</v>
+        <v>36</v>
       </c>
       <c r="I10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",I11:I16)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",J11:J16)</f>
-        <v>1</v>
-      </c>
-      <c r="K10" s="152">
-        <f>+J10-H10</f>
-        <v>0.5</v>
-      </c>
-      <c r="L10" s="151">
-        <f>+J10-I10</f>
-        <v>0</v>
-      </c>
-      <c r="M10" s="158">
-        <f>+IF(H10&lt;&gt;0,J10/H10,0)</f>
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="K10" s="151">
+        <f>SUMIF($B11:$B16,"&gt;0",K11:K16)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="152">
+        <f>+K10-I10</f>
+        <v>-18</v>
+      </c>
+      <c r="M10" s="151">
+        <f>+K10-J10</f>
+        <v>-4</v>
       </c>
       <c r="N10" s="158">
-        <f>+IF(I10&lt;&gt;0,J10/I10,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O10" s="151">
-        <f>SUMIF($B11:$B16,"&gt;0",O11:O16)</f>
-        <v>1</v>
+        <f>+IF(I10&lt;&gt;0,K10/I10,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="158">
+        <f>+IF(J10&lt;&gt;0,K10/J10,0)</f>
+        <v>0</v>
       </c>
       <c r="P10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",P11:P16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="12" hidden="1" customHeight="1" outlineLevel="1">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="151">
+        <f>SUMIF($B11:$B16,"&gt;0",Q11:Q16)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="12" customHeight="1" outlineLevel="1">
       <c r="A11" s="78" t="s">
         <v>239</v>
       </c>
-      <c r="B11" s="172"/>
-      <c r="C11" s="73">
-        <f>IF(MIN(C12:C16)&lt;&gt;0,MIN(C12:C16),"")</f>
+      <c r="B11" s="171"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="73">
+        <f>IF(MIN(D12:D16)&lt;&gt;0,MIN(D12:D16),"")</f>
         <v>40290</v>
       </c>
-      <c r="D11" s="73">
-        <f>IF(MAX(D12:D16)&lt;&gt;0,MAX(D12:D16),"")</f>
+      <c r="E11" s="73">
+        <f>IF(MAX(E12:E16)&lt;&gt;0,MAX(E12:E16),"")</f>
         <v>40296</v>
       </c>
-      <c r="E11" s="73">
-        <f>IF(MIN(E12:E16)&lt;&gt;0,MIN(E12:E16),"")</f>
-        <v>40290</v>
-      </c>
-      <c r="F11" s="73" t="str">
-        <f>IF(COUNT(D12:D16)=COUNT(F12:F16),MAX(F12:F16),"")</f>
-        <v/>
-      </c>
-      <c r="G11" s="153">
-        <f>SUMIF($B12:$B16,"&gt;0",G12:G16)</f>
-        <v>1</v>
+      <c r="F11" s="73">
+        <f>IF(MIN(F12:F16)&lt;&gt;0,MIN(F12:F16),"")</f>
+        <v>40292</v>
+      </c>
+      <c r="G11" s="73" t="str">
+        <f>IF(COUNT(E12:E16)=COUNT(G12:G16),MAX(G12:G16),"")</f>
+        <v/>
       </c>
       <c r="H11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",H12:H16)</f>
-        <v>0.5</v>
+        <v>36</v>
       </c>
       <c r="I11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",I12:I16)</f>
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",J12:J16)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K11" s="153">
-        <f>+J11-H11</f>
-        <v>0.5</v>
+        <f>SUMIF($B12:$B16,"&gt;0",K12:K16)</f>
+        <v>0</v>
       </c>
       <c r="L11" s="153">
-        <f>+J11-I11</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="159">
-        <f>+IF(H11&lt;&gt;0,J11/H11,0)</f>
-        <v>2</v>
+        <f>+K11-I11</f>
+        <v>-18</v>
+      </c>
+      <c r="M11" s="153">
+        <f>+K11-J11</f>
+        <v>-4</v>
       </c>
       <c r="N11" s="159">
-        <f>+IF(I11&lt;&gt;0,J11/I11,0)</f>
-        <v>1</v>
-      </c>
-      <c r="O11" s="153">
-        <f>SUMIF($B12:$B16,"&gt;0",O12:O16)</f>
-        <v>1</v>
+        <f>+IF(I11&lt;&gt;0,K11/I11,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="159">
+        <f>+IF(J11&lt;&gt;0,K11/J11,0)</f>
+        <v>0</v>
       </c>
       <c r="P11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",P12:P16)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" hidden="1" outlineLevel="2">
+        <v>36</v>
+      </c>
+      <c r="Q11" s="153">
+        <f>SUMIF($B12:$B16,"&gt;0",Q12:Q16)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" outlineLevel="2">
       <c r="A12" s="77" t="s">
         <v>241</v>
       </c>
       <c r="B12" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C12" s="43">
+        <v>1</v>
+      </c>
+      <c r="C12" s="180" t="str">
+        <f>Recursos</f>
+        <v>Diego</v>
+      </c>
+      <c r="D12" s="43">
         <v>40290</v>
       </c>
-      <c r="D12" s="43">
+      <c r="E12" s="43">
         <v>40296</v>
       </c>
-      <c r="E12" s="43">
-        <v>40290</v>
-      </c>
       <c r="F12" s="43">
-        <v>40290</v>
-      </c>
-      <c r="G12" s="154">
-        <v>1</v>
-      </c>
-      <c r="H12" s="113">
-        <f>+IF(AND(C12&lt;&gt;"",D12&lt;&gt;"",G12&lt;&gt;""),IF(C12&lt;Parâmetros!$B$6,IF(D12&gt;Parâmetros!$B$6,G12/2,G12),0),"")</f>
-        <v>0.5</v>
+        <v>40292</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="154">
+        <v>6</v>
       </c>
       <c r="I12" s="113">
-        <v>1</v>
+        <f>+IF(AND(D12&lt;&gt;"",E12&lt;&gt;"",H12&lt;&gt;""),IF(D12&lt;Parâmetros!$B$6,IF(E12&gt;Parâmetros!$B$6,H12/2,H12),0),"")</f>
+        <v>3</v>
       </c>
       <c r="J12" s="113">
-        <f>+IF(AND(E12&lt;&gt;"",G12&lt;&gt;""),IF(E12&lt;=Parâmetros!$B$6,IF(F12="",G12/2,IF(F12&gt;Parâmetros!$B$6,G12/2,G12)),0),"")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12" s="113">
-        <f t="shared" ref="K12:K16" si="0">IF(AND(A12&gt;0,J12&lt;&gt;"",H12&lt;&gt;""),+J12-H12,"")</f>
-        <v>0.5</v>
+        <f>+IF(AND(F12&lt;&gt;"",H12&lt;&gt;""),IF(F12&lt;=Parâmetros!$B$6,IF(G12="",H12/2,IF(G12&gt;Parâmetros!$B$6,H12/2,H12)),0),"")</f>
+        <v>0</v>
       </c>
       <c r="L12" s="113">
-        <f t="shared" ref="L12:L16" si="1">IF(AND(A12&gt;0,J12&lt;&gt;"",I12&lt;&gt;""),J12-I12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="160">
-        <f t="shared" ref="M12:M16" si="2">+IF(AND(A12&gt;0,H12&lt;&gt;0,H12&lt;&gt;"",J12&lt;&gt;""),J12/H12,"")</f>
-        <v>2</v>
-      </c>
-      <c r="N12" s="173">
-        <f t="shared" ref="N12:N16" si="3">+IF(AND(A12&gt;0,J12&lt;&gt;"",I12&lt;&gt;0,I12&lt;&gt;""),J12/I12,"")</f>
-        <v>1</v>
-      </c>
-      <c r="O12" s="113">
-        <f>G12</f>
-        <v>1</v>
+        <f>IF(AND(A12&gt;0,K12&lt;&gt;"",I12&lt;&gt;""),+K12-I12,"")</f>
+        <v>-3</v>
+      </c>
+      <c r="M12" s="113">
+        <f>IF(AND(A12&gt;0,K12&lt;&gt;"",J12&lt;&gt;""),K12-J12,"")</f>
+        <v>-4</v>
+      </c>
+      <c r="N12" s="160">
+        <f>+IF(AND(A12&gt;0,I12&lt;&gt;0,I12&lt;&gt;"",K12&lt;&gt;""),K12/I12,"")</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="172">
+        <f>+IF(AND(A12&gt;0,K12&lt;&gt;"",J12&lt;&gt;0,J12&lt;&gt;""),K12/J12,"")</f>
+        <v>0</v>
       </c>
       <c r="P12" s="113">
-        <f>I12</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" hidden="1" outlineLevel="2">
+        <f>H12</f>
+        <v>6</v>
+      </c>
+      <c r="Q12" s="113">
+        <f>J12</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" outlineLevel="2">
       <c r="A13" s="77" t="s">
         <v>242</v>
       </c>
       <c r="B13" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C13" s="43">
+        <v>2</v>
+      </c>
+      <c r="C13" s="180" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="43">
         <v>40290</v>
       </c>
-      <c r="D13" s="43">
+      <c r="E13" s="43">
         <v>40296</v>
       </c>
-      <c r="E13" s="43"/>
       <c r="F13" s="43"/>
-      <c r="G13" s="154"/>
-      <c r="H13" s="113" t="str">
-        <f>+IF(AND(C13&lt;&gt;"",D13&lt;&gt;"",G13&lt;&gt;""),IF(C13&lt;Parâmetros!$B$6,IF(D13&gt;Parâmetros!$B$6,G13/2,G13),0),"")</f>
-        <v/>
-      </c>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113" t="str">
-        <f>+IF(AND(E13&lt;&gt;"",G13&lt;&gt;""),IF(E13&lt;=Parâmetros!$B$6,IF(F13="",G13/2,IF(F13&gt;Parâmetros!$B$6,G13/2,G13)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G13" s="43"/>
+      <c r="H13" s="154">
+        <v>6</v>
+      </c>
+      <c r="I13" s="113">
+        <f>+IF(AND(D13&lt;&gt;"",E13&lt;&gt;"",H13&lt;&gt;""),IF(D13&lt;Parâmetros!$B$6,IF(E13&gt;Parâmetros!$B$6,H13/2,H13),0),"")</f>
+        <v>3</v>
+      </c>
+      <c r="J13" s="113"/>
       <c r="K13" s="113" t="str">
-        <f t="shared" si="0"/>
+        <f>+IF(AND(F13&lt;&gt;"",H13&lt;&gt;""),IF(F13&lt;=Parâmetros!$B$6,IF(G13="",H13/2,IF(G13&gt;Parâmetros!$B$6,H13/2,H13)),0),"")</f>
         <v/>
       </c>
       <c r="L13" s="113" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M13" s="160" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N13" s="173" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O13" s="113">
-        <f t="shared" ref="O13:O16" si="4">G13</f>
-        <v>0</v>
+        <f>IF(AND(A13&gt;0,K13&lt;&gt;"",I13&lt;&gt;""),+K13-I13,"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="113" t="str">
+        <f>IF(AND(A13&gt;0,K13&lt;&gt;"",J13&lt;&gt;""),K13-J13,"")</f>
+        <v/>
+      </c>
+      <c r="N13" s="160" t="str">
+        <f>+IF(AND(A13&gt;0,I13&lt;&gt;0,I13&lt;&gt;"",K13&lt;&gt;""),K13/I13,"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="172" t="str">
+        <f>+IF(AND(A13&gt;0,K13&lt;&gt;"",J13&lt;&gt;0,J13&lt;&gt;""),K13/J13,"")</f>
+        <v/>
       </c>
       <c r="P13" s="113">
-        <f t="shared" ref="P13:P16" si="5">I13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" hidden="1" outlineLevel="2">
+        <f t="shared" ref="P13:P16" si="0">H13</f>
+        <v>6</v>
+      </c>
+      <c r="Q13" s="113">
+        <f t="shared" ref="Q13:Q16" si="1">J13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" outlineLevel="2">
       <c r="A14" s="77" t="s">
         <v>240</v>
       </c>
       <c r="B14" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C14" s="43">
+        <v>3</v>
+      </c>
+      <c r="C14" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D14" s="43">
         <v>40290</v>
       </c>
-      <c r="D14" s="43">
+      <c r="E14" s="43">
         <v>40296</v>
       </c>
-      <c r="E14" s="43"/>
       <c r="F14" s="43"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="113" t="str">
-        <f>+IF(AND(C14&lt;&gt;"",D14&lt;&gt;"",G14&lt;&gt;""),IF(C14&lt;Parâmetros!$B$6,IF(D14&gt;Parâmetros!$B$6,G14/2,G14),0),"")</f>
-        <v/>
-      </c>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113" t="str">
-        <f>+IF(AND(E14&lt;&gt;"",G14&lt;&gt;""),IF(E14&lt;=Parâmetros!$B$6,IF(F14="",G14/2,IF(F14&gt;Parâmetros!$B$6,G14/2,G14)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="154">
+        <v>6</v>
+      </c>
+      <c r="I14" s="113">
+        <f>+IF(AND(D14&lt;&gt;"",E14&lt;&gt;"",H14&lt;&gt;""),IF(D14&lt;Parâmetros!$B$6,IF(E14&gt;Parâmetros!$B$6,H14/2,H14),0),"")</f>
+        <v>3</v>
+      </c>
+      <c r="J14" s="113"/>
       <c r="K14" s="113" t="str">
+        <f>+IF(AND(F14&lt;&gt;"",H14&lt;&gt;""),IF(F14&lt;=Parâmetros!$B$6,IF(G14="",H14/2,IF(G14&gt;Parâmetros!$B$6,H14/2,H14)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L14" s="113" t="str">
+        <f>IF(AND(A14&gt;0,K14&lt;&gt;"",I14&lt;&gt;""),+K14-I14,"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="113" t="str">
+        <f>IF(AND(A14&gt;0,K14&lt;&gt;"",J14&lt;&gt;""),K14-J14,"")</f>
+        <v/>
+      </c>
+      <c r="N14" s="160" t="str">
+        <f>+IF(AND(A14&gt;0,I14&lt;&gt;0,I14&lt;&gt;"",K14&lt;&gt;""),K14/I14,"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="172" t="str">
+        <f>+IF(AND(A14&gt;0,K14&lt;&gt;"",J14&lt;&gt;0,J14&lt;&gt;""),K14/J14,"")</f>
+        <v/>
+      </c>
+      <c r="P14" s="113">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L14" s="113" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="113">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M14" s="160" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N14" s="173" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O14" s="113">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="113">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" hidden="1" outlineLevel="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" outlineLevel="2">
       <c r="A15" s="77" t="s">
         <v>243</v>
       </c>
       <c r="B15" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C15" s="43">
+        <v>4</v>
+      </c>
+      <c r="C15" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="43">
         <v>40290</v>
       </c>
-      <c r="D15" s="43">
+      <c r="E15" s="43">
         <v>40296</v>
       </c>
-      <c r="E15" s="43"/>
       <c r="F15" s="43"/>
-      <c r="G15" s="154"/>
-      <c r="H15" s="113" t="str">
-        <f>+IF(AND(C15&lt;&gt;"",D15&lt;&gt;"",G15&lt;&gt;""),IF(C15&lt;Parâmetros!$B$6,IF(D15&gt;Parâmetros!$B$6,G15/2,G15),0),"")</f>
-        <v/>
-      </c>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113" t="str">
-        <f>+IF(AND(E15&lt;&gt;"",G15&lt;&gt;""),IF(E15&lt;=Parâmetros!$B$6,IF(F15="",G15/2,IF(F15&gt;Parâmetros!$B$6,G15/2,G15)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G15" s="43"/>
+      <c r="H15" s="154">
+        <v>12</v>
+      </c>
+      <c r="I15" s="113">
+        <f>+IF(AND(D15&lt;&gt;"",E15&lt;&gt;"",H15&lt;&gt;""),IF(D15&lt;Parâmetros!$B$6,IF(E15&gt;Parâmetros!$B$6,H15/2,H15),0),"")</f>
+        <v>6</v>
+      </c>
+      <c r="J15" s="113"/>
       <c r="K15" s="113" t="str">
+        <f>+IF(AND(F15&lt;&gt;"",H15&lt;&gt;""),IF(F15&lt;=Parâmetros!$B$6,IF(G15="",H15/2,IF(G15&gt;Parâmetros!$B$6,H15/2,H15)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L15" s="113" t="str">
+        <f>IF(AND(A15&gt;0,K15&lt;&gt;"",I15&lt;&gt;""),+K15-I15,"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="113" t="str">
+        <f>IF(AND(A15&gt;0,K15&lt;&gt;"",J15&lt;&gt;""),K15-J15,"")</f>
+        <v/>
+      </c>
+      <c r="N15" s="160" t="str">
+        <f>+IF(AND(A15&gt;0,I15&lt;&gt;0,I15&lt;&gt;"",K15&lt;&gt;""),K15/I15,"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="172" t="str">
+        <f>+IF(AND(A15&gt;0,K15&lt;&gt;"",J15&lt;&gt;0,J15&lt;&gt;""),K15/J15,"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="113">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L15" s="113" t="str">
+        <v>12</v>
+      </c>
+      <c r="Q15" s="113">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M15" s="160" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="N15" s="173" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="O15" s="113">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="113">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" hidden="1" outlineLevel="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" outlineLevel="2">
       <c r="A16" s="77" t="s">
         <v>244</v>
       </c>
       <c r="B16" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C16" s="43">
+        <v>5</v>
+      </c>
+      <c r="C16" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D16" s="43">
         <v>40290</v>
       </c>
-      <c r="D16" s="43">
+      <c r="E16" s="43">
         <v>40296</v>
       </c>
-      <c r="E16" s="43"/>
       <c r="F16" s="43"/>
-      <c r="G16" s="154"/>
-      <c r="H16" s="113" t="str">
-        <f>+IF(AND(C16&lt;&gt;"",D16&lt;&gt;"",G16&lt;&gt;""),IF(C16&lt;Parâmetros!$B$6,IF(D16&gt;Parâmetros!$B$6,G16/2,G16),0),"")</f>
-        <v/>
-      </c>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113" t="str">
-        <f>+IF(AND(E16&lt;&gt;"",G16&lt;&gt;""),IF(E16&lt;=Parâmetros!$B$6,IF(F16="",G16/2,IF(F16&gt;Parâmetros!$B$6,G16/2,G16)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G16" s="43"/>
+      <c r="H16" s="154">
+        <v>6</v>
+      </c>
+      <c r="I16" s="113">
+        <f>+IF(AND(D16&lt;&gt;"",E16&lt;&gt;"",H16&lt;&gt;""),IF(D16&lt;Parâmetros!$B$6,IF(E16&gt;Parâmetros!$B$6,H16/2,H16),0),"")</f>
+        <v>3</v>
+      </c>
+      <c r="J16" s="113"/>
       <c r="K16" s="113" t="str">
+        <f>+IF(AND(F16&lt;&gt;"",H16&lt;&gt;""),IF(F16&lt;=Parâmetros!$B$6,IF(G16="",H16/2,IF(G16&gt;Parâmetros!$B$6,H16/2,H16)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L16" s="113" t="str">
+        <f>IF(AND(A16&gt;0,K16&lt;&gt;"",I16&lt;&gt;""),+K16-I16,"")</f>
+        <v/>
+      </c>
+      <c r="M16" s="113" t="str">
+        <f>IF(AND(A16&gt;0,K16&lt;&gt;"",J16&lt;&gt;""),K16-J16,"")</f>
+        <v/>
+      </c>
+      <c r="N16" s="160" t="str">
+        <f>+IF(AND(A16&gt;0,I16&lt;&gt;0,I16&lt;&gt;"",K16&lt;&gt;""),K16/I16,"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="172" t="str">
+        <f>+IF(AND(A16&gt;0,K16&lt;&gt;"",J16&lt;&gt;0,J16&lt;&gt;""),K16/J16,"")</f>
+        <v/>
+      </c>
+      <c r="P16" s="113">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="L16" s="113" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q16" s="113">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="M16" s="160" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15" customHeight="1">
+      <c r="A17" s="130" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="131"/>
+      <c r="C17" s="131"/>
+      <c r="D17" s="132">
+        <f>IF(MIN(D18:D19)&lt;&gt;0,MIN(D18:D19),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="E17" s="132">
+        <f>IF(MAX(E18:E19)&lt;&gt;0,MAX(E18:E19),"")</f>
+        <v>40296</v>
+      </c>
+      <c r="F17" s="132">
+        <f>IF(MIN(F18:F19)&lt;&gt;0,MIN(F18:F19),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="G17" s="132" t="str">
+        <f>IF(COUNT(E18:E19)=COUNT(G18:G19),MAX(G18:G19),"")</f>
+        <v/>
+      </c>
+      <c r="H17" s="151">
+        <f>SUMIF($B18:$B19,"&gt;0",H18:H19)</f>
+        <v>27</v>
+      </c>
+      <c r="I17" s="151">
+        <f>SUMIF($B18:$B19,"&gt;0",I18:I19)</f>
+        <v>13.5</v>
+      </c>
+      <c r="J17" s="151">
+        <f>SUMIF($B18:$B19,"&gt;0",J18:J19)</f>
+        <v>5</v>
+      </c>
+      <c r="K17" s="151">
+        <f>SUMIF($B18:$B19,"&gt;0",K18:K19)</f>
+        <v>13.5</v>
+      </c>
+      <c r="L17" s="152">
+        <f>+K17-I17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="151">
+        <f>+K17-J17</f>
+        <v>8.5</v>
+      </c>
+      <c r="N17" s="158">
+        <f>+IF(I17&lt;&gt;0,K17/I17,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O17" s="158">
+        <f>+IF(J17&lt;&gt;0,K17/J17,0)</f>
+        <v>2.7</v>
+      </c>
+      <c r="P17" s="151">
+        <f ca="1">SUMIF($B18:$B22,"&gt;0",P18:P19)</f>
+        <v>90</v>
+      </c>
+      <c r="Q17" s="151">
+        <f>SUMIF($B18:$B22,"&gt;0",Q18:Q22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A18" s="78" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="171"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="73">
+        <f>IF(MIN(D19)&lt;&gt;0,MIN(D19),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="E18" s="73">
+        <f>IF(MAX(E19)&lt;&gt;0,MAX(E19),"")</f>
+        <v>40296</v>
+      </c>
+      <c r="F18" s="73">
+        <f>IF(MIN(F19)&lt;&gt;0,MIN(F19),"")</f>
+        <v>40290</v>
+      </c>
+      <c r="G18" s="73" t="str">
+        <f>IF(COUNT(E19)=COUNT(G19),MAX(G19),"")</f>
+        <v/>
+      </c>
+      <c r="H18" s="153">
+        <f>SUMIF($B19,"&gt;0",H19)</f>
+        <v>27</v>
+      </c>
+      <c r="I18" s="153">
+        <f>SUMIF($B19,"&gt;0",I19)</f>
+        <v>13.5</v>
+      </c>
+      <c r="J18" s="153">
+        <f>SUMIF($B19,"&gt;0",J19)</f>
+        <v>5</v>
+      </c>
+      <c r="K18" s="153">
+        <f>SUMIF($B19,"&gt;0",K19)</f>
+        <v>13.5</v>
+      </c>
+      <c r="L18" s="153">
+        <f>+K18-I18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="153">
+        <f>+K18-J18</f>
+        <v>8.5</v>
+      </c>
+      <c r="N18" s="159">
+        <f>+IF(I18&lt;&gt;0,K18/I18,0)</f>
+        <v>1</v>
+      </c>
+      <c r="O18" s="159">
+        <f>+IF(J18&lt;&gt;0,K18/J18,0)</f>
+        <v>2.7</v>
+      </c>
+      <c r="P18" s="153">
+        <f ca="1">SUMIF($B19:$B22,"&gt;0",P19)</f>
+        <v>90</v>
+      </c>
+      <c r="Q18" s="153">
+        <f>SUMIF($B19:$B22,"&gt;0",Q19:Q22)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" outlineLevel="2">
+      <c r="A19" s="77" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="135">
+        <v>24</v>
+      </c>
+      <c r="C19" s="180" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" s="43">
+        <v>40290</v>
+      </c>
+      <c r="E19" s="43">
+        <v>40296</v>
+      </c>
+      <c r="F19" s="43">
+        <v>40290</v>
+      </c>
+      <c r="G19" s="43"/>
+      <c r="H19" s="154">
+        <v>27</v>
+      </c>
+      <c r="I19" s="113">
+        <f>+IF(AND(D19&lt;&gt;"",E19&lt;&gt;"",H19&lt;&gt;""),IF(D19&lt;Parâmetros!$B$6,IF(E19&gt;Parâmetros!$B$6,H19/2,H19),0),"")</f>
+        <v>13.5</v>
+      </c>
+      <c r="J19" s="113">
+        <v>5</v>
+      </c>
+      <c r="K19" s="113">
+        <f>+IF(AND(F19&lt;&gt;"",H19&lt;&gt;""),IF(F19&lt;=Parâmetros!$B$6,IF(G19="",H19/2,IF(G19&gt;Parâmetros!$B$6,H19/2,H19)),0),"")</f>
+        <v>13.5</v>
+      </c>
+      <c r="L19" s="113">
+        <f>IF(AND(A19&gt;0,K19&lt;&gt;"",I19&lt;&gt;""),+K19-I19,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="113">
+        <f>IF(AND(A19&gt;0,K19&lt;&gt;"",J19&lt;&gt;""),K19-J19,"")</f>
+        <v>8.5</v>
+      </c>
+      <c r="N19" s="160">
+        <f>+IF(AND(A19&gt;0,I19&lt;&gt;0,I19&lt;&gt;"",K19&lt;&gt;""),K19/I19,"")</f>
+        <v>1</v>
+      </c>
+      <c r="O19" s="172">
+        <f>+IF(AND(A19&gt;0,K19&lt;&gt;"",J19&lt;&gt;0,J19&lt;&gt;""),K19/J19,"")</f>
+        <v>2.7</v>
+      </c>
+      <c r="P19" s="113">
+        <f>H19</f>
+        <v>27</v>
+      </c>
+      <c r="Q19" s="113">
+        <f>J19</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15" customHeight="1">
+      <c r="A20" s="130" t="s">
+        <v>245</v>
+      </c>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="132">
+        <f>IF(MIN(D21:D35)&lt;&gt;0,MIN(D21:D35),"")</f>
+        <v>40297</v>
+      </c>
+      <c r="E20" s="132">
+        <f>IF(MAX(E21:E35)&lt;&gt;0,MAX(E21:E35),"")</f>
+        <v>40308</v>
+      </c>
+      <c r="F20" s="132" t="str">
+        <f>IF(COUNT(D21:D35)=COUNT(F21:F35),MAX(F21:F35),"")</f>
+        <v/>
+      </c>
+      <c r="G20" s="132" t="str">
+        <f>IF(COUNT(E21:E35)=COUNT(G21:G35),MAX(G21:G35),"")</f>
+        <v/>
+      </c>
+      <c r="H20" s="151">
+        <f>SUMIF($B21:$B35,"&gt;0",H21:H35)</f>
+        <v>122</v>
+      </c>
+      <c r="I20" s="151">
+        <f>SUMIF($B21:$B35,"&gt;0",I21:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="151">
+        <f>SUMIF($B21:$B35,"&gt;0",J21:J35)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="151">
+        <f>SUMIF($B21:$B35,"&gt;0",K21:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="152">
+        <f>+K20-I20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="151">
+        <f>+K20-J20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="158">
+        <f>+IF(I20&lt;&gt;0,K20/I20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="158">
+        <f>+IF(J20&lt;&gt;0,K20/J20,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="151">
+        <f>SUMIF($B21:$B35,"&gt;0",P21:P35)</f>
+        <v>122</v>
+      </c>
+      <c r="Q20" s="151">
+        <f>SUMIF($B21:$B35,"&gt;0",Q21:Q35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
+      <c r="A21" s="78" t="s">
+        <v>246</v>
+      </c>
+      <c r="B21" s="135">
+        <v>6</v>
+      </c>
+      <c r="C21" s="180"/>
+      <c r="D21" s="73">
+        <f>IF(MIN(D22:D35)&lt;&gt;0,MIN(D22:D35),"")</f>
+        <v>40297</v>
+      </c>
+      <c r="E21" s="73">
+        <f>IF(MAX(E22:E35)&lt;&gt;0,MAX(E22:E35),"")</f>
+        <v>40308</v>
+      </c>
+      <c r="F21" s="73" t="str">
+        <f>IF(COUNT(D22:D35)=COUNT(F22:F35),MAX(F22:F35),"")</f>
+        <v/>
+      </c>
+      <c r="G21" s="73" t="str">
+        <f>IF(COUNT(E22:E35)=COUNT(G22:G35),MAX(G22:G26),"")</f>
+        <v/>
+      </c>
+      <c r="H21" s="153">
+        <f>SUMIF($B22:$B35,"&gt;0",H22:H35)</f>
+        <v>61</v>
+      </c>
+      <c r="I21" s="153">
+        <f>SUMIF($B22:$B35,"&gt;0",I22:I35)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="153">
+        <f>SUMIF($B22:$B35,"&gt;0",J22:J35)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="153">
+        <f>SUMIF($B22:$B35,"&gt;0",K22:K35)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="153">
+        <f>+K21-I21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="153">
+        <f>+K21-J21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="159">
+        <f>+IF(I21&lt;&gt;0,K21/I21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="159">
+        <f>+IF(J21&lt;&gt;0,K21/J21,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="153">
+        <f>SUMIF($B22:$B35,"&gt;0",P22:P35)</f>
+        <v>61</v>
+      </c>
+      <c r="Q21" s="153">
+        <f>SUMIF($B22:$B35,"&gt;0",Q22:Q35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" outlineLevel="2">
+      <c r="A22" s="77" t="s">
+        <v>248</v>
+      </c>
+      <c r="B22" s="135">
+        <v>7</v>
+      </c>
+      <c r="C22" s="180" t="s">
+        <v>252</v>
+      </c>
+      <c r="D22" s="43">
+        <v>40297</v>
+      </c>
+      <c r="E22" s="43">
+        <v>40298</v>
+      </c>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="154">
+        <v>2</v>
+      </c>
+      <c r="I22" s="113">
+        <f>+IF(AND(D22&lt;&gt;"",E22&lt;&gt;"",H22&lt;&gt;""),IF(D22&lt;Parâmetros!$B$6,IF(E22&gt;Parâmetros!$B$6,H22/2,H22),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="113"/>
+      <c r="K22" s="113" t="str">
+        <f>+IF(AND(F22&lt;&gt;"",H22&lt;&gt;""),IF(F22&lt;=Parâmetros!$B$6,IF(G22="",H22/2,IF(G22&gt;Parâmetros!$B$6,H22/2,H22)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L22" s="113" t="str">
+        <f t="shared" ref="L22:L35" si="2">IF(AND(A22&gt;0,K22&lt;&gt;"",I22&lt;&gt;""),+K22-I22,"")</f>
+        <v/>
+      </c>
+      <c r="M22" s="113" t="str">
+        <f t="shared" ref="M22:M35" si="3">IF(AND(A22&gt;0,K22&lt;&gt;"",J22&lt;&gt;""),K22-J22,"")</f>
+        <v/>
+      </c>
+      <c r="N22" s="160" t="str">
+        <f t="shared" ref="N22:N35" si="4">+IF(AND(A22&gt;0,I22&lt;&gt;0,I22&lt;&gt;"",K22&lt;&gt;""),K22/I22,"")</f>
+        <v/>
+      </c>
+      <c r="O22" s="172" t="str">
+        <f t="shared" ref="O22:O35" si="5">+IF(AND(A22&gt;0,K22&lt;&gt;"",J22&lt;&gt;0,J22&lt;&gt;""),K22/J22,"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="113">
+        <f t="shared" ref="P22:P35" si="6">H22</f>
+        <v>2</v>
+      </c>
+      <c r="Q22" s="113">
+        <f t="shared" ref="Q22:Q35" si="7">J22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" outlineLevel="2">
+      <c r="A23" s="77" t="s">
+        <v>249</v>
+      </c>
+      <c r="B23" s="135">
+        <v>8</v>
+      </c>
+      <c r="C23" s="180" t="s">
+        <v>252</v>
+      </c>
+      <c r="D23" s="43">
+        <v>40298</v>
+      </c>
+      <c r="E23" s="43">
+        <v>40302</v>
+      </c>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="154">
+        <v>5</v>
+      </c>
+      <c r="I23" s="113">
+        <f>+IF(AND(D23&lt;&gt;"",E23&lt;&gt;"",H23&lt;&gt;""),IF(D23&lt;Parâmetros!$B$6,IF(E23&gt;Parâmetros!$B$6,H23/2,H23),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="113"/>
+      <c r="K23" s="113" t="str">
+        <f>+IF(AND(F23&lt;&gt;"",H23&lt;&gt;""),IF(F23&lt;=Parâmetros!$B$6,IF(G23="",H23/2,IF(G23&gt;Parâmetros!$B$6,H23/2,H23)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L23" s="113" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N16" s="173" t="str">
+      <c r="M23" s="113" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="O16" s="113">
+      <c r="N23" s="160" t="str">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="113">
+        <v/>
+      </c>
+      <c r="O23" s="172" t="str">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="15" customHeight="1">
-      <c r="A17" s="130" t="s">
-        <v>245</v>
-      </c>
-      <c r="B17" s="130"/>
-      <c r="C17" s="132">
-        <f>IF(MIN(C18:C32)&lt;&gt;0,MIN(C18:C32),"")</f>
-        <v>40297</v>
-      </c>
-      <c r="D17" s="132">
-        <f>IF(MAX(D18:D32)&lt;&gt;0,MAX(D18:D32),"")</f>
-        <v>40310</v>
-      </c>
-      <c r="E17" s="132" t="str">
-        <f>IF(COUNT(C18:C32)=COUNT(E18:E32),MAX(E18:E32),"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="132" t="str">
-        <f>IF(COUNT(D18:D32)=COUNT(F18:F32),MAX(F18:F32),"")</f>
-        <v/>
-      </c>
-      <c r="G17" s="151">
-        <f>SUMIF($B18:$B32,"&gt;0",G18:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="151">
-        <f>SUMIF($B18:$B32,"&gt;0",H18:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="151">
-        <f>SUMIF($B18:$B32,"&gt;0",I18:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="151">
-        <f>SUMIF($B18:$B32,"&gt;0",J18:J32)</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="152">
-        <f>+J17-H17</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="151">
-        <f>+J17-I17</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="158">
-        <f>+IF(H17&lt;&gt;0,J17/H17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N17" s="158">
-        <f>+IF(I17&lt;&gt;0,J17/I17,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="151">
-        <f>SUMIF($B18:$B32,"&gt;0",O18:O32)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="151">
-        <f>SUMIF($B18:$B32,"&gt;0",P18:P32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="12" customHeight="1" outlineLevel="1">
-      <c r="A18" s="78" t="s">
-        <v>246</v>
-      </c>
-      <c r="B18" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C18" s="73">
-        <f>IF(MIN(C19:C32)&lt;&gt;0,MIN(C19:C32),"")</f>
-        <v>40297</v>
-      </c>
-      <c r="D18" s="73">
-        <f>IF(MAX(D19:D32)&lt;&gt;0,MAX(D19:D32),"")</f>
-        <v>40310</v>
-      </c>
-      <c r="E18" s="73" t="str">
-        <f>IF(COUNT(C19:C32)=COUNT(E19:E32),MAX(E19:E32),"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="73" t="str">
-        <f>IF(COUNT(D19:D32)=COUNT(F19:F32),MAX(F19:F23),"")</f>
-        <v/>
-      </c>
-      <c r="G18" s="153">
-        <f>SUMIF($B19:$B32,"&gt;0",G19:G32)</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="153">
-        <f>SUMIF($B19:$B32,"&gt;0",H19:H32)</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="153">
-        <f>SUMIF($B19:$B32,"&gt;0",I19:I32)</f>
-        <v>0</v>
-      </c>
-      <c r="J18" s="153">
-        <f>SUMIF($B19:$B32,"&gt;0",J19:J32)</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="153">
-        <f>+J18-H18</f>
-        <v>0</v>
-      </c>
-      <c r="L18" s="153">
-        <f>+J18-I18</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="159">
-        <f>+IF(H18&lt;&gt;0,J18/H18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N18" s="159">
-        <f>+IF(I18&lt;&gt;0,J18/I18,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O18" s="153">
-        <f>SUMIF($B19:$B32,"&gt;0",O19:O32)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="153">
-        <f>SUMIF($B19:$B32,"&gt;0",P19:P32)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" outlineLevel="2">
-      <c r="A19" s="77" t="s">
-        <v>249</v>
-      </c>
-      <c r="B19" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C19" s="43">
-        <v>40297</v>
-      </c>
-      <c r="D19" s="43">
-        <v>40298</v>
-      </c>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="154"/>
-      <c r="H19" s="113" t="str">
-        <f>+IF(AND(C19&lt;&gt;"",D19&lt;&gt;"",G19&lt;&gt;""),IF(C19&lt;Parâmetros!$B$6,IF(D19&gt;Parâmetros!$B$6,G19/2,G19),0),"")</f>
-        <v/>
-      </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113" t="str">
-        <f>+IF(AND(E19&lt;&gt;"",G19&lt;&gt;""),IF(E19&lt;=Parâmetros!$B$6,IF(F19="",G19/2,IF(F19&gt;Parâmetros!$B$6,G19/2,G19)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K19" s="113" t="str">
-        <f t="shared" ref="K19:K32" si="6">IF(AND(A19&gt;0,J19&lt;&gt;"",H19&lt;&gt;""),+J19-H19,"")</f>
-        <v/>
-      </c>
-      <c r="L19" s="113" t="str">
-        <f t="shared" ref="L19:L32" si="7">IF(AND(A19&gt;0,J19&lt;&gt;"",I19&lt;&gt;""),J19-I19,"")</f>
-        <v/>
-      </c>
-      <c r="M19" s="160" t="str">
-        <f t="shared" ref="M19:M32" si="8">+IF(AND(A19&gt;0,H19&lt;&gt;0,H19&lt;&gt;"",J19&lt;&gt;""),J19/H19,"")</f>
-        <v/>
-      </c>
-      <c r="N19" s="173" t="str">
-        <f t="shared" ref="N19:N32" si="9">+IF(AND(A19&gt;0,J19&lt;&gt;"",I19&lt;&gt;0,I19&lt;&gt;""),J19/I19,"")</f>
-        <v/>
-      </c>
-      <c r="O19" s="113">
-        <f t="shared" ref="O19:O32" si="10">G19</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="113">
-        <f t="shared" ref="P19:P32" si="11">I19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" outlineLevel="2">
-      <c r="A20" s="77" t="s">
+        <v/>
+      </c>
+      <c r="P23" s="113">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="Q23" s="113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" outlineLevel="2">
+      <c r="A24" s="77" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C20" s="43">
-        <v>40298</v>
-      </c>
-      <c r="D20" s="43">
-        <v>40302</v>
-      </c>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="113" t="str">
-        <f>+IF(AND(C20&lt;&gt;"",D20&lt;&gt;"",G20&lt;&gt;""),IF(C20&lt;Parâmetros!$B$6,IF(D20&gt;Parâmetros!$B$6,G20/2,G20),0),"")</f>
-        <v/>
-      </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113" t="str">
-        <f>+IF(AND(E20&lt;&gt;"",G20&lt;&gt;""),IF(E20&lt;=Parâmetros!$B$6,IF(F20="",G20/2,IF(F20&gt;Parâmetros!$B$6,G20/2,G20)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K20" s="113" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L20" s="113" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M20" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N20" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O20" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" outlineLevel="2">
-      <c r="A21" s="77" t="s">
-        <v>251</v>
-      </c>
-      <c r="B21" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="113" t="str">
-        <f>+IF(AND(C21&lt;&gt;"",D21&lt;&gt;"",G21&lt;&gt;""),IF(C21&lt;Parâmetros!$B$6,IF(D21&gt;Parâmetros!$B$6,G21/2,G21),0),"")</f>
-        <v/>
-      </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113" t="str">
-        <f>+IF(AND(E21&lt;&gt;"",G21&lt;&gt;""),IF(E21&lt;=Parâmetros!$B$6,IF(F21="",G21/2,IF(F21&gt;Parâmetros!$B$6,G21/2,G21)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K21" s="113" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L21" s="113" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M21" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N21" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O21" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" outlineLevel="2">
-      <c r="A22" s="169" t="s">
-        <v>241</v>
-      </c>
-      <c r="B22" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C22" s="43">
-        <v>40303</v>
-      </c>
-      <c r="D22" s="43">
-        <v>40303</v>
-      </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="154"/>
-      <c r="H22" s="113" t="str">
-        <f>+IF(AND(C22&lt;&gt;"",D22&lt;&gt;"",G22&lt;&gt;""),IF(C22&lt;Parâmetros!$B$6,IF(D22&gt;Parâmetros!$B$6,G22/2,G22),0),"")</f>
-        <v/>
-      </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113" t="str">
-        <f>+IF(AND(E22&lt;&gt;"",G22&lt;&gt;""),IF(E22&lt;=Parâmetros!$B$6,IF(F22="",G22/2,IF(F22&gt;Parâmetros!$B$6,G22/2,G22)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K22" s="113" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L22" s="113" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M22" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N22" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O22" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" outlineLevel="2">
-      <c r="A23" s="169" t="s">
-        <v>242</v>
-      </c>
-      <c r="B23" s="172"/>
-      <c r="C23" s="43">
-        <v>40303</v>
-      </c>
-      <c r="D23" s="43">
-        <v>40303</v>
-      </c>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="154"/>
-      <c r="H23" s="113" t="str">
-        <f>+IF(AND(C23&lt;&gt;"",D23&lt;&gt;"",G23&lt;&gt;""),IF(C23&lt;Parâmetros!$B$6,IF(D23&gt;Parâmetros!$B$6,G23/2,G23),0),"")</f>
-        <v/>
-      </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113" t="str">
-        <f>+IF(AND(E23&lt;&gt;"",G23&lt;&gt;""),IF(E23&lt;=Parâmetros!$B$6,IF(F23="",G23/2,IF(F23&gt;Parâmetros!$B$6,G23/2,G23)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K23" s="113" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L23" s="113" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M23" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N23" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O23" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" outlineLevel="2">
-      <c r="A24" s="169" t="s">
-        <v>240</v>
-      </c>
-      <c r="B24" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C24" s="43">
-        <v>40304</v>
-      </c>
-      <c r="D24" s="43">
-        <v>40304</v>
-      </c>
+      <c r="B24" s="135"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="43"/>
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
-      <c r="G24" s="154"/>
-      <c r="H24" s="113" t="str">
-        <f>+IF(AND(C24&lt;&gt;"",D24&lt;&gt;"",G24&lt;&gt;""),IF(C24&lt;Parâmetros!$B$6,IF(D24&gt;Parâmetros!$B$6,G24/2,G24),0),"")</f>
-        <v/>
-      </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113" t="str">
-        <f>+IF(AND(E24&lt;&gt;"",G24&lt;&gt;""),IF(E24&lt;=Parâmetros!$B$6,IF(F24="",G24/2,IF(F24&gt;Parâmetros!$B$6,G24/2,G24)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G24" s="43"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="113" t="str">
+        <f>+IF(AND(D24&lt;&gt;"",E24&lt;&gt;"",H24&lt;&gt;""),IF(D24&lt;Parâmetros!$B$6,IF(E24&gt;Parâmetros!$B$6,H24/2,H24),0),"")</f>
+        <v/>
+      </c>
+      <c r="J24" s="113"/>
       <c r="K24" s="113" t="str">
+        <f>+IF(AND(F24&lt;&gt;"",H24&lt;&gt;""),IF(F24&lt;=Parâmetros!$B$6,IF(G24="",H24/2,IF(G24&gt;Parâmetros!$B$6,H24/2,H24)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L24" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M24" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N24" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O24" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P24" s="113">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L24" s="113" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="113">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M24" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N24" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O24" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" outlineLevel="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" outlineLevel="2">
       <c r="A25" s="169" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B25" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C25" s="43">
+        <v>9</v>
+      </c>
+      <c r="C25" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D25" s="43">
         <v>40303</v>
       </c>
-      <c r="D25" s="43">
-        <v>40304</v>
-      </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="43">
+        <v>40303</v>
+      </c>
       <c r="F25" s="43"/>
-      <c r="G25" s="154"/>
-      <c r="H25" s="113" t="str">
-        <f>+IF(AND(C25&lt;&gt;"",D25&lt;&gt;"",G25&lt;&gt;""),IF(C25&lt;Parâmetros!$B$6,IF(D25&gt;Parâmetros!$B$6,G25/2,G25),0),"")</f>
-        <v/>
-      </c>
-      <c r="I25" s="113"/>
-      <c r="J25" s="113" t="str">
-        <f>+IF(AND(E25&lt;&gt;"",G25&lt;&gt;""),IF(E25&lt;=Parâmetros!$B$6,IF(F25="",G25/2,IF(F25&gt;Parâmetros!$B$6,G25/2,G25)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="154">
+        <v>3</v>
+      </c>
+      <c r="I25" s="113">
+        <f>+IF(AND(D25&lt;&gt;"",E25&lt;&gt;"",H25&lt;&gt;""),IF(D25&lt;Parâmetros!$B$6,IF(E25&gt;Parâmetros!$B$6,H25/2,H25),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="113"/>
       <c r="K25" s="113" t="str">
+        <f>+IF(AND(F25&lt;&gt;"",H25&lt;&gt;""),IF(F25&lt;=Parâmetros!$B$6,IF(G25="",H25/2,IF(G25&gt;Parâmetros!$B$6,H25/2,H25)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L25" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M25" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N25" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O25" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P25" s="113">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L25" s="113" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q25" s="113">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M25" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N25" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O25" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" outlineLevel="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" outlineLevel="2">
       <c r="A26" s="169" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B26" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C26" s="43">
-        <v>40304</v>
+        <v>10</v>
+      </c>
+      <c r="C26" s="180" t="s">
+        <v>231</v>
       </c>
       <c r="D26" s="43">
         <v>40304</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="43">
+        <v>40304</v>
+      </c>
       <c r="F26" s="43"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="113" t="str">
-        <f>+IF(AND(C26&lt;&gt;"",D26&lt;&gt;"",G26&lt;&gt;""),IF(C26&lt;Parâmetros!$B$6,IF(D26&gt;Parâmetros!$B$6,G26/2,G26),0),"")</f>
-        <v/>
-      </c>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113" t="str">
-        <f>+IF(AND(E26&lt;&gt;"",G26&lt;&gt;""),IF(E26&lt;=Parâmetros!$B$6,IF(F26="",G26/2,IF(F26&gt;Parâmetros!$B$6,G26/2,G26)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="154">
+        <v>3</v>
+      </c>
+      <c r="I26" s="113">
+        <f>+IF(AND(D26&lt;&gt;"",E26&lt;&gt;"",H26&lt;&gt;""),IF(D26&lt;Parâmetros!$B$6,IF(E26&gt;Parâmetros!$B$6,H26/2,H26),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="113"/>
       <c r="K26" s="113" t="str">
+        <f>+IF(AND(F26&lt;&gt;"",H26&lt;&gt;""),IF(F26&lt;=Parâmetros!$B$6,IF(G26="",H26/2,IF(G26&gt;Parâmetros!$B$6,H26/2,H26)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L26" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M26" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N26" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O26" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P26" s="113">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L26" s="113" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q26" s="113">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M26" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N26" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O26" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" outlineLevel="2">
-      <c r="A27" s="77" t="s">
-        <v>252</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" outlineLevel="2">
+      <c r="A27" s="169" t="s">
+        <v>240</v>
       </c>
       <c r="B27" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
+        <v>11</v>
+      </c>
+      <c r="C27" s="180" t="s">
+        <v>216</v>
+      </c>
+      <c r="D27" s="43">
+        <v>40303</v>
+      </c>
+      <c r="E27" s="43">
+        <v>40303</v>
+      </c>
       <c r="F27" s="43"/>
-      <c r="G27" s="154"/>
-      <c r="H27" s="113" t="str">
-        <f>+IF(AND(C27&lt;&gt;"",D27&lt;&gt;"",G27&lt;&gt;""),IF(C27&lt;Parâmetros!$B$6,IF(D27&gt;Parâmetros!$B$6,G27/2,G27),0),"")</f>
-        <v/>
-      </c>
-      <c r="I27" s="113"/>
-      <c r="J27" s="113" t="str">
-        <f>+IF(AND(E27&lt;&gt;"",G27&lt;&gt;""),IF(E27&lt;=Parâmetros!$B$6,IF(F27="",G27/2,IF(F27&gt;Parâmetros!$B$6,G27/2,G27)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="154">
+        <v>3</v>
+      </c>
+      <c r="I27" s="113">
+        <f>+IF(AND(D27&lt;&gt;"",E27&lt;&gt;"",H27&lt;&gt;""),IF(D27&lt;Parâmetros!$B$6,IF(E27&gt;Parâmetros!$B$6,H27/2,H27),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="113"/>
       <c r="K27" s="113" t="str">
+        <f>+IF(AND(F27&lt;&gt;"",H27&lt;&gt;""),IF(F27&lt;=Parâmetros!$B$6,IF(G27="",H27/2,IF(G27&gt;Parâmetros!$B$6,H27/2,H27)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L27" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M27" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N27" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O27" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P27" s="113">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L27" s="113" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="113">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M27" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N27" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O27" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" outlineLevel="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" outlineLevel="2">
       <c r="A28" s="169" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B28" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C28" s="43">
-        <v>40305</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="180" t="s">
+        <v>232</v>
       </c>
       <c r="D28" s="43">
-        <v>40308</v>
-      </c>
-      <c r="E28" s="43"/>
+        <v>40303</v>
+      </c>
+      <c r="E28" s="43">
+        <v>40304</v>
+      </c>
       <c r="F28" s="43"/>
-      <c r="G28" s="154"/>
-      <c r="H28" s="113" t="str">
-        <f>+IF(AND(C28&lt;&gt;"",D28&lt;&gt;"",G28&lt;&gt;""),IF(C28&lt;Parâmetros!$B$6,IF(D28&gt;Parâmetros!$B$6,G28/2,G28),0),"")</f>
-        <v/>
-      </c>
-      <c r="I28" s="113"/>
-      <c r="J28" s="113" t="str">
-        <f>+IF(AND(E28&lt;&gt;"",G28&lt;&gt;""),IF(E28&lt;=Parâmetros!$B$6,IF(F28="",G28/2,IF(F28&gt;Parâmetros!$B$6,G28/2,G28)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G28" s="43"/>
+      <c r="H28" s="154">
+        <v>6</v>
+      </c>
+      <c r="I28" s="113">
+        <f>+IF(AND(D28&lt;&gt;"",E28&lt;&gt;"",H28&lt;&gt;""),IF(D28&lt;Parâmetros!$B$6,IF(E28&gt;Parâmetros!$B$6,H28/2,H28),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="113"/>
       <c r="K28" s="113" t="str">
+        <f>+IF(AND(F28&lt;&gt;"",H28&lt;&gt;""),IF(F28&lt;=Parâmetros!$B$6,IF(G28="",H28/2,IF(G28&gt;Parâmetros!$B$6,H28/2,H28)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L28" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M28" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N28" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O28" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P28" s="113">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L28" s="113" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q28" s="113">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M28" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N28" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O28" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" outlineLevel="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" outlineLevel="2">
       <c r="A29" s="169" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B29" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C29" s="43">
-        <v>40305</v>
+        <v>13</v>
+      </c>
+      <c r="C29" s="180" t="s">
+        <v>216</v>
       </c>
       <c r="D29" s="43">
-        <v>40308</v>
-      </c>
-      <c r="E29" s="43"/>
+        <v>40304</v>
+      </c>
+      <c r="E29" s="43">
+        <v>40304</v>
+      </c>
       <c r="F29" s="43"/>
-      <c r="G29" s="154"/>
-      <c r="H29" s="113" t="str">
-        <f>+IF(AND(C29&lt;&gt;"",D29&lt;&gt;"",G29&lt;&gt;""),IF(C29&lt;Parâmetros!$B$6,IF(D29&gt;Parâmetros!$B$6,G29/2,G29),0),"")</f>
-        <v/>
-      </c>
-      <c r="I29" s="113"/>
-      <c r="J29" s="113" t="str">
-        <f>+IF(AND(E29&lt;&gt;"",G29&lt;&gt;""),IF(E29&lt;=Parâmetros!$B$6,IF(F29="",G29/2,IF(F29&gt;Parâmetros!$B$6,G29/2,G29)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G29" s="43"/>
+      <c r="H29" s="154">
+        <v>3</v>
+      </c>
+      <c r="I29" s="113">
+        <f>+IF(AND(D29&lt;&gt;"",E29&lt;&gt;"",H29&lt;&gt;""),IF(D29&lt;Parâmetros!$B$6,IF(E29&gt;Parâmetros!$B$6,H29/2,H29),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="113"/>
       <c r="K29" s="113" t="str">
+        <f>+IF(AND(F29&lt;&gt;"",H29&lt;&gt;""),IF(F29&lt;=Parâmetros!$B$6,IF(G29="",H29/2,IF(G29&gt;Parâmetros!$B$6,H29/2,H29)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L29" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M29" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N29" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O29" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P29" s="113">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L29" s="113" t="str">
+        <v>3</v>
+      </c>
+      <c r="Q29" s="113">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M29" s="160" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N29" s="173" t="str">
-        <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O29" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" outlineLevel="2">
-      <c r="A30" s="169" t="s">
-        <v>240</v>
-      </c>
-      <c r="B30" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C30" s="43">
-        <v>40308</v>
-      </c>
-      <c r="D30" s="43">
-        <v>40310</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" outlineLevel="2">
+      <c r="A30" s="77" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="43"/>
       <c r="E30" s="43"/>
       <c r="F30" s="43"/>
-      <c r="G30" s="154"/>
-      <c r="H30" s="113" t="str">
-        <f>+IF(AND(C30&lt;&gt;"",D30&lt;&gt;"",G30&lt;&gt;""),IF(C30&lt;Parâmetros!$B$6,IF(D30&gt;Parâmetros!$B$6,G30/2,G30),0),"")</f>
-        <v/>
-      </c>
-      <c r="I30" s="113"/>
-      <c r="J30" s="113" t="str">
-        <f>+IF(AND(E30&lt;&gt;"",G30&lt;&gt;""),IF(E30&lt;=Parâmetros!$B$6,IF(F30="",G30/2,IF(F30&gt;Parâmetros!$B$6,G30/2,G30)),0),"")</f>
-        <v/>
-      </c>
+      <c r="G30" s="43"/>
+      <c r="H30" s="154"/>
+      <c r="I30" s="113" t="str">
+        <f>+IF(AND(D30&lt;&gt;"",E30&lt;&gt;"",H30&lt;&gt;""),IF(D30&lt;Parâmetros!$B$6,IF(E30&gt;Parâmetros!$B$6,H30/2,H30),0),"")</f>
+        <v/>
+      </c>
+      <c r="J30" s="113"/>
       <c r="K30" s="113" t="str">
+        <f>+IF(AND(F30&lt;&gt;"",H30&lt;&gt;""),IF(F30&lt;=Parâmetros!$B$6,IF(G30="",H30/2,IF(G30&gt;Parâmetros!$B$6,H30/2,H30)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L30" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M30" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N30" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O30" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P30" s="113">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L30" s="113" t="str">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="113">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M30" s="160" t="str">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" outlineLevel="2">
+      <c r="A31" s="169" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="135">
+        <v>14</v>
+      </c>
+      <c r="C31" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D31" s="43">
+        <v>40304</v>
+      </c>
+      <c r="E31" s="43">
+        <v>40304</v>
+      </c>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="154">
+        <v>6</v>
+      </c>
+      <c r="I31" s="113">
+        <f>+IF(AND(D31&lt;&gt;"",E31&lt;&gt;"",H31&lt;&gt;""),IF(D31&lt;Parâmetros!$B$6,IF(E31&gt;Parâmetros!$B$6,H31/2,H31),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="113"/>
+      <c r="K31" s="113" t="str">
+        <f>+IF(AND(F31&lt;&gt;"",H31&lt;&gt;""),IF(F31&lt;=Parâmetros!$B$6,IF(G31="",H31/2,IF(G31&gt;Parâmetros!$B$6,H31/2,H31)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L31" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M31" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N31" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O31" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P31" s="113">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q31" s="113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" outlineLevel="2">
+      <c r="A32" s="169" t="s">
+        <v>242</v>
+      </c>
+      <c r="B32" s="135">
+        <v>15</v>
+      </c>
+      <c r="C32" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" s="43">
+        <v>40305</v>
+      </c>
+      <c r="E32" s="43">
+        <v>40305</v>
+      </c>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="154">
+        <v>6</v>
+      </c>
+      <c r="I32" s="113">
+        <f>+IF(AND(D32&lt;&gt;"",E32&lt;&gt;"",H32&lt;&gt;""),IF(D32&lt;Parâmetros!$B$6,IF(E32&gt;Parâmetros!$B$6,H32/2,H32),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="113"/>
+      <c r="K32" s="113" t="str">
+        <f>+IF(AND(F32&lt;&gt;"",H32&lt;&gt;""),IF(F32&lt;=Parâmetros!$B$6,IF(G32="",H32/2,IF(G32&gt;Parâmetros!$B$6,H32/2,H32)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L32" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M32" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N32" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O32" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P32" s="113">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q32" s="113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" outlineLevel="2">
+      <c r="A33" s="169" t="s">
+        <v>240</v>
+      </c>
+      <c r="B33" s="135">
+        <v>16</v>
+      </c>
+      <c r="C33" s="180" t="s">
+        <v>216</v>
+      </c>
+      <c r="D33" s="43">
+        <v>40305</v>
+      </c>
+      <c r="E33" s="43">
+        <v>40305</v>
+      </c>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="154">
+        <v>6</v>
+      </c>
+      <c r="I33" s="113">
+        <f>+IF(AND(D33&lt;&gt;"",E33&lt;&gt;"",H33&lt;&gt;""),IF(D33&lt;Parâmetros!$B$6,IF(E33&gt;Parâmetros!$B$6,H33/2,H33),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="113"/>
+      <c r="K33" s="113" t="str">
+        <f>+IF(AND(F33&lt;&gt;"",H33&lt;&gt;""),IF(F33&lt;=Parâmetros!$B$6,IF(G33="",H33/2,IF(G33&gt;Parâmetros!$B$6,H33/2,H33)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L33" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M33" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N33" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O33" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P33" s="113">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q33" s="113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" outlineLevel="2">
+      <c r="A34" s="169" t="s">
+        <v>243</v>
+      </c>
+      <c r="B34" s="135">
+        <v>17</v>
+      </c>
+      <c r="C34" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D34" s="43">
+        <v>40305</v>
+      </c>
+      <c r="E34" s="43">
+        <v>40308</v>
+      </c>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="154">
+        <v>12</v>
+      </c>
+      <c r="I34" s="113">
+        <f>+IF(AND(D34&lt;&gt;"",E34&lt;&gt;"",H34&lt;&gt;""),IF(D34&lt;Parâmetros!$B$6,IF(E34&gt;Parâmetros!$B$6,H34/2,H34),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="113"/>
+      <c r="K34" s="113" t="str">
+        <f>+IF(AND(F34&lt;&gt;"",H34&lt;&gt;""),IF(F34&lt;=Parâmetros!$B$6,IF(G34="",H34/2,IF(G34&gt;Parâmetros!$B$6,H34/2,H34)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L34" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M34" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N34" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O34" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P34" s="113">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="Q34" s="113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" outlineLevel="2">
+      <c r="A35" s="169" t="s">
+        <v>244</v>
+      </c>
+      <c r="B35" s="135">
+        <v>18</v>
+      </c>
+      <c r="C35" s="180" t="s">
+        <v>216</v>
+      </c>
+      <c r="D35" s="43">
+        <v>40306</v>
+      </c>
+      <c r="E35" s="43">
+        <v>40308</v>
+      </c>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="154">
+        <v>6</v>
+      </c>
+      <c r="I35" s="113">
+        <f>+IF(AND(D35&lt;&gt;"",E35&lt;&gt;"",H35&lt;&gt;""),IF(D35&lt;Parâmetros!$B$6,IF(E35&gt;Parâmetros!$B$6,H35/2,H35),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="113"/>
+      <c r="K35" s="113" t="str">
+        <f>+IF(AND(F35&lt;&gt;"",H35&lt;&gt;""),IF(F35&lt;=Parâmetros!$B$6,IF(G35="",H35/2,IF(G35&gt;Parâmetros!$B$6,H35/2,H35)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L35" s="113" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="M35" s="113" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="N35" s="160" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="O35" s="172" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="P35" s="113">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="Q35" s="113">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="15" customHeight="1">
+      <c r="A36" s="130" t="s">
+        <v>253</v>
+      </c>
+      <c r="B36" s="131"/>
+      <c r="C36" s="131"/>
+      <c r="D36" s="132">
+        <f>IF(MIN(D37:D42)&lt;&gt;0,MIN(D37:D42),"")</f>
+        <v>40308</v>
+      </c>
+      <c r="E36" s="132">
+        <f>IF(MAX(E37:E42)&lt;&gt;0,MAX(E37:E42),"")</f>
+        <v>40319</v>
+      </c>
+      <c r="F36" s="132" t="str">
+        <f>IF(COUNT(D37:D42)=COUNT(F37:F42),MAX(F37:F42),"")</f>
+        <v/>
+      </c>
+      <c r="G36" s="132" t="str">
+        <f>IF(COUNT(E37:E42)=COUNT(G37:G42),MAX(G37:G42),"")</f>
+        <v/>
+      </c>
+      <c r="H36" s="151">
+        <f>SUMIF($B37:$B42,"&gt;0",H37:H42)</f>
+        <v>87</v>
+      </c>
+      <c r="I36" s="151">
+        <f>SUMIF($B37:$B42,"&gt;0",I37:I42)</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="151">
+        <f>SUMIF($B37:$B42,"&gt;0",J37:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="151">
+        <f>SUMIF($B37:$B42,"&gt;0",K37:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="152">
+        <f>+K36-I36</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="151">
+        <f>+K36-J36</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="158">
+        <f>+IF(I36&lt;&gt;0,K36/I36,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="158">
+        <f>+IF(J36&lt;&gt;0,K36/J36,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="151" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P37:P38)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q36" s="151">
+        <f>SUMIF($B37:$B42,"&gt;0",Q37:Q42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" ht="22.5" outlineLevel="1">
+      <c r="A37" s="224" t="s">
+        <v>247</v>
+      </c>
+      <c r="B37" s="171"/>
+      <c r="C37" s="171"/>
+      <c r="D37" s="73">
+        <f>IF(MIN(D38:D38)&lt;&gt;0,MIN(D38:D38),"")</f>
+        <v>40309</v>
+      </c>
+      <c r="E37" s="73">
+        <f>IF(MAX(E38:E42)&lt;&gt;0,MAX(E38:E42),"")</f>
+        <v>40319</v>
+      </c>
+      <c r="F37" s="73" t="str">
+        <f>IF(COUNT(D38:D42)=COUNT(F38:F42),MAX(F38:F42),"")</f>
+        <v/>
+      </c>
+      <c r="G37" s="73" t="str">
+        <f>IF(COUNT(E38:E42)=COUNT(G38:G42),MAX(G38:G42),"")</f>
+        <v/>
+      </c>
+      <c r="H37" s="153">
+        <f>SUMIF($B38:$B42,"&gt;0",H38:H42)</f>
+        <v>87</v>
+      </c>
+      <c r="I37" s="113">
+        <f>+IF(AND(D37&lt;&gt;"",E37&lt;&gt;"",H37&lt;&gt;""),IF(D37&lt;Parâmetros!$B$7,IF(E37&gt;Parâmetros!$B$7,H37/2,H37),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="153">
+        <f>SUMIF($B38:$B42,"&gt;0",J38:J42)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="153">
+        <f>SUMIF($B38:$B42,"&gt;0",K38:K42)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="153">
+        <f>+K37-I37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="153">
+        <f>+K37-J37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="159">
+        <f>+IF(I37&lt;&gt;0,K37/I37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="159">
+        <f>+IF(J37&lt;&gt;0,K37/J37,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="153">
+        <f>SUMIF($B38:$B42,"&gt;0",P38:P42)</f>
+        <v>87</v>
+      </c>
+      <c r="Q37" s="153">
+        <f>SUMIF($B38:$B42,"&gt;0",Q38:Q42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" outlineLevel="2">
+      <c r="A38" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="B38" s="135">
+        <v>19</v>
+      </c>
+      <c r="C38" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D38" s="43">
+        <v>40309</v>
+      </c>
+      <c r="E38" s="43">
+        <v>40312</v>
+      </c>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="154">
+        <v>12</v>
+      </c>
+      <c r="I38" s="113">
+        <f>+IF(AND(D38&lt;&gt;"",E38&lt;&gt;"",H38&lt;&gt;""),IF(D38&lt;Parâmetros!$B$6,IF(E38&gt;Parâmetros!$B$6,H38/2,H38),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="113"/>
+      <c r="K38" s="113" t="str">
+        <f>+IF(AND(F38&lt;&gt;"",H38&lt;&gt;""),IF(F38&lt;=Parâmetros!$B$6,IF(G38="",H38/2,IF(G38&gt;Parâmetros!$B$6,H38/2,H38)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L38" s="113" t="str">
+        <f>IF(AND(A38&gt;0,K38&lt;&gt;"",I38&lt;&gt;""),+K38-I38,"")</f>
+        <v/>
+      </c>
+      <c r="M38" s="113" t="str">
+        <f>IF(AND(A38&gt;0,K38&lt;&gt;"",J38&lt;&gt;""),K38-J38,"")</f>
+        <v/>
+      </c>
+      <c r="N38" s="160" t="str">
+        <f>+IF(AND(A38&gt;0,I38&lt;&gt;0,I38&lt;&gt;"",K38&lt;&gt;""),K38/I38,"")</f>
+        <v/>
+      </c>
+      <c r="O38" s="172" t="str">
+        <f>+IF(AND(A38&gt;0,K38&lt;&gt;"",J38&lt;&gt;0,J38&lt;&gt;""),K38/J38,"")</f>
+        <v/>
+      </c>
+      <c r="P38" s="113">
+        <f t="shared" ref="P38:P42" si="8">H38</f>
+        <v>12</v>
+      </c>
+      <c r="Q38" s="113">
+        <f t="shared" ref="Q38:Q42" si="9">J38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" outlineLevel="2">
+      <c r="A39" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="135">
+        <v>20</v>
+      </c>
+      <c r="C39" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D39" s="43">
+        <v>40315</v>
+      </c>
+      <c r="E39" s="43">
+        <v>40319</v>
+      </c>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="154">
+        <v>15</v>
+      </c>
+      <c r="I39" s="113">
+        <f>+IF(AND(D39&lt;&gt;"",E39&lt;&gt;"",H39&lt;&gt;""),IF(D39&lt;Parâmetros!$B$6,IF(E39&gt;Parâmetros!$B$6,H39/2,H39),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="113"/>
+      <c r="K39" s="113" t="str">
+        <f>+IF(AND(F39&lt;&gt;"",H39&lt;&gt;""),IF(F39&lt;=Parâmetros!$B$6,IF(G39="",H39/2,IF(G39&gt;Parâmetros!$B$6,H39/2,H39)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L39" s="113" t="str">
+        <f>IF(AND(A39&gt;0,K39&lt;&gt;"",I39&lt;&gt;""),+K39-I39,"")</f>
+        <v/>
+      </c>
+      <c r="M39" s="113" t="str">
+        <f>IF(AND(A39&gt;0,K39&lt;&gt;"",J39&lt;&gt;""),K39-J39,"")</f>
+        <v/>
+      </c>
+      <c r="N39" s="160" t="str">
+        <f>+IF(AND(A39&gt;0,I39&lt;&gt;0,I39&lt;&gt;"",K39&lt;&gt;""),K39/I39,"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="172" t="str">
+        <f>+IF(AND(A39&gt;0,K39&lt;&gt;"",J39&lt;&gt;0,J39&lt;&gt;""),K39/J39,"")</f>
+        <v/>
+      </c>
+      <c r="P39" s="113">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N30" s="173" t="str">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="113">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O30" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" outlineLevel="2">
-      <c r="A31" s="169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" outlineLevel="2">
+      <c r="A40" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="B40" s="135">
+        <v>21</v>
+      </c>
+      <c r="C40" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="43">
+        <v>40312</v>
+      </c>
+      <c r="E40" s="43">
+        <v>40319</v>
+      </c>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="154">
+        <v>18</v>
+      </c>
+      <c r="I40" s="113">
+        <f>+IF(AND(D40&lt;&gt;"",E40&lt;&gt;"",H40&lt;&gt;""),IF(D40&lt;Parâmetros!$B$6,IF(E40&gt;Parâmetros!$B$6,H40/2,H40),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113" t="str">
+        <f>+IF(AND(F40&lt;&gt;"",H40&lt;&gt;""),IF(F40&lt;=Parâmetros!$B$6,IF(G40="",H40/2,IF(G40&gt;Parâmetros!$B$6,H40/2,H40)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L40" s="113" t="str">
+        <f>IF(AND(A40&gt;0,K40&lt;&gt;"",I40&lt;&gt;""),+K40-I40,"")</f>
+        <v/>
+      </c>
+      <c r="M40" s="113" t="str">
+        <f>IF(AND(A40&gt;0,K40&lt;&gt;"",J40&lt;&gt;""),K40-J40,"")</f>
+        <v/>
+      </c>
+      <c r="N40" s="160" t="str">
+        <f>+IF(AND(A40&gt;0,I40&lt;&gt;0,I40&lt;&gt;"",K40&lt;&gt;""),K40/I40,"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="172" t="str">
+        <f>+IF(AND(A40&gt;0,K40&lt;&gt;"",J40&lt;&gt;0,J40&lt;&gt;""),K40/J40,"")</f>
+        <v/>
+      </c>
+      <c r="P40" s="113">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="Q40" s="113">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" outlineLevel="2">
+      <c r="A41" s="77" t="s">
         <v>243</v>
       </c>
-      <c r="B31" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C31" s="43">
-        <v>40305</v>
-      </c>
-      <c r="D31" s="43">
-        <v>40310</v>
-      </c>
-      <c r="E31" s="43"/>
-      <c r="F31" s="43"/>
-      <c r="G31" s="154"/>
-      <c r="H31" s="113" t="str">
-        <f>+IF(AND(C31&lt;&gt;"",D31&lt;&gt;"",G31&lt;&gt;""),IF(C31&lt;Parâmetros!$B$6,IF(D31&gt;Parâmetros!$B$6,G31/2,G31),0),"")</f>
-        <v/>
-      </c>
-      <c r="I31" s="113"/>
-      <c r="J31" s="113" t="str">
-        <f>+IF(AND(E31&lt;&gt;"",G31&lt;&gt;""),IF(E31&lt;=Parâmetros!$B$6,IF(F31="",G31/2,IF(F31&gt;Parâmetros!$B$6,G31/2,G31)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K31" s="113" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L31" s="113" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M31" s="160" t="str">
+      <c r="B41" s="135">
+        <v>22</v>
+      </c>
+      <c r="C41" s="180" t="s">
+        <v>216</v>
+      </c>
+      <c r="D41" s="43">
+        <v>40309</v>
+      </c>
+      <c r="E41" s="43">
+        <v>40319</v>
+      </c>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="154">
+        <v>27</v>
+      </c>
+      <c r="I41" s="113">
+        <f>+IF(AND(D41&lt;&gt;"",E41&lt;&gt;"",H41&lt;&gt;""),IF(D41&lt;Parâmetros!$B$6,IF(E41&gt;Parâmetros!$B$6,H41/2,H41),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="113"/>
+      <c r="K41" s="113" t="str">
+        <f>+IF(AND(F41&lt;&gt;"",H41&lt;&gt;""),IF(F41&lt;=Parâmetros!$B$6,IF(G41="",H41/2,IF(G41&gt;Parâmetros!$B$6,H41/2,H41)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L41" s="113" t="str">
+        <f>IF(AND(A41&gt;0,K41&lt;&gt;"",I41&lt;&gt;""),+K41-I41,"")</f>
+        <v/>
+      </c>
+      <c r="M41" s="113" t="str">
+        <f>IF(AND(A41&gt;0,K41&lt;&gt;"",J41&lt;&gt;""),K41-J41,"")</f>
+        <v/>
+      </c>
+      <c r="N41" s="160" t="str">
+        <f>+IF(AND(A41&gt;0,I41&lt;&gt;0,I41&lt;&gt;"",K41&lt;&gt;""),K41/I41,"")</f>
+        <v/>
+      </c>
+      <c r="O41" s="172" t="str">
+        <f>+IF(AND(A41&gt;0,K41&lt;&gt;"",J41&lt;&gt;0,J41&lt;&gt;""),K41/J41,"")</f>
+        <v/>
+      </c>
+      <c r="P41" s="113">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N31" s="173" t="str">
+        <v>27</v>
+      </c>
+      <c r="Q41" s="113">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O31" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" outlineLevel="2">
-      <c r="A32" s="169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" outlineLevel="2">
+      <c r="A42" s="77" t="s">
         <v>244</v>
       </c>
-      <c r="B32" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C32" s="43">
+      <c r="B42" s="135">
+        <v>23</v>
+      </c>
+      <c r="C42" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D42" s="43">
         <v>40308</v>
       </c>
-      <c r="D32" s="43">
-        <v>40310</v>
-      </c>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="154"/>
-      <c r="H32" s="113" t="str">
-        <f>+IF(AND(C32&lt;&gt;"",D32&lt;&gt;"",G32&lt;&gt;""),IF(C32&lt;Parâmetros!$B$6,IF(D32&gt;Parâmetros!$B$6,G32/2,G32),0),"")</f>
-        <v/>
-      </c>
-      <c r="I32" s="113"/>
-      <c r="J32" s="113" t="str">
-        <f>+IF(AND(E32&lt;&gt;"",G32&lt;&gt;""),IF(E32&lt;=Parâmetros!$B$6,IF(F32="",G32/2,IF(F32&gt;Parâmetros!$B$6,G32/2,G32)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K32" s="113" t="str">
-        <f t="shared" si="6"/>
-        <v/>
-      </c>
-      <c r="L32" s="113" t="str">
-        <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="M32" s="160" t="str">
+      <c r="E42" s="43">
+        <v>40312</v>
+      </c>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="154">
+        <v>15</v>
+      </c>
+      <c r="I42" s="113">
+        <f>+IF(AND(D42&lt;&gt;"",E42&lt;&gt;"",H42&lt;&gt;""),IF(D42&lt;Parâmetros!$B$6,IF(E42&gt;Parâmetros!$B$6,H42/2,H42),0),"")</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="113"/>
+      <c r="K42" s="113" t="str">
+        <f>+IF(AND(F42&lt;&gt;"",H42&lt;&gt;""),IF(F42&lt;=Parâmetros!$B$6,IF(G42="",H42/2,IF(G42&gt;Parâmetros!$B$6,H42/2,H42)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L42" s="113" t="str">
+        <f>IF(AND(A42&gt;0,K42&lt;&gt;"",I42&lt;&gt;""),+K42-I42,"")</f>
+        <v/>
+      </c>
+      <c r="M42" s="113" t="str">
+        <f>IF(AND(A42&gt;0,K42&lt;&gt;"",J42&lt;&gt;""),K42-J42,"")</f>
+        <v/>
+      </c>
+      <c r="N42" s="160" t="str">
+        <f>+IF(AND(A42&gt;0,I42&lt;&gt;0,I42&lt;&gt;"",K42&lt;&gt;""),K42/I42,"")</f>
+        <v/>
+      </c>
+      <c r="O42" s="172" t="str">
+        <f>+IF(AND(A42&gt;0,K42&lt;&gt;"",J42&lt;&gt;0,J42&lt;&gt;""),K42/J42,"")</f>
+        <v/>
+      </c>
+      <c r="P42" s="113">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="N32" s="173" t="str">
+        <v>15</v>
+      </c>
+      <c r="Q42" s="113">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="O32" s="113">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="113">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" ht="15" customHeight="1">
-      <c r="A33" s="130" t="s">
-        <v>248</v>
-      </c>
-      <c r="B33" s="131"/>
-      <c r="C33" s="132">
-        <f>IF(MIN(C34:C39)&lt;&gt;0,MIN(C34:C39),"")</f>
-        <v>40311</v>
-      </c>
-      <c r="D33" s="132">
-        <f>IF(MAX(D34:D39)&lt;&gt;0,MAX(D34:D39),"")</f>
-        <v>40319</v>
-      </c>
-      <c r="E33" s="132" t="str">
-        <f>IF(COUNT(C34:C39)=COUNT(E34:E39),MAX(E34:E39),"")</f>
-        <v/>
-      </c>
-      <c r="F33" s="132" t="str">
-        <f>IF(COUNT(D34:D39)=COUNT(F34:F39),MAX(F34:F39),"")</f>
-        <v/>
-      </c>
-      <c r="G33" s="151">
-        <f>SUMIF($B34:$B39,"&gt;0",G34:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="151">
-        <f>SUMIF($B34:$B39,"&gt;0",H34:H39)</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="151">
-        <f>SUMIF($B34:$B39,"&gt;0",I34:I39)</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="151">
-        <f>SUMIF($B34:$B39,"&gt;0",J34:J39)</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="152">
-        <f>+J33-H33</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="151">
-        <f>+J33-I33</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="158">
-        <f>+IF(H33&lt;&gt;0,J33/H33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="158">
-        <f>+IF(I33&lt;&gt;0,J33/I33,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O33" s="151" t="e">
-        <f>SUMIF(#REF!,"&gt;0",O34:O35)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P33" s="151">
-        <f>SUMIF($B34:$B39,"&gt;0",P34:P39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" ht="12" customHeight="1" outlineLevel="1">
-      <c r="A34" s="78" t="s">
-        <v>247</v>
-      </c>
-      <c r="B34" s="172"/>
-      <c r="C34" s="73">
-        <f>IF(MIN(C35:C35)&lt;&gt;0,MIN(C35:C35),"")</f>
-        <v>40311</v>
-      </c>
-      <c r="D34" s="73">
-        <f>IF(MAX(D35:D39)&lt;&gt;0,MAX(D35:D39),"")</f>
-        <v>40319</v>
-      </c>
-      <c r="E34" s="73" t="str">
-        <f>IF(COUNT(C35:C39)=COUNT(E35:E39),MAX(E35:E39),"")</f>
-        <v/>
-      </c>
-      <c r="F34" s="73" t="str">
-        <f>IF(COUNT(D35:D39)=COUNT(F35:F39),MAX(F35:F39),"")</f>
-        <v/>
-      </c>
-      <c r="G34" s="153">
-        <f>SUMIF($B35:$B39,"&gt;0",G35:G39)</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="113">
-        <f>+IF(AND(C34&lt;&gt;"",D34&lt;&gt;"",G34&lt;&gt;""),IF(C34&lt;Parâmetros!$B$7,IF(D34&gt;Parâmetros!$B$7,G34/2,G34),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="153">
-        <f>SUMIF($B35:$B39,"&gt;0",I35:I39)</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="153">
-        <f>SUMIF($B35:$B39,"&gt;0",J35:J39)</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="153">
-        <f>+J34-H34</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="153">
-        <f>+J34-I34</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="159">
-        <f>+IF(H34&lt;&gt;0,J34/H34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="159">
-        <f>+IF(I34&lt;&gt;0,J34/I34,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="153">
-        <f>SUMIF($B35:$B39,"&gt;0",O35:O39)</f>
-        <v>0</v>
-      </c>
-      <c r="P34" s="153">
-        <f>SUMIF($B35:$B39,"&gt;0",P35:P39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" outlineLevel="2">
-      <c r="A35" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="B35" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C35" s="43">
-        <v>40311</v>
-      </c>
-      <c r="D35" s="43">
-        <v>40314</v>
-      </c>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="154"/>
-      <c r="H35" s="113" t="str">
-        <f>+IF(AND(C35&lt;&gt;"",D35&lt;&gt;"",G35&lt;&gt;""),IF(C35&lt;Parâmetros!$B$6,IF(D35&gt;Parâmetros!$B$6,G35/2,G35),0),"")</f>
-        <v/>
-      </c>
-      <c r="I35" s="113"/>
-      <c r="J35" s="113" t="str">
-        <f>+IF(AND(E35&lt;&gt;"",G35&lt;&gt;""),IF(E35&lt;=Parâmetros!$B$6,IF(F35="",G35/2,IF(F35&gt;Parâmetros!$B$6,G35/2,G35)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K35" s="113" t="str">
-        <f t="shared" ref="K35:K39" si="12">IF(AND(A35&gt;0,J35&lt;&gt;"",H35&lt;&gt;""),+J35-H35,"")</f>
-        <v/>
-      </c>
-      <c r="L35" s="113" t="str">
-        <f t="shared" ref="L35:L39" si="13">IF(AND(A35&gt;0,J35&lt;&gt;"",I35&lt;&gt;""),J35-I35,"")</f>
-        <v/>
-      </c>
-      <c r="M35" s="160" t="str">
-        <f t="shared" ref="M35:M39" si="14">+IF(AND(A35&gt;0,H35&lt;&gt;0,H35&lt;&gt;"",J35&lt;&gt;""),J35/H35,"")</f>
-        <v/>
-      </c>
-      <c r="N35" s="173" t="str">
-        <f t="shared" ref="N35:N39" si="15">+IF(AND(A35&gt;0,J35&lt;&gt;"",I35&lt;&gt;0,I35&lt;&gt;""),J35/I35,"")</f>
-        <v/>
-      </c>
-      <c r="O35" s="113">
-        <f t="shared" ref="O35:O39" si="16">G35</f>
-        <v>0</v>
-      </c>
-      <c r="P35" s="113">
-        <f t="shared" ref="P35:P39" si="17">I35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" outlineLevel="2">
-      <c r="A36" s="77" t="s">
-        <v>242</v>
-      </c>
-      <c r="B36" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C36" s="43">
-        <v>40311</v>
-      </c>
-      <c r="D36" s="43">
-        <v>40314</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="43"/>
-      <c r="G36" s="154"/>
-      <c r="H36" s="113" t="str">
-        <f>+IF(AND(C36&lt;&gt;"",D36&lt;&gt;"",G36&lt;&gt;""),IF(C36&lt;Parâmetros!$B$6,IF(D36&gt;Parâmetros!$B$6,G36/2,G36),0),"")</f>
-        <v/>
-      </c>
-      <c r="I36" s="113"/>
-      <c r="J36" s="113" t="str">
-        <f>+IF(AND(E36&lt;&gt;"",G36&lt;&gt;""),IF(E36&lt;=Parâmetros!$B$6,IF(F36="",G36/2,IF(F36&gt;Parâmetros!$B$6,G36/2,G36)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K36" s="113" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L36" s="113" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M36" s="160" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N36" s="173" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O36" s="113">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="113">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" outlineLevel="2">
-      <c r="A37" s="77" t="s">
-        <v>240</v>
-      </c>
-      <c r="B37" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C37" s="43">
-        <v>40314</v>
-      </c>
-      <c r="D37" s="43">
-        <v>40319</v>
-      </c>
-      <c r="E37" s="43"/>
-      <c r="F37" s="43"/>
-      <c r="G37" s="154"/>
-      <c r="H37" s="113" t="str">
-        <f>+IF(AND(C37&lt;&gt;"",D37&lt;&gt;"",G37&lt;&gt;""),IF(C37&lt;Parâmetros!$B$6,IF(D37&gt;Parâmetros!$B$6,G37/2,G37),0),"")</f>
-        <v/>
-      </c>
-      <c r="I37" s="113"/>
-      <c r="J37" s="113" t="str">
-        <f>+IF(AND(E37&lt;&gt;"",G37&lt;&gt;""),IF(E37&lt;=Parâmetros!$B$6,IF(F37="",G37/2,IF(F37&gt;Parâmetros!$B$6,G37/2,G37)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K37" s="113" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L37" s="113" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M37" s="160" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N37" s="173" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O37" s="113">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="113">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" outlineLevel="2">
-      <c r="A38" s="77" t="s">
-        <v>243</v>
-      </c>
-      <c r="B38" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C38" s="43">
-        <v>40311</v>
-      </c>
-      <c r="D38" s="43">
-        <v>40319</v>
-      </c>
-      <c r="E38" s="43"/>
-      <c r="F38" s="43"/>
-      <c r="G38" s="154"/>
-      <c r="H38" s="113" t="str">
-        <f>+IF(AND(C38&lt;&gt;"",D38&lt;&gt;"",G38&lt;&gt;""),IF(C38&lt;Parâmetros!$B$6,IF(D38&gt;Parâmetros!$B$6,G38/2,G38),0),"")</f>
-        <v/>
-      </c>
-      <c r="I38" s="113"/>
-      <c r="J38" s="113" t="str">
-        <f>+IF(AND(E38&lt;&gt;"",G38&lt;&gt;""),IF(E38&lt;=Parâmetros!$B$6,IF(F38="",G38/2,IF(F38&gt;Parâmetros!$B$6,G38/2,G38)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K38" s="113" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L38" s="113" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M38" s="160" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N38" s="173" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O38" s="113">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="113">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" outlineLevel="2">
-      <c r="A39" s="77" t="s">
-        <v>244</v>
-      </c>
-      <c r="B39" s="135">
-        <v>999999</v>
-      </c>
-      <c r="C39" s="43">
-        <v>40314</v>
-      </c>
-      <c r="D39" s="43">
-        <v>40319</v>
-      </c>
-      <c r="E39" s="43"/>
-      <c r="F39" s="43"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="113" t="str">
-        <f>+IF(AND(C39&lt;&gt;"",D39&lt;&gt;"",G39&lt;&gt;""),IF(C39&lt;Parâmetros!$B$6,IF(D39&gt;Parâmetros!$B$6,G39/2,G39),0),"")</f>
-        <v/>
-      </c>
-      <c r="I39" s="113"/>
-      <c r="J39" s="113" t="str">
-        <f>+IF(AND(E39&lt;&gt;"",G39&lt;&gt;""),IF(E39&lt;=Parâmetros!$B$6,IF(F39="",G39/2,IF(F39&gt;Parâmetros!$B$6,G39/2,G39)),0),"")</f>
-        <v/>
-      </c>
-      <c r="K39" s="113" t="str">
-        <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="L39" s="113" t="str">
-        <f t="shared" si="13"/>
-        <v/>
-      </c>
-      <c r="M39" s="160" t="str">
-        <f t="shared" si="14"/>
-        <v/>
-      </c>
-      <c r="N39" s="173" t="str">
-        <f t="shared" si="15"/>
-        <v/>
-      </c>
-      <c r="O39" s="113">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="113">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" s="46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="J40" s="68"/>
-      <c r="L40" s="62"/>
-      <c r="N40" s="89"/>
-      <c r="O40" s="36"/>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="J41" s="68"/>
-      <c r="L41" s="62"/>
-      <c r="N41" s="89"/>
-      <c r="O41" s="36"/>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="J42" s="68"/>
-      <c r="L42" s="62"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="36"/>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="J43" s="68"/>
-      <c r="L43" s="62"/>
-      <c r="N43" s="89"/>
-      <c r="O43" s="36"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="J44" s="68"/>
-      <c r="L44" s="62"/>
-      <c r="N44" s="89"/>
-      <c r="O44" s="36"/>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="J45" s="68"/>
-      <c r="L45" s="62"/>
-      <c r="N45" s="89"/>
-      <c r="O45" s="36"/>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="J46" s="68"/>
-      <c r="L46" s="62"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="36"/>
-    </row>
-    <row r="47" spans="1:16">
-      <c r="J47" s="68"/>
-      <c r="L47" s="62"/>
-      <c r="N47" s="89"/>
-      <c r="O47" s="36"/>
-    </row>
-    <row r="48" spans="1:16">
-      <c r="J48" s="68"/>
-      <c r="L48" s="62"/>
-      <c r="N48" s="89"/>
-      <c r="O48" s="36"/>
-    </row>
-    <row r="49" spans="2:15">
-      <c r="J49" s="68"/>
-      <c r="L49" s="62"/>
-      <c r="N49" s="89"/>
-      <c r="O49" s="36"/>
-    </row>
-    <row r="50" spans="2:15">
-      <c r="J50" s="68"/>
-      <c r="L50" s="62"/>
-      <c r="N50" s="89"/>
-      <c r="O50" s="36"/>
-    </row>
-    <row r="51" spans="2:15">
-      <c r="J51" s="68"/>
-      <c r="L51" s="62"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="36"/>
-    </row>
-    <row r="52" spans="2:15">
-      <c r="J52" s="68"/>
-      <c r="L52" s="62"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="36"/>
-    </row>
-    <row r="53" spans="2:15">
-      <c r="J53" s="68"/>
-      <c r="L53" s="62"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="36"/>
-    </row>
-    <row r="54" spans="2:15">
-      <c r="J54" s="68"/>
-      <c r="L54" s="62"/>
-      <c r="N54" s="89"/>
-      <c r="O54" s="36"/>
-    </row>
-    <row r="55" spans="2:15">
-      <c r="J55" s="68"/>
-      <c r="L55" s="62"/>
-      <c r="N55" s="89"/>
-      <c r="O55" s="36"/>
-    </row>
-    <row r="56" spans="2:15">
-      <c r="J56" s="68"/>
-      <c r="L56" s="62"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="36"/>
-    </row>
-    <row r="57" spans="2:15">
-      <c r="J57" s="68"/>
-      <c r="L57" s="62"/>
-      <c r="N57" s="89"/>
-      <c r="O57" s="36"/>
-    </row>
-    <row r="58" spans="2:15">
-      <c r="J58" s="68"/>
-      <c r="L58" s="62"/>
-      <c r="N58" s="89"/>
-      <c r="O58" s="36"/>
-    </row>
-    <row r="60" spans="2:15">
-      <c r="B60" s="41"/>
-    </row>
-    <row r="61" spans="2:15">
-      <c r="B61" s="41"/>
+      <c r="K43" s="68"/>
+      <c r="M43" s="62"/>
+      <c r="O43" s="89"/>
+      <c r="P43" s="36"/>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="K44" s="68"/>
+      <c r="M44" s="62"/>
+      <c r="O44" s="89"/>
+      <c r="P44" s="36"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="K45" s="68"/>
+      <c r="M45" s="62"/>
+      <c r="O45" s="89"/>
+      <c r="P45" s="36"/>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="K46" s="68"/>
+      <c r="M46" s="62"/>
+      <c r="O46" s="89"/>
+      <c r="P46" s="36"/>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="K47" s="68"/>
+      <c r="M47" s="62"/>
+      <c r="O47" s="89"/>
+      <c r="P47" s="36"/>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="K48" s="68"/>
+      <c r="M48" s="62"/>
+      <c r="O48" s="89"/>
+      <c r="P48" s="36"/>
+    </row>
+    <row r="49" spans="2:16">
+      <c r="K49" s="68"/>
+      <c r="M49" s="62"/>
+      <c r="O49" s="89"/>
+      <c r="P49" s="36"/>
+    </row>
+    <row r="50" spans="2:16">
+      <c r="K50" s="68"/>
+      <c r="M50" s="62"/>
+      <c r="O50" s="89"/>
+      <c r="P50" s="36"/>
+    </row>
+    <row r="51" spans="2:16">
+      <c r="K51" s="68"/>
+      <c r="M51" s="62"/>
+      <c r="O51" s="89"/>
+      <c r="P51" s="36"/>
+    </row>
+    <row r="52" spans="2:16">
+      <c r="K52" s="68"/>
+      <c r="M52" s="62"/>
+      <c r="O52" s="89"/>
+      <c r="P52" s="36"/>
+    </row>
+    <row r="53" spans="2:16">
+      <c r="K53" s="68"/>
+      <c r="M53" s="62"/>
+      <c r="O53" s="89"/>
+      <c r="P53" s="36"/>
+    </row>
+    <row r="54" spans="2:16">
+      <c r="K54" s="68"/>
+      <c r="M54" s="62"/>
+      <c r="O54" s="89"/>
+      <c r="P54" s="36"/>
+    </row>
+    <row r="55" spans="2:16">
+      <c r="K55" s="68"/>
+      <c r="M55" s="62"/>
+      <c r="O55" s="89"/>
+      <c r="P55" s="36"/>
+    </row>
+    <row r="56" spans="2:16">
+      <c r="K56" s="68"/>
+      <c r="M56" s="62"/>
+      <c r="O56" s="89"/>
+      <c r="P56" s="36"/>
+    </row>
+    <row r="57" spans="2:16">
+      <c r="K57" s="68"/>
+      <c r="M57" s="62"/>
+      <c r="O57" s="89"/>
+      <c r="P57" s="36"/>
+    </row>
+    <row r="58" spans="2:16">
+      <c r="K58" s="68"/>
+      <c r="M58" s="62"/>
+      <c r="O58" s="89"/>
+      <c r="P58" s="36"/>
+    </row>
+    <row r="59" spans="2:16">
+      <c r="K59" s="68"/>
+      <c r="M59" s="62"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="36"/>
+    </row>
+    <row r="60" spans="2:16">
+      <c r="K60" s="68"/>
+      <c r="M60" s="62"/>
+      <c r="O60" s="89"/>
+      <c r="P60" s="36"/>
+    </row>
+    <row r="61" spans="2:16">
+      <c r="K61" s="68"/>
+      <c r="M61" s="62"/>
+      <c r="O61" s="89"/>
+      <c r="P61" s="36"/>
+    </row>
+    <row r="63" spans="2:16">
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+    </row>
+    <row r="64" spans="2:16">
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:N40"/>
+  <autoFilter ref="A6:O43">
+    <filterColumn colId="2"/>
+  </autoFilter>
   <dataConsolidate/>
   <mergeCells count="4">
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:O5"/>
+    <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C35 C21:C29 C38:C42 C19 C12:C16">
+      <formula1>Recursos</formula1>
+    </dataValidation>
+  </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.47244094488188981" right="0.47244094488188981" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="57" fitToHeight="10" orientation="landscape" r:id="rId1"/>
@@ -6433,7 +6744,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6499,22 +6810,22 @@
         <v>40291</v>
       </c>
       <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
-      <c r="D5" s="117"/>
+      <c r="C5" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="D5" s="117" t="s">
+        <v>254</v>
+      </c>
       <c r="E5" s="119">
-        <v>1</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A6" s="142">
-        <v>40321</v>
-      </c>
+      <c r="A6" s="142"/>
       <c r="B6" s="116"/>
       <c r="C6" s="116"/>
       <c r="D6" s="117"/>
-      <c r="E6" s="119">
-        <v>2</v>
-      </c>
+      <c r="E6" s="119"/>
     </row>
     <row r="7" spans="1:9" ht="10.5" customHeight="1">
       <c r="A7" s="142"/>
@@ -6566,11 +6877,11 @@
       <c r="E13" s="119"/>
     </row>
     <row r="14" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A14" s="175"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="178"/>
+      <c r="A14" s="174"/>
+      <c r="B14" s="175"/>
+      <c r="C14" s="175"/>
+      <c r="D14" s="176"/>
+      <c r="E14" s="177"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -6586,7 +6897,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -6677,7 +6988,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="143" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C15" s="141"/>
     </row>
@@ -6857,8 +7168,8 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6884,26 +7195,26 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="212" t="s">
+      <c r="A4" s="214" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="214" t="s">
+      <c r="B4" s="216" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="216" t="s">
+      <c r="C4" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="217"/>
-      <c r="E4" s="217"/>
-      <c r="F4" s="217"/>
-      <c r="G4" s="218"/>
-      <c r="H4" s="212" t="s">
+      <c r="D4" s="219"/>
+      <c r="E4" s="219"/>
+      <c r="F4" s="219"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="214" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="213"/>
-      <c r="B5" s="215"/>
+      <c r="A5" s="215"/>
+      <c r="B5" s="217"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6919,7 +7230,7 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="213"/>
+      <c r="H5" s="215"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6">
@@ -8297,8 +8608,8 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -8324,19 +8635,19 @@
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="221" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="220"/>
-      <c r="H3" s="220"/>
-      <c r="I3" s="220"/>
-      <c r="J3" s="220"/>
-      <c r="K3" s="220"/>
+      <c r="B3" s="222"/>
+      <c r="C3" s="222"/>
+      <c r="D3" s="222"/>
+      <c r="E3" s="222"/>
+      <c r="F3" s="222"/>
+      <c r="G3" s="222"/>
+      <c r="H3" s="222"/>
+      <c r="I3" s="222"/>
+      <c r="J3" s="222"/>
+      <c r="K3" s="222"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="51"/>
@@ -8349,19 +8660,19 @@
       <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="219" t="s">
+      <c r="A5" s="221" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="220"/>
-      <c r="C5" s="220"/>
-      <c r="D5" s="220"/>
-      <c r="E5" s="220"/>
-      <c r="F5" s="220"/>
-      <c r="G5" s="220"/>
-      <c r="H5" s="220"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
+      <c r="B5" s="222"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
+      <c r="F5" s="222"/>
+      <c r="G5" s="222"/>
+      <c r="H5" s="222"/>
+      <c r="I5" s="223"/>
+      <c r="J5" s="223"/>
+      <c r="K5" s="223"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="53"/>
@@ -8373,19 +8684,19 @@
       <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A7" s="219" t="s">
+      <c r="A7" s="221" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="221"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="221"/>
+      <c r="B7" s="222"/>
+      <c r="C7" s="222"/>
+      <c r="D7" s="222"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="222"/>
+      <c r="G7" s="222"/>
+      <c r="H7" s="222"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="223"/>
+      <c r="K7" s="223"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="54"/>
@@ -8398,19 +8709,19 @@
       <c r="H8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="69" customHeight="1">
-      <c r="A9" s="219" t="s">
+      <c r="A9" s="221" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="220"/>
-      <c r="C9" s="220"/>
-      <c r="D9" s="220"/>
-      <c r="E9" s="220"/>
-      <c r="F9" s="220"/>
-      <c r="G9" s="220"/>
-      <c r="H9" s="220"/>
-      <c r="I9" s="221"/>
-      <c r="J9" s="221"/>
-      <c r="K9" s="221"/>
+      <c r="B9" s="222"/>
+      <c r="C9" s="222"/>
+      <c r="D9" s="222"/>
+      <c r="E9" s="222"/>
+      <c r="F9" s="222"/>
+      <c r="G9" s="222"/>
+      <c r="H9" s="222"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="223"/>
+      <c r="K9" s="223"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="54"/>
@@ -8423,19 +8734,19 @@
       <c r="H10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1">
-      <c r="A11" s="219" t="s">
+      <c r="A11" s="221" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="220"/>
-      <c r="C11" s="220"/>
-      <c r="D11" s="220"/>
-      <c r="E11" s="220"/>
-      <c r="F11" s="220"/>
-      <c r="G11" s="220"/>
-      <c r="H11" s="220"/>
-      <c r="I11" s="221"/>
-      <c r="J11" s="221"/>
-      <c r="K11" s="221"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="222"/>
+      <c r="F11" s="222"/>
+      <c r="G11" s="222"/>
+      <c r="H11" s="222"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="223"/>
+      <c r="K11" s="223"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="36"/>
@@ -8447,19 +8758,19 @@
       <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:11" ht="58.5" customHeight="1">
-      <c r="A13" s="219" t="s">
+      <c r="A13" s="221" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="220"/>
-      <c r="C13" s="220"/>
-      <c r="D13" s="220"/>
-      <c r="E13" s="220"/>
-      <c r="F13" s="220"/>
-      <c r="G13" s="220"/>
-      <c r="H13" s="220"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="221"/>
-      <c r="K13" s="221"/>
+      <c r="B13" s="222"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="222"/>
+      <c r="E13" s="222"/>
+      <c r="F13" s="222"/>
+      <c r="G13" s="222"/>
+      <c r="H13" s="222"/>
+      <c r="I13" s="223"/>
+      <c r="J13" s="223"/>
+      <c r="K13" s="223"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="56"/>
@@ -8471,19 +8782,19 @@
       <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:11" ht="58.5" customHeight="1">
-      <c r="A15" s="219" t="s">
+      <c r="A15" s="221" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="220"/>
-      <c r="C15" s="220"/>
-      <c r="D15" s="220"/>
-      <c r="E15" s="220"/>
-      <c r="F15" s="220"/>
-      <c r="G15" s="220"/>
-      <c r="H15" s="220"/>
-      <c r="I15" s="221"/>
-      <c r="J15" s="221"/>
-      <c r="K15" s="221"/>
+      <c r="B15" s="222"/>
+      <c r="C15" s="222"/>
+      <c r="D15" s="222"/>
+      <c r="E15" s="222"/>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="223"/>
+      <c r="J15" s="223"/>
+      <c r="K15" s="223"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="56"/>
@@ -8495,19 +8806,19 @@
       <c r="H16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="72" customHeight="1">
-      <c r="A17" s="219" t="s">
+      <c r="A17" s="221" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="220"/>
-      <c r="C17" s="220"/>
-      <c r="D17" s="220"/>
-      <c r="E17" s="220"/>
-      <c r="F17" s="220"/>
-      <c r="G17" s="220"/>
-      <c r="H17" s="220"/>
-      <c r="I17" s="221"/>
-      <c r="J17" s="221"/>
-      <c r="K17" s="221"/>
+      <c r="B17" s="222"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="222"/>
+      <c r="E17" s="222"/>
+      <c r="F17" s="222"/>
+      <c r="G17" s="222"/>
+      <c r="H17" s="222"/>
+      <c r="I17" s="223"/>
+      <c r="J17" s="223"/>
+      <c r="K17" s="223"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
+++ b/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="259">
   <si>
     <t>Classificação Padrão de Produtos e Serviços</t>
   </si>
@@ -2314,39 +2314,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="justify" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2372,6 +2362,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2428,15 +2437,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2449,15 +2449,7 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="Caption" ax:value="Atualizar Relatório"/>
-  <ax:ocxPr ax:name="Size" ax:value="4128;767"/>
-  <ax:ocxPr ax:name="FontName" ax:value="Arial"/>
-  <ax:ocxPr ax:name="FontHeight" ax:value="195"/>
-  <ax:ocxPr ax:name="FontCharSet" ax:value="0"/>
-  <ax:ocxPr ax:name="FontPitchAndFamily" ax:value="2"/>
-  <ax:ocxPr ax:name="ParagraphAlign" ax:value="3"/>
-</ax:ocx>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{D7053240-CE69-11CD-A777-00DD01143C57}" ax:persistence="persistStreamInit" r:id="rId1"/>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2541,7 +2533,7 @@
             <c:numRef>
               <c:f>Resumo!$C$43:$C$43</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>40290</c:v>
@@ -2589,11 +2581,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="57661696"/>
-        <c:axId val="58130432"/>
+        <c:axId val="78311808"/>
+        <c:axId val="78313344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57661696"/>
+        <c:axId val="78311808"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2625,7 +2617,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58130432"/>
+        <c:crossAx val="78313344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2633,7 +2625,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58130432"/>
+        <c:axId val="78313344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2675,7 +2667,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57661696"/>
+        <c:crossAx val="78311808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -2721,7 +2713,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000337" footer="0.49212598500000337"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000343" footer="0.49212598500000343"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2759,7 +2751,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31531602468610342"/>
-          <c:y val="3.2418952618454192E-2"/>
+          <c:y val="3.2418952618454198E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2776,9 +2768,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11261286030066738"/>
-          <c:y val="0.14962593516209632"/>
-          <c:w val="0.65090233253786256"/>
-          <c:h val="0.73815461346633904"/>
+          <c:y val="0.14962593516209638"/>
+          <c:w val="0.65090233253786278"/>
+          <c:h val="0.73815461346633915"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2804,10 +2796,13 @@
             <c:numRef>
               <c:f>Resumo!$A$49:$A$102</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>40291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2820,6 +2815,9 @@
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>31.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,10 +2844,13 @@
             <c:numRef>
               <c:f>Resumo!$A$49:$A$102</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>40291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2862,6 +2863,9 @@
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2895,10 +2899,13 @@
             <c:numRef>
               <c:f>Resumo!$A$49:$A$102</c:f>
               <c:numCache>
-                <c:formatCode>d/m/yyyy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy</c:formatCode>
                 <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>40291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,16 +2919,19 @@
                 <c:pt idx="0">
                   <c:v>13.5</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="58172160"/>
-        <c:axId val="58174080"/>
+        <c:axId val="80095872"/>
+        <c:axId val="80118528"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="58172160"/>
+        <c:axId val="80095872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +2963,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58174080"/>
+        <c:crossAx val="80118528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2961,7 +2971,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="58174080"/>
+        <c:axId val="80118528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3004,7 +3014,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58172160"/>
+        <c:crossAx val="80095872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3027,9 +3037,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7972972972972977"/>
-          <c:y val="0.46882793017456642"/>
+          <c:y val="0.46882793017456648"/>
           <c:w val="0.17792792792792791"/>
-          <c:h val="0.10972568578553753"/>
+          <c:h val="0.10972568578553757"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3094,7 +3104,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000337" footer="0.49212598500000337"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000343" footer="0.49212598500000343"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3585,8 +3595,8 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3631,7 +3641,7 @@
       <c r="I2" s="163"/>
       <c r="J2" s="126">
         <f>Parâmetros!B6</f>
-        <v>40291</v>
+        <v>40317</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="6" customHeight="1" thickTop="1"/>
@@ -3642,16 +3652,16 @@
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
     <row r="6" spans="1:11" s="137" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="183"/>
-      <c r="B6" s="184"/>
-      <c r="C6" s="184"/>
-      <c r="D6" s="184"/>
-      <c r="E6" s="184"/>
-      <c r="F6" s="184"/>
-      <c r="G6" s="184"/>
-      <c r="H6" s="184"/>
-      <c r="I6" s="184"/>
-      <c r="J6" s="184"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
       <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:11" s="137" customFormat="1" ht="6" customHeight="1">
@@ -3689,7 +3699,7 @@
       <c r="B11" s="74"/>
       <c r="C11" s="118">
         <f>IF(Planejamento!H8&lt;&gt;0,VLOOKUP(Parâmetros!B6,A49:I139,4)/Planejamento!H8,0)</f>
-        <v>4.9632352941176468E-2</v>
+        <v>0.18933823529411764</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="100"/>
@@ -3717,7 +3727,7 @@
       <c r="B13" s="74"/>
       <c r="C13" s="92">
         <f>SUM(IF(Planejamento!B9:B245&gt;0,IF(Planejamento!G9:G245&gt;0,1,0),0))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="99"/>
       <c r="G13" s="100"/>
@@ -3756,7 +3766,7 @@
       <c r="B16" s="105"/>
       <c r="C16" s="94">
         <f>Planejamento!F8</f>
-        <v>40290</v>
+        <v>40284</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15" customHeight="1">
@@ -3778,7 +3788,7 @@
       <c r="B18" s="105"/>
       <c r="C18" s="94">
         <f ca="1">WORKDAY(TODAY(),(C23-C22)/(Parâmetros!B5*2),Parâmetros!$B$8:$B$10)</f>
-        <v>40324</v>
+        <v>40340</v>
       </c>
       <c r="K18" s="62"/>
     </row>
@@ -3807,7 +3817,7 @@
       <c r="B21" s="105"/>
       <c r="C21" s="92">
         <f>Planejamento!I8</f>
-        <v>31.5</v>
+        <v>242</v>
       </c>
       <c r="K21" s="62"/>
     </row>
@@ -3818,7 +3828,7 @@
       <c r="B22" s="105"/>
       <c r="C22" s="92">
         <f>Planejamento!J8</f>
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="K22" s="98"/>
     </row>
@@ -3829,7 +3839,7 @@
       <c r="B23" s="105"/>
       <c r="C23" s="92">
         <f>VLOOKUP(Parâmetros!B6,A49:I136,9)</f>
-        <v>141.03703703703704</v>
+        <v>139.96116504854371</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3864,17 +3874,17 @@
       <c r="K25" s="90"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="194" t="s">
+      <c r="A26" s="190" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="188" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="187"/>
-      <c r="D26" s="193" t="s">
+      <c r="C26" s="189"/>
+      <c r="D26" s="188" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="187"/>
+      <c r="E26" s="189"/>
       <c r="F26" s="89"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
@@ -3883,7 +3893,7 @@
       <c r="K26" s="90"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="195"/>
+      <c r="A27" s="191"/>
       <c r="B27" s="164" t="s">
         <v>230</v>
       </c>
@@ -4009,27 +4019,27 @@
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="A41" s="72"/>
-      <c r="B41" s="203" t="s">
+      <c r="B41" s="199" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="185" t="s">
+      <c r="C41" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="188" t="s">
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="205" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="190"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="207"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1">
       <c r="A42" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="204"/>
+      <c r="B42" s="200"/>
       <c r="C42" s="86" t="s">
         <v>187</v>
       </c>
@@ -4074,7 +4084,7 @@
       </c>
       <c r="E43" s="94">
         <f>Planejamento!F9</f>
-        <v>40290</v>
+        <v>40284</v>
       </c>
       <c r="F43" s="94" t="str">
         <f>Planejamento!G9</f>
@@ -4086,15 +4096,15 @@
       </c>
       <c r="H43" s="173">
         <f ca="1">Planejamento!I9</f>
-        <v>31.5</v>
+        <v>242</v>
       </c>
       <c r="I43" s="173">
         <f>Planejamento!J9</f>
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="J43" s="173">
         <f>Planejamento!K9</f>
-        <v>13.5</v>
+        <v>51.5</v>
       </c>
       <c r="K43" s="107">
         <f>+D43-C43</f>
@@ -4135,19 +4145,19 @@
       <c r="A47" s="83"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
-      <c r="D47" s="191" t="s">
+      <c r="D47" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="200" t="s">
+      <c r="E47" s="196" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="201"/>
-      <c r="G47" s="201"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="196" t="s">
+      <c r="F47" s="197"/>
+      <c r="G47" s="197"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="192" t="s">
         <v>184</v>
       </c>
-      <c r="J47" s="197"/>
+      <c r="J47" s="193"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1">
       <c r="A48" s="84" t="s">
@@ -4159,7 +4169,7 @@
       <c r="C48" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="192"/>
+      <c r="D48" s="187"/>
       <c r="E48" s="69" t="s">
         <v>155</v>
       </c>
@@ -4172,8 +4182,8 @@
       <c r="H48" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="198"/>
-      <c r="J48" s="199"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="195"/>
     </row>
     <row r="49" spans="1:10" ht="12">
       <c r="A49" s="142">
@@ -4204,38 +4214,46 @@
         <f t="shared" ref="H49" si="5">+IF(C49&lt;&gt;0,D49/C49,0)</f>
         <v>1.9285714285714286</v>
       </c>
-      <c r="I49" s="181">
+      <c r="I49" s="184">
         <f>IF(H49&lt;&gt;0,C49+(VLOOKUP(A49,'Histórico de Versões'!A5:E72,5)-D49)/H49,"")</f>
         <v>141.03703703703704</v>
       </c>
-      <c r="J49" s="182"/>
+      <c r="J49" s="185"/>
     </row>
     <row r="50" spans="1:10" ht="12">
-      <c r="A50" s="142"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
-      <c r="D50" s="113"/>
+      <c r="A50" s="142">
+        <v>40317</v>
+      </c>
+      <c r="B50" s="113">
+        <v>242</v>
+      </c>
+      <c r="C50" s="113">
+        <v>26.5</v>
+      </c>
+      <c r="D50" s="113">
+        <v>51.5</v>
+      </c>
       <c r="E50" s="113">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-190.5</v>
       </c>
       <c r="F50" s="113">
         <f t="shared" ref="F50:F55" si="6">+D50-C50</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G50" s="65">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.21280991735537191</v>
       </c>
       <c r="H50" s="65">
         <f t="shared" ref="H50:H55" si="7">+IF(C50&lt;&gt;0,D50/C50,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="181" t="str">
+        <v>1.9433962264150944</v>
+      </c>
+      <c r="I50" s="184">
         <f>IF(H50&lt;&gt;0,C50+(VLOOKUP(A50,'Histórico de Versões'!A6:E73,5)-D50)/H50,"")</f>
-        <v/>
-      </c>
-      <c r="J50" s="182"/>
+        <v>139.96116504854371</v>
+      </c>
+      <c r="J50" s="185"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="106"/>
@@ -4258,11 +4276,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I51" s="181" t="str">
+      <c r="I51" s="184" t="str">
         <f>IF(H51&lt;&gt;0,C51+(VLOOKUP(A51,'Histórico de Versões'!A7:E74,5)-D51)/H51,"")</f>
         <v/>
       </c>
-      <c r="J51" s="182"/>
+      <c r="J51" s="185"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="106"/>
@@ -4285,11 +4303,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I52" s="181" t="str">
+      <c r="I52" s="184" t="str">
         <f>IF(H52&lt;&gt;0,C52+(VLOOKUP(A52,'Histórico de Versões'!A8:E75,5)-D52)/H52,"")</f>
         <v/>
       </c>
-      <c r="J52" s="182"/>
+      <c r="J52" s="185"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="106"/>
@@ -4312,11 +4330,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I53" s="181" t="str">
+      <c r="I53" s="184" t="str">
         <f>IF(H53&lt;&gt;0,C53+(VLOOKUP(A53,'Histórico de Versões'!A9:E76,5)-D53)/H53,"")</f>
         <v/>
       </c>
-      <c r="J53" s="182"/>
+      <c r="J53" s="185"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="106"/>
@@ -4339,11 +4357,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="181" t="str">
+      <c r="I54" s="184" t="str">
         <f>IF(H54&lt;&gt;0,C54+(VLOOKUP(A54,'Histórico de Versões'!A10:E77,5)-D54)/H54,"")</f>
         <v/>
       </c>
-      <c r="J54" s="182"/>
+      <c r="J54" s="185"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="106"/>
@@ -4366,11 +4384,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I55" s="181" t="str">
+      <c r="I55" s="184" t="str">
         <f>IF(H55&lt;&gt;0,C55+(VLOOKUP(A55,'Histórico de Versões'!A11:E78,5)-D55)/H55,"")</f>
         <v/>
       </c>
-      <c r="J55" s="182"/>
+      <c r="J55" s="185"/>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="90"/>
@@ -4385,6 +4403,9 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="G41:J41"/>
     <mergeCell ref="I55:J55"/>
     <mergeCell ref="D47:D48"/>
     <mergeCell ref="B26:C26"/>
@@ -4399,9 +4420,6 @@
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="G41:J41"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4419,10 +4437,10 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A137" sqref="A137"/>
-      <selection pane="topRight" activeCell="J20" sqref="J20"/>
+      <selection pane="topRight" activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="2"/>
@@ -4485,7 +4503,7 @@
       <c r="S2" s="146"/>
       <c r="T2" s="95" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
-        <v>Data Base: 23/04/2010</v>
+        <v>Data Base: 19/05/2010</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1" thickTop="1">
@@ -4496,33 +4514,33 @@
       <c r="A5" s="72"/>
       <c r="B5" s="170"/>
       <c r="C5" s="178"/>
-      <c r="D5" s="185" t="s">
+      <c r="D5" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="E5" s="205"/>
-      <c r="F5" s="205"/>
-      <c r="G5" s="206"/>
-      <c r="H5" s="207" t="s">
+      <c r="E5" s="208"/>
+      <c r="F5" s="208"/>
+      <c r="G5" s="209"/>
+      <c r="H5" s="210" t="s">
         <v>160</v>
       </c>
-      <c r="I5" s="208"/>
-      <c r="J5" s="209"/>
-      <c r="K5" s="200" t="s">
+      <c r="I5" s="211"/>
+      <c r="J5" s="212"/>
+      <c r="K5" s="196" t="s">
         <v>159</v>
       </c>
-      <c r="L5" s="210"/>
-      <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
-      <c r="O5" s="211"/>
-      <c r="P5" s="212"/>
-      <c r="Q5" s="213"/>
+      <c r="L5" s="213"/>
+      <c r="M5" s="213"/>
+      <c r="N5" s="213"/>
+      <c r="O5" s="214"/>
+      <c r="P5" s="215"/>
+      <c r="Q5" s="216"/>
     </row>
     <row r="6" spans="1:20" ht="21.75" customHeight="1">
       <c r="A6" s="71"/>
-      <c r="B6" s="225" t="s">
+      <c r="B6" s="182" t="s">
         <v>255</v>
       </c>
-      <c r="C6" s="226" t="s">
+      <c r="C6" s="183" t="s">
         <v>193</v>
       </c>
       <c r="D6" s="59" t="s">
@@ -4602,7 +4620,7 @@
       </c>
       <c r="F8" s="45">
         <f>IF(MIN(F9:F42)&lt;&gt;0,MIN(F9:F42),"")</f>
-        <v>40290</v>
+        <v>40284</v>
       </c>
       <c r="G8" s="45" t="str">
         <f>IF(COUNT(E9:E42)=COUNT(G9:G42),MAX(G9:G42),"")</f>
@@ -4614,31 +4632,31 @@
       </c>
       <c r="I8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",I9:I42)</f>
-        <v>31.5</v>
+        <v>242</v>
       </c>
       <c r="J8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",J9:J42)</f>
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="K8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",K9:K42)</f>
-        <v>13.5</v>
+        <v>51.5</v>
       </c>
       <c r="L8" s="150">
         <f>+K8-I8</f>
-        <v>-18</v>
+        <v>-190.5</v>
       </c>
       <c r="M8" s="149">
         <f>+K8-J8</f>
-        <v>4.5</v>
+        <v>25</v>
       </c>
       <c r="N8" s="157">
         <f>+IF(I8&lt;&gt;0,K8/I8,0)</f>
-        <v>0.42857142857142855</v>
+        <v>0.21280991735537191</v>
       </c>
       <c r="O8" s="157">
         <f>+IF(J8&lt;&gt;0,K8/J8,0)</f>
-        <v>1.5</v>
+        <v>1.9433962264150944</v>
       </c>
       <c r="P8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",P9:P42)</f>
@@ -4646,7 +4664,7 @@
       </c>
       <c r="Q8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",Q9:Q42)</f>
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="R8" s="155"/>
       <c r="S8" s="155"/>
@@ -4667,7 +4685,7 @@
       </c>
       <c r="F9" s="45">
         <f>IF(MIN(F10:F43)&lt;&gt;0,MIN(F10:F43),"")</f>
-        <v>40290</v>
+        <v>40284</v>
       </c>
       <c r="G9" s="45" t="str">
         <f>IF(COUNT(E10:E42)=COUNT(G10:G42),MAX(G10:G42),"")</f>
@@ -4679,31 +4697,31 @@
       </c>
       <c r="I9" s="149">
         <f ca="1">SUMIF($B10:$B42,"&gt;0",I10:I15)</f>
-        <v>31.5</v>
+        <v>242</v>
       </c>
       <c r="J9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",J10:J42)</f>
-        <v>9</v>
+        <v>26.5</v>
       </c>
       <c r="K9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",K10:K42)</f>
-        <v>13.5</v>
+        <v>51.5</v>
       </c>
       <c r="L9" s="150">
         <f ca="1">+K9-I9</f>
-        <v>-18</v>
+        <v>-190.5</v>
       </c>
       <c r="M9" s="149">
         <f>+K9-J9</f>
-        <v>4.5</v>
+        <v>25</v>
       </c>
       <c r="N9" s="157">
         <f ca="1">+IF(I9&lt;&gt;0,K9/I9,0)</f>
-        <v>0.42857142857142855</v>
+        <v>0.21280991735537191</v>
       </c>
       <c r="O9" s="157">
         <f>+IF(J9&lt;&gt;0,K9/J9,0)</f>
-        <v>1.5</v>
+        <v>1.9433962264150944</v>
       </c>
       <c r="P9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",P10:P42)</f>
@@ -4711,7 +4729,7 @@
       </c>
       <c r="Q9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",Q10:Q42)</f>
-        <v>9</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1">
@@ -4730,11 +4748,11 @@
       </c>
       <c r="F10" s="132">
         <f>IF(MIN(F11:F16)&lt;&gt;0,MIN(F11:F16),"")</f>
-        <v>40292</v>
-      </c>
-      <c r="G10" s="132" t="str">
+        <v>40284</v>
+      </c>
+      <c r="G10" s="132">
         <f>IF(COUNT(E11:E16)=COUNT(G11:G16),MAX(G11:G16),"")</f>
-        <v/>
+        <v>40316</v>
       </c>
       <c r="H10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",H11:H16)</f>
@@ -4742,31 +4760,31 @@
       </c>
       <c r="I10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",I11:I16)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",J11:J16)</f>
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="K10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",K11:K16)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L10" s="152">
         <f>+K10-I10</f>
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="M10" s="151">
         <f>+K10-J10</f>
-        <v>-4</v>
+        <v>20.5</v>
       </c>
       <c r="N10" s="158">
         <f>+IF(I10&lt;&gt;0,K10/I10,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="158">
         <f>+IF(J10&lt;&gt;0,K10/J10,0)</f>
-        <v>0</v>
+        <v>2.3225806451612905</v>
       </c>
       <c r="P10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",P11:P16)</f>
@@ -4774,7 +4792,7 @@
       </c>
       <c r="Q10" s="151">
         <f>SUMIF($B11:$B16,"&gt;0",Q11:Q16)</f>
-        <v>4</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="12" customHeight="1" outlineLevel="1">
@@ -4793,11 +4811,11 @@
       </c>
       <c r="F11" s="73">
         <f>IF(MIN(F12:F16)&lt;&gt;0,MIN(F12:F16),"")</f>
-        <v>40292</v>
-      </c>
-      <c r="G11" s="73" t="str">
+        <v>40284</v>
+      </c>
+      <c r="G11" s="73">
         <f>IF(COUNT(E12:E16)=COUNT(G12:G16),MAX(G12:G16),"")</f>
-        <v/>
+        <v>40316</v>
       </c>
       <c r="H11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",H12:H16)</f>
@@ -4805,31 +4823,31 @@
       </c>
       <c r="I11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",I12:I16)</f>
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="J11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",J12:J16)</f>
-        <v>4</v>
+        <v>15.5</v>
       </c>
       <c r="K11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",K12:K16)</f>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L11" s="153">
         <f>+K11-I11</f>
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="M11" s="153">
         <f>+K11-J11</f>
-        <v>-4</v>
+        <v>20.5</v>
       </c>
       <c r="N11" s="159">
         <f>+IF(I11&lt;&gt;0,K11/I11,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" s="159">
         <f>+IF(J11&lt;&gt;0,K11/J11,0)</f>
-        <v>0</v>
+        <v>2.3225806451612905</v>
       </c>
       <c r="P11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",P12:P16)</f>
@@ -4837,7 +4855,7 @@
       </c>
       <c r="Q11" s="153">
         <f>SUMIF($B12:$B16,"&gt;0",Q12:Q16)</f>
-        <v>4</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="12" spans="1:20" outlineLevel="2">
@@ -4860,36 +4878,38 @@
       <c r="F12" s="43">
         <v>40292</v>
       </c>
-      <c r="G12" s="43"/>
+      <c r="G12" s="43">
+        <v>40316</v>
+      </c>
       <c r="H12" s="154">
         <v>6</v>
       </c>
       <c r="I12" s="113">
         <f>+IF(AND(D12&lt;&gt;"",E12&lt;&gt;"",H12&lt;&gt;""),IF(D12&lt;Parâmetros!$B$6,IF(E12&gt;Parâmetros!$B$6,H12/2,H12),0),"")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J12" s="113">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K12" s="113">
         <f>+IF(AND(F12&lt;&gt;"",H12&lt;&gt;""),IF(F12&lt;=Parâmetros!$B$6,IF(G12="",H12/2,IF(G12&gt;Parâmetros!$B$6,H12/2,H12)),0),"")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L12" s="113">
         <f>IF(AND(A12&gt;0,K12&lt;&gt;"",I12&lt;&gt;""),+K12-I12,"")</f>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M12" s="113">
         <f>IF(AND(A12&gt;0,K12&lt;&gt;"",J12&lt;&gt;""),K12-J12,"")</f>
-        <v>-4</v>
+        <v>-1</v>
       </c>
       <c r="N12" s="160">
         <f>+IF(AND(A12&gt;0,I12&lt;&gt;0,I12&lt;&gt;"",K12&lt;&gt;""),K12/I12,"")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="172">
         <f>+IF(AND(A12&gt;0,K12&lt;&gt;"",J12&lt;&gt;0,J12&lt;&gt;""),K12/J12,"")</f>
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="P12" s="113">
         <f>H12</f>
@@ -4897,7 +4917,7 @@
       </c>
       <c r="Q12" s="113">
         <f>J12</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:20" outlineLevel="2">
@@ -4916,35 +4936,41 @@
       <c r="E13" s="43">
         <v>40296</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
+      <c r="F13" s="43">
+        <v>40316</v>
+      </c>
+      <c r="G13" s="43">
+        <v>40316</v>
+      </c>
       <c r="H13" s="154">
         <v>6</v>
       </c>
       <c r="I13" s="113">
         <f>+IF(AND(D13&lt;&gt;"",E13&lt;&gt;"",H13&lt;&gt;""),IF(D13&lt;Parâmetros!$B$6,IF(E13&gt;Parâmetros!$B$6,H13/2,H13),0),"")</f>
+        <v>6</v>
+      </c>
+      <c r="J13" s="113">
+        <v>2</v>
+      </c>
+      <c r="K13" s="113">
+        <f>+IF(AND(F13&lt;&gt;"",H13&lt;&gt;""),IF(F13&lt;=Parâmetros!$B$6,IF(G13="",H13/2,IF(G13&gt;Parâmetros!$B$6,H13/2,H13)),0),"")</f>
+        <v>6</v>
+      </c>
+      <c r="L13" s="113">
+        <f>IF(AND(A13&gt;0,K13&lt;&gt;"",I13&lt;&gt;""),+K13-I13,"")</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="113">
+        <f>IF(AND(A13&gt;0,K13&lt;&gt;"",J13&lt;&gt;""),K13-J13,"")</f>
+        <v>4</v>
+      </c>
+      <c r="N13" s="160">
+        <f>+IF(AND(A13&gt;0,I13&lt;&gt;0,I13&lt;&gt;"",K13&lt;&gt;""),K13/I13,"")</f>
+        <v>1</v>
+      </c>
+      <c r="O13" s="172">
+        <f>+IF(AND(A13&gt;0,K13&lt;&gt;"",J13&lt;&gt;0,J13&lt;&gt;""),K13/J13,"")</f>
         <v>3</v>
-      </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113" t="str">
-        <f>+IF(AND(F13&lt;&gt;"",H13&lt;&gt;""),IF(F13&lt;=Parâmetros!$B$6,IF(G13="",H13/2,IF(G13&gt;Parâmetros!$B$6,H13/2,H13)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L13" s="113" t="str">
-        <f>IF(AND(A13&gt;0,K13&lt;&gt;"",I13&lt;&gt;""),+K13-I13,"")</f>
-        <v/>
-      </c>
-      <c r="M13" s="113" t="str">
-        <f>IF(AND(A13&gt;0,K13&lt;&gt;"",J13&lt;&gt;""),K13-J13,"")</f>
-        <v/>
-      </c>
-      <c r="N13" s="160" t="str">
-        <f>+IF(AND(A13&gt;0,I13&lt;&gt;0,I13&lt;&gt;"",K13&lt;&gt;""),K13/I13,"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="172" t="str">
-        <f>+IF(AND(A13&gt;0,K13&lt;&gt;"",J13&lt;&gt;0,J13&lt;&gt;""),K13/J13,"")</f>
-        <v/>
       </c>
       <c r="P13" s="113">
         <f t="shared" ref="P13:P16" si="0">H13</f>
@@ -4952,7 +4978,7 @@
       </c>
       <c r="Q13" s="113">
         <f t="shared" ref="Q13:Q16" si="1">J13</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:20" outlineLevel="2">
@@ -4971,35 +4997,41 @@
       <c r="E14" s="43">
         <v>40296</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
+      <c r="F14" s="43">
+        <v>40284</v>
+      </c>
+      <c r="G14" s="43">
+        <v>40284</v>
+      </c>
       <c r="H14" s="154">
         <v>6</v>
       </c>
       <c r="I14" s="113">
         <f>+IF(AND(D14&lt;&gt;"",E14&lt;&gt;"",H14&lt;&gt;""),IF(D14&lt;Parâmetros!$B$6,IF(E14&gt;Parâmetros!$B$6,H14/2,H14),0),"")</f>
-        <v>3</v>
-      </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113" t="str">
+        <v>6</v>
+      </c>
+      <c r="J14" s="113">
+        <v>2.5</v>
+      </c>
+      <c r="K14" s="113">
         <f>+IF(AND(F14&lt;&gt;"",H14&lt;&gt;""),IF(F14&lt;=Parâmetros!$B$6,IF(G14="",H14/2,IF(G14&gt;Parâmetros!$B$6,H14/2,H14)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L14" s="113" t="str">
+        <v>6</v>
+      </c>
+      <c r="L14" s="113">
         <f>IF(AND(A14&gt;0,K14&lt;&gt;"",I14&lt;&gt;""),+K14-I14,"")</f>
-        <v/>
-      </c>
-      <c r="M14" s="113" t="str">
+        <v>0</v>
+      </c>
+      <c r="M14" s="113">
         <f>IF(AND(A14&gt;0,K14&lt;&gt;"",J14&lt;&gt;""),K14-J14,"")</f>
-        <v/>
-      </c>
-      <c r="N14" s="160" t="str">
+        <v>3.5</v>
+      </c>
+      <c r="N14" s="160">
         <f>+IF(AND(A14&gt;0,I14&lt;&gt;0,I14&lt;&gt;"",K14&lt;&gt;""),K14/I14,"")</f>
-        <v/>
-      </c>
-      <c r="O14" s="172" t="str">
+        <v>1</v>
+      </c>
+      <c r="O14" s="172">
         <f>+IF(AND(A14&gt;0,K14&lt;&gt;"",J14&lt;&gt;0,J14&lt;&gt;""),K14/J14,"")</f>
-        <v/>
+        <v>2.4</v>
       </c>
       <c r="P14" s="113">
         <f t="shared" si="0"/>
@@ -5007,7 +5039,7 @@
       </c>
       <c r="Q14" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="1:20" outlineLevel="2">
@@ -5026,35 +5058,41 @@
       <c r="E15" s="43">
         <v>40296</v>
       </c>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
+      <c r="F15" s="43">
+        <v>40291</v>
+      </c>
+      <c r="G15" s="43">
+        <v>40296</v>
+      </c>
       <c r="H15" s="154">
         <v>12</v>
       </c>
       <c r="I15" s="113">
         <f>+IF(AND(D15&lt;&gt;"",E15&lt;&gt;"",H15&lt;&gt;""),IF(D15&lt;Parâmetros!$B$6,IF(E15&gt;Parâmetros!$B$6,H15/2,H15),0),"")</f>
-        <v>6</v>
-      </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113" t="str">
+        <v>12</v>
+      </c>
+      <c r="J15" s="113">
+        <v>3</v>
+      </c>
+      <c r="K15" s="113">
         <f>+IF(AND(F15&lt;&gt;"",H15&lt;&gt;""),IF(F15&lt;=Parâmetros!$B$6,IF(G15="",H15/2,IF(G15&gt;Parâmetros!$B$6,H15/2,H15)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L15" s="113" t="str">
+        <v>12</v>
+      </c>
+      <c r="L15" s="113">
         <f>IF(AND(A15&gt;0,K15&lt;&gt;"",I15&lt;&gt;""),+K15-I15,"")</f>
-        <v/>
-      </c>
-      <c r="M15" s="113" t="str">
+        <v>0</v>
+      </c>
+      <c r="M15" s="113">
         <f>IF(AND(A15&gt;0,K15&lt;&gt;"",J15&lt;&gt;""),K15-J15,"")</f>
-        <v/>
-      </c>
-      <c r="N15" s="160" t="str">
+        <v>9</v>
+      </c>
+      <c r="N15" s="160">
         <f>+IF(AND(A15&gt;0,I15&lt;&gt;0,I15&lt;&gt;"",K15&lt;&gt;""),K15/I15,"")</f>
-        <v/>
-      </c>
-      <c r="O15" s="172" t="str">
+        <v>1</v>
+      </c>
+      <c r="O15" s="172">
         <f>+IF(AND(A15&gt;0,K15&lt;&gt;"",J15&lt;&gt;0,J15&lt;&gt;""),K15/J15,"")</f>
-        <v/>
+        <v>4</v>
       </c>
       <c r="P15" s="113">
         <f t="shared" si="0"/>
@@ -5062,7 +5100,7 @@
       </c>
       <c r="Q15" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:20" outlineLevel="2">
@@ -5081,35 +5119,41 @@
       <c r="E16" s="43">
         <v>40296</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
+      <c r="F16" s="43">
+        <v>40284</v>
+      </c>
+      <c r="G16" s="43">
+        <v>40310</v>
+      </c>
       <c r="H16" s="154">
         <v>6</v>
       </c>
       <c r="I16" s="113">
         <f>+IF(AND(D16&lt;&gt;"",E16&lt;&gt;"",H16&lt;&gt;""),IF(D16&lt;Parâmetros!$B$6,IF(E16&gt;Parâmetros!$B$6,H16/2,H16),0),"")</f>
-        <v>3</v>
-      </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113" t="str">
+        <v>6</v>
+      </c>
+      <c r="J16" s="113">
+        <v>1</v>
+      </c>
+      <c r="K16" s="113">
         <f>+IF(AND(F16&lt;&gt;"",H16&lt;&gt;""),IF(F16&lt;=Parâmetros!$B$6,IF(G16="",H16/2,IF(G16&gt;Parâmetros!$B$6,H16/2,H16)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L16" s="113" t="str">
+        <v>6</v>
+      </c>
+      <c r="L16" s="113">
         <f>IF(AND(A16&gt;0,K16&lt;&gt;"",I16&lt;&gt;""),+K16-I16,"")</f>
-        <v/>
-      </c>
-      <c r="M16" s="113" t="str">
+        <v>0</v>
+      </c>
+      <c r="M16" s="113">
         <f>IF(AND(A16&gt;0,K16&lt;&gt;"",J16&lt;&gt;""),K16-J16,"")</f>
-        <v/>
-      </c>
-      <c r="N16" s="160" t="str">
+        <v>5</v>
+      </c>
+      <c r="N16" s="160">
         <f>+IF(AND(A16&gt;0,I16&lt;&gt;0,I16&lt;&gt;"",K16&lt;&gt;""),K16/I16,"")</f>
-        <v/>
-      </c>
-      <c r="O16" s="172" t="str">
+        <v>1</v>
+      </c>
+      <c r="O16" s="172">
         <f>+IF(AND(A16&gt;0,K16&lt;&gt;"",J16&lt;&gt;0,J16&lt;&gt;""),K16/J16,"")</f>
-        <v/>
+        <v>6</v>
       </c>
       <c r="P16" s="113">
         <f t="shared" si="0"/>
@@ -5117,7 +5161,7 @@
       </c>
       <c r="Q16" s="113">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
@@ -5148,11 +5192,11 @@
       </c>
       <c r="I17" s="151">
         <f>SUMIF($B18:$B19,"&gt;0",I18:I19)</f>
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="J17" s="151">
         <f>SUMIF($B18:$B19,"&gt;0",J18:J19)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K17" s="151">
         <f>SUMIF($B18:$B19,"&gt;0",K18:K19)</f>
@@ -5160,19 +5204,19 @@
       </c>
       <c r="L17" s="152">
         <f>+K17-I17</f>
-        <v>0</v>
+        <v>-13.5</v>
       </c>
       <c r="M17" s="151">
         <f>+K17-J17</f>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="N17" s="158">
         <f>+IF(I17&lt;&gt;0,K17/I17,0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O17" s="158">
         <f>+IF(J17&lt;&gt;0,K17/J17,0)</f>
-        <v>2.7</v>
+        <v>1.9285714285714286</v>
       </c>
       <c r="P17" s="151">
         <f ca="1">SUMIF($B18:$B22,"&gt;0",P18:P19)</f>
@@ -5180,7 +5224,7 @@
       </c>
       <c r="Q17" s="151">
         <f>SUMIF($B18:$B22,"&gt;0",Q18:Q22)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
@@ -5211,11 +5255,11 @@
       </c>
       <c r="I18" s="153">
         <f>SUMIF($B19,"&gt;0",I19)</f>
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="J18" s="153">
         <f>SUMIF($B19,"&gt;0",J19)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K18" s="153">
         <f>SUMIF($B19,"&gt;0",K19)</f>
@@ -5223,19 +5267,19 @@
       </c>
       <c r="L18" s="153">
         <f>+K18-I18</f>
-        <v>0</v>
+        <v>-13.5</v>
       </c>
       <c r="M18" s="153">
         <f>+K18-J18</f>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="N18" s="159">
         <f>+IF(I18&lt;&gt;0,K18/I18,0)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O18" s="159">
         <f>+IF(J18&lt;&gt;0,K18/J18,0)</f>
-        <v>2.7</v>
+        <v>1.9285714285714286</v>
       </c>
       <c r="P18" s="153">
         <f ca="1">SUMIF($B19:$B22,"&gt;0",P19)</f>
@@ -5243,7 +5287,7 @@
       </c>
       <c r="Q18" s="153">
         <f>SUMIF($B19:$B22,"&gt;0",Q19:Q22)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:17" outlineLevel="2">
@@ -5271,10 +5315,10 @@
       </c>
       <c r="I19" s="113">
         <f>+IF(AND(D19&lt;&gt;"",E19&lt;&gt;"",H19&lt;&gt;""),IF(D19&lt;Parâmetros!$B$6,IF(E19&gt;Parâmetros!$B$6,H19/2,H19),0),"")</f>
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="J19" s="113">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K19" s="113">
         <f>+IF(AND(F19&lt;&gt;"",H19&lt;&gt;""),IF(F19&lt;=Parâmetros!$B$6,IF(G19="",H19/2,IF(G19&gt;Parâmetros!$B$6,H19/2,H19)),0),"")</f>
@@ -5282,19 +5326,19 @@
       </c>
       <c r="L19" s="113">
         <f>IF(AND(A19&gt;0,K19&lt;&gt;"",I19&lt;&gt;""),+K19-I19,"")</f>
-        <v>0</v>
+        <v>-13.5</v>
       </c>
       <c r="M19" s="113">
         <f>IF(AND(A19&gt;0,K19&lt;&gt;"",J19&lt;&gt;""),K19-J19,"")</f>
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="N19" s="160">
         <f>+IF(AND(A19&gt;0,I19&lt;&gt;0,I19&lt;&gt;"",K19&lt;&gt;""),K19/I19,"")</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O19" s="172">
         <f>+IF(AND(A19&gt;0,K19&lt;&gt;"",J19&lt;&gt;0,J19&lt;&gt;""),K19/J19,"")</f>
-        <v>2.7</v>
+        <v>1.9285714285714286</v>
       </c>
       <c r="P19" s="113">
         <f>H19</f>
@@ -5302,7 +5346,7 @@
       </c>
       <c r="Q19" s="113">
         <f>J19</f>
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
@@ -5319,9 +5363,9 @@
         <f>IF(MAX(E21:E35)&lt;&gt;0,MAX(E21:E35),"")</f>
         <v>40308</v>
       </c>
-      <c r="F20" s="132" t="str">
-        <f>IF(COUNT(D21:D35)=COUNT(F21:F35),MAX(F21:F35),"")</f>
-        <v/>
+      <c r="F20" s="132">
+        <f>IF(MIN(F21:F35)&lt;&gt;0,MIN(F21:F22),"")</f>
+        <v>40299</v>
       </c>
       <c r="G20" s="132" t="str">
         <f>IF(COUNT(E21:E35)=COUNT(G21:G35),MAX(G21:G35),"")</f>
@@ -5333,31 +5377,31 @@
       </c>
       <c r="I20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",I21:I35)</f>
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="J20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",J21:J35)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",K21:K35)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20" s="152">
         <f>+K20-I20</f>
-        <v>0</v>
+        <v>-120</v>
       </c>
       <c r="M20" s="151">
         <f>+K20-J20</f>
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="N20" s="158">
         <f>+IF(I20&lt;&gt;0,K20/I20,0)</f>
-        <v>0</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="O20" s="158">
         <f>+IF(J20&lt;&gt;0,K20/J20,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",P21:P35)</f>
@@ -5365,7 +5409,7 @@
       </c>
       <c r="Q20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",Q21:Q35)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
@@ -5384,9 +5428,9 @@
         <f>IF(MAX(E22:E35)&lt;&gt;0,MAX(E22:E35),"")</f>
         <v>40308</v>
       </c>
-      <c r="F21" s="73" t="str">
-        <f>IF(COUNT(D22:D35)=COUNT(F22:F35),MAX(F22:F35),"")</f>
-        <v/>
+      <c r="F21" s="73">
+        <f>IF(MIN(F22:F35)&lt;&gt;0,MIN(F22),"")</f>
+        <v>40299</v>
       </c>
       <c r="G21" s="73" t="str">
         <f>IF(COUNT(E22:E35)=COUNT(G22:G35),MAX(G22:G26),"")</f>
@@ -5398,31 +5442,31 @@
       </c>
       <c r="I21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",I22:I35)</f>
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="J21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",J22:J35)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",K22:K35)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" s="153">
         <f>+K21-I21</f>
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="M21" s="153">
         <f>+K21-J21</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N21" s="159">
         <f>+IF(I21&lt;&gt;0,K21/I21,0)</f>
-        <v>0</v>
+        <v>1.6393442622950821E-2</v>
       </c>
       <c r="O21" s="159">
         <f>+IF(J21&lt;&gt;0,K21/J21,0)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",P22:P35)</f>
@@ -5430,7 +5474,7 @@
       </c>
       <c r="Q21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",Q22:Q35)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:17" outlineLevel="2">
@@ -5449,35 +5493,39 @@
       <c r="E22" s="43">
         <v>40298</v>
       </c>
-      <c r="F22" s="43"/>
+      <c r="F22" s="43">
+        <v>40299</v>
+      </c>
       <c r="G22" s="43"/>
       <c r="H22" s="154">
         <v>2</v>
       </c>
       <c r="I22" s="113">
         <f>+IF(AND(D22&lt;&gt;"",E22&lt;&gt;"",H22&lt;&gt;""),IF(D22&lt;Parâmetros!$B$6,IF(E22&gt;Parâmetros!$B$6,H22/2,H22),0),"")</f>
-        <v>0</v>
-      </c>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113" t="str">
+        <v>2</v>
+      </c>
+      <c r="J22" s="113">
+        <v>2</v>
+      </c>
+      <c r="K22" s="113">
         <f>+IF(AND(F22&lt;&gt;"",H22&lt;&gt;""),IF(F22&lt;=Parâmetros!$B$6,IF(G22="",H22/2,IF(G22&gt;Parâmetros!$B$6,H22/2,H22)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L22" s="113" t="str">
+        <v>1</v>
+      </c>
+      <c r="L22" s="113">
         <f t="shared" ref="L22:L35" si="2">IF(AND(A22&gt;0,K22&lt;&gt;"",I22&lt;&gt;""),+K22-I22,"")</f>
-        <v/>
-      </c>
-      <c r="M22" s="113" t="str">
+        <v>-1</v>
+      </c>
+      <c r="M22" s="113">
         <f t="shared" ref="M22:M35" si="3">IF(AND(A22&gt;0,K22&lt;&gt;"",J22&lt;&gt;""),K22-J22,"")</f>
-        <v/>
-      </c>
-      <c r="N22" s="160" t="str">
+        <v>-1</v>
+      </c>
+      <c r="N22" s="160">
         <f t="shared" ref="N22:N35" si="4">+IF(AND(A22&gt;0,I22&lt;&gt;0,I22&lt;&gt;"",K22&lt;&gt;""),K22/I22,"")</f>
-        <v/>
-      </c>
-      <c r="O22" s="172" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="172">
         <f t="shared" ref="O22:O35" si="5">+IF(AND(A22&gt;0,K22&lt;&gt;"",J22&lt;&gt;0,J22&lt;&gt;""),K22/J22,"")</f>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="P22" s="113">
         <f t="shared" ref="P22:P35" si="6">H22</f>
@@ -5485,7 +5533,7 @@
       </c>
       <c r="Q22" s="113">
         <f t="shared" ref="Q22:Q35" si="7">J22</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:17" outlineLevel="2">
@@ -5511,7 +5559,7 @@
       </c>
       <c r="I23" s="113">
         <f>+IF(AND(D23&lt;&gt;"",E23&lt;&gt;"",H23&lt;&gt;""),IF(D23&lt;Parâmetros!$B$6,IF(E23&gt;Parâmetros!$B$6,H23/2,H23),0),"")</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J23" s="113"/>
       <c r="K23" s="113" t="str">
@@ -5611,7 +5659,7 @@
       </c>
       <c r="I25" s="113">
         <f>+IF(AND(D25&lt;&gt;"",E25&lt;&gt;"",H25&lt;&gt;""),IF(D25&lt;Parâmetros!$B$6,IF(E25&gt;Parâmetros!$B$6,H25/2,H25),0),"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J25" s="113"/>
       <c r="K25" s="113" t="str">
@@ -5666,7 +5714,7 @@
       </c>
       <c r="I26" s="113">
         <f>+IF(AND(D26&lt;&gt;"",E26&lt;&gt;"",H26&lt;&gt;""),IF(D26&lt;Parâmetros!$B$6,IF(E26&gt;Parâmetros!$B$6,H26/2,H26),0),"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J26" s="113"/>
       <c r="K26" s="113" t="str">
@@ -5721,7 +5769,7 @@
       </c>
       <c r="I27" s="113">
         <f>+IF(AND(D27&lt;&gt;"",E27&lt;&gt;"",H27&lt;&gt;""),IF(D27&lt;Parâmetros!$B$6,IF(E27&gt;Parâmetros!$B$6,H27/2,H27),0),"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J27" s="113"/>
       <c r="K27" s="113" t="str">
@@ -5776,7 +5824,7 @@
       </c>
       <c r="I28" s="113">
         <f>+IF(AND(D28&lt;&gt;"",E28&lt;&gt;"",H28&lt;&gt;""),IF(D28&lt;Parâmetros!$B$6,IF(E28&gt;Parâmetros!$B$6,H28/2,H28),0),"")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J28" s="113"/>
       <c r="K28" s="113" t="str">
@@ -5831,7 +5879,7 @@
       </c>
       <c r="I29" s="113">
         <f>+IF(AND(D29&lt;&gt;"",E29&lt;&gt;"",H29&lt;&gt;""),IF(D29&lt;Parâmetros!$B$6,IF(E29&gt;Parâmetros!$B$6,H29/2,H29),0),"")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="113"/>
       <c r="K29" s="113" t="str">
@@ -5931,7 +5979,7 @@
       </c>
       <c r="I31" s="113">
         <f>+IF(AND(D31&lt;&gt;"",E31&lt;&gt;"",H31&lt;&gt;""),IF(D31&lt;Parâmetros!$B$6,IF(E31&gt;Parâmetros!$B$6,H31/2,H31),0),"")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J31" s="113"/>
       <c r="K31" s="113" t="str">
@@ -5986,7 +6034,7 @@
       </c>
       <c r="I32" s="113">
         <f>+IF(AND(D32&lt;&gt;"",E32&lt;&gt;"",H32&lt;&gt;""),IF(D32&lt;Parâmetros!$B$6,IF(E32&gt;Parâmetros!$B$6,H32/2,H32),0),"")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J32" s="113"/>
       <c r="K32" s="113" t="str">
@@ -6041,7 +6089,7 @@
       </c>
       <c r="I33" s="113">
         <f>+IF(AND(D33&lt;&gt;"",E33&lt;&gt;"",H33&lt;&gt;""),IF(D33&lt;Parâmetros!$B$6,IF(E33&gt;Parâmetros!$B$6,H33/2,H33),0),"")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J33" s="113"/>
       <c r="K33" s="113" t="str">
@@ -6096,7 +6144,7 @@
       </c>
       <c r="I34" s="113">
         <f>+IF(AND(D34&lt;&gt;"",E34&lt;&gt;"",H34&lt;&gt;""),IF(D34&lt;Parâmetros!$B$6,IF(E34&gt;Parâmetros!$B$6,H34/2,H34),0),"")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J34" s="113"/>
       <c r="K34" s="113" t="str">
@@ -6151,7 +6199,7 @@
       </c>
       <c r="I35" s="113">
         <f>+IF(AND(D35&lt;&gt;"",E35&lt;&gt;"",H35&lt;&gt;""),IF(D35&lt;Parâmetros!$B$6,IF(E35&gt;Parâmetros!$B$6,H35/2,H35),0),"")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J35" s="113"/>
       <c r="K35" s="113" t="str">
@@ -6211,7 +6259,7 @@
       </c>
       <c r="I36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",I37:I42)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="J36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",J37:J42)</f>
@@ -6223,7 +6271,7 @@
       </c>
       <c r="L36" s="152">
         <f>+K36-I36</f>
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="M36" s="151">
         <f>+K36-J36</f>
@@ -6247,7 +6295,7 @@
       </c>
     </row>
     <row r="37" spans="1:17" ht="22.5" outlineLevel="1">
-      <c r="A37" s="224" t="s">
+      <c r="A37" s="181" t="s">
         <v>247</v>
       </c>
       <c r="B37" s="171"/>
@@ -6332,7 +6380,7 @@
       </c>
       <c r="I38" s="113">
         <f>+IF(AND(D38&lt;&gt;"",E38&lt;&gt;"",H38&lt;&gt;""),IF(D38&lt;Parâmetros!$B$6,IF(E38&gt;Parâmetros!$B$6,H38/2,H38),0),"")</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J38" s="113"/>
       <c r="K38" s="113" t="str">
@@ -6387,7 +6435,7 @@
       </c>
       <c r="I39" s="113">
         <f>+IF(AND(D39&lt;&gt;"",E39&lt;&gt;"",H39&lt;&gt;""),IF(D39&lt;Parâmetros!$B$6,IF(E39&gt;Parâmetros!$B$6,H39/2,H39),0),"")</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="J39" s="113"/>
       <c r="K39" s="113" t="str">
@@ -6442,7 +6490,7 @@
       </c>
       <c r="I40" s="113">
         <f>+IF(AND(D40&lt;&gt;"",E40&lt;&gt;"",H40&lt;&gt;""),IF(D40&lt;Parâmetros!$B$6,IF(E40&gt;Parâmetros!$B$6,H40/2,H40),0),"")</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J40" s="113"/>
       <c r="K40" s="113" t="str">
@@ -6497,7 +6545,7 @@
       </c>
       <c r="I41" s="113">
         <f>+IF(AND(D41&lt;&gt;"",E41&lt;&gt;"",H41&lt;&gt;""),IF(D41&lt;Parâmetros!$B$6,IF(E41&gt;Parâmetros!$B$6,H41/2,H41),0),"")</f>
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="J41" s="113"/>
       <c r="K41" s="113" t="str">
@@ -6552,7 +6600,7 @@
       </c>
       <c r="I42" s="113">
         <f>+IF(AND(D42&lt;&gt;"",E42&lt;&gt;"",H42&lt;&gt;""),IF(D42&lt;Parâmetros!$B$6,IF(E42&gt;Parâmetros!$B$6,H42/2,H42),0),"")</f>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J42" s="113"/>
       <c r="K42" s="113" t="str">
@@ -6721,7 +6769,7 @@
     <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C35 C21:C29 C38:C42 C19 C12:C16">
       <formula1>Recursos</formula1>
     </dataValidation>
@@ -6744,7 +6792,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6777,7 +6825,7 @@
       <c r="D2" s="95"/>
       <c r="E2" s="95" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
-        <v>Data Base: 23/04/2010</v>
+        <v>Data Base: 19/05/2010</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="100"/>
@@ -6821,11 +6869,17 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A6" s="142"/>
+      <c r="A6" s="142">
+        <v>40317</v>
+      </c>
       <c r="B6" s="116"/>
-      <c r="C6" s="116"/>
+      <c r="C6" s="116" t="s">
+        <v>216</v>
+      </c>
       <c r="D6" s="117"/>
-      <c r="E6" s="119"/>
+      <c r="E6" s="119">
+        <v>272</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="10.5" customHeight="1">
       <c r="A7" s="142"/>
@@ -6953,7 +7007,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="142">
-        <v>40291</v>
+        <v>40317</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -7195,26 +7249,26 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="214" t="s">
+      <c r="A4" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="218" t="s">
+      <c r="C4" s="221" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="219"/>
-      <c r="E4" s="219"/>
-      <c r="F4" s="219"/>
-      <c r="G4" s="220"/>
-      <c r="H4" s="214" t="s">
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="223"/>
+      <c r="H4" s="217" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="215"/>
-      <c r="B5" s="217"/>
+      <c r="A5" s="218"/>
+      <c r="B5" s="220"/>
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
@@ -7230,7 +7284,7 @@
       <c r="G5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="215"/>
+      <c r="H5" s="218"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="6">
@@ -8635,19 +8689,19 @@
       <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A3" s="221" t="s">
+      <c r="A3" s="224" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="222"/>
-      <c r="C3" s="222"/>
-      <c r="D3" s="222"/>
-      <c r="E3" s="222"/>
-      <c r="F3" s="222"/>
-      <c r="G3" s="222"/>
-      <c r="H3" s="222"/>
-      <c r="I3" s="222"/>
-      <c r="J3" s="222"/>
-      <c r="K3" s="222"/>
+      <c r="B3" s="225"/>
+      <c r="C3" s="225"/>
+      <c r="D3" s="225"/>
+      <c r="E3" s="225"/>
+      <c r="F3" s="225"/>
+      <c r="G3" s="225"/>
+      <c r="H3" s="225"/>
+      <c r="I3" s="225"/>
+      <c r="J3" s="225"/>
+      <c r="K3" s="225"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="51"/>
@@ -8660,19 +8714,19 @@
       <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A5" s="221" t="s">
+      <c r="A5" s="224" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="222"/>
-      <c r="C5" s="222"/>
-      <c r="D5" s="222"/>
-      <c r="E5" s="222"/>
-      <c r="F5" s="222"/>
-      <c r="G5" s="222"/>
-      <c r="H5" s="222"/>
-      <c r="I5" s="223"/>
-      <c r="J5" s="223"/>
-      <c r="K5" s="223"/>
+      <c r="B5" s="225"/>
+      <c r="C5" s="225"/>
+      <c r="D5" s="225"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
+      <c r="G5" s="225"/>
+      <c r="H5" s="225"/>
+      <c r="I5" s="226"/>
+      <c r="J5" s="226"/>
+      <c r="K5" s="226"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="53"/>
@@ -8684,19 +8738,19 @@
       <c r="H6" s="49"/>
     </row>
     <row r="7" spans="1:11" ht="37.5" customHeight="1">
-      <c r="A7" s="221" t="s">
+      <c r="A7" s="224" t="s">
         <v>164</v>
       </c>
-      <c r="B7" s="222"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="222"/>
-      <c r="E7" s="222"/>
-      <c r="F7" s="222"/>
-      <c r="G7" s="222"/>
-      <c r="H7" s="222"/>
-      <c r="I7" s="223"/>
-      <c r="J7" s="223"/>
-      <c r="K7" s="223"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="225"/>
+      <c r="D7" s="225"/>
+      <c r="E7" s="225"/>
+      <c r="F7" s="225"/>
+      <c r="G7" s="225"/>
+      <c r="H7" s="225"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="226"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="54"/>
@@ -8709,19 +8763,19 @@
       <c r="H8" s="55"/>
     </row>
     <row r="9" spans="1:11" ht="69" customHeight="1">
-      <c r="A9" s="221" t="s">
+      <c r="A9" s="224" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="222"/>
-      <c r="C9" s="222"/>
-      <c r="D9" s="222"/>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="222"/>
-      <c r="H9" s="222"/>
-      <c r="I9" s="223"/>
-      <c r="J9" s="223"/>
-      <c r="K9" s="223"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="225"/>
+      <c r="D9" s="225"/>
+      <c r="E9" s="225"/>
+      <c r="F9" s="225"/>
+      <c r="G9" s="225"/>
+      <c r="H9" s="225"/>
+      <c r="I9" s="226"/>
+      <c r="J9" s="226"/>
+      <c r="K9" s="226"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="54"/>
@@ -8734,19 +8788,19 @@
       <c r="H10" s="55"/>
     </row>
     <row r="11" spans="1:11" ht="69" customHeight="1">
-      <c r="A11" s="221" t="s">
+      <c r="A11" s="224" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="222"/>
-      <c r="F11" s="222"/>
-      <c r="G11" s="222"/>
-      <c r="H11" s="222"/>
-      <c r="I11" s="223"/>
-      <c r="J11" s="223"/>
-      <c r="K11" s="223"/>
+      <c r="B11" s="225"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="225"/>
+      <c r="F11" s="225"/>
+      <c r="G11" s="225"/>
+      <c r="H11" s="225"/>
+      <c r="I11" s="226"/>
+      <c r="J11" s="226"/>
+      <c r="K11" s="226"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="36"/>
@@ -8758,19 +8812,19 @@
       <c r="H12" s="49"/>
     </row>
     <row r="13" spans="1:11" ht="58.5" customHeight="1">
-      <c r="A13" s="221" t="s">
+      <c r="A13" s="224" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="222"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="222"/>
-      <c r="E13" s="222"/>
-      <c r="F13" s="222"/>
-      <c r="G13" s="222"/>
-      <c r="H13" s="222"/>
-      <c r="I13" s="223"/>
-      <c r="J13" s="223"/>
-      <c r="K13" s="223"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
+      <c r="I13" s="226"/>
+      <c r="J13" s="226"/>
+      <c r="K13" s="226"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="56"/>
@@ -8782,19 +8836,19 @@
       <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:11" ht="58.5" customHeight="1">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="224" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="222"/>
-      <c r="E15" s="222"/>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="223"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="225"/>
+      <c r="G15" s="225"/>
+      <c r="H15" s="225"/>
+      <c r="I15" s="226"/>
+      <c r="J15" s="226"/>
+      <c r="K15" s="226"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="56"/>
@@ -8806,19 +8860,19 @@
       <c r="H16" s="49"/>
     </row>
     <row r="17" spans="1:11" ht="72" customHeight="1">
-      <c r="A17" s="221" t="s">
+      <c r="A17" s="224" t="s">
         <v>218</v>
       </c>
-      <c r="B17" s="222"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="222"/>
-      <c r="E17" s="222"/>
-      <c r="F17" s="222"/>
-      <c r="G17" s="222"/>
-      <c r="H17" s="222"/>
-      <c r="I17" s="223"/>
-      <c r="J17" s="223"/>
-      <c r="K17" s="223"/>
+      <c r="B17" s="225"/>
+      <c r="C17" s="225"/>
+      <c r="D17" s="225"/>
+      <c r="E17" s="225"/>
+      <c r="F17" s="225"/>
+      <c r="G17" s="225"/>
+      <c r="H17" s="225"/>
+      <c r="I17" s="226"/>
+      <c r="J17" s="226"/>
+      <c r="K17" s="226"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
+++ b/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
@@ -1394,9 +1394,6 @@
     <t>Diagrama de classes de projeto</t>
   </si>
   <si>
-    <t>Diagrama de colaboração</t>
-  </si>
-  <si>
     <t>Snapshot</t>
   </si>
   <si>
@@ -1419,6 +1416,9 @@
   </si>
   <si>
     <t>1.2.01.03 - Plano do Projeto (Criação e Revisão)</t>
+  </si>
+  <si>
+    <t>Diagrama de colaboração/Sequência</t>
   </si>
 </sst>
 </file>
@@ -2323,6 +2323,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2334,9 +2356,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2362,25 +2381,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2581,11 +2581,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="78311808"/>
-        <c:axId val="78313344"/>
+        <c:axId val="78606720"/>
+        <c:axId val="78608256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78311808"/>
+        <c:axId val="78606720"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2617,7 +2617,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78313344"/>
+        <c:crossAx val="78608256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2625,7 +2625,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78313344"/>
+        <c:axId val="78608256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2667,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78311808"/>
+        <c:crossAx val="78606720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -2713,7 +2713,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000343" footer="0.49212598500000343"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000354" footer="0.49212598500000354"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2751,7 +2751,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31531602468610342"/>
-          <c:y val="3.2418952618454198E-2"/>
+          <c:y val="3.2418952618454205E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2768,9 +2768,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11261286030066738"/>
-          <c:y val="0.14962593516209638"/>
-          <c:w val="0.65090233253786278"/>
-          <c:h val="0.73815461346633915"/>
+          <c:y val="0.14962593516209644"/>
+          <c:w val="0.65090233253786289"/>
+          <c:h val="0.73815461346633926"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2927,11 +2927,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="80095872"/>
-        <c:axId val="80118528"/>
+        <c:axId val="78637696"/>
+        <c:axId val="78140160"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="80095872"/>
+        <c:axId val="78637696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,7 +2963,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80118528"/>
+        <c:crossAx val="78140160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2971,7 +2971,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="80118528"/>
+        <c:axId val="78140160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3014,7 +3014,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="80095872"/>
+        <c:crossAx val="78637696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3037,9 +3037,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7972972972972977"/>
-          <c:y val="0.46882793017456648"/>
+          <c:y val="0.46882793017456653"/>
           <c:w val="0.17792792792792791"/>
-          <c:h val="0.10972568578553757"/>
+          <c:h val="0.10972568578553761"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3104,7 +3104,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000343" footer="0.49212598500000343"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000354" footer="0.49212598500000354"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3652,16 +3652,16 @@
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
     <row r="6" spans="1:11" s="137" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="201"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
       <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:11" s="137" customFormat="1" ht="6" customHeight="1">
@@ -3788,7 +3788,7 @@
       <c r="B18" s="105"/>
       <c r="C18" s="94">
         <f ca="1">WORKDAY(TODAY(),(C23-C22)/(Parâmetros!B5*2),Parâmetros!$B$8:$B$10)</f>
-        <v>40340</v>
+        <v>40343</v>
       </c>
       <c r="K18" s="62"/>
     </row>
@@ -3874,17 +3874,17 @@
       <c r="K25" s="90"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="190" t="s">
+      <c r="A26" s="197" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="196" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="188" t="s">
+      <c r="C26" s="188"/>
+      <c r="D26" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="189"/>
+      <c r="E26" s="188"/>
       <c r="F26" s="89"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
@@ -3893,7 +3893,7 @@
       <c r="K26" s="90"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="191"/>
+      <c r="A27" s="198"/>
       <c r="B27" s="164" t="s">
         <v>230</v>
       </c>
@@ -4019,27 +4019,27 @@
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="A41" s="72"/>
-      <c r="B41" s="199" t="s">
+      <c r="B41" s="206" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="203" t="s">
+      <c r="C41" s="186" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="205" t="s">
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="189" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="206"/>
-      <c r="I41" s="206"/>
-      <c r="J41" s="207"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="191"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1">
       <c r="A42" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="200"/>
+      <c r="B42" s="207"/>
       <c r="C42" s="86" t="s">
         <v>187</v>
       </c>
@@ -4145,19 +4145,19 @@
       <c r="A47" s="83"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
-      <c r="D47" s="186" t="s">
+      <c r="D47" s="194" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="196" t="s">
+      <c r="E47" s="203" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="197"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="192" t="s">
+      <c r="F47" s="204"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="205"/>
+      <c r="I47" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="J47" s="193"/>
+      <c r="J47" s="200"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1">
       <c r="A48" s="84" t="s">
@@ -4169,7 +4169,7 @@
       <c r="C48" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="187"/>
+      <c r="D48" s="195"/>
       <c r="E48" s="69" t="s">
         <v>155</v>
       </c>
@@ -4182,8 +4182,8 @@
       <c r="H48" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
+      <c r="I48" s="201"/>
+      <c r="J48" s="202"/>
     </row>
     <row r="49" spans="1:10" ht="12">
       <c r="A49" s="142">
@@ -4214,11 +4214,11 @@
         <f t="shared" ref="H49" si="5">+IF(C49&lt;&gt;0,D49/C49,0)</f>
         <v>1.9285714285714286</v>
       </c>
-      <c r="I49" s="184">
+      <c r="I49" s="192">
         <f>IF(H49&lt;&gt;0,C49+(VLOOKUP(A49,'Histórico de Versões'!A5:E72,5)-D49)/H49,"")</f>
         <v>141.03703703703704</v>
       </c>
-      <c r="J49" s="185"/>
+      <c r="J49" s="193"/>
     </row>
     <row r="50" spans="1:10" ht="12">
       <c r="A50" s="142">
@@ -4249,11 +4249,11 @@
         <f t="shared" ref="H50:H55" si="7">+IF(C50&lt;&gt;0,D50/C50,0)</f>
         <v>1.9433962264150944</v>
       </c>
-      <c r="I50" s="184">
+      <c r="I50" s="192">
         <f>IF(H50&lt;&gt;0,C50+(VLOOKUP(A50,'Histórico de Versões'!A6:E73,5)-D50)/H50,"")</f>
         <v>139.96116504854371</v>
       </c>
-      <c r="J50" s="185"/>
+      <c r="J50" s="193"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="106"/>
@@ -4276,11 +4276,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I51" s="184" t="str">
+      <c r="I51" s="192" t="str">
         <f>IF(H51&lt;&gt;0,C51+(VLOOKUP(A51,'Histórico de Versões'!A7:E74,5)-D51)/H51,"")</f>
         <v/>
       </c>
-      <c r="J51" s="185"/>
+      <c r="J51" s="193"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="106"/>
@@ -4303,11 +4303,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I52" s="184" t="str">
+      <c r="I52" s="192" t="str">
         <f>IF(H52&lt;&gt;0,C52+(VLOOKUP(A52,'Histórico de Versões'!A8:E75,5)-D52)/H52,"")</f>
         <v/>
       </c>
-      <c r="J52" s="185"/>
+      <c r="J52" s="193"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="106"/>
@@ -4330,11 +4330,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I53" s="184" t="str">
+      <c r="I53" s="192" t="str">
         <f>IF(H53&lt;&gt;0,C53+(VLOOKUP(A53,'Histórico de Versões'!A9:E76,5)-D53)/H53,"")</f>
         <v/>
       </c>
-      <c r="J53" s="185"/>
+      <c r="J53" s="193"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="106"/>
@@ -4357,11 +4357,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="184" t="str">
+      <c r="I54" s="192" t="str">
         <f>IF(H54&lt;&gt;0,C54+(VLOOKUP(A54,'Histórico de Versões'!A10:E77,5)-D54)/H54,"")</f>
         <v/>
       </c>
-      <c r="J54" s="185"/>
+      <c r="J54" s="193"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="106"/>
@@ -4384,11 +4384,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I55" s="184" t="str">
+      <c r="I55" s="192" t="str">
         <f>IF(H55&lt;&gt;0,C55+(VLOOKUP(A55,'Histórico de Versões'!A11:E78,5)-D55)/H55,"")</f>
         <v/>
       </c>
-      <c r="J55" s="185"/>
+      <c r="J55" s="193"/>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="90"/>
@@ -4403,6 +4403,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I54:J54"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:J41"/>
@@ -4419,7 +4420,6 @@
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4437,10 +4437,10 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A137" sqref="A137"/>
-      <selection pane="topRight" activeCell="A24" sqref="A24"/>
+      <selection pane="topRight" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="2"/>
@@ -4514,7 +4514,7 @@
       <c r="A5" s="72"/>
       <c r="B5" s="170"/>
       <c r="C5" s="178"/>
-      <c r="D5" s="203" t="s">
+      <c r="D5" s="186" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="208"/>
@@ -4525,7 +4525,7 @@
       </c>
       <c r="I5" s="211"/>
       <c r="J5" s="212"/>
-      <c r="K5" s="196" t="s">
+      <c r="K5" s="203" t="s">
         <v>159</v>
       </c>
       <c r="L5" s="213"/>
@@ -4538,7 +4538,7 @@
     <row r="6" spans="1:20" ht="21.75" customHeight="1">
       <c r="A6" s="71"/>
       <c r="B6" s="182" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C6" s="183" t="s">
         <v>193</v>
@@ -5166,7 +5166,7 @@
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="130" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B17" s="131"/>
       <c r="C17" s="131"/>
@@ -5229,7 +5229,7 @@
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
       <c r="A18" s="78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="171"/>
       <c r="C18" s="179"/>
@@ -5292,7 +5292,7 @@
     </row>
     <row r="19" spans="1:17" outlineLevel="2">
       <c r="A19" s="77" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B19" s="135">
         <v>24</v>
@@ -5485,7 +5485,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="180" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D22" s="43">
         <v>40297</v>
@@ -5544,7 +5544,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="180" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D23" s="43">
         <v>40298</v>
@@ -5913,7 +5913,7 @@
     </row>
     <row r="30" spans="1:17" outlineLevel="2">
       <c r="A30" s="77" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B30" s="135"/>
       <c r="C30" s="135"/>
@@ -6233,7 +6233,7 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B36" s="131"/>
       <c r="C36" s="131"/>
@@ -6862,7 +6862,7 @@
         <v>216</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E5" s="119">
         <v>272</v>
@@ -7042,7 +7042,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="143" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="141"/>
     </row>

--- a/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
+++ b/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="6" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="260">
   <si>
     <t>Classificação Padrão de Produtos e Serviços</t>
   </si>
@@ -1419,6 +1419,9 @@
   </si>
   <si>
     <t>Diagrama de colaboração/Sequência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acompanhamento </t>
   </si>
 </sst>
 </file>
@@ -2323,6 +2326,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2345,12 +2354,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2581,11 +2584,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="78606720"/>
-        <c:axId val="78608256"/>
+        <c:axId val="57401728"/>
+        <c:axId val="57403264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78606720"/>
+        <c:axId val="57401728"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2617,7 +2620,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78608256"/>
+        <c:crossAx val="57403264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2625,7 +2628,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78608256"/>
+        <c:axId val="57403264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2667,7 +2670,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78606720"/>
+        <c:crossAx val="57401728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -2713,7 +2716,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000354" footer="0.49212598500000354"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000365" footer="0.49212598500000365"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2751,7 +2754,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31531602468610342"/>
-          <c:y val="3.2418952618454205E-2"/>
+          <c:y val="3.2418952618454212E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2768,9 +2771,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11261286030066738"/>
-          <c:y val="0.14962593516209644"/>
-          <c:w val="0.65090233253786289"/>
-          <c:h val="0.73815461346633926"/>
+          <c:y val="0.14962593516209646"/>
+          <c:w val="0.650902332537863"/>
+          <c:h val="0.73815461346633948"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2927,11 +2930,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78637696"/>
-        <c:axId val="78140160"/>
+        <c:axId val="57813632"/>
+        <c:axId val="57836288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="78637696"/>
+        <c:axId val="57813632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,7 +2966,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78140160"/>
+        <c:crossAx val="57836288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2971,7 +2974,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="78140160"/>
+        <c:axId val="57836288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3014,7 +3017,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78637696"/>
+        <c:crossAx val="57813632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3037,9 +3040,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7972972972972977"/>
-          <c:y val="0.46882793017456653"/>
+          <c:y val="0.46882793017456664"/>
           <c:w val="0.17792792792792791"/>
-          <c:h val="0.10972568578553761"/>
+          <c:h val="0.10972568578553765"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3104,7 +3107,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000354" footer="0.49212598500000354"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000365" footer="0.49212598500000365"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3641,7 +3644,7 @@
       <c r="I2" s="163"/>
       <c r="J2" s="126">
         <f>Parâmetros!B6</f>
-        <v>40317</v>
+        <v>40319</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="6" customHeight="1" thickTop="1"/>
@@ -3652,16 +3655,16 @@
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
     <row r="6" spans="1:11" s="137" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="184"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
       <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:11" s="137" customFormat="1" ht="6" customHeight="1">
@@ -3817,7 +3820,7 @@
       <c r="B21" s="105"/>
       <c r="C21" s="92">
         <f>Planejamento!I8</f>
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="K21" s="62"/>
     </row>
@@ -3828,7 +3831,7 @@
       <c r="B22" s="105"/>
       <c r="C22" s="92">
         <f>Planejamento!J8</f>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="K22" s="98"/>
     </row>
@@ -3880,11 +3883,11 @@
       <c r="B26" s="196" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="188"/>
+      <c r="C26" s="190"/>
       <c r="D26" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="188"/>
+      <c r="E26" s="190"/>
       <c r="F26" s="89"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
@@ -4022,18 +4025,18 @@
       <c r="B41" s="206" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="186" t="s">
+      <c r="C41" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="189" t="s">
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="191"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="193"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1">
       <c r="A42" s="85" t="s">
@@ -4096,15 +4099,15 @@
       </c>
       <c r="H43" s="173">
         <f ca="1">Planejamento!I9</f>
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="I43" s="173">
         <f>Planejamento!J9</f>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="J43" s="173">
         <f>Planejamento!K9</f>
-        <v>51.5</v>
+        <v>57.5</v>
       </c>
       <c r="K43" s="107">
         <f>+D43-C43</f>
@@ -4214,11 +4217,11 @@
         <f t="shared" ref="H49" si="5">+IF(C49&lt;&gt;0,D49/C49,0)</f>
         <v>1.9285714285714286</v>
       </c>
-      <c r="I49" s="192">
+      <c r="I49" s="184">
         <f>IF(H49&lt;&gt;0,C49+(VLOOKUP(A49,'Histórico de Versões'!A5:E72,5)-D49)/H49,"")</f>
         <v>141.03703703703704</v>
       </c>
-      <c r="J49" s="193"/>
+      <c r="J49" s="185"/>
     </row>
     <row r="50" spans="1:10" ht="12">
       <c r="A50" s="142">
@@ -4249,11 +4252,11 @@
         <f t="shared" ref="H50:H55" si="7">+IF(C50&lt;&gt;0,D50/C50,0)</f>
         <v>1.9433962264150944</v>
       </c>
-      <c r="I50" s="192">
+      <c r="I50" s="184">
         <f>IF(H50&lt;&gt;0,C50+(VLOOKUP(A50,'Histórico de Versões'!A6:E73,5)-D50)/H50,"")</f>
         <v>139.96116504854371</v>
       </c>
-      <c r="J50" s="193"/>
+      <c r="J50" s="185"/>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="106"/>
@@ -4276,11 +4279,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I51" s="192" t="str">
+      <c r="I51" s="184" t="str">
         <f>IF(H51&lt;&gt;0,C51+(VLOOKUP(A51,'Histórico de Versões'!A7:E74,5)-D51)/H51,"")</f>
         <v/>
       </c>
-      <c r="J51" s="193"/>
+      <c r="J51" s="185"/>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="106"/>
@@ -4303,11 +4306,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I52" s="192" t="str">
+      <c r="I52" s="184" t="str">
         <f>IF(H52&lt;&gt;0,C52+(VLOOKUP(A52,'Histórico de Versões'!A8:E75,5)-D52)/H52,"")</f>
         <v/>
       </c>
-      <c r="J52" s="193"/>
+      <c r="J52" s="185"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="106"/>
@@ -4330,11 +4333,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I53" s="192" t="str">
+      <c r="I53" s="184" t="str">
         <f>IF(H53&lt;&gt;0,C53+(VLOOKUP(A53,'Histórico de Versões'!A9:E76,5)-D53)/H53,"")</f>
         <v/>
       </c>
-      <c r="J53" s="193"/>
+      <c r="J53" s="185"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="106"/>
@@ -4357,11 +4360,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="192" t="str">
+      <c r="I54" s="184" t="str">
         <f>IF(H54&lt;&gt;0,C54+(VLOOKUP(A54,'Histórico de Versões'!A10:E77,5)-D54)/H54,"")</f>
         <v/>
       </c>
-      <c r="J54" s="193"/>
+      <c r="J54" s="185"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="106"/>
@@ -4384,11 +4387,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I55" s="192" t="str">
+      <c r="I55" s="184" t="str">
         <f>IF(H55&lt;&gt;0,C55+(VLOOKUP(A55,'Histórico de Versões'!A11:E78,5)-D55)/H55,"")</f>
         <v/>
       </c>
-      <c r="J55" s="193"/>
+      <c r="J55" s="185"/>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="90"/>
@@ -4403,6 +4406,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="C41:F41"/>
@@ -4419,7 +4423,6 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4437,10 +4440,10 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A137" sqref="A137"/>
-      <selection pane="topRight" activeCell="A31" sqref="A31"/>
+      <selection pane="topRight" activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="2"/>
@@ -4503,7 +4506,7 @@
       <c r="S2" s="146"/>
       <c r="T2" s="95" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
-        <v>Data Base: 19/05/2010</v>
+        <v>Data Base: 21/05/2010</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1" thickTop="1">
@@ -4514,7 +4517,7 @@
       <c r="A5" s="72"/>
       <c r="B5" s="170"/>
       <c r="C5" s="178"/>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="188" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="208"/>
@@ -4632,19 +4635,19 @@
       </c>
       <c r="I8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",I9:I42)</f>
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="J8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",J9:J42)</f>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="K8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",K9:K42)</f>
-        <v>51.5</v>
+        <v>57.5</v>
       </c>
       <c r="L8" s="150">
         <f>+K8-I8</f>
-        <v>-190.5</v>
+        <v>-214.5</v>
       </c>
       <c r="M8" s="149">
         <f>+K8-J8</f>
@@ -4652,11 +4655,11 @@
       </c>
       <c r="N8" s="157">
         <f>+IF(I8&lt;&gt;0,K8/I8,0)</f>
-        <v>0.21280991735537191</v>
+        <v>0.21139705882352941</v>
       </c>
       <c r="O8" s="157">
         <f>+IF(J8&lt;&gt;0,K8/J8,0)</f>
-        <v>1.9433962264150944</v>
+        <v>1.7692307692307692</v>
       </c>
       <c r="P8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",P9:P42)</f>
@@ -4664,7 +4667,7 @@
       </c>
       <c r="Q8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",Q9:Q42)</f>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="R8" s="155"/>
       <c r="S8" s="155"/>
@@ -4697,19 +4700,19 @@
       </c>
       <c r="I9" s="149">
         <f ca="1">SUMIF($B10:$B42,"&gt;0",I10:I15)</f>
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="J9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",J10:J42)</f>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
       <c r="K9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",K10:K42)</f>
-        <v>51.5</v>
+        <v>57.5</v>
       </c>
       <c r="L9" s="150">
         <f ca="1">+K9-I9</f>
-        <v>-190.5</v>
+        <v>-214.5</v>
       </c>
       <c r="M9" s="149">
         <f>+K9-J9</f>
@@ -4717,11 +4720,11 @@
       </c>
       <c r="N9" s="157">
         <f ca="1">+IF(I9&lt;&gt;0,K9/I9,0)</f>
-        <v>0.21280991735537191</v>
+        <v>0.21139705882352941</v>
       </c>
       <c r="O9" s="157">
         <f>+IF(J9&lt;&gt;0,K9/J9,0)</f>
-        <v>1.9433962264150944</v>
+        <v>1.7692307692307692</v>
       </c>
       <c r="P9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",P10:P42)</f>
@@ -4729,7 +4732,7 @@
       </c>
       <c r="Q9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",Q10:Q42)</f>
-        <v>26.5</v>
+        <v>32.5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1">
@@ -5224,7 +5227,7 @@
       </c>
       <c r="Q17" s="151">
         <f>SUMIF($B18:$B22,"&gt;0",Q18:Q22)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
@@ -5287,7 +5290,7 @@
       </c>
       <c r="Q18" s="153">
         <f>SUMIF($B19:$B22,"&gt;0",Q19:Q22)</f>
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:17" outlineLevel="2">
@@ -5381,15 +5384,15 @@
       </c>
       <c r="J20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",J21:J35)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",K21:K35)</f>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L20" s="152">
         <f>+K20-I20</f>
-        <v>-120</v>
+        <v>-114</v>
       </c>
       <c r="M20" s="151">
         <f>+K20-J20</f>
@@ -5397,11 +5400,11 @@
       </c>
       <c r="N20" s="158">
         <f>+IF(I20&lt;&gt;0,K20/I20,0)</f>
-        <v>1.6393442622950821E-2</v>
+        <v>6.5573770491803282E-2</v>
       </c>
       <c r="O20" s="158">
         <f>+IF(J20&lt;&gt;0,K20/J20,0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",P21:P35)</f>
@@ -5409,7 +5412,7 @@
       </c>
       <c r="Q20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",Q21:Q35)</f>
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
@@ -5446,15 +5449,15 @@
       </c>
       <c r="J21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",J22:J35)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",K22:K35)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L21" s="153">
         <f>+K21-I21</f>
-        <v>-60</v>
+        <v>-57</v>
       </c>
       <c r="M21" s="153">
         <f>+K21-J21</f>
@@ -5462,11 +5465,11 @@
       </c>
       <c r="N21" s="159">
         <f>+IF(I21&lt;&gt;0,K21/I21,0)</f>
-        <v>1.6393442622950821E-2</v>
+        <v>6.5573770491803282E-2</v>
       </c>
       <c r="O21" s="159">
         <f>+IF(J21&lt;&gt;0,K21/J21,0)</f>
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="P21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",P22:P35)</f>
@@ -5474,7 +5477,7 @@
       </c>
       <c r="Q21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",Q22:Q35)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17" outlineLevel="2">
@@ -5652,7 +5655,9 @@
       <c r="E25" s="43">
         <v>40303</v>
       </c>
-      <c r="F25" s="43"/>
+      <c r="F25" s="43">
+        <v>40317</v>
+      </c>
       <c r="G25" s="43"/>
       <c r="H25" s="154">
         <v>3</v>
@@ -5662,21 +5667,21 @@
         <v>3</v>
       </c>
       <c r="J25" s="113"/>
-      <c r="K25" s="113" t="str">
+      <c r="K25" s="113">
         <f>+IF(AND(F25&lt;&gt;"",H25&lt;&gt;""),IF(F25&lt;=Parâmetros!$B$6,IF(G25="",H25/2,IF(G25&gt;Parâmetros!$B$6,H25/2,H25)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L25" s="113" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="L25" s="113">
         <f t="shared" si="2"/>
-        <v/>
+        <v>-1.5</v>
       </c>
       <c r="M25" s="113" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N25" s="160" t="str">
+      <c r="N25" s="160">
         <f t="shared" si="4"/>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="O25" s="172" t="str">
         <f t="shared" si="5"/>
@@ -5872,7 +5877,9 @@
       <c r="E29" s="43">
         <v>40304</v>
       </c>
-      <c r="F29" s="43"/>
+      <c r="F29" s="43">
+        <v>40317</v>
+      </c>
       <c r="G29" s="43"/>
       <c r="H29" s="154">
         <v>3</v>
@@ -5881,26 +5888,28 @@
         <f>+IF(AND(D29&lt;&gt;"",E29&lt;&gt;"",H29&lt;&gt;""),IF(D29&lt;Parâmetros!$B$6,IF(E29&gt;Parâmetros!$B$6,H29/2,H29),0),"")</f>
         <v>3</v>
       </c>
-      <c r="J29" s="113"/>
-      <c r="K29" s="113" t="str">
+      <c r="J29" s="113">
+        <v>3</v>
+      </c>
+      <c r="K29" s="113">
         <f>+IF(AND(F29&lt;&gt;"",H29&lt;&gt;""),IF(F29&lt;=Parâmetros!$B$6,IF(G29="",H29/2,IF(G29&gt;Parâmetros!$B$6,H29/2,H29)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L29" s="113" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="L29" s="113">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M29" s="113" t="str">
+        <v>-1.5</v>
+      </c>
+      <c r="M29" s="113">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N29" s="160" t="str">
+        <v>-1.5</v>
+      </c>
+      <c r="N29" s="160">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O29" s="172" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="O29" s="172">
         <f t="shared" si="5"/>
-        <v/>
+        <v>0.5</v>
       </c>
       <c r="P29" s="113">
         <f t="shared" si="6"/>
@@ -5908,7 +5917,7 @@
       </c>
       <c r="Q29" s="113">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:17" outlineLevel="2">
@@ -6259,7 +6268,7 @@
       </c>
       <c r="I36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",I37:I42)</f>
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="J36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",J37:J42)</f>
@@ -6271,7 +6280,7 @@
       </c>
       <c r="L36" s="152">
         <f>+K36-I36</f>
-        <v>-57</v>
+        <v>-87</v>
       </c>
       <c r="M36" s="151">
         <f>+K36-J36</f>
@@ -6435,7 +6444,7 @@
       </c>
       <c r="I39" s="113">
         <f>+IF(AND(D39&lt;&gt;"",E39&lt;&gt;"",H39&lt;&gt;""),IF(D39&lt;Parâmetros!$B$6,IF(E39&gt;Parâmetros!$B$6,H39/2,H39),0),"")</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="J39" s="113"/>
       <c r="K39" s="113" t="str">
@@ -6490,7 +6499,7 @@
       </c>
       <c r="I40" s="113">
         <f>+IF(AND(D40&lt;&gt;"",E40&lt;&gt;"",H40&lt;&gt;""),IF(D40&lt;Parâmetros!$B$6,IF(E40&gt;Parâmetros!$B$6,H40/2,H40),0),"")</f>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="J40" s="113"/>
       <c r="K40" s="113" t="str">
@@ -6545,7 +6554,7 @@
       </c>
       <c r="I41" s="113">
         <f>+IF(AND(D41&lt;&gt;"",E41&lt;&gt;"",H41&lt;&gt;""),IF(D41&lt;Parâmetros!$B$6,IF(E41&gt;Parâmetros!$B$6,H41/2,H41),0),"")</f>
-        <v>13.5</v>
+        <v>27</v>
       </c>
       <c r="J41" s="113"/>
       <c r="K41" s="113" t="str">
@@ -6769,7 +6778,7 @@
     <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C35 C21:C29 C38:C42 C19 C12:C16">
       <formula1>Recursos</formula1>
     </dataValidation>
@@ -6791,8 +6800,8 @@
   <sheetPr codeName="Plan6"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6825,7 +6834,7 @@
       <c r="D2" s="95"/>
       <c r="E2" s="95" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
-        <v>Data Base: 19/05/2010</v>
+        <v>Data Base: 21/05/2010</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="100"/>
@@ -6876,7 +6885,9 @@
       <c r="C6" s="116" t="s">
         <v>216</v>
       </c>
-      <c r="D6" s="117"/>
+      <c r="D6" s="117" t="s">
+        <v>259</v>
+      </c>
       <c r="E6" s="119">
         <v>272</v>
       </c>
@@ -7007,7 +7018,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="142">
-        <v>40317</v>
+        <v>40319</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
+++ b/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="6" r:id="rId1"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="260">
   <si>
     <t>Classificação Padrão de Produtos e Serviços</t>
   </si>
@@ -2332,33 +2332,14 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2384,6 +2365,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2584,11 +2584,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="57401728"/>
-        <c:axId val="57403264"/>
+        <c:axId val="59044224"/>
+        <c:axId val="59045760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57401728"/>
+        <c:axId val="59044224"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2620,7 +2620,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57403264"/>
+        <c:crossAx val="59045760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2628,7 +2628,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="57403264"/>
+        <c:axId val="59045760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2670,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57401728"/>
+        <c:crossAx val="59044224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -2716,7 +2716,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000365" footer="0.49212598500000365"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000387" footer="0.49212598500000387"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2754,7 +2754,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31531602468610342"/>
-          <c:y val="3.2418952618454212E-2"/>
+          <c:y val="3.2418952618454226E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2771,9 +2771,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11261286030066738"/>
-          <c:y val="0.14962593516209646"/>
-          <c:w val="0.650902332537863"/>
-          <c:h val="0.73815461346633948"/>
+          <c:y val="0.14962593516209652"/>
+          <c:w val="0.65090233253786323"/>
+          <c:h val="0.73815461346633982"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2807,6 +2807,9 @@
                 <c:pt idx="1">
                   <c:v>40317</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>40327</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2821,6 +2824,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2855,6 +2861,9 @@
                 <c:pt idx="1">
                   <c:v>40317</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>40327</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2869,6 +2878,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>26.5</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>50.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2910,6 +2922,9 @@
                 <c:pt idx="1">
                   <c:v>40317</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>40327</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2925,16 +2940,19 @@
                 <c:pt idx="1">
                   <c:v>51.5</c:v>
                 </c:pt>
+                <c:pt idx="2" formatCode="#,##0">
+                  <c:v>85</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="57813632"/>
-        <c:axId val="57836288"/>
+        <c:axId val="59189888"/>
+        <c:axId val="59212544"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="57813632"/>
+        <c:axId val="59189888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2966,7 +2984,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57836288"/>
+        <c:crossAx val="59212544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2974,7 +2992,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="57836288"/>
+        <c:axId val="59212544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3017,7 +3035,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57813632"/>
+        <c:crossAx val="59189888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3040,9 +3058,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7972972972972977"/>
-          <c:y val="0.46882793017456664"/>
+          <c:y val="0.46882793017456686"/>
           <c:w val="0.17792792792792791"/>
-          <c:h val="0.10972568578553765"/>
+          <c:h val="0.10972568578553772"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3107,7 +3125,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000365" footer="0.49212598500000365"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000387" footer="0.49212598500000387"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3598,8 +3616,8 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51:J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3644,7 +3662,7 @@
       <c r="I2" s="163"/>
       <c r="J2" s="126">
         <f>Parâmetros!B6</f>
-        <v>40319</v>
+        <v>40327</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="6" customHeight="1" thickTop="1"/>
@@ -3655,16 +3673,16 @@
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
     <row r="6" spans="1:11" s="137" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="186"/>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
+      <c r="A6" s="201"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
+      <c r="I6" s="202"/>
+      <c r="J6" s="202"/>
       <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:11" s="137" customFormat="1" ht="6" customHeight="1">
@@ -3702,7 +3720,7 @@
       <c r="B11" s="74"/>
       <c r="C11" s="118">
         <f>IF(Planejamento!H8&lt;&gt;0,VLOOKUP(Parâmetros!B6,A49:I139,4)/Planejamento!H8,0)</f>
-        <v>0.18933823529411764</v>
+        <v>0.3125</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="100"/>
@@ -3791,7 +3809,7 @@
       <c r="B18" s="105"/>
       <c r="C18" s="94">
         <f ca="1">WORKDAY(TODAY(),(C23-C22)/(Parâmetros!B5*2),Parâmetros!$B$8:$B$10)</f>
-        <v>40343</v>
+        <v>40352</v>
       </c>
       <c r="K18" s="62"/>
     </row>
@@ -3831,7 +3849,7 @@
       <c r="B22" s="105"/>
       <c r="C22" s="92">
         <f>Planejamento!J8</f>
-        <v>32.5</v>
+        <v>50.5</v>
       </c>
       <c r="K22" s="98"/>
     </row>
@@ -3842,7 +3860,7 @@
       <c r="B23" s="105"/>
       <c r="C23" s="92">
         <f>VLOOKUP(Parâmetros!B6,A49:I136,9)</f>
-        <v>139.96116504854371</v>
+        <v>161.60000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3877,17 +3895,17 @@
       <c r="K25" s="90"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="197" t="s">
+      <c r="A26" s="190" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="196" t="s">
+      <c r="B26" s="188" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="190"/>
-      <c r="D26" s="196" t="s">
+      <c r="C26" s="189"/>
+      <c r="D26" s="188" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="190"/>
+      <c r="E26" s="189"/>
       <c r="F26" s="89"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
@@ -3896,7 +3914,7 @@
       <c r="K26" s="90"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="198"/>
+      <c r="A27" s="191"/>
       <c r="B27" s="164" t="s">
         <v>230</v>
       </c>
@@ -4022,27 +4040,27 @@
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="A41" s="72"/>
-      <c r="B41" s="206" t="s">
+      <c r="B41" s="199" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="188" t="s">
+      <c r="C41" s="203" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="191" t="s">
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="205" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="193"/>
+      <c r="H41" s="206"/>
+      <c r="I41" s="206"/>
+      <c r="J41" s="207"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1">
       <c r="A42" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="207"/>
+      <c r="B42" s="200"/>
       <c r="C42" s="86" t="s">
         <v>187</v>
       </c>
@@ -4103,11 +4121,11 @@
       </c>
       <c r="I43" s="173">
         <f>Planejamento!J9</f>
-        <v>32.5</v>
+        <v>50.5</v>
       </c>
       <c r="J43" s="173">
         <f>Planejamento!K9</f>
-        <v>57.5</v>
+        <v>85</v>
       </c>
       <c r="K43" s="107">
         <f>+D43-C43</f>
@@ -4148,19 +4166,19 @@
       <c r="A47" s="83"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="186" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="203" t="s">
+      <c r="E47" s="196" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="204"/>
-      <c r="G47" s="204"/>
-      <c r="H47" s="205"/>
-      <c r="I47" s="199" t="s">
+      <c r="F47" s="197"/>
+      <c r="G47" s="197"/>
+      <c r="H47" s="198"/>
+      <c r="I47" s="192" t="s">
         <v>184</v>
       </c>
-      <c r="J47" s="200"/>
+      <c r="J47" s="193"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1">
       <c r="A48" s="84" t="s">
@@ -4172,7 +4190,7 @@
       <c r="C48" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="195"/>
+      <c r="D48" s="187"/>
       <c r="E48" s="69" t="s">
         <v>155</v>
       </c>
@@ -4185,8 +4203,8 @@
       <c r="H48" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="201"/>
-      <c r="J48" s="202"/>
+      <c r="I48" s="194"/>
+      <c r="J48" s="195"/>
     </row>
     <row r="49" spans="1:10" ht="12">
       <c r="A49" s="142">
@@ -4258,30 +4276,38 @@
       </c>
       <c r="J50" s="185"/>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="106"/>
-      <c r="B51" s="129"/>
-      <c r="C51" s="129"/>
-      <c r="D51" s="129"/>
+    <row r="51" spans="1:10" ht="12">
+      <c r="A51" s="142">
+        <v>40327</v>
+      </c>
+      <c r="B51" s="129">
+        <v>272</v>
+      </c>
+      <c r="C51" s="129">
+        <v>50.5</v>
+      </c>
+      <c r="D51" s="129">
+        <v>85</v>
+      </c>
       <c r="E51" s="113">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-187</v>
       </c>
       <c r="F51" s="113">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>34.5</v>
       </c>
       <c r="G51" s="65">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.3125</v>
       </c>
       <c r="H51" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I51" s="184" t="str">
+        <v>1.6831683168316831</v>
+      </c>
+      <c r="I51" s="184">
         <f>IF(H51&lt;&gt;0,C51+(VLOOKUP(A51,'Histórico de Versões'!A7:E74,5)-D51)/H51,"")</f>
-        <v/>
+        <v>161.60000000000002</v>
       </c>
       <c r="J51" s="185"/>
     </row>
@@ -4406,8 +4432,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:J41"/>
@@ -4423,6 +4447,8 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I54:J54"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4440,10 +4466,10 @@
   </sheetPr>
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A137" sqref="A137"/>
-      <selection pane="topRight" activeCell="A42" sqref="A42"/>
+      <selection pane="topRight" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="2"/>
@@ -4506,7 +4532,7 @@
       <c r="S2" s="146"/>
       <c r="T2" s="95" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
-        <v>Data Base: 21/05/2010</v>
+        <v>Data Base: 29/05/2010</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1" thickTop="1">
@@ -4517,7 +4543,7 @@
       <c r="A5" s="72"/>
       <c r="B5" s="170"/>
       <c r="C5" s="178"/>
-      <c r="D5" s="188" t="s">
+      <c r="D5" s="203" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="208"/>
@@ -4528,7 +4554,7 @@
       </c>
       <c r="I5" s="211"/>
       <c r="J5" s="212"/>
-      <c r="K5" s="203" t="s">
+      <c r="K5" s="196" t="s">
         <v>159</v>
       </c>
       <c r="L5" s="213"/>
@@ -4639,27 +4665,27 @@
       </c>
       <c r="J8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",J9:J42)</f>
-        <v>32.5</v>
+        <v>50.5</v>
       </c>
       <c r="K8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",K9:K42)</f>
-        <v>57.5</v>
+        <v>85</v>
       </c>
       <c r="L8" s="150">
         <f>+K8-I8</f>
-        <v>-214.5</v>
+        <v>-187</v>
       </c>
       <c r="M8" s="149">
         <f>+K8-J8</f>
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="N8" s="157">
         <f>+IF(I8&lt;&gt;0,K8/I8,0)</f>
-        <v>0.21139705882352941</v>
+        <v>0.3125</v>
       </c>
       <c r="O8" s="157">
         <f>+IF(J8&lt;&gt;0,K8/J8,0)</f>
-        <v>1.7692307692307692</v>
+        <v>1.6831683168316831</v>
       </c>
       <c r="P8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",P9:P42)</f>
@@ -4667,7 +4693,7 @@
       </c>
       <c r="Q8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",Q9:Q42)</f>
-        <v>32.5</v>
+        <v>50.5</v>
       </c>
       <c r="R8" s="155"/>
       <c r="S8" s="155"/>
@@ -4704,27 +4730,27 @@
       </c>
       <c r="J9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",J10:J42)</f>
-        <v>32.5</v>
+        <v>50.5</v>
       </c>
       <c r="K9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",K10:K42)</f>
-        <v>57.5</v>
+        <v>85</v>
       </c>
       <c r="L9" s="150">
         <f ca="1">+K9-I9</f>
-        <v>-214.5</v>
+        <v>-187</v>
       </c>
       <c r="M9" s="149">
         <f>+K9-J9</f>
-        <v>25</v>
+        <v>34.5</v>
       </c>
       <c r="N9" s="157">
         <f ca="1">+IF(I9&lt;&gt;0,K9/I9,0)</f>
-        <v>0.21139705882352941</v>
+        <v>0.3125</v>
       </c>
       <c r="O9" s="157">
         <f>+IF(J9&lt;&gt;0,K9/J9,0)</f>
-        <v>1.7692307692307692</v>
+        <v>1.6831683168316831</v>
       </c>
       <c r="P9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",P10:P42)</f>
@@ -4732,7 +4758,7 @@
       </c>
       <c r="Q9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",Q10:Q42)</f>
-        <v>32.5</v>
+        <v>50.5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1">
@@ -5227,7 +5253,7 @@
       </c>
       <c r="Q17" s="151">
         <f>SUMIF($B18:$B22,"&gt;0",Q18:Q22)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
@@ -5290,7 +5316,7 @@
       </c>
       <c r="Q18" s="153">
         <f>SUMIF($B19:$B22,"&gt;0",Q19:Q22)</f>
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:17" outlineLevel="2">
@@ -5384,27 +5410,27 @@
       </c>
       <c r="J20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",J21:J35)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="K20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",K21:K35)</f>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="L20" s="152">
         <f>+K20-I20</f>
-        <v>-114</v>
+        <v>-94</v>
       </c>
       <c r="M20" s="151">
         <f>+K20-J20</f>
-        <v>-2</v>
+        <v>6</v>
       </c>
       <c r="N20" s="158">
         <f>+IF(I20&lt;&gt;0,K20/I20,0)</f>
-        <v>6.5573770491803282E-2</v>
+        <v>0.22950819672131148</v>
       </c>
       <c r="O20" s="158">
         <f>+IF(J20&lt;&gt;0,K20/J20,0)</f>
-        <v>0.8</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="P20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",P21:P35)</f>
@@ -5412,7 +5438,7 @@
       </c>
       <c r="Q20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",Q21:Q35)</f>
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
@@ -5449,27 +5475,27 @@
       </c>
       <c r="J21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",J22:J35)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",K22:K35)</f>
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="L21" s="153">
         <f>+K21-I21</f>
-        <v>-57</v>
+        <v>-47</v>
       </c>
       <c r="M21" s="153">
         <f>+K21-J21</f>
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="N21" s="159">
         <f>+IF(I21&lt;&gt;0,K21/I21,0)</f>
-        <v>6.5573770491803282E-2</v>
+        <v>0.22950819672131148</v>
       </c>
       <c r="O21" s="159">
         <f>+IF(J21&lt;&gt;0,K21/J21,0)</f>
-        <v>0.8</v>
+        <v>1.2727272727272727</v>
       </c>
       <c r="P21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",P22:P35)</f>
@@ -5477,7 +5503,7 @@
       </c>
       <c r="Q21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",Q22:Q35)</f>
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:17" outlineLevel="2">
@@ -5499,7 +5525,9 @@
       <c r="F22" s="43">
         <v>40299</v>
       </c>
-      <c r="G22" s="43"/>
+      <c r="G22" s="43">
+        <v>40326</v>
+      </c>
       <c r="H22" s="154">
         <v>2</v>
       </c>
@@ -5511,24 +5539,23 @@
         <v>2</v>
       </c>
       <c r="K22" s="113">
-        <f>+IF(AND(F22&lt;&gt;"",H22&lt;&gt;""),IF(F22&lt;=Parâmetros!$B$6,IF(G22="",H22/2,IF(G22&gt;Parâmetros!$B$6,H22/2,H22)),0),"")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22" s="113">
         <f t="shared" ref="L22:L35" si="2">IF(AND(A22&gt;0,K22&lt;&gt;"",I22&lt;&gt;""),+K22-I22,"")</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M22" s="113">
         <f t="shared" ref="M22:M35" si="3">IF(AND(A22&gt;0,K22&lt;&gt;"",J22&lt;&gt;""),K22-J22,"")</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="N22" s="160">
         <f t="shared" ref="N22:N35" si="4">+IF(AND(A22&gt;0,I22&lt;&gt;0,I22&lt;&gt;"",K22&lt;&gt;""),K22/I22,"")</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="O22" s="172">
         <f t="shared" ref="O22:O35" si="5">+IF(AND(A22&gt;0,K22&lt;&gt;"",J22&lt;&gt;0,J22&lt;&gt;""),K22/J22,"")</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="P22" s="113">
         <f t="shared" ref="P22:P35" si="6">H22</f>
@@ -5555,7 +5582,9 @@
       <c r="E23" s="43">
         <v>40302</v>
       </c>
-      <c r="F23" s="43"/>
+      <c r="F23" s="43">
+        <v>40299</v>
+      </c>
       <c r="G23" s="43"/>
       <c r="H23" s="154">
         <v>5</v>
@@ -5565,21 +5594,20 @@
         <v>5</v>
       </c>
       <c r="J23" s="113"/>
-      <c r="K23" s="113" t="str">
-        <f>+IF(AND(F23&lt;&gt;"",H23&lt;&gt;""),IF(F23&lt;=Parâmetros!$B$6,IF(G23="",H23/2,IF(G23&gt;Parâmetros!$B$6,H23/2,H23)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L23" s="113" t="str">
+      <c r="K23" s="113">
+        <v>5</v>
+      </c>
+      <c r="L23" s="113">
         <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="M23" s="113" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N23" s="160" t="str">
+      <c r="N23" s="160">
         <f t="shared" si="4"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="O23" s="172" t="str">
         <f t="shared" si="5"/>
@@ -5889,7 +5917,7 @@
         <v>3</v>
       </c>
       <c r="J29" s="113">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K29" s="113">
         <f>+IF(AND(F29&lt;&gt;"",H29&lt;&gt;""),IF(F29&lt;=Parâmetros!$B$6,IF(G29="",H29/2,IF(G29&gt;Parâmetros!$B$6,H29/2,H29)),0),"")</f>
@@ -5901,7 +5929,7 @@
       </c>
       <c r="M29" s="113">
         <f t="shared" si="3"/>
-        <v>-1.5</v>
+        <v>-4.5</v>
       </c>
       <c r="N29" s="160">
         <f t="shared" si="4"/>
@@ -5909,7 +5937,7 @@
       </c>
       <c r="O29" s="172">
         <f t="shared" si="5"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="P29" s="113">
         <f t="shared" si="6"/>
@@ -5917,7 +5945,7 @@
       </c>
       <c r="Q29" s="113">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17" outlineLevel="2">
@@ -6201,7 +6229,9 @@
       <c r="E35" s="43">
         <v>40308</v>
       </c>
-      <c r="F35" s="43"/>
+      <c r="F35" s="43">
+        <v>40317</v>
+      </c>
       <c r="G35" s="43"/>
       <c r="H35" s="154">
         <v>6</v>
@@ -6210,26 +6240,28 @@
         <f>+IF(AND(D35&lt;&gt;"",E35&lt;&gt;"",H35&lt;&gt;""),IF(D35&lt;Parâmetros!$B$6,IF(E35&gt;Parâmetros!$B$6,H35/2,H35),0),"")</f>
         <v>6</v>
       </c>
-      <c r="J35" s="113"/>
-      <c r="K35" s="113" t="str">
+      <c r="J35" s="113">
+        <v>3</v>
+      </c>
+      <c r="K35" s="113">
         <f>+IF(AND(F35&lt;&gt;"",H35&lt;&gt;""),IF(F35&lt;=Parâmetros!$B$6,IF(G35="",H35/2,IF(G35&gt;Parâmetros!$B$6,H35/2,H35)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L35" s="113" t="str">
+        <v>3</v>
+      </c>
+      <c r="L35" s="113">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="M35" s="113" t="str">
+        <v>-3</v>
+      </c>
+      <c r="M35" s="113">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="N35" s="160" t="str">
+        <v>0</v>
+      </c>
+      <c r="N35" s="160">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="O35" s="172" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="O35" s="172">
         <f t="shared" si="5"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="P35" s="113">
         <f t="shared" si="6"/>
@@ -6237,7 +6269,7 @@
       </c>
       <c r="Q35" s="113">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1">
@@ -6272,27 +6304,27 @@
       </c>
       <c r="J36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",J37:J42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",K37:K42)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L36" s="152">
         <f>+K36-I36</f>
-        <v>-87</v>
+        <v>-79.5</v>
       </c>
       <c r="M36" s="151">
         <f>+K36-J36</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N36" s="158">
         <f>+IF(I36&lt;&gt;0,K36/I36,0)</f>
-        <v>0</v>
+        <v>8.6206896551724144E-2</v>
       </c>
       <c r="O36" s="158">
         <f>+IF(J36&lt;&gt;0,K36/J36,0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P36" s="151" t="e">
         <f>SUMIF(#REF!,"&gt;0",P37:P38)</f>
@@ -6300,7 +6332,7 @@
       </c>
       <c r="Q36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",Q37:Q42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="22.5" outlineLevel="1">
@@ -6335,19 +6367,19 @@
       </c>
       <c r="J37" s="153">
         <f>SUMIF($B38:$B42,"&gt;0",J38:J42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K37" s="153">
         <f>SUMIF($B38:$B42,"&gt;0",K38:K42)</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="L37" s="153">
         <f>+K37-I37</f>
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="M37" s="153">
         <f>+K37-J37</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="N37" s="159">
         <f>+IF(I37&lt;&gt;0,K37/I37,0)</f>
@@ -6355,7 +6387,7 @@
       </c>
       <c r="O37" s="159">
         <f>+IF(J37&lt;&gt;0,K37/J37,0)</f>
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P37" s="153">
         <f>SUMIF($B38:$B42,"&gt;0",P38:P42)</f>
@@ -6363,7 +6395,7 @@
       </c>
       <c r="Q37" s="153">
         <f>SUMIF($B38:$B42,"&gt;0",Q38:Q42)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:17" outlineLevel="2">
@@ -6602,7 +6634,9 @@
       <c r="E42" s="43">
         <v>40312</v>
       </c>
-      <c r="F42" s="43"/>
+      <c r="F42" s="43">
+        <v>40326</v>
+      </c>
       <c r="G42" s="43"/>
       <c r="H42" s="154">
         <v>15</v>
@@ -6611,26 +6645,28 @@
         <f>+IF(AND(D42&lt;&gt;"",E42&lt;&gt;"",H42&lt;&gt;""),IF(D42&lt;Parâmetros!$B$6,IF(E42&gt;Parâmetros!$B$6,H42/2,H42),0),"")</f>
         <v>15</v>
       </c>
-      <c r="J42" s="113"/>
-      <c r="K42" s="113" t="str">
+      <c r="J42" s="113">
+        <v>6</v>
+      </c>
+      <c r="K42" s="113">
         <f>+IF(AND(F42&lt;&gt;"",H42&lt;&gt;""),IF(F42&lt;=Parâmetros!$B$6,IF(G42="",H42/2,IF(G42&gt;Parâmetros!$B$6,H42/2,H42)),0),"")</f>
-        <v/>
-      </c>
-      <c r="L42" s="113" t="str">
+        <v>7.5</v>
+      </c>
+      <c r="L42" s="113">
         <f>IF(AND(A42&gt;0,K42&lt;&gt;"",I42&lt;&gt;""),+K42-I42,"")</f>
-        <v/>
-      </c>
-      <c r="M42" s="113" t="str">
+        <v>-7.5</v>
+      </c>
+      <c r="M42" s="113">
         <f>IF(AND(A42&gt;0,K42&lt;&gt;"",J42&lt;&gt;""),K42-J42,"")</f>
-        <v/>
-      </c>
-      <c r="N42" s="160" t="str">
+        <v>1.5</v>
+      </c>
+      <c r="N42" s="160">
         <f>+IF(AND(A42&gt;0,I42&lt;&gt;0,I42&lt;&gt;"",K42&lt;&gt;""),K42/I42,"")</f>
-        <v/>
-      </c>
-      <c r="O42" s="172" t="str">
+        <v>0.5</v>
+      </c>
+      <c r="O42" s="172">
         <f>+IF(AND(A42&gt;0,K42&lt;&gt;"",J42&lt;&gt;0,J42&lt;&gt;""),K42/J42,"")</f>
-        <v/>
+        <v>1.25</v>
       </c>
       <c r="P42" s="113">
         <f t="shared" si="8"/>
@@ -6638,7 +6674,7 @@
       </c>
       <c r="Q42" s="113">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -6778,7 +6814,7 @@
     <mergeCell ref="P5:Q5"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C35 C21:C29 C38:C42 C19 C12:C16">
       <formula1>Recursos</formula1>
     </dataValidation>
@@ -6800,7 +6836,7 @@
   <sheetPr codeName="Plan6"/>
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -6834,7 +6870,7 @@
       <c r="D2" s="95"/>
       <c r="E2" s="95" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
-        <v>Data Base: 21/05/2010</v>
+        <v>Data Base: 29/05/2010</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="100"/>
@@ -6893,11 +6929,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A7" s="142"/>
+      <c r="A7" s="142">
+        <v>40327</v>
+      </c>
       <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="119"/>
+      <c r="C7" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="D7" s="117" t="s">
+        <v>259</v>
+      </c>
+      <c r="E7" s="119">
+        <v>272</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="10.5" customHeight="1">
       <c r="A8" s="142"/>
@@ -6962,7 +7006,7 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -7018,7 +7062,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="142">
-        <v>40319</v>
+        <v>40327</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
+++ b/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="260">
   <si>
     <t>Classificação Padrão de Produtos e Serviços</t>
   </si>
@@ -2326,6 +2326,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2337,9 +2359,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2365,25 +2384,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2584,11 +2584,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="59044224"/>
-        <c:axId val="59045760"/>
+        <c:axId val="51507584"/>
+        <c:axId val="51509120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="59044224"/>
+        <c:axId val="51507584"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2620,7 +2620,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59045760"/>
+        <c:crossAx val="51509120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2628,7 +2628,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="59045760"/>
+        <c:axId val="51509120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2670,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59044224"/>
+        <c:crossAx val="51507584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -2716,7 +2716,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000387" footer="0.49212598500000387"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000393" footer="0.49212598500000393"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2754,7 +2754,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31531602468610342"/>
-          <c:y val="3.2418952618454226E-2"/>
+          <c:y val="3.2418952618454233E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2771,9 +2771,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11261286030066738"/>
-          <c:y val="0.14962593516209652"/>
-          <c:w val="0.65090233253786323"/>
-          <c:h val="0.73815461346633982"/>
+          <c:y val="0.14962593516209657"/>
+          <c:w val="0.65090233253786334"/>
+          <c:h val="0.73815461346633993"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2810,6 +2810,9 @@
                 <c:pt idx="2">
                   <c:v>40327</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>40329</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2826,6 +2829,9 @@
                   <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
                   <c:v>272</c:v>
                 </c:pt>
               </c:numCache>
@@ -2864,6 +2870,9 @@
                 <c:pt idx="2">
                   <c:v>40327</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>40329</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2881,6 +2890,9 @@
                 </c:pt>
                 <c:pt idx="2" formatCode="#,##0">
                   <c:v>50.5</c:v>
+                </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>62.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,6 +2937,9 @@
                 <c:pt idx="2">
                   <c:v>40327</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>40329</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -2943,16 +2958,19 @@
                 <c:pt idx="2" formatCode="#,##0">
                   <c:v>85</c:v>
                 </c:pt>
+                <c:pt idx="3" formatCode="#,##0">
+                  <c:v>101.5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="59189888"/>
-        <c:axId val="59212544"/>
+        <c:axId val="61811328"/>
+        <c:axId val="61833984"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="59189888"/>
+        <c:axId val="61811328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2984,7 +3002,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59212544"/>
+        <c:crossAx val="61833984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2992,7 +3010,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="59212544"/>
+        <c:axId val="61833984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3035,7 +3053,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59189888"/>
+        <c:crossAx val="61811328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3058,9 +3076,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7972972972972977"/>
-          <c:y val="0.46882793017456686"/>
+          <c:y val="0.46882793017456692"/>
           <c:w val="0.17792792792792791"/>
-          <c:h val="0.10972568578553772"/>
+          <c:h val="0.10972568578553775"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3125,7 +3143,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000387" footer="0.49212598500000387"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000393" footer="0.49212598500000393"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3616,8 +3634,8 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:J51"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3662,7 +3680,7 @@
       <c r="I2" s="163"/>
       <c r="J2" s="126">
         <f>Parâmetros!B6</f>
-        <v>40327</v>
+        <v>40329</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="6" customHeight="1" thickTop="1"/>
@@ -3673,16 +3691,16 @@
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
     <row r="6" spans="1:11" s="137" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="201"/>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="202"/>
-      <c r="F6" s="202"/>
-      <c r="G6" s="202"/>
-      <c r="H6" s="202"/>
-      <c r="I6" s="202"/>
-      <c r="J6" s="202"/>
+      <c r="A6" s="184"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
+      <c r="F6" s="185"/>
+      <c r="G6" s="185"/>
+      <c r="H6" s="185"/>
+      <c r="I6" s="185"/>
+      <c r="J6" s="185"/>
       <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:11" s="137" customFormat="1" ht="6" customHeight="1">
@@ -3720,7 +3738,7 @@
       <c r="B11" s="74"/>
       <c r="C11" s="118">
         <f>IF(Planejamento!H8&lt;&gt;0,VLOOKUP(Parâmetros!B6,A49:I139,4)/Planejamento!H8,0)</f>
-        <v>0.3125</v>
+        <v>0.37316176470588236</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="100"/>
@@ -3849,7 +3867,7 @@
       <c r="B22" s="105"/>
       <c r="C22" s="92">
         <f>Planejamento!J8</f>
-        <v>50.5</v>
+        <v>62.5</v>
       </c>
       <c r="K22" s="98"/>
     </row>
@@ -3860,7 +3878,7 @@
       <c r="B23" s="105"/>
       <c r="C23" s="92">
         <f>VLOOKUP(Parâmetros!B6,A49:I136,9)</f>
-        <v>161.60000000000002</v>
+        <v>167.48768472906403</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -3895,17 +3913,17 @@
       <c r="K25" s="90"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="190" t="s">
+      <c r="A26" s="197" t="s">
         <v>210</v>
       </c>
-      <c r="B26" s="188" t="s">
+      <c r="B26" s="196" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="189"/>
-      <c r="D26" s="188" t="s">
+      <c r="C26" s="188"/>
+      <c r="D26" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="189"/>
+      <c r="E26" s="188"/>
       <c r="F26" s="89"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
@@ -3914,7 +3932,7 @@
       <c r="K26" s="90"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="191"/>
+      <c r="A27" s="198"/>
       <c r="B27" s="164" t="s">
         <v>230</v>
       </c>
@@ -4040,27 +4058,27 @@
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1">
       <c r="A41" s="72"/>
-      <c r="B41" s="199" t="s">
+      <c r="B41" s="206" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="203" t="s">
+      <c r="C41" s="186" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="205" t="s">
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="189" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="206"/>
-      <c r="I41" s="206"/>
-      <c r="J41" s="207"/>
+      <c r="H41" s="190"/>
+      <c r="I41" s="190"/>
+      <c r="J41" s="191"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1">
       <c r="A42" s="85" t="s">
         <v>169</v>
       </c>
-      <c r="B42" s="200"/>
+      <c r="B42" s="207"/>
       <c r="C42" s="86" t="s">
         <v>187</v>
       </c>
@@ -4121,11 +4139,11 @@
       </c>
       <c r="I43" s="173">
         <f>Planejamento!J9</f>
-        <v>50.5</v>
+        <v>62.5</v>
       </c>
       <c r="J43" s="173">
         <f>Planejamento!K9</f>
-        <v>85</v>
+        <v>101.5</v>
       </c>
       <c r="K43" s="107">
         <f>+D43-C43</f>
@@ -4166,19 +4184,19 @@
       <c r="A47" s="83"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83"/>
-      <c r="D47" s="186" t="s">
+      <c r="D47" s="194" t="s">
         <v>189</v>
       </c>
-      <c r="E47" s="196" t="s">
+      <c r="E47" s="203" t="s">
         <v>159</v>
       </c>
-      <c r="F47" s="197"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="198"/>
-      <c r="I47" s="192" t="s">
+      <c r="F47" s="204"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="205"/>
+      <c r="I47" s="199" t="s">
         <v>184</v>
       </c>
-      <c r="J47" s="193"/>
+      <c r="J47" s="200"/>
     </row>
     <row r="48" spans="1:11" ht="24.75" customHeight="1">
       <c r="A48" s="84" t="s">
@@ -4190,7 +4208,7 @@
       <c r="C48" s="103" t="s">
         <v>154</v>
       </c>
-      <c r="D48" s="187"/>
+      <c r="D48" s="195"/>
       <c r="E48" s="69" t="s">
         <v>155</v>
       </c>
@@ -4203,8 +4221,8 @@
       <c r="H48" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="I48" s="194"/>
-      <c r="J48" s="195"/>
+      <c r="I48" s="201"/>
+      <c r="J48" s="202"/>
     </row>
     <row r="49" spans="1:10" ht="12">
       <c r="A49" s="142">
@@ -4235,11 +4253,11 @@
         <f t="shared" ref="H49" si="5">+IF(C49&lt;&gt;0,D49/C49,0)</f>
         <v>1.9285714285714286</v>
       </c>
-      <c r="I49" s="184">
+      <c r="I49" s="192">
         <f>IF(H49&lt;&gt;0,C49+(VLOOKUP(A49,'Histórico de Versões'!A5:E72,5)-D49)/H49,"")</f>
         <v>141.03703703703704</v>
       </c>
-      <c r="J49" s="185"/>
+      <c r="J49" s="193"/>
     </row>
     <row r="50" spans="1:10" ht="12">
       <c r="A50" s="142">
@@ -4270,11 +4288,11 @@
         <f t="shared" ref="H50:H55" si="7">+IF(C50&lt;&gt;0,D50/C50,0)</f>
         <v>1.9433962264150944</v>
       </c>
-      <c r="I50" s="184">
+      <c r="I50" s="192">
         <f>IF(H50&lt;&gt;0,C50+(VLOOKUP(A50,'Histórico de Versões'!A6:E73,5)-D50)/H50,"")</f>
         <v>139.96116504854371</v>
       </c>
-      <c r="J50" s="185"/>
+      <c r="J50" s="193"/>
     </row>
     <row r="51" spans="1:10" ht="12">
       <c r="A51" s="142">
@@ -4305,38 +4323,46 @@
         <f t="shared" si="7"/>
         <v>1.6831683168316831</v>
       </c>
-      <c r="I51" s="184">
+      <c r="I51" s="192">
         <f>IF(H51&lt;&gt;0,C51+(VLOOKUP(A51,'Histórico de Versões'!A7:E74,5)-D51)/H51,"")</f>
         <v>161.60000000000002</v>
       </c>
-      <c r="J51" s="185"/>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="106"/>
-      <c r="B52" s="129"/>
-      <c r="C52" s="129"/>
-      <c r="D52" s="129"/>
+      <c r="J51" s="193"/>
+    </row>
+    <row r="52" spans="1:10" ht="12">
+      <c r="A52" s="142">
+        <v>40329</v>
+      </c>
+      <c r="B52" s="129">
+        <v>272</v>
+      </c>
+      <c r="C52" s="129">
+        <v>62.5</v>
+      </c>
+      <c r="D52" s="129">
+        <v>101.5</v>
+      </c>
       <c r="E52" s="113">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-170.5</v>
       </c>
       <c r="F52" s="113">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="G52" s="65">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.37316176470588236</v>
       </c>
       <c r="H52" s="65">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I52" s="184" t="str">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="I52" s="192">
         <f>IF(H52&lt;&gt;0,C52+(VLOOKUP(A52,'Histórico de Versões'!A8:E75,5)-D52)/H52,"")</f>
-        <v/>
-      </c>
-      <c r="J52" s="185"/>
+        <v>167.48768472906403</v>
+      </c>
+      <c r="J52" s="193"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="106"/>
@@ -4359,11 +4385,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I53" s="184" t="str">
+      <c r="I53" s="192" t="str">
         <f>IF(H53&lt;&gt;0,C53+(VLOOKUP(A53,'Histórico de Versões'!A9:E76,5)-D53)/H53,"")</f>
         <v/>
       </c>
-      <c r="J53" s="185"/>
+      <c r="J53" s="193"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="106"/>
@@ -4386,11 +4412,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="184" t="str">
+      <c r="I54" s="192" t="str">
         <f>IF(H54&lt;&gt;0,C54+(VLOOKUP(A54,'Histórico de Versões'!A10:E77,5)-D54)/H54,"")</f>
         <v/>
       </c>
-      <c r="J54" s="185"/>
+      <c r="J54" s="193"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="106"/>
@@ -4413,11 +4439,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I55" s="184" t="str">
+      <c r="I55" s="192" t="str">
         <f>IF(H55&lt;&gt;0,C55+(VLOOKUP(A55,'Histórico de Versões'!A11:E78,5)-D55)/H55,"")</f>
         <v/>
       </c>
-      <c r="J55" s="185"/>
+      <c r="J55" s="193"/>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="90"/>
@@ -4432,6 +4458,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I54:J54"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="C41:F41"/>
     <mergeCell ref="G41:J41"/>
@@ -4448,7 +4475,6 @@
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
     <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I54:J54"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4469,7 +4495,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A137" sqref="A137"/>
-      <selection pane="topRight" activeCell="H8" sqref="H8"/>
+      <selection pane="topRight" activeCell="I8" sqref="I8:K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="2"/>
@@ -4532,7 +4558,7 @@
       <c r="S2" s="146"/>
       <c r="T2" s="95" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
-        <v>Data Base: 29/05/2010</v>
+        <v>Data Base: 31/05/2010</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="20.25" customHeight="1" thickTop="1">
@@ -4543,7 +4569,7 @@
       <c r="A5" s="72"/>
       <c r="B5" s="170"/>
       <c r="C5" s="178"/>
-      <c r="D5" s="203" t="s">
+      <c r="D5" s="186" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="208"/>
@@ -4554,7 +4580,7 @@
       </c>
       <c r="I5" s="211"/>
       <c r="J5" s="212"/>
-      <c r="K5" s="196" t="s">
+      <c r="K5" s="203" t="s">
         <v>159</v>
       </c>
       <c r="L5" s="213"/>
@@ -4665,27 +4691,27 @@
       </c>
       <c r="J8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",J9:J42)</f>
-        <v>50.5</v>
+        <v>62.5</v>
       </c>
       <c r="K8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",K9:K42)</f>
-        <v>85</v>
+        <v>101.5</v>
       </c>
       <c r="L8" s="150">
         <f>+K8-I8</f>
-        <v>-187</v>
+        <v>-170.5</v>
       </c>
       <c r="M8" s="149">
         <f>+K8-J8</f>
-        <v>34.5</v>
+        <v>39</v>
       </c>
       <c r="N8" s="157">
         <f>+IF(I8&lt;&gt;0,K8/I8,0)</f>
-        <v>0.3125</v>
+        <v>0.37316176470588236</v>
       </c>
       <c r="O8" s="157">
         <f>+IF(J8&lt;&gt;0,K8/J8,0)</f>
-        <v>1.6831683168316831</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="P8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",P9:P42)</f>
@@ -4693,7 +4719,7 @@
       </c>
       <c r="Q8" s="149">
         <f>SUMIF($B9:$B42,"&gt;0",Q9:Q42)</f>
-        <v>50.5</v>
+        <v>62.5</v>
       </c>
       <c r="R8" s="155"/>
       <c r="S8" s="155"/>
@@ -4730,27 +4756,27 @@
       </c>
       <c r="J9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",J10:J42)</f>
-        <v>50.5</v>
+        <v>62.5</v>
       </c>
       <c r="K9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",K10:K42)</f>
-        <v>85</v>
+        <v>101.5</v>
       </c>
       <c r="L9" s="150">
         <f ca="1">+K9-I9</f>
-        <v>-187</v>
+        <v>-170.5</v>
       </c>
       <c r="M9" s="149">
         <f>+K9-J9</f>
-        <v>34.5</v>
+        <v>39</v>
       </c>
       <c r="N9" s="157">
         <f ca="1">+IF(I9&lt;&gt;0,K9/I9,0)</f>
-        <v>0.3125</v>
+        <v>0.37316176470588236</v>
       </c>
       <c r="O9" s="157">
         <f>+IF(J9&lt;&gt;0,K9/J9,0)</f>
-        <v>1.6831683168316831</v>
+        <v>1.6240000000000001</v>
       </c>
       <c r="P9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",P10:P42)</f>
@@ -4758,7 +4784,7 @@
       </c>
       <c r="Q9" s="149">
         <f>SUMIF($B10:$B42,"&gt;0",Q10:Q42)</f>
-        <v>50.5</v>
+        <v>62.5</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="15" customHeight="1">
@@ -5253,7 +5279,7 @@
       </c>
       <c r="Q17" s="151">
         <f>SUMIF($B18:$B22,"&gt;0",Q18:Q22)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
@@ -5316,7 +5342,7 @@
       </c>
       <c r="Q18" s="153">
         <f>SUMIF($B19:$B22,"&gt;0",Q19:Q22)</f>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:17" outlineLevel="2">
@@ -5410,27 +5436,27 @@
       </c>
       <c r="J20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",J21:J35)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="K20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",K21:K35)</f>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L20" s="152">
         <f>+K20-I20</f>
-        <v>-94</v>
+        <v>-85</v>
       </c>
       <c r="M20" s="151">
         <f>+K20-J20</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N20" s="158">
         <f>+IF(I20&lt;&gt;0,K20/I20,0)</f>
-        <v>0.22950819672131148</v>
+        <v>0.30327868852459017</v>
       </c>
       <c r="O20" s="158">
         <f>+IF(J20&lt;&gt;0,K20/J20,0)</f>
-        <v>1.2727272727272727</v>
+        <v>1.2333333333333334</v>
       </c>
       <c r="P20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",P21:P35)</f>
@@ -5438,7 +5464,7 @@
       </c>
       <c r="Q20" s="151">
         <f>SUMIF($B21:$B35,"&gt;0",Q21:Q35)</f>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
@@ -5475,27 +5501,27 @@
       </c>
       <c r="J21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",J22:J35)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",K22:K35)</f>
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="L21" s="153">
         <f>+K21-I21</f>
-        <v>-47</v>
+        <v>-42.5</v>
       </c>
       <c r="M21" s="153">
         <f>+K21-J21</f>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="N21" s="159">
         <f>+IF(I21&lt;&gt;0,K21/I21,0)</f>
-        <v>0.22950819672131148</v>
+        <v>0.30327868852459017</v>
       </c>
       <c r="O21" s="159">
         <f>+IF(J21&lt;&gt;0,K21/J21,0)</f>
-        <v>1.2727272727272727</v>
+        <v>1.2333333333333334</v>
       </c>
       <c r="P21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",P22:P35)</f>
@@ -5503,7 +5529,7 @@
       </c>
       <c r="Q21" s="153">
         <f>SUMIF($B22:$B35,"&gt;0",Q22:Q35)</f>
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17" outlineLevel="2">
@@ -5908,7 +5934,9 @@
       <c r="F29" s="43">
         <v>40317</v>
       </c>
-      <c r="G29" s="43"/>
+      <c r="G29" s="43">
+        <v>40329</v>
+      </c>
       <c r="H29" s="154">
         <v>3</v>
       </c>
@@ -5917,27 +5945,27 @@
         <v>3</v>
       </c>
       <c r="J29" s="113">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K29" s="113">
         <f>+IF(AND(F29&lt;&gt;"",H29&lt;&gt;""),IF(F29&lt;=Parâmetros!$B$6,IF(G29="",H29/2,IF(G29&gt;Parâmetros!$B$6,H29/2,H29)),0),"")</f>
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L29" s="113">
         <f t="shared" si="2"/>
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="M29" s="113">
         <f t="shared" si="3"/>
-        <v>-4.5</v>
+        <v>-5</v>
       </c>
       <c r="N29" s="160">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O29" s="172">
         <f t="shared" si="5"/>
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="P29" s="113">
         <f t="shared" si="6"/>
@@ -5945,7 +5973,7 @@
       </c>
       <c r="Q29" s="113">
         <f t="shared" si="7"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:17" outlineLevel="2">
@@ -6232,7 +6260,9 @@
       <c r="F35" s="43">
         <v>40317</v>
       </c>
-      <c r="G35" s="43"/>
+      <c r="G35" s="43">
+        <v>40329</v>
+      </c>
       <c r="H35" s="154">
         <v>6</v>
       </c>
@@ -6241,27 +6271,27 @@
         <v>6</v>
       </c>
       <c r="J35" s="113">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K35" s="113">
         <f>+IF(AND(F35&lt;&gt;"",H35&lt;&gt;""),IF(F35&lt;=Parâmetros!$B$6,IF(G35="",H35/2,IF(G35&gt;Parâmetros!$B$6,H35/2,H35)),0),"")</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L35" s="113">
         <f t="shared" si="2"/>
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="M35" s="113">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N35" s="160">
         <f t="shared" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O35" s="172">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="P35" s="113">
         <f t="shared" si="6"/>
@@ -6269,7 +6299,7 @@
       </c>
       <c r="Q35" s="113">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1">
@@ -6304,27 +6334,27 @@
       </c>
       <c r="J36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",J37:J42)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",K37:K42)</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="L36" s="152">
         <f>+K36-I36</f>
-        <v>-79.5</v>
+        <v>-72</v>
       </c>
       <c r="M36" s="151">
         <f>+K36-J36</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N36" s="158">
         <f>+IF(I36&lt;&gt;0,K36/I36,0)</f>
-        <v>8.6206896551724144E-2</v>
+        <v>0.17241379310344829</v>
       </c>
       <c r="O36" s="158">
         <f>+IF(J36&lt;&gt;0,K36/J36,0)</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P36" s="151" t="e">
         <f>SUMIF(#REF!,"&gt;0",P37:P38)</f>
@@ -6332,7 +6362,7 @@
       </c>
       <c r="Q36" s="151">
         <f>SUMIF($B37:$B42,"&gt;0",Q37:Q42)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="22.5" outlineLevel="1">
@@ -6367,19 +6397,19 @@
       </c>
       <c r="J37" s="153">
         <f>SUMIF($B38:$B42,"&gt;0",J38:J42)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K37" s="153">
         <f>SUMIF($B38:$B42,"&gt;0",K38:K42)</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="L37" s="153">
         <f>+K37-I37</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="M37" s="153">
         <f>+K37-J37</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N37" s="159">
         <f>+IF(I37&lt;&gt;0,K37/I37,0)</f>
@@ -6387,7 +6417,7 @@
       </c>
       <c r="O37" s="159">
         <f>+IF(J37&lt;&gt;0,K37/J37,0)</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P37" s="153">
         <f>SUMIF($B38:$B42,"&gt;0",P38:P42)</f>
@@ -6395,7 +6425,7 @@
       </c>
       <c r="Q37" s="153">
         <f>SUMIF($B38:$B42,"&gt;0",Q38:Q42)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:17" outlineLevel="2">
@@ -6637,7 +6667,9 @@
       <c r="F42" s="43">
         <v>40326</v>
       </c>
-      <c r="G42" s="43"/>
+      <c r="G42" s="43">
+        <v>40329</v>
+      </c>
       <c r="H42" s="154">
         <v>15</v>
       </c>
@@ -6646,27 +6678,27 @@
         <v>15</v>
       </c>
       <c r="J42" s="113">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K42" s="113">
         <f>+IF(AND(F42&lt;&gt;"",H42&lt;&gt;""),IF(F42&lt;=Parâmetros!$B$6,IF(G42="",H42/2,IF(G42&gt;Parâmetros!$B$6,H42/2,H42)),0),"")</f>
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="L42" s="113">
         <f>IF(AND(A42&gt;0,K42&lt;&gt;"",I42&lt;&gt;""),+K42-I42,"")</f>
-        <v>-7.5</v>
+        <v>0</v>
       </c>
       <c r="M42" s="113">
         <f>IF(AND(A42&gt;0,K42&lt;&gt;"",J42&lt;&gt;""),K42-J42,"")</f>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="N42" s="160">
         <f>+IF(AND(A42&gt;0,I42&lt;&gt;0,I42&lt;&gt;"",K42&lt;&gt;""),K42/I42,"")</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O42" s="172">
         <f>+IF(AND(A42&gt;0,K42&lt;&gt;"",J42&lt;&gt;0,J42&lt;&gt;""),K42/J42,"")</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P42" s="113">
         <f t="shared" si="8"/>
@@ -6674,7 +6706,7 @@
       </c>
       <c r="Q42" s="113">
         <f t="shared" si="9"/>
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -6837,7 +6869,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6870,7 +6902,7 @@
       <c r="D2" s="95"/>
       <c r="E2" s="95" t="str">
         <f>CONCATENATE("Data Base: ",TEXT(Parâmetros!$B$6,"dd/mm/aaaa"))</f>
-        <v>Data Base: 29/05/2010</v>
+        <v>Data Base: 31/05/2010</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="100"/>
@@ -6944,11 +6976,19 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="10.5" customHeight="1">
-      <c r="A8" s="142"/>
+      <c r="A8" s="142">
+        <v>40329</v>
+      </c>
       <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="119"/>
+      <c r="C8" s="116" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="117" t="s">
+        <v>259</v>
+      </c>
+      <c r="E8" s="119">
+        <v>272</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="10.5" customHeight="1">
       <c r="A9" s="142"/>
@@ -7062,7 +7102,7 @@
         <v>179</v>
       </c>
       <c r="B6" s="142">
-        <v>40327</v>
+        <v>40329</v>
       </c>
     </row>
     <row r="8" spans="1:6">

--- a/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
+++ b/trunk/Gerência de Projetos/War - Acompanhamento de Projeto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15195" windowHeight="8700" tabRatio="744" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Resumo" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="Glossário" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planejamento!$A$6:$O$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planejamento!$A$6:$O$50</definedName>
     <definedName name="Recursos">Parâmetros!$B$12:$B$18</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
@@ -188,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="262">
   <si>
     <t>Classificação Padrão de Produtos e Serviços</t>
   </si>
@@ -1376,9 +1376,6 @@
     <t>UC11 - Atacar Território</t>
   </si>
   <si>
-    <t>UC14 - Povoar Território Conquistado</t>
-  </si>
-  <si>
     <t>1.2.05 - Análise e Projeto</t>
   </si>
   <si>
@@ -1422,6 +1419,15 @@
   </si>
   <si>
     <t xml:space="preserve">Acompanhamento </t>
+  </si>
+  <si>
+    <t>A01 - Povoar Território Conquistado</t>
+  </si>
+  <si>
+    <t>1.2.07 - Testes</t>
+  </si>
+  <si>
+    <t>1.2.07.01 - Plano de testes</t>
   </si>
 </sst>
 </file>
@@ -1922,7 +1928,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="227">
+  <cellXfs count="228">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2326,6 +2332,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2348,12 +2360,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2440,6 +2446,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2584,11 +2593,11 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="51507584"/>
-        <c:axId val="51509120"/>
+        <c:axId val="78442880"/>
+        <c:axId val="78444416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51507584"/>
+        <c:axId val="78442880"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2620,7 +2629,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51509120"/>
+        <c:crossAx val="78444416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2628,7 +2637,7 @@
         <c:tickMarkSkip val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51509120"/>
+        <c:axId val="78444416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2679,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51507584"/>
+        <c:crossAx val="78442880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -2716,7 +2725,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000393" footer="0.49212598500000393"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000404" footer="0.49212598500000404"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -2754,7 +2763,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.31531602468610342"/>
-          <c:y val="3.2418952618454233E-2"/>
+          <c:y val="3.241895261845424E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -2771,9 +2780,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.11261286030066738"/>
-          <c:y val="0.14962593516209657"/>
-          <c:w val="0.65090233253786334"/>
-          <c:h val="0.73815461346633993"/>
+          <c:y val="0.14962593516209663"/>
+          <c:w val="0.65090233253786345"/>
+          <c:h val="0.73815461346634004"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2966,11 +2975,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="61811328"/>
-        <c:axId val="61833984"/>
+        <c:axId val="78850688"/>
+        <c:axId val="78873344"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="61811328"/>
+        <c:axId val="78850688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,7 +3011,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61833984"/>
+        <c:crossAx val="78873344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3010,7 +3019,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="61833984"/>
+        <c:axId val="78873344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3053,7 +3062,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="61811328"/>
+        <c:crossAx val="78850688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3076,9 +3085,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.7972972972972977"/>
-          <c:y val="0.46882793017456692"/>
+          <c:y val="0.46882793017456698"/>
           <c:w val="0.17792792792792791"/>
-          <c:h val="0.10972568578553775"/>
+          <c:h val="0.10972568578553779"/>
         </c:manualLayout>
       </c:layout>
       <c:spPr>
@@ -3143,7 +3152,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000393" footer="0.49212598500000393"/>
+    <c:pageMargins b="0.98425196899999956" l="0.78740157499999996" r="0.78740157499999996" t="0.98425196899999956" header="0.49212598500000404" footer="0.49212598500000404"/>
     <c:pageSetup paperSize="9" orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -3634,7 +3643,7 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -3691,16 +3700,16 @@
     </row>
     <row r="5" spans="1:11" ht="6" customHeight="1"/>
     <row r="6" spans="1:11" s="137" customFormat="1" ht="27" customHeight="1">
-      <c r="A6" s="184"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="185"/>
-      <c r="I6" s="185"/>
-      <c r="J6" s="185"/>
+      <c r="A6" s="186"/>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="187"/>
+      <c r="H6" s="187"/>
+      <c r="I6" s="187"/>
+      <c r="J6" s="187"/>
       <c r="K6" s="136"/>
     </row>
     <row r="7" spans="1:11" s="137" customFormat="1" ht="6" customHeight="1">
@@ -3752,7 +3761,7 @@
       <c r="B12" s="74"/>
       <c r="C12" s="88">
         <f>SUM(B43:B43)</f>
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="100"/>
@@ -3765,7 +3774,7 @@
       </c>
       <c r="B13" s="74"/>
       <c r="C13" s="92">
-        <f>SUM(IF(Planejamento!B9:B245&gt;0,IF(Planejamento!G9:G245&gt;0,1,0),0))</f>
+        <f>SUM(IF(Planejamento!B9:B252&gt;0,IF(Planejamento!G9:G252&gt;0,1,0),0))</f>
         <v>1</v>
       </c>
       <c r="F13" s="99"/>
@@ -3827,7 +3836,7 @@
       <c r="B18" s="105"/>
       <c r="C18" s="94">
         <f ca="1">WORKDAY(TODAY(),(C23-C22)/(Parâmetros!B5*2),Parâmetros!$B$8:$B$10)</f>
-        <v>40352</v>
+        <v>40357</v>
       </c>
       <c r="K18" s="62"/>
     </row>
@@ -3919,11 +3928,11 @@
       <c r="B26" s="196" t="s">
         <v>207</v>
       </c>
-      <c r="C26" s="188"/>
+      <c r="C26" s="190"/>
       <c r="D26" s="196" t="s">
         <v>211</v>
       </c>
-      <c r="E26" s="188"/>
+      <c r="E26" s="190"/>
       <c r="F26" s="89"/>
       <c r="G26" s="93"/>
       <c r="H26" s="93"/>
@@ -4061,18 +4070,18 @@
       <c r="B41" s="206" t="s">
         <v>223</v>
       </c>
-      <c r="C41" s="186" t="s">
+      <c r="C41" s="188" t="s">
         <v>151</v>
       </c>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="189" t="s">
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="190"/>
+      <c r="G41" s="191" t="s">
         <v>160</v>
       </c>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="191"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="193"/>
     </row>
     <row r="42" spans="1:11" ht="24.75" customHeight="1">
       <c r="A42" s="85" t="s">
@@ -4110,8 +4119,8 @@
         <v>Elaboração - Iteração 1</v>
       </c>
       <c r="B43" s="88">
-        <f>COUNT(Planejamento!B10:B61)</f>
-        <v>24</v>
+        <f>COUNT(Planejamento!B10:B68)</f>
+        <v>29</v>
       </c>
       <c r="C43" s="94">
         <f>Planejamento!D9</f>
@@ -4253,11 +4262,11 @@
         <f t="shared" ref="H49" si="5">+IF(C49&lt;&gt;0,D49/C49,0)</f>
         <v>1.9285714285714286</v>
       </c>
-      <c r="I49" s="192">
+      <c r="I49" s="184">
         <f>IF(H49&lt;&gt;0,C49+(VLOOKUP(A49,'Histórico de Versões'!A5:E72,5)-D49)/H49,"")</f>
         <v>141.03703703703704</v>
       </c>
-      <c r="J49" s="193"/>
+      <c r="J49" s="185"/>
     </row>
     <row r="50" spans="1:10" ht="12">
       <c r="A50" s="142">
@@ -4288,11 +4297,11 @@
         <f t="shared" ref="H50:H55" si="7">+IF(C50&lt;&gt;0,D50/C50,0)</f>
         <v>1.9433962264150944</v>
       </c>
-      <c r="I50" s="192">
+      <c r="I50" s="184">
         <f>IF(H50&lt;&gt;0,C50+(VLOOKUP(A50,'Histórico de Versões'!A6:E73,5)-D50)/H50,"")</f>
         <v>139.96116504854371</v>
       </c>
-      <c r="J50" s="193"/>
+      <c r="J50" s="185"/>
     </row>
     <row r="51" spans="1:10" ht="12">
       <c r="A51" s="142">
@@ -4323,11 +4332,11 @@
         <f t="shared" si="7"/>
         <v>1.6831683168316831</v>
       </c>
-      <c r="I51" s="192">
+      <c r="I51" s="184">
         <f>IF(H51&lt;&gt;0,C51+(VLOOKUP(A51,'Histórico de Versões'!A7:E74,5)-D51)/H51,"")</f>
         <v>161.60000000000002</v>
       </c>
-      <c r="J51" s="193"/>
+      <c r="J51" s="185"/>
     </row>
     <row r="52" spans="1:10" ht="12">
       <c r="A52" s="142">
@@ -4358,11 +4367,11 @@
         <f t="shared" si="7"/>
         <v>1.6240000000000001</v>
       </c>
-      <c r="I52" s="192">
+      <c r="I52" s="184">
         <f>IF(H52&lt;&gt;0,C52+(VLOOKUP(A52,'Histórico de Versões'!A8:E75,5)-D52)/H52,"")</f>
         <v>167.48768472906403</v>
       </c>
-      <c r="J52" s="193"/>
+      <c r="J52" s="185"/>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="106"/>
@@ -4385,11 +4394,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I53" s="192" t="str">
+      <c r="I53" s="184" t="str">
         <f>IF(H53&lt;&gt;0,C53+(VLOOKUP(A53,'Histórico de Versões'!A9:E76,5)-D53)/H53,"")</f>
         <v/>
       </c>
-      <c r="J53" s="193"/>
+      <c r="J53" s="185"/>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="106"/>
@@ -4412,11 +4421,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I54" s="192" t="str">
+      <c r="I54" s="184" t="str">
         <f>IF(H54&lt;&gt;0,C54+(VLOOKUP(A54,'Histórico de Versões'!A10:E77,5)-D54)/H54,"")</f>
         <v/>
       </c>
-      <c r="J54" s="193"/>
+      <c r="J54" s="185"/>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="106"/>
@@ -4439,11 +4448,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I55" s="192" t="str">
+      <c r="I55" s="184" t="str">
         <f>IF(H55&lt;&gt;0,C55+(VLOOKUP(A55,'Histórico de Versões'!A11:E78,5)-D55)/H55,"")</f>
         <v/>
       </c>
-      <c r="J55" s="193"/>
+      <c r="J55" s="185"/>
     </row>
     <row r="56" spans="1:10">
       <c r="B56" s="90"/>
@@ -4458,6 +4467,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I53:J53"/>
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="C41:F41"/>
@@ -4474,7 +4484,6 @@
     <mergeCell ref="B41:B42"/>
     <mergeCell ref="I51:J51"/>
     <mergeCell ref="I52:J52"/>
-    <mergeCell ref="I53:J53"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.59055118110236227" right="0.51181102362204722" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
@@ -4490,12 +4499,12 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T71"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A137" sqref="A137"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8:K8"/>
+      <selection pane="topRight" activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" outlineLevelRow="2"/>
@@ -4569,7 +4578,7 @@
       <c r="A5" s="72"/>
       <c r="B5" s="170"/>
       <c r="C5" s="178"/>
-      <c r="D5" s="186" t="s">
+      <c r="D5" s="188" t="s">
         <v>151</v>
       </c>
       <c r="E5" s="208"/>
@@ -4593,7 +4602,7 @@
     <row r="6" spans="1:20" ht="21.75" customHeight="1">
       <c r="A6" s="71"/>
       <c r="B6" s="182" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C6" s="183" t="s">
         <v>193</v>
@@ -4739,7 +4748,7 @@
         <v>40319</v>
       </c>
       <c r="F9" s="45">
-        <f>IF(MIN(F10:F43)&lt;&gt;0,MIN(F10:F43),"")</f>
+        <f>IF(MIN(F10:F50)&lt;&gt;0,MIN(F10:F50),"")</f>
         <v>40284</v>
       </c>
       <c r="G9" s="45" t="str">
@@ -5159,8 +5168,8 @@
       </c>
     </row>
     <row r="16" spans="1:20" outlineLevel="2">
-      <c r="A16" s="77" t="s">
-        <v>244</v>
+      <c r="A16" s="169" t="s">
+        <v>259</v>
       </c>
       <c r="B16" s="135">
         <v>5</v>
@@ -5221,7 +5230,7 @@
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
       <c r="A17" s="130" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B17" s="131"/>
       <c r="C17" s="131"/>
@@ -5284,7 +5293,7 @@
     </row>
     <row r="18" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
       <c r="A18" s="78" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B18" s="171"/>
       <c r="C18" s="179"/>
@@ -5347,7 +5356,7 @@
     </row>
     <row r="19" spans="1:17" outlineLevel="2">
       <c r="A19" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" s="135">
         <v>24</v>
@@ -5406,7 +5415,7 @@
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
       <c r="A20" s="130" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B20" s="130"/>
       <c r="C20" s="130"/>
@@ -5469,7 +5478,7 @@
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1" outlineLevel="1">
       <c r="A21" s="78" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B21" s="135">
         <v>6</v>
@@ -5488,7 +5497,7 @@
         <v>40299</v>
       </c>
       <c r="G21" s="73" t="str">
-        <f>IF(COUNT(E22:E35)=COUNT(G22:G35),MAX(G22:G26),"")</f>
+        <f>IF(COUNT(E22:E35)=COUNT(G22:G35),MAX(G22:G35),"")</f>
         <v/>
       </c>
       <c r="H21" s="153">
@@ -5534,13 +5543,13 @@
     </row>
     <row r="22" spans="1:17" outlineLevel="2">
       <c r="A22" s="77" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B22" s="135">
         <v>7</v>
       </c>
       <c r="C22" s="180" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D22" s="43">
         <v>40297</v>
@@ -5594,13 +5603,13 @@
     </row>
     <row r="23" spans="1:17" outlineLevel="2">
       <c r="A23" s="77" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B23" s="135">
         <v>8</v>
       </c>
       <c r="C23" s="180" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D23" s="43">
         <v>40298</v>
@@ -5650,7 +5659,7 @@
     </row>
     <row r="24" spans="1:17" outlineLevel="2">
       <c r="A24" s="77" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B24" s="135"/>
       <c r="C24" s="180"/>
@@ -5916,8 +5925,8 @@
       </c>
     </row>
     <row r="29" spans="1:17" outlineLevel="2">
-      <c r="A29" s="169" t="s">
-        <v>244</v>
+      <c r="A29" s="227" t="s">
+        <v>259</v>
       </c>
       <c r="B29" s="135">
         <v>13</v>
@@ -5978,7 +5987,7 @@
     </row>
     <row r="30" spans="1:17" outlineLevel="2">
       <c r="A30" s="77" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B30" s="135"/>
       <c r="C30" s="135"/>
@@ -6242,8 +6251,8 @@
       </c>
     </row>
     <row r="35" spans="1:17" outlineLevel="2">
-      <c r="A35" s="169" t="s">
-        <v>244</v>
+      <c r="A35" s="227" t="s">
+        <v>259</v>
       </c>
       <c r="B35" s="135">
         <v>18</v>
@@ -6304,7 +6313,7 @@
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1">
       <c r="A36" s="130" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B36" s="131"/>
       <c r="C36" s="131"/>
@@ -6367,7 +6376,7 @@
     </row>
     <row r="37" spans="1:17" ht="22.5" outlineLevel="1">
       <c r="A37" s="181" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B37" s="171"/>
       <c r="C37" s="171"/>
@@ -6649,8 +6658,8 @@
       </c>
     </row>
     <row r="42" spans="1:17" outlineLevel="2">
-      <c r="A42" s="77" t="s">
-        <v>244</v>
+      <c r="A42" s="169" t="s">
+        <v>259</v>
       </c>
       <c r="B42" s="135">
         <v>23</v>
@@ -6709,133 +6718,516 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
-      <c r="A43" s="46" t="s">
+    <row r="43" spans="1:17" ht="15" customHeight="1">
+      <c r="A43" s="130" t="s">
+        <v>260</v>
+      </c>
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="132" t="str">
+        <f>IF(MIN(D44:D49)&lt;&gt;0,MIN(D44:D49),"")</f>
+        <v/>
+      </c>
+      <c r="E43" s="132" t="str">
+        <f>IF(MAX(E44:E49)&lt;&gt;0,MAX(E44:E49),"")</f>
+        <v/>
+      </c>
+      <c r="F43" s="132" t="str">
+        <f>IF(MIN(F44:F49)&lt;&gt;0,MIN(F44:F45),"")</f>
+        <v/>
+      </c>
+      <c r="G43" s="132" t="str">
+        <f>IF(COUNT(E44:E49)=COUNT(G44:G49),MAX(G44:G49),"")</f>
+        <v/>
+      </c>
+      <c r="H43" s="151">
+        <f>SUMIF($B44:$B49,"&gt;0",H44:H49)</f>
+        <v>87</v>
+      </c>
+      <c r="I43" s="151">
+        <f>SUMIF($B44:$B49,"&gt;0",I44:I49)</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="151">
+        <f>SUMIF($B44:$B49,"&gt;0",J44:J49)</f>
+        <v>10</v>
+      </c>
+      <c r="K43" s="151">
+        <f>SUMIF($B44:$B49,"&gt;0",K44:K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="152">
+        <f>+K43-I43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="151">
+        <f>+K43-J43</f>
+        <v>-10</v>
+      </c>
+      <c r="N43" s="158">
+        <f>+IF(I43&lt;&gt;0,K43/I43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="158">
+        <f>+IF(J43&lt;&gt;0,K43/J43,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="151" t="e">
+        <f>SUMIF(#REF!,"&gt;0",P44:P45)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="Q43" s="151">
+        <f>SUMIF($B44:$B49,"&gt;0",Q44:Q49)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" outlineLevel="1">
+      <c r="A44" s="181" t="s">
+        <v>261</v>
+      </c>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
+      <c r="D44" s="73" t="str">
+        <f>IF(MIN(D45:D45)&lt;&gt;0,MIN(D45:D45),"")</f>
+        <v/>
+      </c>
+      <c r="E44" s="73" t="str">
+        <f>IF(MAX(E45:E49)&lt;&gt;0,MAX(E45:E49),"")</f>
+        <v/>
+      </c>
+      <c r="F44" s="73" t="str">
+        <f>IF(MIN(F45:F49)&lt;&gt;0,MIN(F45:F49),"")</f>
+        <v/>
+      </c>
+      <c r="G44" s="73">
+        <f>IF(COUNT(E45:E49)=COUNT(G45:G49),MAX(G45:G49),"")</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="153">
+        <f>SUMIF($B45:$B49,"&gt;0",H45:H49)</f>
+        <v>87</v>
+      </c>
+      <c r="I44" s="113" t="str">
+        <f>+IF(AND(D44&lt;&gt;"",E44&lt;&gt;"",H44&lt;&gt;""),IF(D44&lt;Parâmetros!$B$7,IF(E44&gt;Parâmetros!$B$7,H44/2,H44),0),"")</f>
+        <v/>
+      </c>
+      <c r="J44" s="153">
+        <f>SUMIF($B45:$B49,"&gt;0",J45:J49)</f>
+        <v>10</v>
+      </c>
+      <c r="K44" s="153">
+        <f>SUMIF($B45:$B49,"&gt;0",K45:K49)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="153" t="e">
+        <f>+K44-I44</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="M44" s="153">
+        <f>+K44-J44</f>
+        <v>-10</v>
+      </c>
+      <c r="N44" s="159" t="e">
+        <f>+IF(I44&lt;&gt;0,K44/I44,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="O44" s="159">
+        <f>+IF(J44&lt;&gt;0,K44/J44,0)</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="153">
+        <f>SUMIF($B45:$B49,"&gt;0",P45:P49)</f>
+        <v>87</v>
+      </c>
+      <c r="Q44" s="153">
+        <f>SUMIF($B45:$B49,"&gt;0",Q45:Q49)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" outlineLevel="2">
+      <c r="A45" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="B45" s="135">
+        <v>19</v>
+      </c>
+      <c r="C45" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="154">
+        <v>12</v>
+      </c>
+      <c r="I45" s="113" t="str">
+        <f>+IF(AND(D45&lt;&gt;"",E45&lt;&gt;"",H45&lt;&gt;""),IF(D45&lt;Parâmetros!$B$6,IF(E45&gt;Parâmetros!$B$6,H45/2,H45),0),"")</f>
+        <v/>
+      </c>
+      <c r="J45" s="113"/>
+      <c r="K45" s="113" t="str">
+        <f>+IF(AND(F45&lt;&gt;"",H45&lt;&gt;""),IF(F45&lt;=Parâmetros!$B$6,IF(G45="",H45/2,IF(G45&gt;Parâmetros!$B$6,H45/2,H45)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L45" s="113" t="str">
+        <f>IF(AND(A45&gt;0,K45&lt;&gt;"",I45&lt;&gt;""),+K45-I45,"")</f>
+        <v/>
+      </c>
+      <c r="M45" s="113" t="str">
+        <f>IF(AND(A45&gt;0,K45&lt;&gt;"",J45&lt;&gt;""),K45-J45,"")</f>
+        <v/>
+      </c>
+      <c r="N45" s="160" t="str">
+        <f>+IF(AND(A45&gt;0,I45&lt;&gt;0,I45&lt;&gt;"",K45&lt;&gt;""),K45/I45,"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="172" t="str">
+        <f>+IF(AND(A45&gt;0,K45&lt;&gt;"",J45&lt;&gt;0,J45&lt;&gt;""),K45/J45,"")</f>
+        <v/>
+      </c>
+      <c r="P45" s="113">
+        <f t="shared" ref="P45:P49" si="10">H45</f>
+        <v>12</v>
+      </c>
+      <c r="Q45" s="113">
+        <f t="shared" ref="Q45:Q49" si="11">J45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" outlineLevel="2">
+      <c r="A46" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="B46" s="135">
+        <v>20</v>
+      </c>
+      <c r="C46" s="180" t="s">
+        <v>232</v>
+      </c>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="154">
+        <v>15</v>
+      </c>
+      <c r="I46" s="113" t="str">
+        <f>+IF(AND(D46&lt;&gt;"",E46&lt;&gt;"",H46&lt;&gt;""),IF(D46&lt;Parâmetros!$B$6,IF(E46&gt;Parâmetros!$B$6,H46/2,H46),0),"")</f>
+        <v/>
+      </c>
+      <c r="J46" s="113"/>
+      <c r="K46" s="113" t="str">
+        <f>+IF(AND(F46&lt;&gt;"",H46&lt;&gt;""),IF(F46&lt;=Parâmetros!$B$6,IF(G46="",H46/2,IF(G46&gt;Parâmetros!$B$6,H46/2,H46)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L46" s="113" t="str">
+        <f>IF(AND(A46&gt;0,K46&lt;&gt;"",I46&lt;&gt;""),+K46-I46,"")</f>
+        <v/>
+      </c>
+      <c r="M46" s="113" t="str">
+        <f>IF(AND(A46&gt;0,K46&lt;&gt;"",J46&lt;&gt;""),K46-J46,"")</f>
+        <v/>
+      </c>
+      <c r="N46" s="160" t="str">
+        <f>+IF(AND(A46&gt;0,I46&lt;&gt;0,I46&lt;&gt;"",K46&lt;&gt;""),K46/I46,"")</f>
+        <v/>
+      </c>
+      <c r="O46" s="172" t="str">
+        <f>+IF(AND(A46&gt;0,K46&lt;&gt;"",J46&lt;&gt;0,J46&lt;&gt;""),K46/J46,"")</f>
+        <v/>
+      </c>
+      <c r="P46" s="113">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="Q46" s="113">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" outlineLevel="2">
+      <c r="A47" s="77" t="s">
+        <v>240</v>
+      </c>
+      <c r="B47" s="135">
+        <v>21</v>
+      </c>
+      <c r="C47" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="154">
+        <v>18</v>
+      </c>
+      <c r="I47" s="113" t="str">
+        <f>+IF(AND(D47&lt;&gt;"",E47&lt;&gt;"",H47&lt;&gt;""),IF(D47&lt;Parâmetros!$B$6,IF(E47&gt;Parâmetros!$B$6,H47/2,H47),0),"")</f>
+        <v/>
+      </c>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113" t="str">
+        <f>+IF(AND(F47&lt;&gt;"",H47&lt;&gt;""),IF(F47&lt;=Parâmetros!$B$6,IF(G47="",H47/2,IF(G47&gt;Parâmetros!$B$6,H47/2,H47)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L47" s="113" t="str">
+        <f>IF(AND(A47&gt;0,K47&lt;&gt;"",I47&lt;&gt;""),+K47-I47,"")</f>
+        <v/>
+      </c>
+      <c r="M47" s="113" t="str">
+        <f>IF(AND(A47&gt;0,K47&lt;&gt;"",J47&lt;&gt;""),K47-J47,"")</f>
+        <v/>
+      </c>
+      <c r="N47" s="160" t="str">
+        <f>+IF(AND(A47&gt;0,I47&lt;&gt;0,I47&lt;&gt;"",K47&lt;&gt;""),K47/I47,"")</f>
+        <v/>
+      </c>
+      <c r="O47" s="172" t="str">
+        <f>+IF(AND(A47&gt;0,K47&lt;&gt;"",J47&lt;&gt;0,J47&lt;&gt;""),K47/J47,"")</f>
+        <v/>
+      </c>
+      <c r="P47" s="113">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="Q47" s="113">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" outlineLevel="2">
+      <c r="A48" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="135">
+        <v>22</v>
+      </c>
+      <c r="C48" s="180" t="s">
+        <v>216</v>
+      </c>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="154">
+        <v>27</v>
+      </c>
+      <c r="I48" s="113" t="str">
+        <f>+IF(AND(D48&lt;&gt;"",E48&lt;&gt;"",H48&lt;&gt;""),IF(D48&lt;Parâmetros!$B$6,IF(E48&gt;Parâmetros!$B$6,H48/2,H48),0),"")</f>
+        <v/>
+      </c>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113" t="str">
+        <f>+IF(AND(F48&lt;&gt;"",H48&lt;&gt;""),IF(F48&lt;=Parâmetros!$B$6,IF(G48="",H48/2,IF(G48&gt;Parâmetros!$B$6,H48/2,H48)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L48" s="113" t="str">
+        <f>IF(AND(A48&gt;0,K48&lt;&gt;"",I48&lt;&gt;""),+K48-I48,"")</f>
+        <v/>
+      </c>
+      <c r="M48" s="113" t="str">
+        <f>IF(AND(A48&gt;0,K48&lt;&gt;"",J48&lt;&gt;""),K48-J48,"")</f>
+        <v/>
+      </c>
+      <c r="N48" s="160" t="str">
+        <f>+IF(AND(A48&gt;0,I48&lt;&gt;0,I48&lt;&gt;"",K48&lt;&gt;""),K48/I48,"")</f>
+        <v/>
+      </c>
+      <c r="O48" s="172" t="str">
+        <f>+IF(AND(A48&gt;0,K48&lt;&gt;"",J48&lt;&gt;0,J48&lt;&gt;""),K48/J48,"")</f>
+        <v/>
+      </c>
+      <c r="P48" s="113">
+        <f t="shared" si="10"/>
+        <v>27</v>
+      </c>
+      <c r="Q48" s="113">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" outlineLevel="2">
+      <c r="A49" s="169" t="s">
+        <v>259</v>
+      </c>
+      <c r="B49" s="135">
+        <v>23</v>
+      </c>
+      <c r="C49" s="180" t="s">
+        <v>231</v>
+      </c>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="154">
+        <v>15</v>
+      </c>
+      <c r="I49" s="113" t="str">
+        <f>+IF(AND(D49&lt;&gt;"",E49&lt;&gt;"",H49&lt;&gt;""),IF(D49&lt;Parâmetros!$B$6,IF(E49&gt;Parâmetros!$B$6,H49/2,H49),0),"")</f>
+        <v/>
+      </c>
+      <c r="J49" s="113">
+        <v>10</v>
+      </c>
+      <c r="K49" s="113" t="str">
+        <f>+IF(AND(F49&lt;&gt;"",H49&lt;&gt;""),IF(F49&lt;=Parâmetros!$B$6,IF(G49="",H49/2,IF(G49&gt;Parâmetros!$B$6,H49/2,H49)),0),"")</f>
+        <v/>
+      </c>
+      <c r="L49" s="113" t="str">
+        <f>IF(AND(A49&gt;0,K49&lt;&gt;"",I49&lt;&gt;""),+K49-I49,"")</f>
+        <v/>
+      </c>
+      <c r="M49" s="113" t="str">
+        <f>IF(AND(A49&gt;0,K49&lt;&gt;"",J49&lt;&gt;""),K49-J49,"")</f>
+        <v/>
+      </c>
+      <c r="N49" s="160" t="str">
+        <f>+IF(AND(A49&gt;0,I49&lt;&gt;0,I49&lt;&gt;"",K49&lt;&gt;""),K49/I49,"")</f>
+        <v/>
+      </c>
+      <c r="O49" s="172" t="str">
+        <f>+IF(AND(A49&gt;0,K49&lt;&gt;"",J49&lt;&gt;0,J49&lt;&gt;""),K49/J49,"")</f>
+        <v/>
+      </c>
+      <c r="P49" s="113">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="Q49" s="113">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="K43" s="68"/>
-      <c r="M43" s="62"/>
-      <c r="O43" s="89"/>
-      <c r="P43" s="36"/>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="K44" s="68"/>
-      <c r="M44" s="62"/>
-      <c r="O44" s="89"/>
-      <c r="P44" s="36"/>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="K45" s="68"/>
-      <c r="M45" s="62"/>
-      <c r="O45" s="89"/>
-      <c r="P45" s="36"/>
-    </row>
-    <row r="46" spans="1:17">
-      <c r="K46" s="68"/>
-      <c r="M46" s="62"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="36"/>
-    </row>
-    <row r="47" spans="1:17">
-      <c r="K47" s="68"/>
-      <c r="M47" s="62"/>
-      <c r="O47" s="89"/>
-      <c r="P47" s="36"/>
-    </row>
-    <row r="48" spans="1:17">
-      <c r="K48" s="68"/>
-      <c r="M48" s="62"/>
-      <c r="O48" s="89"/>
-      <c r="P48" s="36"/>
-    </row>
-    <row r="49" spans="2:16">
-      <c r="K49" s="68"/>
-      <c r="M49" s="62"/>
-      <c r="O49" s="89"/>
-      <c r="P49" s="36"/>
-    </row>
-    <row r="50" spans="2:16">
       <c r="K50" s="68"/>
       <c r="M50" s="62"/>
       <c r="O50" s="89"/>
       <c r="P50" s="36"/>
     </row>
-    <row r="51" spans="2:16">
+    <row r="51" spans="1:17">
       <c r="K51" s="68"/>
       <c r="M51" s="62"/>
       <c r="O51" s="89"/>
       <c r="P51" s="36"/>
     </row>
-    <row r="52" spans="2:16">
+    <row r="52" spans="1:17">
       <c r="K52" s="68"/>
       <c r="M52" s="62"/>
       <c r="O52" s="89"/>
       <c r="P52" s="36"/>
     </row>
-    <row r="53" spans="2:16">
+    <row r="53" spans="1:17">
       <c r="K53" s="68"/>
       <c r="M53" s="62"/>
       <c r="O53" s="89"/>
       <c r="P53" s="36"/>
     </row>
-    <row r="54" spans="2:16">
+    <row r="54" spans="1:17">
       <c r="K54" s="68"/>
       <c r="M54" s="62"/>
       <c r="O54" s="89"/>
       <c r="P54" s="36"/>
     </row>
-    <row r="55" spans="2:16">
+    <row r="55" spans="1:17">
       <c r="K55" s="68"/>
       <c r="M55" s="62"/>
       <c r="O55" s="89"/>
       <c r="P55" s="36"/>
     </row>
-    <row r="56" spans="2:16">
+    <row r="56" spans="1:17">
       <c r="K56" s="68"/>
       <c r="M56" s="62"/>
       <c r="O56" s="89"/>
       <c r="P56" s="36"/>
     </row>
-    <row r="57" spans="2:16">
+    <row r="57" spans="1:17">
       <c r="K57" s="68"/>
       <c r="M57" s="62"/>
       <c r="O57" s="89"/>
       <c r="P57" s="36"/>
     </row>
-    <row r="58" spans="2:16">
+    <row r="58" spans="1:17">
       <c r="K58" s="68"/>
       <c r="M58" s="62"/>
       <c r="O58" s="89"/>
       <c r="P58" s="36"/>
     </row>
-    <row r="59" spans="2:16">
+    <row r="59" spans="1:17">
       <c r="K59" s="68"/>
       <c r="M59" s="62"/>
       <c r="O59" s="89"/>
       <c r="P59" s="36"/>
     </row>
-    <row r="60" spans="2:16">
+    <row r="60" spans="1:17">
       <c r="K60" s="68"/>
       <c r="M60" s="62"/>
       <c r="O60" s="89"/>
       <c r="P60" s="36"/>
     </row>
-    <row r="61" spans="2:16">
+    <row r="61" spans="1:17">
       <c r="K61" s="68"/>
       <c r="M61" s="62"/>
       <c r="O61" s="89"/>
       <c r="P61" s="36"/>
     </row>
-    <row r="63" spans="2:16">
-      <c r="B63" s="41"/>
-      <c r="C63" s="41"/>
-    </row>
-    <row r="64" spans="2:16">
-      <c r="B64" s="41"/>
-      <c r="C64" s="41"/>
+    <row r="62" spans="1:17">
+      <c r="K62" s="68"/>
+      <c r="M62" s="62"/>
+      <c r="O62" s="89"/>
+      <c r="P62" s="36"/>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="K63" s="68"/>
+      <c r="M63" s="62"/>
+      <c r="O63" s="89"/>
+      <c r="P63" s="36"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="K64" s="68"/>
+      <c r="M64" s="62"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="36"/>
+    </row>
+    <row r="65" spans="2:16">
+      <c r="K65" s="68"/>
+      <c r="M65" s="62"/>
+      <c r="O65" s="89"/>
+      <c r="P65" s="36"/>
+    </row>
+    <row r="66" spans="2:16">
+      <c r="K66" s="68"/>
+      <c r="M66" s="62"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="36"/>
+    </row>
+    <row r="67" spans="2:16">
+      <c r="K67" s="68"/>
+      <c r="M67" s="62"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="36"/>
+    </row>
+    <row r="68" spans="2:16">
+      <c r="K68" s="68"/>
+      <c r="M68" s="62"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="36"/>
+    </row>
+    <row r="70" spans="2:16">
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+    </row>
+    <row r="71" spans="2:16">
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:O43">
+  <autoFilter ref="A6:O50">
     <filterColumn colId="2"/>
   </autoFilter>
   <dataConsolidate/>
@@ -6847,7 +7239,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C35 C21:C29 C38:C42 C19 C12:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31:C35 C21:C29 C12:C16 C19 C38:C42 C45:C49">
       <formula1>Recursos</formula1>
     </dataValidation>
   </dataValidations>
@@ -6939,7 +7331,7 @@
         <v>216</v>
       </c>
       <c r="D5" s="117" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E5" s="119">
         <v>272</v>
@@ -6954,7 +7346,7 @@
         <v>216</v>
       </c>
       <c r="D6" s="117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E6" s="119">
         <v>272</v>
@@ -6969,7 +7361,7 @@
         <v>216</v>
       </c>
       <c r="D7" s="117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E7" s="119">
         <v>272</v>
@@ -6984,7 +7376,7 @@
         <v>216</v>
       </c>
       <c r="D8" s="117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E8" s="119">
         <v>272</v>
@@ -7137,7 +7529,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" s="143" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C15" s="141"/>
     </row>
@@ -7317,8 +7709,8 @@
   <sheetPr codeName="Plan3"/>
   <dimension ref="A1:H79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
